--- a/data/DATA_means.xlsx
+++ b/data/DATA_means.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cf-my.sharepoint.com/personal/loftyj_cardiff_ac_uk/Documents/PhD/Experiment 1.2/writing/publishing/sup_material/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameslofty/Documents/GitHub/saltation_microplastic/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92514BB1-2ADE-AB4E-AE8E-65A155B2B740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB34131-56DD-034D-915B-38D29B95D166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{E5557858-9316-1449-BD86-093EF3B67E76}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19280" xr2:uid="{E5557858-9316-1449-BD86-093EF3B67E76}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="55">
   <si>
     <t>PA</t>
   </si>
@@ -98,18 +98,6 @@
     <t>group</t>
   </si>
   <si>
-    <t>ks (mm)</t>
-  </si>
-  <si>
-    <t>d (mm)</t>
-  </si>
-  <si>
-    <t>w (m/s)</t>
-  </si>
-  <si>
-    <t>w_std (m/s)</t>
-  </si>
-  <si>
     <t>density (kg/m3)</t>
   </si>
   <si>
@@ -117,27 +105,6 @@
   </si>
   <si>
     <t>P (-)</t>
-  </si>
-  <si>
-    <t>Lp (-)</t>
-  </si>
-  <si>
-    <t>Lpsd(-)</t>
-  </si>
-  <si>
-    <t>Hp (-)</t>
-  </si>
-  <si>
-    <t>Hpsd (-)</t>
-  </si>
-  <si>
-    <t>Up (-)</t>
-  </si>
-  <si>
-    <t>Upsd (-)</t>
-  </si>
-  <si>
-    <t>hp_lp_std (-)</t>
   </si>
   <si>
     <t>salt_prob (%)</t>
@@ -203,13 +170,37 @@
     <t>e(-)</t>
   </si>
   <si>
-    <t>ez_std(-)</t>
+    <t>Lp/d (-)</t>
   </si>
   <si>
-    <t>ex_std(-)</t>
+    <t>Hp/d (-)</t>
   </si>
   <si>
-    <t>e_std(-)</t>
+    <t>Up/u* (-)</t>
+  </si>
+  <si>
+    <t>ks (m)</t>
+  </si>
+  <si>
+    <t>d (m)</t>
+  </si>
+  <si>
+    <t>W (m/s)</t>
+  </si>
+  <si>
+    <t>W_std (m/s)</t>
+  </si>
+  <si>
+    <t>Hp_Lp_std (-)</t>
+  </si>
+  <si>
+    <t>Lp/d std(-)</t>
+  </si>
+  <si>
+    <t>Hp/d std (-)</t>
+  </si>
+  <si>
+    <t>Up/u* std (-)</t>
   </si>
 </sst>
 </file>
@@ -217,9 +208,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -274,9 +265,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -592,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E62E3E9-428E-A345-ABEC-CA5046B24682}">
-  <dimension ref="A1:AO86"/>
+  <dimension ref="A1:AL86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="AA34" sqref="AA34"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -606,22 +597,21 @@
     <col min="13" max="14" width="12.1640625" customWidth="1"/>
     <col min="15" max="16" width="10.83203125" customWidth="1"/>
     <col min="17" max="17" width="13.83203125" customWidth="1"/>
-    <col min="18" max="23" width="10.83203125" customWidth="1"/>
+    <col min="18" max="18" width="12.83203125" customWidth="1"/>
+    <col min="19" max="23" width="10.83203125" customWidth="1"/>
     <col min="24" max="24" width="11.1640625" customWidth="1"/>
     <col min="25" max="25" width="12.1640625" customWidth="1"/>
-    <col min="26" max="26" width="11.5" customWidth="1"/>
-    <col min="27" max="27" width="12.6640625" customWidth="1"/>
+    <col min="26" max="26" width="11.1640625" customWidth="1"/>
+    <col min="27" max="27" width="12.1640625" customWidth="1"/>
     <col min="28" max="28" width="11.1640625" customWidth="1"/>
     <col min="29" max="29" width="12.1640625" customWidth="1"/>
-    <col min="30" max="30" width="11.1640625" customWidth="1"/>
-    <col min="31" max="31" width="12.1640625" customWidth="1"/>
-    <col min="32" max="38" width="10.83203125" customWidth="1"/>
-    <col min="39" max="39" width="13.33203125" customWidth="1"/>
-    <col min="40" max="40" width="10.83203125" customWidth="1"/>
-    <col min="41" max="41" width="13.1640625" customWidth="1"/>
+    <col min="30" max="31" width="10.83203125" customWidth="1"/>
+    <col min="32" max="32" width="11.5" customWidth="1"/>
+    <col min="33" max="33" width="12.6640625" customWidth="1"/>
+    <col min="34" max="38" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>18</v>
@@ -630,121 +620,112 @@
         <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>57</v>
-      </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -821,28 +802,28 @@
         <v>0.10340000000000001</v>
       </c>
       <c r="Z2" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>1.6811690000000001E-2</v>
+      </c>
+      <c r="AB2" s="4">
+        <v>4.0261070000000001E-3</v>
+      </c>
+      <c r="AC2" s="4">
+        <v>7.0908999999999998E-3</v>
+      </c>
+      <c r="AD2" s="4">
+        <v>1.7899607000000001E-2</v>
+      </c>
+      <c r="AE2" s="4">
+        <v>1.824593E-2</v>
+      </c>
+      <c r="AF2" s="4">
         <v>7.869478</v>
       </c>
-      <c r="AA2" s="4">
+      <c r="AG2" s="4">
         <v>19.253</v>
-      </c>
-      <c r="AB2" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="AC2" s="4">
-        <v>1.6811690000000001E-2</v>
-      </c>
-      <c r="AD2" s="4">
-        <v>4.0261070000000001E-3</v>
-      </c>
-      <c r="AE2" s="4">
-        <v>7.0908999999999998E-3</v>
-      </c>
-      <c r="AF2" s="4">
-        <v>1.7899607000000001E-2</v>
-      </c>
-      <c r="AG2" s="4">
-        <v>1.824593E-2</v>
       </c>
       <c r="AH2" s="4">
         <v>4.88</v>
@@ -859,17 +840,8 @@
       <c r="AL2" s="4">
         <v>0.77096849999999995</v>
       </c>
-      <c r="AM2" s="4">
-        <v>0.96392109999999998</v>
-      </c>
-      <c r="AN2" s="4">
-        <v>1.7612300999999999</v>
-      </c>
-      <c r="AO2" s="4">
-        <v>1.0193478</v>
-      </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -946,28 +918,28 @@
         <v>0.11745999999999999</v>
       </c>
       <c r="Z3" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>1.711064E-2</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>5.4796460000000003E-3</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>1.0196492999999999E-2</v>
+      </c>
+      <c r="AD3" s="4">
+        <v>2.161923E-2</v>
+      </c>
+      <c r="AE3" s="4">
+        <v>1.9918390000000001E-2</v>
+      </c>
+      <c r="AF3" s="4">
         <v>7.3230630000000003</v>
       </c>
-      <c r="AA3" s="4">
+      <c r="AG3" s="4">
         <v>19.659569999999999</v>
-      </c>
-      <c r="AB3" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="AC3" s="4">
-        <v>1.711064E-2</v>
-      </c>
-      <c r="AD3" s="4">
-        <v>5.4796460000000003E-3</v>
-      </c>
-      <c r="AE3" s="4">
-        <v>1.0196492999999999E-2</v>
-      </c>
-      <c r="AF3" s="4">
-        <v>2.161923E-2</v>
-      </c>
-      <c r="AG3" s="4">
-        <v>1.9918390000000001E-2</v>
       </c>
       <c r="AH3" s="4">
         <v>4.67</v>
@@ -984,17 +956,8 @@
       <c r="AL3" s="4">
         <v>0.772787</v>
       </c>
-      <c r="AM3" s="4">
-        <v>0.81817169999999995</v>
-      </c>
-      <c r="AN3" s="4">
-        <v>1.8607939</v>
-      </c>
-      <c r="AO3" s="4">
-        <v>0.92132769999999997</v>
-      </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1071,28 +1034,28 @@
         <v>0.13205</v>
       </c>
       <c r="Z4" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>2.3190410000000002E-2</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>4.8737399999999997E-3</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>1.1062562999999999E-2</v>
+      </c>
+      <c r="AD4" s="4">
+        <v>2.1982483000000001E-2</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>2.5693879999999999E-2</v>
+      </c>
+      <c r="AF4" s="4">
         <v>7.6713849999999999</v>
       </c>
-      <c r="AA4" s="4">
+      <c r="AG4" s="4">
         <v>16.387889999999999</v>
-      </c>
-      <c r="AB4" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="AC4" s="4">
-        <v>2.3190410000000002E-2</v>
-      </c>
-      <c r="AD4" s="4">
-        <v>4.8737399999999997E-3</v>
-      </c>
-      <c r="AE4" s="4">
-        <v>1.1062562999999999E-2</v>
-      </c>
-      <c r="AF4" s="4">
-        <v>2.1982483000000001E-2</v>
-      </c>
-      <c r="AG4" s="4">
-        <v>2.5693879999999999E-2</v>
       </c>
       <c r="AH4" s="4">
         <v>4.74</v>
@@ -1109,17 +1072,8 @@
       <c r="AL4" s="4">
         <v>0.78333560000000002</v>
       </c>
-      <c r="AM4" s="4">
-        <v>1.0818745000000001</v>
-      </c>
-      <c r="AN4" s="4">
-        <v>2.2698304999999999</v>
-      </c>
-      <c r="AO4" s="4">
-        <v>1.1688342</v>
-      </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1196,28 +1150,28 @@
         <v>0.15836</v>
       </c>
       <c r="Z5" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>2.0071269999999999E-2</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>9.3873519999999998E-3</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>1.1507333E-2</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>2.4030872000000002E-2</v>
+      </c>
+      <c r="AE5" s="4">
+        <v>2.3136E-2</v>
+      </c>
+      <c r="AF5" s="4">
         <v>7.6800889999999997</v>
       </c>
-      <c r="AA5" s="4">
+      <c r="AG5" s="4">
         <v>14.07343</v>
-      </c>
-      <c r="AB5" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="AC5" s="4">
-        <v>2.0071269999999999E-2</v>
-      </c>
-      <c r="AD5" s="4">
-        <v>9.3873519999999998E-3</v>
-      </c>
-      <c r="AE5" s="4">
-        <v>1.1507333E-2</v>
-      </c>
-      <c r="AF5" s="4">
-        <v>2.4030872000000002E-2</v>
-      </c>
-      <c r="AG5" s="4">
-        <v>2.3136E-2</v>
       </c>
       <c r="AH5" s="4">
         <v>3.4</v>
@@ -1234,17 +1188,8 @@
       <c r="AL5" s="4">
         <v>0.78731910000000005</v>
       </c>
-      <c r="AM5" s="4">
-        <v>0.90732000000000002</v>
-      </c>
-      <c r="AN5" s="4">
-        <v>1.2258338</v>
-      </c>
-      <c r="AO5" s="4">
-        <v>0.9627618</v>
-      </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1321,28 +1266,28 @@
         <v>0.15229999999999999</v>
       </c>
       <c r="Z6" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>2.7196379999999999E-2</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>8.1980649999999992E-3</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>1.3129778E-2</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>3.5102662999999999E-2</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>3.0199899999999998E-2</v>
+      </c>
+      <c r="AF6" s="4">
         <v>7.1196190000000001</v>
       </c>
-      <c r="AA6" s="4">
+      <c r="AG6" s="4">
         <v>15.49422</v>
-      </c>
-      <c r="AB6" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="AC6" s="4">
-        <v>2.7196379999999999E-2</v>
-      </c>
-      <c r="AD6" s="4">
-        <v>8.1980649999999992E-3</v>
-      </c>
-      <c r="AE6" s="4">
-        <v>1.3129778E-2</v>
-      </c>
-      <c r="AF6" s="4">
-        <v>3.5102662999999999E-2</v>
-      </c>
-      <c r="AG6" s="4">
-        <v>3.0199899999999998E-2</v>
       </c>
       <c r="AH6" s="4">
         <v>4.0599999999999996</v>
@@ -1359,17 +1304,8 @@
       <c r="AL6" s="4">
         <v>0.81894270000000002</v>
       </c>
-      <c r="AM6" s="4">
-        <v>0.7968016</v>
-      </c>
-      <c r="AN6" s="4">
-        <v>1.6015703999999999</v>
-      </c>
-      <c r="AO6" s="4">
-        <v>0.86033079999999995</v>
-      </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1446,28 +1382,28 @@
         <v>0.16</v>
       </c>
       <c r="Z7" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>3.4215469999999998E-2</v>
+      </c>
+      <c r="AB7" s="4">
+        <v>7.6537580000000001E-3</v>
+      </c>
+      <c r="AC7" s="4">
+        <v>1.7909643999999999E-2</v>
+      </c>
+      <c r="AD7" s="4">
+        <v>3.8899257E-2</v>
+      </c>
+      <c r="AE7" s="4">
+        <v>3.8619340000000002E-2</v>
+      </c>
+      <c r="AF7" s="4">
         <v>6.8648860000000003</v>
       </c>
-      <c r="AA7" s="4">
+      <c r="AG7" s="4">
         <v>15.760820000000001</v>
-      </c>
-      <c r="AB7" s="4">
-        <v>0.04</v>
-      </c>
-      <c r="AC7" s="4">
-        <v>3.4215469999999998E-2</v>
-      </c>
-      <c r="AD7" s="4">
-        <v>7.6537580000000001E-3</v>
-      </c>
-      <c r="AE7" s="4">
-        <v>1.7909643999999999E-2</v>
-      </c>
-      <c r="AF7" s="4">
-        <v>3.8899257E-2</v>
-      </c>
-      <c r="AG7" s="4">
-        <v>3.8619340000000002E-2</v>
       </c>
       <c r="AH7" s="4">
         <v>4.12</v>
@@ -1484,17 +1420,8 @@
       <c r="AL7" s="4">
         <v>0.80649800000000005</v>
       </c>
-      <c r="AM7" s="4">
-        <v>0.89712899999999995</v>
-      </c>
-      <c r="AN7" s="4">
-        <v>2.3399804</v>
-      </c>
-      <c r="AO7" s="4">
-        <v>0.99280420000000003</v>
-      </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1571,28 +1498,28 @@
         <v>9.1619999999999993E-2</v>
       </c>
       <c r="Z8" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>1.270194E-2</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>4.729474E-3</v>
+      </c>
+      <c r="AC8" s="4">
+        <v>8.6738979999999993E-3</v>
+      </c>
+      <c r="AD8" s="4">
+        <v>9.9590809999999998E-3</v>
+      </c>
+      <c r="AE8" s="4">
+        <v>1.538102E-2</v>
+      </c>
+      <c r="AF8" s="4">
         <v>11.529317000000001</v>
       </c>
-      <c r="AA8" s="4">
+      <c r="AG8" s="4">
         <v>25.409420000000001</v>
-      </c>
-      <c r="AB8" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="AC8" s="4">
-        <v>1.270194E-2</v>
-      </c>
-      <c r="AD8" s="4">
-        <v>4.729474E-3</v>
-      </c>
-      <c r="AE8" s="4">
-        <v>8.6738979999999993E-3</v>
-      </c>
-      <c r="AF8" s="4">
-        <v>9.9590809999999998E-3</v>
-      </c>
-      <c r="AG8" s="4">
-        <v>1.538102E-2</v>
       </c>
       <c r="AH8" s="4">
         <v>8.3699999999999992</v>
@@ -1609,17 +1536,8 @@
       <c r="AL8" s="4">
         <v>0.7639357</v>
       </c>
-      <c r="AM8" s="4">
-        <v>1.4492589</v>
-      </c>
-      <c r="AN8" s="4">
-        <v>1.834009</v>
-      </c>
-      <c r="AO8" s="4">
-        <v>1.5444216</v>
-      </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1696,28 +1614,28 @@
         <v>0.1074</v>
       </c>
       <c r="Z9" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>1.6880300000000001E-2</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>5.8389039999999998E-3</v>
+      </c>
+      <c r="AC9" s="4">
+        <v>9.7904700000000008E-3</v>
+      </c>
+      <c r="AD9" s="4">
+        <v>1.4009338E-2</v>
+      </c>
+      <c r="AE9" s="4">
+        <v>1.951404E-2</v>
+      </c>
+      <c r="AF9" s="4">
         <v>10.401702</v>
       </c>
-      <c r="AA9" s="4">
+      <c r="AG9" s="4">
         <v>23.938780000000001</v>
-      </c>
-      <c r="AB9" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="AC9" s="4">
-        <v>1.6880300000000001E-2</v>
-      </c>
-      <c r="AD9" s="4">
-        <v>5.8389039999999998E-3</v>
-      </c>
-      <c r="AE9" s="4">
-        <v>9.7904700000000008E-3</v>
-      </c>
-      <c r="AF9" s="4">
-        <v>1.4009338E-2</v>
-      </c>
-      <c r="AG9" s="4">
-        <v>1.951404E-2</v>
       </c>
       <c r="AH9" s="4">
         <v>6.51</v>
@@ -1734,17 +1652,8 @@
       <c r="AL9" s="4">
         <v>0.77425650000000001</v>
       </c>
-      <c r="AM9" s="4">
-        <v>1.3255512</v>
-      </c>
-      <c r="AN9" s="4">
-        <v>1.6767652</v>
-      </c>
-      <c r="AO9" s="4">
-        <v>1.3929309000000001</v>
-      </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1821,28 +1730,28 @@
         <v>0.12509999999999999</v>
       </c>
       <c r="Z10" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>1.510822E-2</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>5.5824769999999998E-3</v>
+      </c>
+      <c r="AC10" s="4">
+        <v>9.8506010000000005E-3</v>
+      </c>
+      <c r="AD10" s="4">
+        <v>1.9918689E-2</v>
+      </c>
+      <c r="AE10" s="4">
+        <v>1.8035869999999999E-2</v>
+      </c>
+      <c r="AF10" s="4">
         <v>9.7702670000000005</v>
       </c>
-      <c r="AA10" s="4">
+      <c r="AG10" s="4">
         <v>20.399979999999999</v>
-      </c>
-      <c r="AB10" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="AC10" s="4">
-        <v>1.510822E-2</v>
-      </c>
-      <c r="AD10" s="4">
-        <v>5.5824769999999998E-3</v>
-      </c>
-      <c r="AE10" s="4">
-        <v>9.8506010000000005E-3</v>
-      </c>
-      <c r="AF10" s="4">
-        <v>1.9918689E-2</v>
-      </c>
-      <c r="AG10" s="4">
-        <v>1.8035869999999999E-2</v>
       </c>
       <c r="AH10" s="4">
         <v>6.5</v>
@@ -1859,17 +1768,8 @@
       <c r="AL10" s="4">
         <v>0.80544649999999995</v>
       </c>
-      <c r="AM10" s="4">
-        <v>0.79016189999999997</v>
-      </c>
-      <c r="AN10" s="4">
-        <v>1.7645572</v>
-      </c>
-      <c r="AO10" s="4">
-        <v>0.90547480000000002</v>
-      </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1946,28 +1846,28 @@
         <v>0.13178999999999999</v>
       </c>
       <c r="Z11" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="AA11" s="4">
+        <v>2.4948350000000001E-2</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>8.0448429999999994E-3</v>
+      </c>
+      <c r="AC11" s="4">
+        <v>9.3534780000000001E-3</v>
+      </c>
+      <c r="AD11" s="4">
+        <v>2.7427690000000001E-2</v>
+      </c>
+      <c r="AE11" s="4">
+        <v>2.6644089999999999E-2</v>
+      </c>
+      <c r="AF11" s="4">
         <v>10.055505999999999</v>
       </c>
-      <c r="AA11" s="4">
+      <c r="AG11" s="4">
         <v>21.316210000000002</v>
-      </c>
-      <c r="AB11" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="AC11" s="4">
-        <v>2.4948350000000001E-2</v>
-      </c>
-      <c r="AD11" s="4">
-        <v>8.0448429999999994E-3</v>
-      </c>
-      <c r="AE11" s="4">
-        <v>9.3534780000000001E-3</v>
-      </c>
-      <c r="AF11" s="4">
-        <v>2.7427690000000001E-2</v>
-      </c>
-      <c r="AG11" s="4">
-        <v>2.6644089999999999E-2</v>
       </c>
       <c r="AH11" s="4">
         <v>6.37</v>
@@ -1984,17 +1884,8 @@
       <c r="AL11" s="4">
         <v>0.79449199999999998</v>
       </c>
-      <c r="AM11" s="4">
-        <v>0.95145219999999997</v>
-      </c>
-      <c r="AN11" s="4">
-        <v>1.1626676</v>
-      </c>
-      <c r="AO11" s="4">
-        <v>0.97143049999999997</v>
-      </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2071,28 +1962,28 @@
         <v>0.15151999999999999</v>
       </c>
       <c r="Z12" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>1.442746E-2</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>8.5902500000000007E-3</v>
+      </c>
+      <c r="AC12" s="4">
+        <v>1.4517534E-2</v>
+      </c>
+      <c r="AD12" s="4">
+        <v>2.3297111999999998E-2</v>
+      </c>
+      <c r="AE12" s="4">
+        <v>2.0467300000000001E-2</v>
+      </c>
+      <c r="AF12" s="4">
         <v>10.883044999999999</v>
       </c>
-      <c r="AA12" s="4">
+      <c r="AG12" s="4">
         <v>20.893910000000002</v>
-      </c>
-      <c r="AB12" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="AC12" s="4">
-        <v>1.442746E-2</v>
-      </c>
-      <c r="AD12" s="4">
-        <v>8.5902500000000007E-3</v>
-      </c>
-      <c r="AE12" s="4">
-        <v>1.4517534E-2</v>
-      </c>
-      <c r="AF12" s="4">
-        <v>2.3297111999999998E-2</v>
-      </c>
-      <c r="AG12" s="4">
-        <v>2.0467300000000001E-2</v>
       </c>
       <c r="AH12" s="4">
         <v>6.27</v>
@@ -2109,17 +2000,8 @@
       <c r="AL12" s="4">
         <v>0.77775380000000005</v>
       </c>
-      <c r="AM12" s="4">
-        <v>0.66622459999999994</v>
-      </c>
-      <c r="AN12" s="4">
-        <v>1.6900013</v>
-      </c>
-      <c r="AO12" s="4">
-        <v>0.87853389999999998</v>
-      </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2196,28 +2078,28 @@
         <v>0.15631</v>
       </c>
       <c r="Z13" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>2.2133400000000001E-2</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>9.3028529999999998E-3</v>
+      </c>
+      <c r="AC13" s="4">
+        <v>1.4849087E-2</v>
+      </c>
+      <c r="AD13" s="4">
+        <v>2.8076157000000001E-2</v>
+      </c>
+      <c r="AE13" s="4">
+        <v>2.6653E-2</v>
+      </c>
+      <c r="AF13" s="4">
         <v>10.05926</v>
       </c>
-      <c r="AA13" s="4">
+      <c r="AG13" s="4">
         <v>19.044419999999999</v>
-      </c>
-      <c r="AB13" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="AC13" s="4">
-        <v>2.2133400000000001E-2</v>
-      </c>
-      <c r="AD13" s="4">
-        <v>9.3028529999999998E-3</v>
-      </c>
-      <c r="AE13" s="4">
-        <v>1.4849087E-2</v>
-      </c>
-      <c r="AF13" s="4">
-        <v>2.8076157000000001E-2</v>
-      </c>
-      <c r="AG13" s="4">
-        <v>2.6653E-2</v>
       </c>
       <c r="AH13" s="4">
         <v>5.96</v>
@@ -2234,17 +2116,8 @@
       <c r="AL13" s="4">
         <v>0.78138300000000005</v>
       </c>
-      <c r="AM13" s="4">
-        <v>0.83553330000000003</v>
-      </c>
-      <c r="AN13" s="4">
-        <v>1.5961863000000001</v>
-      </c>
-      <c r="AO13" s="4">
-        <v>0.94931089999999996</v>
-      </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2321,28 +2194,28 @@
         <v>9.2609999999999998E-2</v>
       </c>
       <c r="Z14" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>1.197583E-2</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>6.4516499999999997E-3</v>
+      </c>
+      <c r="AC14" s="4">
+        <v>6.2595109999999997E-3</v>
+      </c>
+      <c r="AD14" s="4">
+        <v>1.2849497E-2</v>
+      </c>
+      <c r="AE14" s="4">
+        <v>1.3513030000000001E-2</v>
+      </c>
+      <c r="AF14" s="4">
         <v>12.966476</v>
       </c>
-      <c r="AA14" s="4">
+      <c r="AG14" s="4">
         <v>22.342780000000001</v>
-      </c>
-      <c r="AB14" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="AC14" s="4">
-        <v>1.197583E-2</v>
-      </c>
-      <c r="AD14" s="4">
-        <v>6.4516499999999997E-3</v>
-      </c>
-      <c r="AE14" s="4">
-        <v>6.2595109999999997E-3</v>
-      </c>
-      <c r="AF14" s="4">
-        <v>1.2849497E-2</v>
-      </c>
-      <c r="AG14" s="4">
-        <v>1.3513030000000001E-2</v>
       </c>
       <c r="AH14" s="4">
         <v>7.13</v>
@@ -2359,17 +2232,8 @@
       <c r="AL14" s="4">
         <v>0.76187000000000005</v>
       </c>
-      <c r="AM14" s="4">
-        <v>1.0776981000000001</v>
-      </c>
-      <c r="AN14" s="4">
-        <v>0.97021869999999999</v>
-      </c>
-      <c r="AO14" s="4">
-        <v>1.0516388000000001</v>
-      </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2446,28 +2310,28 @@
         <v>0.10549</v>
       </c>
       <c r="Z15" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="AA15" s="4">
+        <v>1.7105860000000001E-2</v>
+      </c>
+      <c r="AB15" s="4">
+        <v>6.2397390000000002E-3</v>
+      </c>
+      <c r="AC15" s="4">
+        <v>7.0116429999999997E-3</v>
+      </c>
+      <c r="AD15" s="4">
+        <v>2.0428571999999999E-2</v>
+      </c>
+      <c r="AE15" s="4">
+        <v>1.8487119999999999E-2</v>
+      </c>
+      <c r="AF15" s="4">
         <v>11.217104000000001</v>
       </c>
-      <c r="AA15" s="4">
+      <c r="AG15" s="4">
         <v>22.905550000000002</v>
-      </c>
-      <c r="AB15" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="AC15" s="4">
-        <v>1.7105860000000001E-2</v>
-      </c>
-      <c r="AD15" s="4">
-        <v>6.2397390000000002E-3</v>
-      </c>
-      <c r="AE15" s="4">
-        <v>7.0116429999999997E-3</v>
-      </c>
-      <c r="AF15" s="4">
-        <v>2.0428571999999999E-2</v>
-      </c>
-      <c r="AG15" s="4">
-        <v>1.8487119999999999E-2</v>
       </c>
       <c r="AH15" s="4">
         <v>7.05</v>
@@ -2484,17 +2348,8 @@
       <c r="AL15" s="4">
         <v>0.77221550000000005</v>
       </c>
-      <c r="AM15" s="4">
-        <v>0.87937460000000001</v>
-      </c>
-      <c r="AN15" s="4">
-        <v>1.1237078</v>
-      </c>
-      <c r="AO15" s="4">
-        <v>0.90496410000000005</v>
-      </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2571,28 +2426,28 @@
         <v>0.12592</v>
       </c>
       <c r="Z16" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="AA16" s="4">
+        <v>1.9455719999999999E-2</v>
+      </c>
+      <c r="AB16" s="4">
+        <v>8.0705199999999994E-3</v>
+      </c>
+      <c r="AC16" s="4">
+        <v>1.3410122999999999E-2</v>
+      </c>
+      <c r="AD16" s="4">
+        <v>2.363059E-2</v>
+      </c>
+      <c r="AE16" s="4">
+        <v>2.3629569999999999E-2</v>
+      </c>
+      <c r="AF16" s="4">
         <v>10.97415</v>
       </c>
-      <c r="AA16" s="4">
+      <c r="AG16" s="4">
         <v>21.94753</v>
-      </c>
-      <c r="AB16" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="AC16" s="4">
-        <v>1.9455719999999999E-2</v>
-      </c>
-      <c r="AD16" s="4">
-        <v>8.0705199999999994E-3</v>
-      </c>
-      <c r="AE16" s="4">
-        <v>1.3410122999999999E-2</v>
-      </c>
-      <c r="AF16" s="4">
-        <v>2.363059E-2</v>
-      </c>
-      <c r="AG16" s="4">
-        <v>2.3629569999999999E-2</v>
       </c>
       <c r="AH16" s="4">
         <v>5.99</v>
@@ -2609,17 +2464,8 @@
       <c r="AL16" s="4">
         <v>0.77033600000000002</v>
       </c>
-      <c r="AM16" s="4">
-        <v>0.87600029999999995</v>
-      </c>
-      <c r="AN16" s="4">
-        <v>1.6616181999999999</v>
-      </c>
-      <c r="AO16" s="4">
-        <v>0.99995670000000003</v>
-      </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2696,28 +2542,28 @@
         <v>0.14362</v>
       </c>
       <c r="Z17" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="AA17" s="4">
+        <v>2.4039129999999999E-2</v>
+      </c>
+      <c r="AB17" s="4">
+        <v>7.2156149999999999E-3</v>
+      </c>
+      <c r="AC17" s="4">
+        <v>1.1876579E-2</v>
+      </c>
+      <c r="AD17" s="4">
+        <v>2.7268011000000002E-2</v>
+      </c>
+      <c r="AE17" s="4">
+        <v>2.6812929999999999E-2</v>
+      </c>
+      <c r="AF17" s="4">
         <v>10.804721000000001</v>
       </c>
-      <c r="AA17" s="4">
+      <c r="AG17" s="4">
         <v>20.453510000000001</v>
-      </c>
-      <c r="AB17" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="AC17" s="4">
-        <v>2.4039129999999999E-2</v>
-      </c>
-      <c r="AD17" s="4">
-        <v>7.2156149999999999E-3</v>
-      </c>
-      <c r="AE17" s="4">
-        <v>1.1876579E-2</v>
-      </c>
-      <c r="AF17" s="4">
-        <v>2.7268011000000002E-2</v>
-      </c>
-      <c r="AG17" s="4">
-        <v>2.6812929999999999E-2</v>
       </c>
       <c r="AH17" s="4">
         <v>6.1</v>
@@ -2734,17 +2580,8 @@
       <c r="AL17" s="4">
         <v>0.79892660000000004</v>
       </c>
-      <c r="AM17" s="4">
-        <v>0.91417470000000001</v>
-      </c>
-      <c r="AN17" s="4">
-        <v>1.6459552</v>
-      </c>
-      <c r="AO17" s="4">
-        <v>0.98331069999999998</v>
-      </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2821,28 +2658,28 @@
         <v>0.15606999999999999</v>
       </c>
       <c r="Z18" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="AA18" s="4">
+        <v>2.119739E-2</v>
+      </c>
+      <c r="AB18" s="4">
+        <v>7.9246300000000002E-3</v>
+      </c>
+      <c r="AC18" s="4">
+        <v>1.0025387E-2</v>
+      </c>
+      <c r="AD18" s="4">
+        <v>2.9821295000000001E-2</v>
+      </c>
+      <c r="AE18" s="4">
+        <v>2.3448610000000002E-2</v>
+      </c>
+      <c r="AF18" s="4">
         <v>10.257403</v>
       </c>
-      <c r="AA18" s="4">
+      <c r="AG18" s="4">
         <v>21.426480000000002</v>
-      </c>
-      <c r="AB18" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="AC18" s="4">
-        <v>2.119739E-2</v>
-      </c>
-      <c r="AD18" s="4">
-        <v>7.9246300000000002E-3</v>
-      </c>
-      <c r="AE18" s="4">
-        <v>1.0025387E-2</v>
-      </c>
-      <c r="AF18" s="4">
-        <v>2.9821295000000001E-2</v>
-      </c>
-      <c r="AG18" s="4">
-        <v>2.3448610000000002E-2</v>
       </c>
       <c r="AH18" s="4">
         <v>6.07</v>
@@ -2859,17 +2696,8 @@
       <c r="AL18" s="4">
         <v>0.77983559999999996</v>
       </c>
-      <c r="AM18" s="4">
-        <v>0.73732379999999997</v>
-      </c>
-      <c r="AN18" s="4">
-        <v>1.2650922</v>
-      </c>
-      <c r="AO18" s="4">
-        <v>0.78630440000000001</v>
-      </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2946,28 +2774,28 @@
         <v>0.16064999999999999</v>
       </c>
       <c r="Z19" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="AA19" s="4">
+        <v>2.7410130000000001E-2</v>
+      </c>
+      <c r="AB19" s="4">
+        <v>8.2217720000000005E-3</v>
+      </c>
+      <c r="AC19" s="4">
+        <v>1.0596157E-2</v>
+      </c>
+      <c r="AD19" s="4">
+        <v>3.4379192000000003E-2</v>
+      </c>
+      <c r="AE19" s="4">
+        <v>2.9386969999999998E-2</v>
+      </c>
+      <c r="AF19" s="4">
         <v>10.291520999999999</v>
       </c>
-      <c r="AA19" s="4">
+      <c r="AG19" s="4">
         <v>21.329170000000001</v>
-      </c>
-      <c r="AB19" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="AC19" s="4">
-        <v>2.7410130000000001E-2</v>
-      </c>
-      <c r="AD19" s="4">
-        <v>8.2217720000000005E-3</v>
-      </c>
-      <c r="AE19" s="4">
-        <v>1.0596157E-2</v>
-      </c>
-      <c r="AF19" s="4">
-        <v>3.4379192000000003E-2</v>
-      </c>
-      <c r="AG19" s="4">
-        <v>2.9386969999999998E-2</v>
       </c>
       <c r="AH19" s="4">
         <v>5.92</v>
@@ -2984,17 +2812,8 @@
       <c r="AL19" s="4">
         <v>0.80431779999999997</v>
       </c>
-      <c r="AM19" s="4">
-        <v>0.82111489999999998</v>
-      </c>
-      <c r="AN19" s="4">
-        <v>1.2887923999999999</v>
-      </c>
-      <c r="AO19" s="4">
-        <v>0.85478929999999997</v>
-      </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3071,28 +2890,28 @@
         <v>8.6220000000000005E-2</v>
       </c>
       <c r="Z20" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="AA20" s="4">
+        <v>1.2470500000000001E-2</v>
+      </c>
+      <c r="AB20" s="4">
+        <v>3.9753549999999999E-3</v>
+      </c>
+      <c r="AC20" s="4">
+        <v>5.2436339999999996E-3</v>
+      </c>
+      <c r="AD20" s="4">
+        <v>1.4842516E-2</v>
+      </c>
+      <c r="AE20" s="4">
+        <v>1.352809E-2</v>
+      </c>
+      <c r="AF20" s="4">
         <v>7.2722340000000001</v>
       </c>
-      <c r="AA20" s="4">
+      <c r="AG20" s="4">
         <v>15.41765</v>
-      </c>
-      <c r="AB20" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="AC20" s="4">
-        <v>1.2470500000000001E-2</v>
-      </c>
-      <c r="AD20" s="4">
-        <v>3.9753549999999999E-3</v>
-      </c>
-      <c r="AE20" s="4">
-        <v>5.2436339999999996E-3</v>
-      </c>
-      <c r="AF20" s="4">
-        <v>1.4842516E-2</v>
-      </c>
-      <c r="AG20" s="4">
-        <v>1.352809E-2</v>
       </c>
       <c r="AH20" s="4">
         <v>4.8600000000000003</v>
@@ -3109,17 +2928,8 @@
       <c r="AL20" s="4">
         <v>0.73201910000000003</v>
       </c>
-      <c r="AM20" s="4">
-        <v>0.87204870000000001</v>
-      </c>
-      <c r="AN20" s="4">
-        <v>1.3190355</v>
-      </c>
-      <c r="AO20" s="4">
-        <v>0.91144179999999997</v>
-      </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3196,28 +3006,28 @@
         <v>0.10518</v>
       </c>
       <c r="Z21" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="AA21" s="4">
+        <v>1.4132230000000001E-2</v>
+      </c>
+      <c r="AB21" s="4">
+        <v>3.899801E-3</v>
+      </c>
+      <c r="AC21" s="4">
+        <v>6.5729320000000001E-3</v>
+      </c>
+      <c r="AD21" s="4">
+        <v>1.8519773E-2</v>
+      </c>
+      <c r="AE21" s="4">
+        <v>1.5585999999999999E-2</v>
+      </c>
+      <c r="AF21" s="4">
         <v>6.1657529999999996</v>
       </c>
-      <c r="AA21" s="4">
+      <c r="AG21" s="4">
         <v>16.298310000000001</v>
-      </c>
-      <c r="AB21" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="AC21" s="4">
-        <v>1.4132230000000001E-2</v>
-      </c>
-      <c r="AD21" s="4">
-        <v>3.899801E-3</v>
-      </c>
-      <c r="AE21" s="4">
-        <v>6.5729320000000001E-3</v>
-      </c>
-      <c r="AF21" s="4">
-        <v>1.8519773E-2</v>
-      </c>
-      <c r="AG21" s="4">
-        <v>1.5585999999999999E-2</v>
       </c>
       <c r="AH21" s="4">
         <v>3.69</v>
@@ -3234,17 +3044,8 @@
       <c r="AL21" s="4">
         <v>0.74548570000000003</v>
       </c>
-      <c r="AM21" s="4">
-        <v>0.78059160000000005</v>
-      </c>
-      <c r="AN21" s="4">
-        <v>1.6854530000000001</v>
-      </c>
-      <c r="AO21" s="4">
-        <v>0.84158710000000003</v>
-      </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3321,28 +3122,28 @@
         <v>0.12714</v>
       </c>
       <c r="Z22" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="AA22" s="4">
+        <v>2.2890440000000001E-2</v>
+      </c>
+      <c r="AB22" s="4">
+        <v>4.5516699999999998E-3</v>
+      </c>
+      <c r="AC22" s="4">
+        <v>9.4606180000000005E-3</v>
+      </c>
+      <c r="AD22" s="4">
+        <v>2.7634556000000001E-2</v>
+      </c>
+      <c r="AE22" s="4">
+        <v>2.4768430000000001E-2</v>
+      </c>
+      <c r="AF22" s="4">
         <v>6.1912039999999999</v>
       </c>
-      <c r="AA22" s="4">
+      <c r="AG22" s="4">
         <v>14.4854</v>
-      </c>
-      <c r="AB22" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="AC22" s="4">
-        <v>2.2890440000000001E-2</v>
-      </c>
-      <c r="AD22" s="4">
-        <v>4.5516699999999998E-3</v>
-      </c>
-      <c r="AE22" s="4">
-        <v>9.4606180000000005E-3</v>
-      </c>
-      <c r="AF22" s="4">
-        <v>2.7634556000000001E-2</v>
-      </c>
-      <c r="AG22" s="4">
-        <v>2.4768430000000001E-2</v>
       </c>
       <c r="AH22" s="4">
         <v>4.07</v>
@@ -3359,17 +3160,8 @@
       <c r="AL22" s="4">
         <v>0.77437849999999997</v>
       </c>
-      <c r="AM22" s="4">
-        <v>0.83979630000000005</v>
-      </c>
-      <c r="AN22" s="4">
-        <v>2.0784940000000001</v>
-      </c>
-      <c r="AO22" s="4">
-        <v>0.89628479999999999</v>
-      </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3446,28 +3238,28 @@
         <v>0.13070999999999999</v>
       </c>
       <c r="Z23" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="AA23" s="4">
+        <v>2.7654560000000002E-2</v>
+      </c>
+      <c r="AB23" s="4">
+        <v>5.9382180000000003E-3</v>
+      </c>
+      <c r="AC23" s="4">
+        <v>1.282409E-2</v>
+      </c>
+      <c r="AD23" s="4">
+        <v>2.6862625000000001E-2</v>
+      </c>
+      <c r="AE23" s="4">
+        <v>3.048331E-2</v>
+      </c>
+      <c r="AF23" s="4">
         <v>4.9204249999999998</v>
       </c>
-      <c r="AA23" s="4">
+      <c r="AG23" s="4">
         <v>17.057639999999999</v>
-      </c>
-      <c r="AB23" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="AC23" s="4">
-        <v>2.7654560000000002E-2</v>
-      </c>
-      <c r="AD23" s="4">
-        <v>5.9382180000000003E-3</v>
-      </c>
-      <c r="AE23" s="4">
-        <v>1.282409E-2</v>
-      </c>
-      <c r="AF23" s="4">
-        <v>2.6862625000000001E-2</v>
-      </c>
-      <c r="AG23" s="4">
-        <v>3.048331E-2</v>
       </c>
       <c r="AH23" s="4">
         <v>3.2</v>
@@ -3484,17 +3276,8 @@
       <c r="AL23" s="4">
         <v>0.76074730000000002</v>
       </c>
-      <c r="AM23" s="4">
-        <v>1.055596</v>
-      </c>
-      <c r="AN23" s="4">
-        <v>2.1595854999999999</v>
-      </c>
-      <c r="AO23" s="4">
-        <v>1.1347853000000001</v>
-      </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3571,28 +3354,28 @@
         <v>0.15878999999999999</v>
       </c>
       <c r="Z24" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="AA24" s="4">
+        <v>3.0112090000000001E-2</v>
+      </c>
+      <c r="AB24" s="4">
+        <v>5.7670109999999998E-3</v>
+      </c>
+      <c r="AC24" s="4">
+        <v>9.3796939999999992E-3</v>
+      </c>
+      <c r="AD24" s="4">
+        <v>3.0171499000000001E-2</v>
+      </c>
+      <c r="AE24" s="4">
+        <v>3.1539129999999999E-2</v>
+      </c>
+      <c r="AF24" s="4">
         <v>5.2559480000000001</v>
       </c>
-      <c r="AA24" s="4">
+      <c r="AG24" s="4">
         <v>12.68942</v>
-      </c>
-      <c r="AB24" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="AC24" s="4">
-        <v>3.0112090000000001E-2</v>
-      </c>
-      <c r="AD24" s="4">
-        <v>5.7670109999999998E-3</v>
-      </c>
-      <c r="AE24" s="4">
-        <v>9.3796939999999992E-3</v>
-      </c>
-      <c r="AF24" s="4">
-        <v>3.0171499000000001E-2</v>
-      </c>
-      <c r="AG24" s="4">
-        <v>3.1539129999999999E-2</v>
       </c>
       <c r="AH24" s="4">
         <v>3.29</v>
@@ -3609,17 +3392,8 @@
       <c r="AL24" s="4">
         <v>0.81296520000000005</v>
       </c>
-      <c r="AM24" s="4">
-        <v>1.0167778000000001</v>
-      </c>
-      <c r="AN24" s="4">
-        <v>1.6264394</v>
-      </c>
-      <c r="AO24" s="4">
-        <v>1.0453285999999999</v>
-      </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3696,28 +3470,28 @@
         <v>0.16461000000000001</v>
       </c>
       <c r="Z25" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="AA25" s="4">
+        <v>3.4078020000000001E-2</v>
+      </c>
+      <c r="AB25" s="4">
+        <v>7.6218140000000002E-3</v>
+      </c>
+      <c r="AC25" s="4">
+        <v>3.2368918000000003E-2</v>
+      </c>
+      <c r="AD25" s="4">
+        <v>3.9816899000000003E-2</v>
+      </c>
+      <c r="AE25" s="4">
+        <v>4.700062E-2</v>
+      </c>
+      <c r="AF25" s="4">
         <v>5.9653020000000003</v>
       </c>
-      <c r="AA25" s="4">
+      <c r="AG25" s="4">
         <v>13.72348</v>
-      </c>
-      <c r="AB25" s="4">
-        <v>0.04</v>
-      </c>
-      <c r="AC25" s="4">
-        <v>3.4078020000000001E-2</v>
-      </c>
-      <c r="AD25" s="4">
-        <v>7.6218140000000002E-3</v>
-      </c>
-      <c r="AE25" s="4">
-        <v>3.2368918000000003E-2</v>
-      </c>
-      <c r="AF25" s="4">
-        <v>3.9816899000000003E-2</v>
-      </c>
-      <c r="AG25" s="4">
-        <v>4.700062E-2</v>
       </c>
       <c r="AH25" s="4">
         <v>3.98</v>
@@ -3734,17 +3508,8 @@
       <c r="AL25" s="4">
         <v>0.77887830000000002</v>
       </c>
-      <c r="AM25" s="4">
-        <v>0.87199320000000002</v>
-      </c>
-      <c r="AN25" s="4">
-        <v>4.2468783999999999</v>
-      </c>
-      <c r="AO25" s="4">
-        <v>1.1804189</v>
-      </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3821,28 +3586,28 @@
         <v>8.6389999999999995E-2</v>
       </c>
       <c r="Z26" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="AA26" s="4">
+        <v>1.6477579999999999E-2</v>
+      </c>
+      <c r="AB26" s="4">
+        <v>9.3661990000000004E-3</v>
+      </c>
+      <c r="AC26" s="4">
+        <v>9.7912620000000002E-3</v>
+      </c>
+      <c r="AD26" s="4">
+        <v>2.5339381000000001E-2</v>
+      </c>
+      <c r="AE26" s="4">
+        <v>1.9167150000000001E-2</v>
+      </c>
+      <c r="AF26" s="4">
         <v>8.6532990000000005</v>
       </c>
-      <c r="AA26" s="4">
+      <c r="AG26" s="4">
         <v>18.501580000000001</v>
-      </c>
-      <c r="AB26" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="AC26" s="4">
-        <v>1.6477579999999999E-2</v>
-      </c>
-      <c r="AD26" s="4">
-        <v>9.3661990000000004E-3</v>
-      </c>
-      <c r="AE26" s="4">
-        <v>9.7912620000000002E-3</v>
-      </c>
-      <c r="AF26" s="4">
-        <v>2.5339381000000001E-2</v>
-      </c>
-      <c r="AG26" s="4">
-        <v>1.9167150000000001E-2</v>
       </c>
       <c r="AH26" s="4">
         <v>5.1100000000000003</v>
@@ -3859,17 +3624,8 @@
       <c r="AL26" s="4">
         <v>0.69008700000000001</v>
       </c>
-      <c r="AM26" s="4">
-        <v>0.69983899999999999</v>
-      </c>
-      <c r="AN26" s="4">
-        <v>1.0453827</v>
-      </c>
-      <c r="AO26" s="4">
-        <v>0.75641729999999996</v>
-      </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3946,28 +3702,28 @@
         <v>9.3899999999999997E-2</v>
       </c>
       <c r="Z27" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="AA27" s="4">
+        <v>1.7777279999999999E-2</v>
+      </c>
+      <c r="AB27" s="4">
+        <v>5.6693259999999997E-3</v>
+      </c>
+      <c r="AC27" s="4">
+        <v>5.966369E-3</v>
+      </c>
+      <c r="AD27" s="4">
+        <v>1.9030403000000001E-2</v>
+      </c>
+      <c r="AE27" s="4">
+        <v>1.8751779999999999E-2</v>
+      </c>
+      <c r="AF27" s="4">
         <v>7.954002</v>
       </c>
-      <c r="AA27" s="4">
+      <c r="AG27" s="4">
         <v>20.739599999999999</v>
-      </c>
-      <c r="AB27" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="AC27" s="4">
-        <v>1.7777279999999999E-2</v>
-      </c>
-      <c r="AD27" s="4">
-        <v>5.6693259999999997E-3</v>
-      </c>
-      <c r="AE27" s="4">
-        <v>5.966369E-3</v>
-      </c>
-      <c r="AF27" s="4">
-        <v>1.9030403000000001E-2</v>
-      </c>
-      <c r="AG27" s="4">
-        <v>1.8751779999999999E-2</v>
       </c>
       <c r="AH27" s="4">
         <v>4.8499999999999996</v>
@@ -3984,17 +3740,8 @@
       <c r="AL27" s="4">
         <v>0.69950420000000002</v>
       </c>
-      <c r="AM27" s="4">
-        <v>0.97858480000000003</v>
-      </c>
-      <c r="AN27" s="4">
-        <v>1.0523947</v>
-      </c>
-      <c r="AO27" s="4">
-        <v>0.98535899999999998</v>
-      </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4071,28 +3818,28 @@
         <v>0.12274</v>
       </c>
       <c r="Z28" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="AA28" s="4">
+        <v>2.7804220000000001E-2</v>
+      </c>
+      <c r="AB28" s="4">
+        <v>5.2933809999999998E-3</v>
+      </c>
+      <c r="AC28" s="4">
+        <v>1.1496596E-2</v>
+      </c>
+      <c r="AD28" s="4">
+        <v>3.2484076000000001E-2</v>
+      </c>
+      <c r="AE28" s="4">
+        <v>3.0087309999999999E-2</v>
+      </c>
+      <c r="AF28" s="4">
         <v>7.9739529999999998</v>
       </c>
-      <c r="AA28" s="4">
+      <c r="AG28" s="4">
         <v>17.722619999999999</v>
-      </c>
-      <c r="AB28" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="AC28" s="4">
-        <v>2.7804220000000001E-2</v>
-      </c>
-      <c r="AD28" s="4">
-        <v>5.2933809999999998E-3</v>
-      </c>
-      <c r="AE28" s="4">
-        <v>1.1496596E-2</v>
-      </c>
-      <c r="AF28" s="4">
-        <v>3.2484076000000001E-2</v>
-      </c>
-      <c r="AG28" s="4">
-        <v>3.0087309999999999E-2</v>
       </c>
       <c r="AH28" s="4">
         <v>5.1100000000000003</v>
@@ -4109,17 +3856,8 @@
       <c r="AL28" s="4">
         <v>0.73608510000000005</v>
       </c>
-      <c r="AM28" s="4">
-        <v>0.86752929999999995</v>
-      </c>
-      <c r="AN28" s="4">
-        <v>2.1718815</v>
-      </c>
-      <c r="AO28" s="4">
-        <v>0.92621719999999996</v>
-      </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4196,28 +3934,28 @@
         <v>0.11977</v>
       </c>
       <c r="Z29" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="AA29" s="4">
+        <v>4.1833679999999998E-2</v>
+      </c>
+      <c r="AB29" s="4">
+        <v>8.8707569999999999E-3</v>
+      </c>
+      <c r="AC29" s="4">
+        <v>9.5289980000000003E-3</v>
+      </c>
+      <c r="AD29" s="4">
+        <v>5.2888253000000003E-2</v>
+      </c>
+      <c r="AE29" s="4">
+        <v>4.2905220000000001E-2</v>
+      </c>
+      <c r="AF29" s="4">
         <v>8.4727110000000003</v>
       </c>
-      <c r="AA29" s="4">
+      <c r="AG29" s="4">
         <v>19.872260000000001</v>
-      </c>
-      <c r="AB29" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="AC29" s="4">
-        <v>4.1833679999999998E-2</v>
-      </c>
-      <c r="AD29" s="4">
-        <v>8.8707569999999999E-3</v>
-      </c>
-      <c r="AE29" s="4">
-        <v>9.5289980000000003E-3</v>
-      </c>
-      <c r="AF29" s="4">
-        <v>5.2888253000000003E-2</v>
-      </c>
-      <c r="AG29" s="4">
-        <v>4.2905220000000001E-2</v>
       </c>
       <c r="AH29" s="4">
         <v>4.5999999999999996</v>
@@ -4234,17 +3972,8 @@
       <c r="AL29" s="4">
         <v>0.62485120000000005</v>
       </c>
-      <c r="AM29" s="4">
-        <v>0.80234879999999997</v>
-      </c>
-      <c r="AN29" s="4">
-        <v>1.0742035000000001</v>
-      </c>
-      <c r="AO29" s="4">
-        <v>0.81124300000000005</v>
-      </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4321,28 +4050,28 @@
         <v>0.13446</v>
       </c>
       <c r="Z30" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="AA30" s="4">
+        <v>2.8603130000000001E-2</v>
+      </c>
+      <c r="AB30" s="4">
+        <v>6.7052149999999996E-3</v>
+      </c>
+      <c r="AC30" s="4">
+        <v>1.2253732999999999E-2</v>
+      </c>
+      <c r="AD30" s="4">
+        <v>2.8350543999999998E-2</v>
+      </c>
+      <c r="AE30" s="4">
+        <v>3.1117410000000002E-2</v>
+      </c>
+      <c r="AF30" s="4">
         <v>8.836957</v>
       </c>
-      <c r="AA30" s="4">
+      <c r="AG30" s="4">
         <v>21.935960000000001</v>
-      </c>
-      <c r="AB30" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="AC30" s="4">
-        <v>2.8603130000000001E-2</v>
-      </c>
-      <c r="AD30" s="4">
-        <v>6.7052149999999996E-3</v>
-      </c>
-      <c r="AE30" s="4">
-        <v>1.2253732999999999E-2</v>
-      </c>
-      <c r="AF30" s="4">
-        <v>2.8350543999999998E-2</v>
-      </c>
-      <c r="AG30" s="4">
-        <v>3.1117410000000002E-2</v>
       </c>
       <c r="AH30" s="4">
         <v>5</v>
@@ -4359,17 +4088,8 @@
       <c r="AL30" s="4">
         <v>0.72192279999999998</v>
       </c>
-      <c r="AM30" s="4">
-        <v>1.0383692</v>
-      </c>
-      <c r="AN30" s="4">
-        <v>1.8274929</v>
-      </c>
-      <c r="AO30" s="4">
-        <v>1.0975946999999999</v>
-      </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -4446,28 +4166,28 @@
         <v>0.11178</v>
       </c>
       <c r="Z31" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="AA31" s="4">
+        <v>1.723595E-2</v>
+      </c>
+      <c r="AB31" s="4">
+        <v>4.1356919999999998E-3</v>
+      </c>
+      <c r="AC31" s="4">
+        <v>9.9534399999999992E-3</v>
+      </c>
+      <c r="AD31" s="4">
+        <v>2.5715501000000002E-2</v>
+      </c>
+      <c r="AE31" s="4">
+        <v>1.9903489999999999E-2</v>
+      </c>
+      <c r="AF31" s="4">
         <v>8.3942680000000003</v>
       </c>
-      <c r="AA31" s="4">
+      <c r="AG31" s="4">
         <v>21.206720000000001</v>
-      </c>
-      <c r="AB31" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="AC31" s="4">
-        <v>1.723595E-2</v>
-      </c>
-      <c r="AD31" s="4">
-        <v>4.1356919999999998E-3</v>
-      </c>
-      <c r="AE31" s="4">
-        <v>9.9534399999999992E-3</v>
-      </c>
-      <c r="AF31" s="4">
-        <v>2.5715501000000002E-2</v>
-      </c>
-      <c r="AG31" s="4">
-        <v>1.9903489999999999E-2</v>
       </c>
       <c r="AH31" s="4">
         <v>4.59</v>
@@ -4484,17 +4204,8 @@
       <c r="AL31" s="4">
         <v>0.71895160000000002</v>
       </c>
-      <c r="AM31" s="4">
-        <v>0.67909520000000001</v>
-      </c>
-      <c r="AN31" s="4">
-        <v>2.4067166000000002</v>
-      </c>
-      <c r="AO31" s="4">
-        <v>0.77398820000000002</v>
-      </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -4571,28 +4282,28 @@
         <v>8.0250000000000002E-2</v>
       </c>
       <c r="Z32" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="AA32" s="4">
+        <v>1.4974070000000001E-2</v>
+      </c>
+      <c r="AB32" s="4">
+        <v>4.0379889999999996E-3</v>
+      </c>
+      <c r="AC32" s="4">
+        <v>6.1482159999999998E-3</v>
+      </c>
+      <c r="AD32" s="4">
+        <v>1.2008690000000001E-2</v>
+      </c>
+      <c r="AE32" s="4">
+        <v>1.6187130000000001E-2</v>
+      </c>
+      <c r="AF32" s="4">
         <v>9.8140859999999996</v>
       </c>
-      <c r="AA32" s="4">
+      <c r="AG32" s="4">
         <v>25.313890000000001</v>
-      </c>
-      <c r="AB32" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="AC32" s="4">
-        <v>1.4974070000000001E-2</v>
-      </c>
-      <c r="AD32" s="4">
-        <v>4.0379889999999996E-3</v>
-      </c>
-      <c r="AE32" s="4">
-        <v>6.1482159999999998E-3</v>
-      </c>
-      <c r="AF32" s="4">
-        <v>1.2008690000000001E-2</v>
-      </c>
-      <c r="AG32" s="4">
-        <v>1.6187130000000001E-2</v>
       </c>
       <c r="AH32" s="4">
         <v>6.57</v>
@@ -4609,17 +4320,8 @@
       <c r="AL32" s="4">
         <v>0.71500229999999998</v>
       </c>
-      <c r="AM32" s="4">
-        <v>1.3240335999999999</v>
-      </c>
-      <c r="AN32" s="4">
-        <v>1.5225934999999999</v>
-      </c>
-      <c r="AO32" s="4">
-        <v>1.3479517000000001</v>
-      </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -4696,28 +4398,28 @@
         <v>9.0749999999999997E-2</v>
       </c>
       <c r="Z33" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="AA33" s="4">
+        <v>1.8043750000000001E-2</v>
+      </c>
+      <c r="AB33" s="4">
+        <v>4.3527380000000001E-3</v>
+      </c>
+      <c r="AC33" s="4">
+        <v>9.4807539999999992E-3</v>
+      </c>
+      <c r="AD33" s="4">
+        <v>1.6274696000000002E-2</v>
+      </c>
+      <c r="AE33" s="4">
+        <v>2.0382879999999999E-2</v>
+      </c>
+      <c r="AF33" s="4">
         <v>10.004263999999999</v>
       </c>
-      <c r="AA33" s="4">
+      <c r="AG33" s="4">
         <v>22.35398</v>
-      </c>
-      <c r="AB33" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="AC33" s="4">
-        <v>1.8043750000000001E-2</v>
-      </c>
-      <c r="AD33" s="4">
-        <v>4.3527380000000001E-3</v>
-      </c>
-      <c r="AE33" s="4">
-        <v>9.4807539999999992E-3</v>
-      </c>
-      <c r="AF33" s="4">
-        <v>1.6274696000000002E-2</v>
-      </c>
-      <c r="AG33" s="4">
-        <v>2.0382879999999999E-2</v>
       </c>
       <c r="AH33" s="4">
         <v>6.64</v>
@@ -4734,17 +4436,8 @@
       <c r="AL33" s="4">
         <v>0.72227600000000003</v>
       </c>
-      <c r="AM33" s="4">
-        <v>1.1506160999999999</v>
-      </c>
-      <c r="AN33" s="4">
-        <v>2.1781126</v>
-      </c>
-      <c r="AO33" s="4">
-        <v>1.2524275</v>
-      </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -4821,28 +4514,28 @@
         <v>0.11303000000000001</v>
       </c>
       <c r="Z34" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="AA34" s="4">
+        <v>2.1920289999999999E-2</v>
+      </c>
+      <c r="AB34" s="4">
+        <v>6.431796E-3</v>
+      </c>
+      <c r="AC34" s="4">
+        <v>6.3285989999999999E-3</v>
+      </c>
+      <c r="AD34" s="4">
+        <v>2.4878666000000001E-2</v>
+      </c>
+      <c r="AE34" s="4">
+        <v>2.2815579999999999E-2</v>
+      </c>
+      <c r="AF34" s="4">
         <v>9.4715939999999996</v>
       </c>
-      <c r="AA34" s="4">
+      <c r="AG34" s="4">
         <v>20.47542</v>
-      </c>
-      <c r="AB34" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="AC34" s="4">
-        <v>2.1920289999999999E-2</v>
-      </c>
-      <c r="AD34" s="4">
-        <v>6.431796E-3</v>
-      </c>
-      <c r="AE34" s="4">
-        <v>6.3285989999999999E-3</v>
-      </c>
-      <c r="AF34" s="4">
-        <v>2.4878666000000001E-2</v>
-      </c>
-      <c r="AG34" s="4">
-        <v>2.2815579999999999E-2</v>
       </c>
       <c r="AH34" s="4">
         <v>5.44</v>
@@ -4859,17 +4552,8 @@
       <c r="AL34" s="4">
         <v>0.73587080000000005</v>
       </c>
-      <c r="AM34" s="4">
-        <v>0.9120954</v>
-      </c>
-      <c r="AN34" s="4">
-        <v>0.98395509999999997</v>
-      </c>
-      <c r="AO34" s="4">
-        <v>0.9170739</v>
-      </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -4946,28 +4630,28 @@
         <v>0.1208</v>
       </c>
       <c r="Z35" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="AA35" s="4">
+        <v>2.1109280000000001E-2</v>
+      </c>
+      <c r="AB35" s="4">
+        <v>8.3929509999999992E-3</v>
+      </c>
+      <c r="AC35" s="4">
+        <v>1.2750055999999999E-2</v>
+      </c>
+      <c r="AD35" s="4">
+        <v>2.8885259999999999E-2</v>
+      </c>
+      <c r="AE35" s="4">
+        <v>2.4661019999999999E-2</v>
+      </c>
+      <c r="AF35" s="4">
         <v>9.2031449999999992</v>
       </c>
-      <c r="AA35" s="4">
+      <c r="AG35" s="4">
         <v>21.327120000000001</v>
-      </c>
-      <c r="AB35" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="AC35" s="4">
-        <v>2.1109280000000001E-2</v>
-      </c>
-      <c r="AD35" s="4">
-        <v>8.3929509999999992E-3</v>
-      </c>
-      <c r="AE35" s="4">
-        <v>1.2750055999999999E-2</v>
-      </c>
-      <c r="AF35" s="4">
-        <v>2.8885259999999999E-2</v>
-      </c>
-      <c r="AG35" s="4">
-        <v>2.4661019999999999E-2</v>
       </c>
       <c r="AH35" s="4">
         <v>5.31</v>
@@ -4984,17 +4668,8 @@
       <c r="AL35" s="4">
         <v>0.71292979999999995</v>
       </c>
-      <c r="AM35" s="4">
-        <v>0.76374869999999995</v>
-      </c>
-      <c r="AN35" s="4">
-        <v>1.5191386</v>
-      </c>
-      <c r="AO35" s="4">
-        <v>0.85375780000000001</v>
-      </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5071,28 +4746,28 @@
         <v>0.12681000000000001</v>
       </c>
       <c r="Z36" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="AA36" s="4">
+        <v>2.4521910000000001E-2</v>
+      </c>
+      <c r="AB36" s="4">
+        <v>6.1249140000000004E-3</v>
+      </c>
+      <c r="AC36" s="4">
+        <v>9.0435529999999993E-3</v>
+      </c>
+      <c r="AD36" s="4">
+        <v>3.3118076000000003E-2</v>
+      </c>
+      <c r="AE36" s="4">
+        <v>2.6136369999999999E-2</v>
+      </c>
+      <c r="AF36" s="4">
         <v>8.3047160000000009</v>
       </c>
-      <c r="AA36" s="4">
+      <c r="AG36" s="4">
         <v>21.226769999999998</v>
-      </c>
-      <c r="AB36" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="AC36" s="4">
-        <v>2.4521910000000001E-2</v>
-      </c>
-      <c r="AD36" s="4">
-        <v>6.1249140000000004E-3</v>
-      </c>
-      <c r="AE36" s="4">
-        <v>9.0435529999999993E-3</v>
-      </c>
-      <c r="AF36" s="4">
-        <v>3.3118076000000003E-2</v>
-      </c>
-      <c r="AG36" s="4">
-        <v>2.6136369999999999E-2</v>
       </c>
       <c r="AH36" s="4">
         <v>4.46</v>
@@ -5109,17 +4784,8 @@
       <c r="AL36" s="4">
         <v>0.72264490000000003</v>
       </c>
-      <c r="AM36" s="4">
-        <v>0.75343590000000005</v>
-      </c>
-      <c r="AN36" s="4">
-        <v>1.4765192</v>
-      </c>
-      <c r="AO36" s="4">
-        <v>0.78918739999999998</v>
-      </c>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -5196,28 +4862,28 @@
         <v>0.14363999999999999</v>
       </c>
       <c r="Z37" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="AA37" s="4">
+        <v>2.310336E-2</v>
+      </c>
+      <c r="AB37" s="4">
+        <v>7.3769350000000003E-3</v>
+      </c>
+      <c r="AC37" s="4">
+        <v>6.7586199999999999E-3</v>
+      </c>
+      <c r="AD37" s="4">
+        <v>2.5674349999999999E-2</v>
+      </c>
+      <c r="AE37" s="4">
+        <v>2.407165E-2</v>
+      </c>
+      <c r="AF37" s="4">
         <v>8.9002180000000006</v>
       </c>
-      <c r="AA37" s="4">
+      <c r="AG37" s="4">
         <v>22.957239999999999</v>
-      </c>
-      <c r="AB37" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="AC37" s="4">
-        <v>2.310336E-2</v>
-      </c>
-      <c r="AD37" s="4">
-        <v>7.3769350000000003E-3</v>
-      </c>
-      <c r="AE37" s="4">
-        <v>6.7586199999999999E-3</v>
-      </c>
-      <c r="AF37" s="4">
-        <v>2.5674349999999999E-2</v>
-      </c>
-      <c r="AG37" s="4">
-        <v>2.407165E-2</v>
       </c>
       <c r="AH37" s="4">
         <v>5.05</v>
@@ -5234,17 +4900,8 @@
       <c r="AL37" s="4">
         <v>0.74049659999999995</v>
       </c>
-      <c r="AM37" s="4">
-        <v>0.9394768</v>
-      </c>
-      <c r="AN37" s="4">
-        <v>0.91618259999999996</v>
-      </c>
-      <c r="AO37" s="4">
-        <v>0.93757570000000001</v>
-      </c>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -5321,28 +4978,28 @@
         <v>0.14593999999999999</v>
       </c>
       <c r="Z38" s="4">
+        <v>1.8340929999999998E-2</v>
+      </c>
+      <c r="AA38" s="4">
+        <v>2.657528E-2</v>
+      </c>
+      <c r="AB38" s="4">
+        <v>7.6300819999999998E-3</v>
+      </c>
+      <c r="AC38" s="4">
+        <v>2.1301446000000002E-2</v>
+      </c>
+      <c r="AD38" s="4">
+        <v>1.9864736000000001E-2</v>
+      </c>
+      <c r="AE38" s="4">
+        <v>3.4058730000000002E-2</v>
+      </c>
+      <c r="AF38" s="4">
         <v>6.9835659999999997</v>
       </c>
-      <c r="AA38" s="4">
+      <c r="AG38" s="4">
         <v>17.555859999999999</v>
-      </c>
-      <c r="AB38" s="4">
-        <v>1.8340929999999998E-2</v>
-      </c>
-      <c r="AC38" s="4">
-        <v>2.657528E-2</v>
-      </c>
-      <c r="AD38" s="4">
-        <v>7.6300819999999998E-3</v>
-      </c>
-      <c r="AE38" s="4">
-        <v>2.1301446000000002E-2</v>
-      </c>
-      <c r="AF38" s="4">
-        <v>1.9864736000000001E-2</v>
-      </c>
-      <c r="AG38" s="4">
-        <v>3.4058730000000002E-2</v>
       </c>
       <c r="AH38" s="4">
         <v>2.2432590000000001</v>
@@ -5359,17 +5016,8 @@
       <c r="AL38" s="4">
         <v>0.82346710000000001</v>
       </c>
-      <c r="AM38" s="4">
-        <v>1.4489605000000001</v>
-      </c>
-      <c r="AN38" s="4">
-        <v>2.7917717</v>
-      </c>
-      <c r="AO38" s="4">
-        <v>1.7145322000000001</v>
-      </c>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -5446,28 +5094,28 @@
         <v>0.1704</v>
       </c>
       <c r="Z39" s="4">
+        <v>3.0728780000000001E-2</v>
+      </c>
+      <c r="AA39" s="4">
+        <v>5.3974029999999999E-2</v>
+      </c>
+      <c r="AB39" s="4">
+        <v>1.1973242E-2</v>
+      </c>
+      <c r="AC39" s="4">
+        <v>2.26833E-2</v>
+      </c>
+      <c r="AD39" s="4">
+        <v>3.2979033999999997E-2</v>
+      </c>
+      <c r="AE39" s="4">
+        <v>5.8546809999999998E-2</v>
+      </c>
+      <c r="AF39" s="4">
         <v>8.0913079999999997</v>
       </c>
-      <c r="AA39" s="4">
+      <c r="AG39" s="4">
         <v>18.008199999999999</v>
-      </c>
-      <c r="AB39" s="4">
-        <v>3.0728780000000001E-2</v>
-      </c>
-      <c r="AC39" s="4">
-        <v>5.3974029999999999E-2</v>
-      </c>
-      <c r="AD39" s="4">
-        <v>1.1973242E-2</v>
-      </c>
-      <c r="AE39" s="4">
-        <v>2.26833E-2</v>
-      </c>
-      <c r="AF39" s="4">
-        <v>3.2979033999999997E-2</v>
-      </c>
-      <c r="AG39" s="4">
-        <v>5.8546809999999998E-2</v>
       </c>
       <c r="AH39" s="4">
         <v>3.1656170000000001</v>
@@ -5484,17 +5132,8 @@
       <c r="AL39" s="4">
         <v>0.85485230000000001</v>
       </c>
-      <c r="AM39" s="4">
-        <v>1.7564649999999999</v>
-      </c>
-      <c r="AN39" s="4">
-        <v>1.8944995</v>
-      </c>
-      <c r="AO39" s="4">
-        <v>1.7752734999999999</v>
-      </c>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -5571,28 +5210,28 @@
         <v>0.20133999999999999</v>
       </c>
       <c r="Z40" s="4">
+        <v>3.4756670000000003E-2</v>
+      </c>
+      <c r="AA40" s="4">
+        <v>5.3655910000000001E-2</v>
+      </c>
+      <c r="AB40" s="4">
+        <v>1.6554724999999999E-2</v>
+      </c>
+      <c r="AC40" s="4">
+        <v>2.7696931000000001E-2</v>
+      </c>
+      <c r="AD40" s="4">
+        <v>3.8497854999999997E-2</v>
+      </c>
+      <c r="AE40" s="4">
+        <v>6.0382749999999999E-2</v>
+      </c>
+      <c r="AF40" s="4">
         <v>5.9271719999999997</v>
       </c>
-      <c r="AA40" s="4">
+      <c r="AG40" s="4">
         <v>13.503170000000001</v>
-      </c>
-      <c r="AB40" s="4">
-        <v>3.4756670000000003E-2</v>
-      </c>
-      <c r="AC40" s="4">
-        <v>5.3655910000000001E-2</v>
-      </c>
-      <c r="AD40" s="4">
-        <v>1.6554724999999999E-2</v>
-      </c>
-      <c r="AE40" s="4">
-        <v>2.7696931000000001E-2</v>
-      </c>
-      <c r="AF40" s="4">
-        <v>3.8497854999999997E-2</v>
-      </c>
-      <c r="AG40" s="4">
-        <v>6.0382749999999999E-2</v>
       </c>
       <c r="AH40" s="4">
         <v>4.16005</v>
@@ -5609,17 +5248,8 @@
       <c r="AL40" s="4">
         <v>0.86213169999999995</v>
       </c>
-      <c r="AM40" s="4">
-        <v>1.5437586999999999</v>
-      </c>
-      <c r="AN40" s="4">
-        <v>1.6730529999999999</v>
-      </c>
-      <c r="AO40" s="4">
-        <v>1.5684705000000001</v>
-      </c>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -5696,28 +5326,28 @@
         <v>0.21016000000000001</v>
       </c>
       <c r="Z41" s="4">
+        <v>6.0535510000000001E-2</v>
+      </c>
+      <c r="AA41" s="4">
+        <v>6.9857970000000005E-2</v>
+      </c>
+      <c r="AB41" s="4">
+        <v>1.3018803000000001E-2</v>
+      </c>
+      <c r="AC41" s="4">
+        <v>2.5731512000000002E-2</v>
+      </c>
+      <c r="AD41" s="4">
+        <v>6.1919597999999999E-2</v>
+      </c>
+      <c r="AE41" s="4">
+        <v>7.444626E-2</v>
+      </c>
+      <c r="AF41" s="4">
         <v>5.5133140000000003</v>
       </c>
-      <c r="AA41" s="4">
+      <c r="AG41" s="4">
         <v>14.93028</v>
-      </c>
-      <c r="AB41" s="4">
-        <v>6.0535510000000001E-2</v>
-      </c>
-      <c r="AC41" s="4">
-        <v>6.9857970000000005E-2</v>
-      </c>
-      <c r="AD41" s="4">
-        <v>1.3018803000000001E-2</v>
-      </c>
-      <c r="AE41" s="4">
-        <v>2.5731512000000002E-2</v>
-      </c>
-      <c r="AF41" s="4">
-        <v>6.1919597999999999E-2</v>
-      </c>
-      <c r="AG41" s="4">
-        <v>7.444626E-2</v>
       </c>
       <c r="AH41" s="4">
         <v>3.123332</v>
@@ -5734,17 +5364,8 @@
       <c r="AL41" s="4">
         <v>0.90409450000000002</v>
       </c>
-      <c r="AM41" s="4">
-        <v>1.1539999000000001</v>
-      </c>
-      <c r="AN41" s="4">
-        <v>1.9764883</v>
-      </c>
-      <c r="AO41" s="4">
-        <v>1.2023054</v>
-      </c>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -5821,28 +5442,28 @@
         <v>0.22381999999999999</v>
       </c>
       <c r="Z42" s="4">
+        <v>5.4464940000000003E-2</v>
+      </c>
+      <c r="AA42" s="4">
+        <v>5.1833749999999998E-2</v>
+      </c>
+      <c r="AB42" s="4">
+        <v>1.2966079E-2</v>
+      </c>
+      <c r="AC42" s="4">
+        <v>2.6561566000000002E-2</v>
+      </c>
+      <c r="AD42" s="4">
+        <v>5.5987044999999999E-2</v>
+      </c>
+      <c r="AE42" s="4">
+        <v>5.8243059999999999E-2</v>
+      </c>
+      <c r="AF42" s="4">
         <v>6.3365070000000001</v>
       </c>
-      <c r="AA42" s="4">
+      <c r="AG42" s="4">
         <v>12.800140000000001</v>
-      </c>
-      <c r="AB42" s="4">
-        <v>5.4464940000000003E-2</v>
-      </c>
-      <c r="AC42" s="4">
-        <v>5.1833749999999998E-2</v>
-      </c>
-      <c r="AD42" s="4">
-        <v>1.2966079E-2</v>
-      </c>
-      <c r="AE42" s="4">
-        <v>2.6561566000000002E-2</v>
-      </c>
-      <c r="AF42" s="4">
-        <v>5.5987044999999999E-2</v>
-      </c>
-      <c r="AG42" s="4">
-        <v>5.8243059999999999E-2</v>
       </c>
       <c r="AH42" s="4">
         <v>2.650506</v>
@@ -5859,17 +5480,8 @@
       <c r="AL42" s="4">
         <v>0.87602159999999996</v>
       </c>
-      <c r="AM42" s="4">
-        <v>0.95169009999999998</v>
-      </c>
-      <c r="AN42" s="4">
-        <v>2.0485426000000002</v>
-      </c>
-      <c r="AO42" s="4">
-        <v>1.0402952999999999</v>
-      </c>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -5946,28 +5558,28 @@
         <v>0.20368</v>
       </c>
       <c r="Z43" s="4">
+        <v>3.6159429999999999E-2</v>
+      </c>
+      <c r="AA43" s="4">
+        <v>5.632235E-2</v>
+      </c>
+      <c r="AB43" s="4">
+        <v>1.3188282000000001E-2</v>
+      </c>
+      <c r="AC43" s="4">
+        <v>2.0071619999999998E-2</v>
+      </c>
+      <c r="AD43" s="4">
+        <v>3.8489420000000003E-2</v>
+      </c>
+      <c r="AE43" s="4">
+        <v>5.9791940000000002E-2</v>
+      </c>
+      <c r="AF43" s="4">
         <v>5.6835779999999998</v>
       </c>
-      <c r="AA43" s="4">
+      <c r="AG43" s="4">
         <v>15.620950000000001</v>
-      </c>
-      <c r="AB43" s="4">
-        <v>3.6159429999999999E-2</v>
-      </c>
-      <c r="AC43" s="4">
-        <v>5.632235E-2</v>
-      </c>
-      <c r="AD43" s="4">
-        <v>1.3188282000000001E-2</v>
-      </c>
-      <c r="AE43" s="4">
-        <v>2.0071619999999998E-2</v>
-      </c>
-      <c r="AF43" s="4">
-        <v>3.8489420000000003E-2</v>
-      </c>
-      <c r="AG43" s="4">
-        <v>5.9791940000000002E-2</v>
       </c>
       <c r="AH43" s="4">
         <v>3.2151200000000002</v>
@@ -5984,17 +5596,8 @@
       <c r="AL43" s="4">
         <v>0.84561120000000001</v>
       </c>
-      <c r="AM43" s="4">
-        <v>1.5576114000000001</v>
-      </c>
-      <c r="AN43" s="4">
-        <v>1.5219282999999999</v>
-      </c>
-      <c r="AO43" s="4">
-        <v>1.5534644</v>
-      </c>
     </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -6071,28 +5674,28 @@
         <v>8.8190000000000004E-2</v>
       </c>
       <c r="Z44" s="4">
+        <v>1.9781300000000002E-2</v>
+      </c>
+      <c r="AA44" s="4">
+        <v>2.262977E-2</v>
+      </c>
+      <c r="AB44" s="4">
+        <v>7.8223619999999994E-3</v>
+      </c>
+      <c r="AC44" s="4">
+        <v>1.6236435E-2</v>
+      </c>
+      <c r="AD44" s="4">
+        <v>2.1271795999999999E-2</v>
+      </c>
+      <c r="AE44" s="4">
+        <v>2.7851899999999999E-2</v>
+      </c>
+      <c r="AF44" s="4">
         <v>10.272145</v>
       </c>
-      <c r="AA44" s="4">
+      <c r="AG44" s="4">
         <v>24.816189999999999</v>
-      </c>
-      <c r="AB44" s="4">
-        <v>1.9781300000000002E-2</v>
-      </c>
-      <c r="AC44" s="4">
-        <v>2.262977E-2</v>
-      </c>
-      <c r="AD44" s="4">
-        <v>7.8223619999999994E-3</v>
-      </c>
-      <c r="AE44" s="4">
-        <v>1.6236435E-2</v>
-      </c>
-      <c r="AF44" s="4">
-        <v>2.1271795999999999E-2</v>
-      </c>
-      <c r="AG44" s="4">
-        <v>2.7851899999999999E-2</v>
       </c>
       <c r="AH44" s="4">
         <v>5.28</v>
@@ -6109,17 +5712,8 @@
       <c r="AL44" s="4">
         <v>0.76415379999999999</v>
       </c>
-      <c r="AM44" s="4">
-        <v>1.1439979</v>
-      </c>
-      <c r="AN44" s="4">
-        <v>2.0756435999999998</v>
-      </c>
-      <c r="AO44" s="4">
-        <v>1.3093347</v>
-      </c>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -6196,28 +5790,28 @@
         <v>0.10576000000000001</v>
       </c>
       <c r="Z45" s="4">
+        <v>2.5316020000000002E-2</v>
+      </c>
+      <c r="AA45" s="4">
+        <v>2.1519380000000001E-2</v>
+      </c>
+      <c r="AB45" s="4">
+        <v>7.5716070000000002E-3</v>
+      </c>
+      <c r="AC45" s="4">
+        <v>1.4325546E-2</v>
+      </c>
+      <c r="AD45" s="4">
+        <v>2.6424045E-2</v>
+      </c>
+      <c r="AE45" s="4">
+        <v>2.5851599999999999E-2</v>
+      </c>
+      <c r="AF45" s="4">
         <v>9.4452499999999997</v>
       </c>
-      <c r="AA45" s="4">
+      <c r="AG45" s="4">
         <v>22.350110000000001</v>
-      </c>
-      <c r="AB45" s="4">
-        <v>2.5316020000000002E-2</v>
-      </c>
-      <c r="AC45" s="4">
-        <v>2.1519380000000001E-2</v>
-      </c>
-      <c r="AD45" s="4">
-        <v>7.5716070000000002E-3</v>
-      </c>
-      <c r="AE45" s="4">
-        <v>1.4325546E-2</v>
-      </c>
-      <c r="AF45" s="4">
-        <v>2.6424045E-2</v>
-      </c>
-      <c r="AG45" s="4">
-        <v>2.5851599999999999E-2</v>
       </c>
       <c r="AH45" s="4">
         <v>2.5299999999999998</v>
@@ -6234,17 +5828,8 @@
       <c r="AL45" s="4">
         <v>0.71048789999999995</v>
       </c>
-      <c r="AM45" s="4">
-        <v>0.85003010000000001</v>
-      </c>
-      <c r="AN45" s="4">
-        <v>1.8920087999999999</v>
-      </c>
-      <c r="AO45" s="4">
-        <v>0.97833610000000004</v>
-      </c>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -6321,28 +5906,28 @@
         <v>0.13363</v>
       </c>
       <c r="Z46" s="4">
+        <v>3.6259989999999999E-2</v>
+      </c>
+      <c r="AA46" s="4">
+        <v>3.5234660000000001E-2</v>
+      </c>
+      <c r="AB46" s="4">
+        <v>9.2927219999999998E-3</v>
+      </c>
+      <c r="AC46" s="4">
+        <v>1.4228494E-2</v>
+      </c>
+      <c r="AD46" s="4">
+        <v>3.7431827000000001E-2</v>
+      </c>
+      <c r="AE46" s="4">
+        <v>3.7999100000000001E-2</v>
+      </c>
+      <c r="AF46" s="4">
         <v>9.774286</v>
       </c>
-      <c r="AA46" s="4">
+      <c r="AG46" s="4">
         <v>20.7456</v>
-      </c>
-      <c r="AB46" s="4">
-        <v>3.6259989999999999E-2</v>
-      </c>
-      <c r="AC46" s="4">
-        <v>3.5234660000000001E-2</v>
-      </c>
-      <c r="AD46" s="4">
-        <v>9.2927219999999998E-3</v>
-      </c>
-      <c r="AE46" s="4">
-        <v>1.4228494E-2</v>
-      </c>
-      <c r="AF46" s="4">
-        <v>3.7431827000000001E-2</v>
-      </c>
-      <c r="AG46" s="4">
-        <v>3.7999100000000001E-2</v>
       </c>
       <c r="AH46" s="4">
         <v>2.54</v>
@@ -6359,17 +5944,8 @@
       <c r="AL46" s="4">
         <v>0.72373449999999995</v>
       </c>
-      <c r="AM46" s="4">
-        <v>0.97172289999999995</v>
-      </c>
-      <c r="AN46" s="4">
-        <v>1.5311437999999999</v>
-      </c>
-      <c r="AO46" s="4">
-        <v>1.0151547999999999</v>
-      </c>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -6446,28 +6022,28 @@
         <v>0.13755999999999999</v>
       </c>
       <c r="Z47" s="4">
+        <v>2.5022809999999999E-2</v>
+      </c>
+      <c r="AA47" s="4">
+        <v>3.286497E-2</v>
+      </c>
+      <c r="AB47" s="4">
+        <v>1.8183392999999999E-2</v>
+      </c>
+      <c r="AC47" s="4">
+        <v>1.1985743E-2</v>
+      </c>
+      <c r="AD47" s="4">
+        <v>3.0931808000000002E-2</v>
+      </c>
+      <c r="AE47" s="4">
+        <v>3.4982340000000001E-2</v>
+      </c>
+      <c r="AF47" s="4">
         <v>11.082618</v>
       </c>
-      <c r="AA47" s="4">
+      <c r="AG47" s="4">
         <v>20.60277</v>
-      </c>
-      <c r="AB47" s="4">
-        <v>2.5022809999999999E-2</v>
-      </c>
-      <c r="AC47" s="4">
-        <v>3.286497E-2</v>
-      </c>
-      <c r="AD47" s="4">
-        <v>1.8183392999999999E-2</v>
-      </c>
-      <c r="AE47" s="4">
-        <v>1.1985743E-2</v>
-      </c>
-      <c r="AF47" s="4">
-        <v>3.0931808000000002E-2</v>
-      </c>
-      <c r="AG47" s="4">
-        <v>3.4982340000000001E-2</v>
       </c>
       <c r="AH47" s="4">
         <v>4.49</v>
@@ -6484,17 +6060,8 @@
       <c r="AL47" s="4">
         <v>0.73280509999999999</v>
       </c>
-      <c r="AM47" s="4">
-        <v>1.3134006</v>
-      </c>
-      <c r="AN47" s="4">
-        <v>0.65915880000000004</v>
-      </c>
-      <c r="AO47" s="4">
-        <v>1.1309505</v>
-      </c>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -6571,28 +6138,28 @@
         <v>0.16250999999999999</v>
       </c>
       <c r="Z48" s="4">
+        <v>4.6875470000000002E-2</v>
+      </c>
+      <c r="AA48" s="4">
+        <v>5.3251989999999999E-2</v>
+      </c>
+      <c r="AB48" s="4">
+        <v>1.3861676E-2</v>
+      </c>
+      <c r="AC48" s="4">
+        <v>1.9772466999999998E-2</v>
+      </c>
+      <c r="AD48" s="4">
+        <v>4.8882065000000002E-2</v>
+      </c>
+      <c r="AE48" s="4">
+        <v>5.6804269999999997E-2</v>
+      </c>
+      <c r="AF48" s="4">
         <v>8.951219</v>
       </c>
-      <c r="AA48" s="4">
+      <c r="AG48" s="4">
         <v>20.158899999999999</v>
-      </c>
-      <c r="AB48" s="4">
-        <v>4.6875470000000002E-2</v>
-      </c>
-      <c r="AC48" s="4">
-        <v>5.3251989999999999E-2</v>
-      </c>
-      <c r="AD48" s="4">
-        <v>1.3861676E-2</v>
-      </c>
-      <c r="AE48" s="4">
-        <v>1.9772466999999998E-2</v>
-      </c>
-      <c r="AF48" s="4">
-        <v>4.8882065000000002E-2</v>
-      </c>
-      <c r="AG48" s="4">
-        <v>5.6804269999999997E-2</v>
       </c>
       <c r="AH48" s="4">
         <v>3.5</v>
@@ -6609,17 +6176,8 @@
       <c r="AL48" s="4">
         <v>0.77522530000000001</v>
       </c>
-      <c r="AM48" s="4">
-        <v>1.136031</v>
-      </c>
-      <c r="AN48" s="4">
-        <v>1.4264124</v>
-      </c>
-      <c r="AO48" s="4">
-        <v>1.1620676999999999</v>
-      </c>
     </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -6696,28 +6254,28 @@
         <v>0.12715000000000001</v>
       </c>
       <c r="Z49" s="4">
+        <v>2.8516529999999998E-2</v>
+      </c>
+      <c r="AA49" s="4">
+        <v>3.1079200000000001E-2</v>
+      </c>
+      <c r="AB49" s="4">
+        <v>9.6403919999999994E-3</v>
+      </c>
+      <c r="AC49" s="4">
+        <v>1.9253039999999999E-2</v>
+      </c>
+      <c r="AD49" s="4">
+        <v>3.0101986000000001E-2</v>
+      </c>
+      <c r="AE49" s="4">
+        <v>3.655949E-2</v>
+      </c>
+      <c r="AF49" s="4">
         <v>9.6258459999999992</v>
       </c>
-      <c r="AA49" s="4">
+      <c r="AG49" s="4">
         <v>22.39226</v>
-      </c>
-      <c r="AB49" s="4">
-        <v>2.8516529999999998E-2</v>
-      </c>
-      <c r="AC49" s="4">
-        <v>3.1079200000000001E-2</v>
-      </c>
-      <c r="AD49" s="4">
-        <v>9.6403919999999994E-3</v>
-      </c>
-      <c r="AE49" s="4">
-        <v>1.9253039999999999E-2</v>
-      </c>
-      <c r="AF49" s="4">
-        <v>3.0101986000000001E-2</v>
-      </c>
-      <c r="AG49" s="4">
-        <v>3.655949E-2</v>
       </c>
       <c r="AH49" s="4">
         <v>4.21</v>
@@ -6734,17 +6292,8 @@
       <c r="AL49" s="4">
         <v>0.74085509999999999</v>
       </c>
-      <c r="AM49" s="4">
-        <v>1.0898661000000001</v>
-      </c>
-      <c r="AN49" s="4">
-        <v>1.9971220999999999</v>
-      </c>
-      <c r="AO49" s="4">
-        <v>1.2145207</v>
-      </c>
     </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -6821,28 +6370,28 @@
         <v>8.3830000000000002E-2</v>
       </c>
       <c r="Z50" s="4">
+        <v>2.9636269999999999E-2</v>
+      </c>
+      <c r="AA50" s="4">
+        <v>2.2057509999999999E-2</v>
+      </c>
+      <c r="AB50" s="4">
+        <v>9.8491210000000006E-3</v>
+      </c>
+      <c r="AC50" s="4">
+        <v>1.1689290999999999E-2</v>
+      </c>
+      <c r="AD50" s="4">
+        <v>3.1230014E-2</v>
+      </c>
+      <c r="AE50" s="4">
+        <v>2.496344E-2</v>
+      </c>
+      <c r="AF50" s="4">
         <v>11.263486</v>
       </c>
-      <c r="AA50" s="4">
+      <c r="AG50" s="4">
         <v>23.01707</v>
-      </c>
-      <c r="AB50" s="4">
-        <v>2.9636269999999999E-2</v>
-      </c>
-      <c r="AC50" s="4">
-        <v>2.2057509999999999E-2</v>
-      </c>
-      <c r="AD50" s="4">
-        <v>9.8491210000000006E-3</v>
-      </c>
-      <c r="AE50" s="4">
-        <v>1.1689290999999999E-2</v>
-      </c>
-      <c r="AF50" s="4">
-        <v>3.1230014E-2</v>
-      </c>
-      <c r="AG50" s="4">
-        <v>2.496344E-2</v>
       </c>
       <c r="AH50" s="4">
         <v>2.99</v>
@@ -6859,17 +6408,8 @@
       <c r="AL50" s="4">
         <v>0.64714950000000004</v>
       </c>
-      <c r="AM50" s="4">
-        <v>0.7442742</v>
-      </c>
-      <c r="AN50" s="4">
-        <v>1.1868358999999999</v>
-      </c>
-      <c r="AO50" s="4">
-        <v>0.79934130000000003</v>
-      </c>
     </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -6946,28 +6486,28 @@
         <v>9.8930000000000004E-2</v>
       </c>
       <c r="Z51" s="4">
+        <v>2.739165E-2</v>
+      </c>
+      <c r="AA51" s="4">
+        <v>1.7423069999999999E-2</v>
+      </c>
+      <c r="AB51" s="4">
+        <v>1.2377851E-2</v>
+      </c>
+      <c r="AC51" s="4">
+        <v>9.5906719999999997E-3</v>
+      </c>
+      <c r="AD51" s="4">
+        <v>3.0058508000000001E-2</v>
+      </c>
+      <c r="AE51" s="4">
+        <v>1.9888300000000001E-2</v>
+      </c>
+      <c r="AF51" s="4">
         <v>11.268193999999999</v>
       </c>
-      <c r="AA51" s="4">
+      <c r="AG51" s="4">
         <v>24.353719999999999</v>
-      </c>
-      <c r="AB51" s="4">
-        <v>2.739165E-2</v>
-      </c>
-      <c r="AC51" s="4">
-        <v>1.7423069999999999E-2</v>
-      </c>
-      <c r="AD51" s="4">
-        <v>1.2377851E-2</v>
-      </c>
-      <c r="AE51" s="4">
-        <v>9.5906719999999997E-3</v>
-      </c>
-      <c r="AF51" s="4">
-        <v>3.0058508000000001E-2</v>
-      </c>
-      <c r="AG51" s="4">
-        <v>1.9888300000000001E-2</v>
       </c>
       <c r="AH51" s="4">
         <v>2.93</v>
@@ -6984,17 +6524,8 @@
       <c r="AL51" s="4">
         <v>0.66036879999999998</v>
       </c>
-      <c r="AM51" s="4">
-        <v>0.63607239999999998</v>
-      </c>
-      <c r="AN51" s="4">
-        <v>0.77482530000000005</v>
-      </c>
-      <c r="AO51" s="4">
-        <v>0.66165300000000005</v>
-      </c>
     </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -7071,28 +6602,28 @@
         <v>0.12063</v>
       </c>
       <c r="Z52" s="4">
+        <v>1.832868E-2</v>
+      </c>
+      <c r="AA52" s="4">
+        <v>2.385207E-2</v>
+      </c>
+      <c r="AB52" s="4">
+        <v>8.1823139999999996E-3</v>
+      </c>
+      <c r="AC52" s="4">
+        <v>1.8326307E-2</v>
+      </c>
+      <c r="AD52" s="4">
+        <v>2.0072141000000002E-2</v>
+      </c>
+      <c r="AE52" s="4">
+        <v>3.0079470000000001E-2</v>
+      </c>
+      <c r="AF52" s="4">
         <v>11.283925</v>
       </c>
-      <c r="AA52" s="4">
+      <c r="AG52" s="4">
         <v>27.140440000000002</v>
-      </c>
-      <c r="AB52" s="4">
-        <v>1.832868E-2</v>
-      </c>
-      <c r="AC52" s="4">
-        <v>2.385207E-2</v>
-      </c>
-      <c r="AD52" s="4">
-        <v>8.1823139999999996E-3</v>
-      </c>
-      <c r="AE52" s="4">
-        <v>1.8326307E-2</v>
-      </c>
-      <c r="AF52" s="4">
-        <v>2.0072141000000002E-2</v>
-      </c>
-      <c r="AG52" s="4">
-        <v>3.0079470000000001E-2</v>
       </c>
       <c r="AH52" s="4">
         <v>2.66</v>
@@ -7109,17 +6640,8 @@
       <c r="AL52" s="4">
         <v>0.69221460000000001</v>
       </c>
-      <c r="AM52" s="4">
-        <v>1.3013519</v>
-      </c>
-      <c r="AN52" s="4">
-        <v>2.2397463000000002</v>
-      </c>
-      <c r="AO52" s="4">
-        <v>1.4985681</v>
-      </c>
     </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -7196,28 +6718,28 @@
         <v>0.12906999999999999</v>
       </c>
       <c r="Z53" s="4">
+        <v>2.4349639999999999E-2</v>
+      </c>
+      <c r="AA53" s="4">
+        <v>2.0252329999999999E-2</v>
+      </c>
+      <c r="AB53" s="4">
+        <v>1.2689907E-2</v>
+      </c>
+      <c r="AC53" s="4">
+        <v>1.5954478000000001E-2</v>
+      </c>
+      <c r="AD53" s="4">
+        <v>2.7457946E-2</v>
+      </c>
+      <c r="AE53" s="4">
+        <v>2.578182E-2</v>
+      </c>
+      <c r="AF53" s="4">
         <v>9.5987349999999996</v>
       </c>
-      <c r="AA53" s="4">
+      <c r="AG53" s="4">
         <v>22.330380000000002</v>
-      </c>
-      <c r="AB53" s="4">
-        <v>2.4349639999999999E-2</v>
-      </c>
-      <c r="AC53" s="4">
-        <v>2.0252329999999999E-2</v>
-      </c>
-      <c r="AD53" s="4">
-        <v>1.2689907E-2</v>
-      </c>
-      <c r="AE53" s="4">
-        <v>1.5954478000000001E-2</v>
-      </c>
-      <c r="AF53" s="4">
-        <v>2.7457946E-2</v>
-      </c>
-      <c r="AG53" s="4">
-        <v>2.578182E-2</v>
       </c>
       <c r="AH53" s="4">
         <v>3.61</v>
@@ -7234,17 +6756,8 @@
       <c r="AL53" s="4">
         <v>0.71999659999999999</v>
       </c>
-      <c r="AM53" s="4">
-        <v>0.83173010000000003</v>
-      </c>
-      <c r="AN53" s="4">
-        <v>1.2572572</v>
-      </c>
-      <c r="AO53" s="4">
-        <v>0.93895660000000003</v>
-      </c>
     </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -7321,28 +6834,28 @@
         <v>0.14865</v>
       </c>
       <c r="Z54" s="4">
+        <v>4.6252439999999999E-2</v>
+      </c>
+      <c r="AA54" s="4">
+        <v>4.7259660000000002E-2</v>
+      </c>
+      <c r="AB54" s="4">
+        <v>1.600913E-2</v>
+      </c>
+      <c r="AC54" s="4">
+        <v>2.6067923E-2</v>
+      </c>
+      <c r="AD54" s="4">
+        <v>4.8944666999999997E-2</v>
+      </c>
+      <c r="AE54" s="4">
+        <v>5.3972329999999999E-2</v>
+      </c>
+      <c r="AF54" s="4">
         <v>10.566857000000001</v>
       </c>
-      <c r="AA54" s="4">
+      <c r="AG54" s="4">
         <v>24.19331</v>
-      </c>
-      <c r="AB54" s="4">
-        <v>4.6252439999999999E-2</v>
-      </c>
-      <c r="AC54" s="4">
-        <v>4.7259660000000002E-2</v>
-      </c>
-      <c r="AD54" s="4">
-        <v>1.600913E-2</v>
-      </c>
-      <c r="AE54" s="4">
-        <v>2.6067923E-2</v>
-      </c>
-      <c r="AF54" s="4">
-        <v>4.8944666999999997E-2</v>
-      </c>
-      <c r="AG54" s="4">
-        <v>5.3972329999999999E-2</v>
       </c>
       <c r="AH54" s="4">
         <v>4.74</v>
@@ -7359,17 +6872,8 @@
       <c r="AL54" s="4">
         <v>0.73423850000000002</v>
       </c>
-      <c r="AM54" s="4">
-        <v>1.0217765999999999</v>
-      </c>
-      <c r="AN54" s="4">
-        <v>1.6283160000000001</v>
-      </c>
-      <c r="AO54" s="4">
-        <v>1.1027213</v>
-      </c>
     </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -7446,28 +6950,28 @@
         <v>0.13031000000000001</v>
       </c>
       <c r="Z55" s="4">
+        <v>3.3073430000000001E-2</v>
+      </c>
+      <c r="AA55" s="4">
+        <v>2.2496519999999999E-2</v>
+      </c>
+      <c r="AB55" s="4">
+        <v>8.4513580000000008E-3</v>
+      </c>
+      <c r="AC55" s="4">
+        <v>1.7138661999999999E-2</v>
+      </c>
+      <c r="AD55" s="4">
+        <v>3.4136154000000002E-2</v>
+      </c>
+      <c r="AE55" s="4">
+        <v>2.8281210000000001E-2</v>
+      </c>
+      <c r="AF55" s="4">
         <v>10.741879000000001</v>
       </c>
-      <c r="AA55" s="4">
+      <c r="AG55" s="4">
         <v>23.22805</v>
-      </c>
-      <c r="AB55" s="4">
-        <v>3.3073430000000001E-2</v>
-      </c>
-      <c r="AC55" s="4">
-        <v>2.2496519999999999E-2</v>
-      </c>
-      <c r="AD55" s="4">
-        <v>8.4513580000000008E-3</v>
-      </c>
-      <c r="AE55" s="4">
-        <v>1.7138661999999999E-2</v>
-      </c>
-      <c r="AF55" s="4">
-        <v>3.4136154000000002E-2</v>
-      </c>
-      <c r="AG55" s="4">
-        <v>2.8281210000000001E-2</v>
       </c>
       <c r="AH55" s="4">
         <v>2.69</v>
@@ -7484,17 +6988,8 @@
       <c r="AL55" s="4">
         <v>0.68933370000000005</v>
       </c>
-      <c r="AM55" s="4">
-        <v>0.6801992</v>
-      </c>
-      <c r="AN55" s="4">
-        <v>2.0279181999999998</v>
-      </c>
-      <c r="AO55" s="4">
-        <v>0.82848279999999996</v>
-      </c>
     </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -7571,28 +7066,28 @@
         <v>9.2249999999999999E-2</v>
       </c>
       <c r="Z56" s="4">
+        <v>2.5898419999999998E-2</v>
+      </c>
+      <c r="AA56" s="4">
+        <v>3.9067379999999999E-2</v>
+      </c>
+      <c r="AB56" s="4">
+        <v>1.6583127999999999E-2</v>
+      </c>
+      <c r="AC56" s="4">
+        <v>1.4558198E-2</v>
+      </c>
+      <c r="AD56" s="4">
+        <v>3.0752696E-2</v>
+      </c>
+      <c r="AE56" s="4">
+        <v>4.1691739999999998E-2</v>
+      </c>
+      <c r="AF56" s="4">
         <v>15.536154</v>
       </c>
-      <c r="AA56" s="4">
+      <c r="AG56" s="4">
         <v>27.159050000000001</v>
-      </c>
-      <c r="AB56" s="4">
-        <v>2.5898419999999998E-2</v>
-      </c>
-      <c r="AC56" s="4">
-        <v>3.9067379999999999E-2</v>
-      </c>
-      <c r="AD56" s="4">
-        <v>1.6583127999999999E-2</v>
-      </c>
-      <c r="AE56" s="4">
-        <v>1.4558198E-2</v>
-      </c>
-      <c r="AF56" s="4">
-        <v>3.0752696E-2</v>
-      </c>
-      <c r="AG56" s="4">
-        <v>4.1691739999999998E-2</v>
       </c>
       <c r="AH56" s="4">
         <v>6.89</v>
@@ -7609,17 +7104,8 @@
       <c r="AL56" s="4">
         <v>0.75603290000000001</v>
       </c>
-      <c r="AM56" s="4">
-        <v>1.5084850000000001</v>
-      </c>
-      <c r="AN56" s="4">
-        <v>0.87789220000000001</v>
-      </c>
-      <c r="AO56" s="4">
-        <v>1.3557101</v>
-      </c>
     </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -7696,28 +7182,28 @@
         <v>9.9559999999999996E-2</v>
       </c>
       <c r="Z57" s="4">
+        <v>1.7186110000000001E-2</v>
+      </c>
+      <c r="AA57" s="4">
+        <v>2.0206439999999999E-2</v>
+      </c>
+      <c r="AB57" s="4">
+        <v>1.1850451999999999E-2</v>
+      </c>
+      <c r="AC57" s="4">
+        <v>1.4219864E-2</v>
+      </c>
+      <c r="AD57" s="4">
+        <v>2.0875715E-2</v>
+      </c>
+      <c r="AE57" s="4">
+        <v>2.4708399999999998E-2</v>
+      </c>
+      <c r="AF57" s="4">
         <v>11.685028000000001</v>
       </c>
-      <c r="AA57" s="4">
+      <c r="AG57" s="4">
         <v>28.078769999999999</v>
-      </c>
-      <c r="AB57" s="4">
-        <v>1.7186110000000001E-2</v>
-      </c>
-      <c r="AC57" s="4">
-        <v>2.0206439999999999E-2</v>
-      </c>
-      <c r="AD57" s="4">
-        <v>1.1850451999999999E-2</v>
-      </c>
-      <c r="AE57" s="4">
-        <v>1.4219864E-2</v>
-      </c>
-      <c r="AF57" s="4">
-        <v>2.0875715E-2</v>
-      </c>
-      <c r="AG57" s="4">
-        <v>2.4708399999999998E-2</v>
       </c>
       <c r="AH57" s="4">
         <v>3.82</v>
@@ -7734,17 +7220,8 @@
       <c r="AL57" s="4">
         <v>0.7027388</v>
       </c>
-      <c r="AM57" s="4">
-        <v>1.1757428000000001</v>
-      </c>
-      <c r="AN57" s="4">
-        <v>1.1999428000000001</v>
-      </c>
-      <c r="AO57" s="4">
-        <v>1.1835952000000001</v>
-      </c>
     </row>
-    <row r="58" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -7821,28 +7298,28 @@
         <v>0.12005</v>
       </c>
       <c r="Z58" s="4">
+        <v>2.544308E-2</v>
+      </c>
+      <c r="AA58" s="4">
+        <v>2.304117E-2</v>
+      </c>
+      <c r="AB58" s="4">
+        <v>8.2878670000000008E-3</v>
+      </c>
+      <c r="AC58" s="4">
+        <v>1.1680158E-2</v>
+      </c>
+      <c r="AD58" s="4">
+        <v>2.675891E-2</v>
+      </c>
+      <c r="AE58" s="4">
+        <v>2.5832569999999999E-2</v>
+      </c>
+      <c r="AF58" s="4">
         <v>12.718762</v>
       </c>
-      <c r="AA58" s="4">
+      <c r="AG58" s="4">
         <v>24.86035</v>
-      </c>
-      <c r="AB58" s="4">
-        <v>2.544308E-2</v>
-      </c>
-      <c r="AC58" s="4">
-        <v>2.304117E-2</v>
-      </c>
-      <c r="AD58" s="4">
-        <v>8.2878670000000008E-3</v>
-      </c>
-      <c r="AE58" s="4">
-        <v>1.1680158E-2</v>
-      </c>
-      <c r="AF58" s="4">
-        <v>2.675891E-2</v>
-      </c>
-      <c r="AG58" s="4">
-        <v>2.5832569999999999E-2</v>
       </c>
       <c r="AH58" s="4">
         <v>3.41</v>
@@ -7859,17 +7336,8 @@
       <c r="AL58" s="4">
         <v>0.74211000000000005</v>
       </c>
-      <c r="AM58" s="4">
-        <v>0.90559659999999997</v>
-      </c>
-      <c r="AN58" s="4">
-        <v>1.409308</v>
-      </c>
-      <c r="AO58" s="4">
-        <v>0.96538190000000002</v>
-      </c>
     </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -7946,28 +7414,28 @@
         <v>0.1406</v>
       </c>
       <c r="Z59" s="4">
+        <v>2.9528519999999999E-2</v>
+      </c>
+      <c r="AA59" s="4">
+        <v>2.7050230000000001E-2</v>
+      </c>
+      <c r="AB59" s="4">
+        <v>1.3423335E-2</v>
+      </c>
+      <c r="AC59" s="4">
+        <v>1.3009671E-2</v>
+      </c>
+      <c r="AD59" s="4">
+        <v>3.2436389000000003E-2</v>
+      </c>
+      <c r="AE59" s="4">
+        <v>3.0016109999999999E-2</v>
+      </c>
+      <c r="AF59" s="4">
         <v>12.362155</v>
       </c>
-      <c r="AA59" s="4">
+      <c r="AG59" s="4">
         <v>25.813790000000001</v>
-      </c>
-      <c r="AB59" s="4">
-        <v>2.9528519999999999E-2</v>
-      </c>
-      <c r="AC59" s="4">
-        <v>2.7050230000000001E-2</v>
-      </c>
-      <c r="AD59" s="4">
-        <v>1.3423335E-2</v>
-      </c>
-      <c r="AE59" s="4">
-        <v>1.3009671E-2</v>
-      </c>
-      <c r="AF59" s="4">
-        <v>3.2436389000000003E-2</v>
-      </c>
-      <c r="AG59" s="4">
-        <v>3.0016109999999999E-2</v>
       </c>
       <c r="AH59" s="4">
         <v>2.69</v>
@@ -7984,17 +7452,8 @@
       <c r="AL59" s="4">
         <v>0.70828219999999997</v>
       </c>
-      <c r="AM59" s="4">
-        <v>0.91607150000000004</v>
-      </c>
-      <c r="AN59" s="4">
-        <v>0.96918329999999997</v>
-      </c>
-      <c r="AO59" s="4">
-        <v>0.92538370000000003</v>
-      </c>
     </row>
-    <row r="60" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -8071,28 +7530,28 @@
         <v>0.13025999999999999</v>
       </c>
       <c r="Z60" s="4">
+        <v>3.8105170000000001E-2</v>
+      </c>
+      <c r="AA60" s="4">
+        <v>2.9444270000000002E-2</v>
+      </c>
+      <c r="AB60" s="4">
+        <v>1.0515633E-2</v>
+      </c>
+      <c r="AC60" s="4">
+        <v>1.9522662E-2</v>
+      </c>
+      <c r="AD60" s="4">
+        <v>3.9529516000000001E-2</v>
+      </c>
+      <c r="AE60" s="4">
+        <v>3.5328449999999997E-2</v>
+      </c>
+      <c r="AF60" s="4">
         <v>13.467497</v>
       </c>
-      <c r="AA60" s="4">
+      <c r="AG60" s="4">
         <v>30.366540000000001</v>
-      </c>
-      <c r="AB60" s="4">
-        <v>3.8105170000000001E-2</v>
-      </c>
-      <c r="AC60" s="4">
-        <v>2.9444270000000002E-2</v>
-      </c>
-      <c r="AD60" s="4">
-        <v>1.0515633E-2</v>
-      </c>
-      <c r="AE60" s="4">
-        <v>1.9522662E-2</v>
-      </c>
-      <c r="AF60" s="4">
-        <v>3.9529516000000001E-2</v>
-      </c>
-      <c r="AG60" s="4">
-        <v>3.5328449999999997E-2</v>
       </c>
       <c r="AH60" s="4">
         <v>2.17</v>
@@ -8109,17 +7568,8 @@
       <c r="AL60" s="4">
         <v>0.66271060000000004</v>
       </c>
-      <c r="AM60" s="4">
-        <v>0.77271069999999997</v>
-      </c>
-      <c r="AN60" s="4">
-        <v>1.8565370000000001</v>
-      </c>
-      <c r="AO60" s="4">
-        <v>0.89372339999999995</v>
-      </c>
     </row>
-    <row r="61" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -8196,28 +7646,28 @@
         <v>0.13394</v>
       </c>
       <c r="Z61" s="4">
+        <v>2.8854640000000001E-2</v>
+      </c>
+      <c r="AA61" s="4">
+        <v>3.0510780000000001E-2</v>
+      </c>
+      <c r="AB61" s="4">
+        <v>1.1111855E-2</v>
+      </c>
+      <c r="AC61" s="4">
+        <v>1.4593556000000001E-2</v>
+      </c>
+      <c r="AD61" s="4">
+        <v>3.0920281000000001E-2</v>
+      </c>
+      <c r="AE61" s="4">
+        <v>3.3821289999999997E-2</v>
+      </c>
+      <c r="AF61" s="4">
         <v>10.875127000000001</v>
       </c>
-      <c r="AA61" s="4">
+      <c r="AG61" s="4">
         <v>32.606340000000003</v>
-      </c>
-      <c r="AB61" s="4">
-        <v>2.8854640000000001E-2</v>
-      </c>
-      <c r="AC61" s="4">
-        <v>3.0510780000000001E-2</v>
-      </c>
-      <c r="AD61" s="4">
-        <v>1.1111855E-2</v>
-      </c>
-      <c r="AE61" s="4">
-        <v>1.4593556000000001E-2</v>
-      </c>
-      <c r="AF61" s="4">
-        <v>3.0920281000000001E-2</v>
-      </c>
-      <c r="AG61" s="4">
-        <v>3.3821289999999997E-2</v>
       </c>
       <c r="AH61" s="4">
         <v>2.62</v>
@@ -8234,17 +7684,8 @@
       <c r="AL61" s="4">
         <v>0.71074499999999996</v>
       </c>
-      <c r="AM61" s="4">
-        <v>1.0573958000000001</v>
-      </c>
-      <c r="AN61" s="4">
-        <v>1.3133322000000001</v>
-      </c>
-      <c r="AO61" s="4">
-        <v>1.0938222</v>
-      </c>
     </row>
-    <row r="62" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -8321,28 +7762,28 @@
         <v>8.7379999999999999E-2</v>
       </c>
       <c r="Z62" s="4">
+        <v>3.0374399999999999E-2</v>
+      </c>
+      <c r="AA62" s="4">
+        <v>2.8763839999999999E-2</v>
+      </c>
+      <c r="AB62" s="4">
+        <v>1.1225318E-2</v>
+      </c>
+      <c r="AC62" s="4">
+        <v>1.6154090999999999E-2</v>
+      </c>
+      <c r="AD62" s="4">
+        <v>3.2382275000000002E-2</v>
+      </c>
+      <c r="AE62" s="4">
+        <v>3.2989589999999999E-2</v>
+      </c>
+      <c r="AF62" s="4">
         <v>10.537159000000001</v>
       </c>
-      <c r="AA62" s="4">
+      <c r="AG62" s="4">
         <v>21.290959999999998</v>
-      </c>
-      <c r="AB62" s="4">
-        <v>3.0374399999999999E-2</v>
-      </c>
-      <c r="AC62" s="4">
-        <v>2.8763839999999999E-2</v>
-      </c>
-      <c r="AD62" s="4">
-        <v>1.1225318E-2</v>
-      </c>
-      <c r="AE62" s="4">
-        <v>1.6154090999999999E-2</v>
-      </c>
-      <c r="AF62" s="4">
-        <v>3.2382275000000002E-2</v>
-      </c>
-      <c r="AG62" s="4">
-        <v>3.2989589999999999E-2</v>
       </c>
       <c r="AH62" s="4">
         <v>6.2</v>
@@ -8359,17 +7800,8 @@
       <c r="AL62" s="4">
         <v>0.76638399999999995</v>
       </c>
-      <c r="AM62" s="4">
-        <v>0.94697659999999995</v>
-      </c>
-      <c r="AN62" s="4">
-        <v>1.4390765000000001</v>
-      </c>
-      <c r="AO62" s="4">
-        <v>1.0187546000000001</v>
-      </c>
     </row>
-    <row r="63" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -8446,28 +7878,28 @@
         <v>8.9810000000000001E-2</v>
       </c>
       <c r="Z63" s="4">
+        <v>3.3316289999999998E-2</v>
+      </c>
+      <c r="AA63" s="4">
+        <v>3.7223840000000001E-2</v>
+      </c>
+      <c r="AB63" s="4">
+        <v>9.6353719999999997E-3</v>
+      </c>
+      <c r="AC63" s="4">
+        <v>1.4417792E-2</v>
+      </c>
+      <c r="AD63" s="4">
+        <v>3.4681629999999998E-2</v>
+      </c>
+      <c r="AE63" s="4">
+        <v>3.9918500000000003E-2</v>
+      </c>
+      <c r="AF63" s="4">
         <v>9.2645569999999999</v>
       </c>
-      <c r="AA63" s="4">
+      <c r="AG63" s="4">
         <v>21.761679999999998</v>
-      </c>
-      <c r="AB63" s="4">
-        <v>3.3316289999999998E-2</v>
-      </c>
-      <c r="AC63" s="4">
-        <v>3.7223840000000001E-2</v>
-      </c>
-      <c r="AD63" s="4">
-        <v>9.6353719999999997E-3</v>
-      </c>
-      <c r="AE63" s="4">
-        <v>1.4417792E-2</v>
-      </c>
-      <c r="AF63" s="4">
-        <v>3.4681629999999998E-2</v>
-      </c>
-      <c r="AG63" s="4">
-        <v>3.9918500000000003E-2</v>
       </c>
       <c r="AH63" s="4">
         <v>3.58</v>
@@ -8484,17 +7916,8 @@
       <c r="AL63" s="4">
         <v>0.69591559999999997</v>
       </c>
-      <c r="AM63" s="4">
-        <v>1.1172865000000001</v>
-      </c>
-      <c r="AN63" s="4">
-        <v>1.4963398999999999</v>
-      </c>
-      <c r="AO63" s="4">
-        <v>1.1509985</v>
-      </c>
     </row>
-    <row r="64" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -8571,28 +7994,28 @@
         <v>0.13589999999999999</v>
       </c>
       <c r="Z64" s="4">
+        <v>4.682762E-2</v>
+      </c>
+      <c r="AA64" s="4">
+        <v>4.1674490000000002E-2</v>
+      </c>
+      <c r="AB64" s="4">
+        <v>1.257671E-2</v>
+      </c>
+      <c r="AC64" s="4">
+        <v>1.5517233E-2</v>
+      </c>
+      <c r="AD64" s="4">
+        <v>4.8487106000000002E-2</v>
+      </c>
+      <c r="AE64" s="4">
+        <v>4.4469630000000003E-2</v>
+      </c>
+      <c r="AF64" s="4">
         <v>7.3894070000000003</v>
       </c>
-      <c r="AA64" s="4">
+      <c r="AG64" s="4">
         <v>21.36055</v>
-      </c>
-      <c r="AB64" s="4">
-        <v>4.682762E-2</v>
-      </c>
-      <c r="AC64" s="4">
-        <v>4.1674490000000002E-2</v>
-      </c>
-      <c r="AD64" s="4">
-        <v>1.257671E-2</v>
-      </c>
-      <c r="AE64" s="4">
-        <v>1.5517233E-2</v>
-      </c>
-      <c r="AF64" s="4">
-        <v>4.8487106000000002E-2</v>
-      </c>
-      <c r="AG64" s="4">
-        <v>4.4469630000000003E-2</v>
       </c>
       <c r="AH64" s="4">
         <v>2.63</v>
@@ -8609,17 +8032,8 @@
       <c r="AL64" s="4">
         <v>0.79033549999999997</v>
       </c>
-      <c r="AM64" s="4">
-        <v>0.88995539999999995</v>
-      </c>
-      <c r="AN64" s="4">
-        <v>1.2338070999999999</v>
-      </c>
-      <c r="AO64" s="4">
-        <v>0.91714329999999999</v>
-      </c>
     </row>
-    <row r="65" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -8696,28 +8110,28 @@
         <v>0.17602000000000001</v>
       </c>
       <c r="Z65" s="4">
+        <v>7.7465069999999997E-2</v>
+      </c>
+      <c r="AA65" s="4">
+        <v>5.8491700000000001E-2</v>
+      </c>
+      <c r="AB65" s="4">
+        <v>1.3587612000000001E-2</v>
+      </c>
+      <c r="AC65" s="4">
+        <v>2.3010367E-2</v>
+      </c>
+      <c r="AD65" s="4">
+        <v>7.8647696000000003E-2</v>
+      </c>
+      <c r="AE65" s="4">
+        <v>6.2855040000000001E-2</v>
+      </c>
+      <c r="AF65" s="4">
         <v>7.1391689999999999</v>
       </c>
-      <c r="AA65" s="4">
+      <c r="AG65" s="4">
         <v>15.445790000000001</v>
-      </c>
-      <c r="AB65" s="4">
-        <v>7.7465069999999997E-2</v>
-      </c>
-      <c r="AC65" s="4">
-        <v>5.8491700000000001E-2</v>
-      </c>
-      <c r="AD65" s="4">
-        <v>1.3587612000000001E-2</v>
-      </c>
-      <c r="AE65" s="4">
-        <v>2.3010367E-2</v>
-      </c>
-      <c r="AF65" s="4">
-        <v>7.8647696000000003E-2</v>
-      </c>
-      <c r="AG65" s="4">
-        <v>6.2855040000000001E-2</v>
       </c>
       <c r="AH65" s="4">
         <v>3.41</v>
@@ -8734,17 +8148,8 @@
       <c r="AL65" s="4">
         <v>0.79957290000000003</v>
       </c>
-      <c r="AM65" s="4">
-        <v>0.75507190000000002</v>
-      </c>
-      <c r="AN65" s="4">
-        <v>1.6934814</v>
-      </c>
-      <c r="AO65" s="4">
-        <v>0.79919739999999995</v>
-      </c>
     </row>
-    <row r="66" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -8821,28 +8226,28 @@
         <v>0.14854000000000001</v>
       </c>
       <c r="Z66" s="4">
+        <v>4.4596940000000002E-2</v>
+      </c>
+      <c r="AA66" s="4">
+        <v>9.8477300000000004E-2</v>
+      </c>
+      <c r="AB66" s="4">
+        <v>1.5437737999999999E-2</v>
+      </c>
+      <c r="AC66" s="4">
+        <v>1.5835663999999999E-2</v>
+      </c>
+      <c r="AD66" s="4">
+        <v>4.7193339000000001E-2</v>
+      </c>
+      <c r="AE66" s="4">
+        <v>9.9742399999999995E-2</v>
+      </c>
+      <c r="AF66" s="4">
         <v>6.8690360000000004</v>
       </c>
-      <c r="AA66" s="4">
+      <c r="AG66" s="4">
         <v>17.617899999999999</v>
-      </c>
-      <c r="AB66" s="4">
-        <v>4.4596940000000002E-2</v>
-      </c>
-      <c r="AC66" s="4">
-        <v>9.8477300000000004E-2</v>
-      </c>
-      <c r="AD66" s="4">
-        <v>1.5437737999999999E-2</v>
-      </c>
-      <c r="AE66" s="4">
-        <v>1.5835663999999999E-2</v>
-      </c>
-      <c r="AF66" s="4">
-        <v>4.7193339000000001E-2</v>
-      </c>
-      <c r="AG66" s="4">
-        <v>9.9742399999999995E-2</v>
       </c>
       <c r="AH66" s="4">
         <v>3.73</v>
@@ -8859,17 +8264,8 @@
       <c r="AL66" s="4">
         <v>0.74381949999999997</v>
       </c>
-      <c r="AM66" s="4">
-        <v>2.2081624</v>
-      </c>
-      <c r="AN66" s="4">
-        <v>1.0257761999999999</v>
-      </c>
-      <c r="AO66" s="4">
-        <v>2.1134846999999999</v>
-      </c>
     </row>
-    <row r="67" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -8946,28 +8342,28 @@
         <v>0.15429000000000001</v>
       </c>
       <c r="Z67" s="4">
+        <v>5.9322390000000003E-2</v>
+      </c>
+      <c r="AA67" s="4">
+        <v>5.073867E-2</v>
+      </c>
+      <c r="AB67" s="4">
+        <v>1.7517347999999999E-2</v>
+      </c>
+      <c r="AC67" s="4">
+        <v>2.9993333E-2</v>
+      </c>
+      <c r="AD67" s="4">
+        <v>6.1854693000000002E-2</v>
+      </c>
+      <c r="AE67" s="4">
+        <v>5.894075E-2</v>
+      </c>
+      <c r="AF67" s="4">
         <v>8.1699289999999998</v>
       </c>
-      <c r="AA67" s="4">
+      <c r="AG67" s="4">
         <v>16.830100000000002</v>
-      </c>
-      <c r="AB67" s="4">
-        <v>5.9322390000000003E-2</v>
-      </c>
-      <c r="AC67" s="4">
-        <v>5.073867E-2</v>
-      </c>
-      <c r="AD67" s="4">
-        <v>1.7517347999999999E-2</v>
-      </c>
-      <c r="AE67" s="4">
-        <v>2.9993333E-2</v>
-      </c>
-      <c r="AF67" s="4">
-        <v>6.1854693000000002E-2</v>
-      </c>
-      <c r="AG67" s="4">
-        <v>5.894075E-2</v>
       </c>
       <c r="AH67" s="4">
         <v>5.29</v>
@@ -8984,17 +8380,8 @@
       <c r="AL67" s="4">
         <v>0.79940999999999995</v>
       </c>
-      <c r="AM67" s="4">
-        <v>0.85530379999999995</v>
-      </c>
-      <c r="AN67" s="4">
-        <v>1.7122074</v>
-      </c>
-      <c r="AO67" s="4">
-        <v>0.95289049999999997</v>
-      </c>
     </row>
-    <row r="68" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -9071,28 +8458,28 @@
         <v>0.10598</v>
       </c>
       <c r="Z68" s="4">
+        <v>3.5471919999999997E-2</v>
+      </c>
+      <c r="AA68" s="4">
+        <v>5.3824749999999998E-2</v>
+      </c>
+      <c r="AB68" s="4">
+        <v>2.0690216000000001E-2</v>
+      </c>
+      <c r="AC68" s="4">
+        <v>2.0233307999999998E-2</v>
+      </c>
+      <c r="AD68" s="4">
+        <v>4.1065098000000001E-2</v>
+      </c>
+      <c r="AE68" s="4">
+        <v>5.75021E-2</v>
+      </c>
+      <c r="AF68" s="4">
         <v>9.5296109999999992</v>
       </c>
-      <c r="AA68" s="4">
+      <c r="AG68" s="4">
         <v>25.49587</v>
-      </c>
-      <c r="AB68" s="4">
-        <v>3.5471919999999997E-2</v>
-      </c>
-      <c r="AC68" s="4">
-        <v>5.3824749999999998E-2</v>
-      </c>
-      <c r="AD68" s="4">
-        <v>2.0690216000000001E-2</v>
-      </c>
-      <c r="AE68" s="4">
-        <v>2.0233307999999998E-2</v>
-      </c>
-      <c r="AF68" s="4">
-        <v>4.1065098000000001E-2</v>
-      </c>
-      <c r="AG68" s="4">
-        <v>5.75021E-2</v>
       </c>
       <c r="AH68" s="4">
         <v>5.7</v>
@@ -9109,17 +8496,8 @@
       <c r="AL68" s="4">
         <v>0.81517269999999997</v>
       </c>
-      <c r="AM68" s="4">
-        <v>1.5173904</v>
-      </c>
-      <c r="AN68" s="4">
-        <v>0.97791669999999997</v>
-      </c>
-      <c r="AO68" s="4">
-        <v>1.4002668</v>
-      </c>
     </row>
-    <row r="69" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -9196,28 +8574,28 @@
         <v>0.12873999999999999</v>
       </c>
       <c r="Z69" s="4">
+        <v>6.1265010000000002E-2</v>
+      </c>
+      <c r="AA69" s="4">
+        <v>7.1069010000000002E-2</v>
+      </c>
+      <c r="AB69" s="4">
+        <v>1.1564789000000001E-2</v>
+      </c>
+      <c r="AC69" s="4">
+        <v>1.6788041E-2</v>
+      </c>
+      <c r="AD69" s="4">
+        <v>6.2346983000000002E-2</v>
+      </c>
+      <c r="AE69" s="4">
+        <v>7.3024950000000005E-2</v>
+      </c>
+      <c r="AF69" s="4">
         <v>7.9908219999999996</v>
       </c>
-      <c r="AA69" s="4">
+      <c r="AG69" s="4">
         <v>18.118960000000001</v>
-      </c>
-      <c r="AB69" s="4">
-        <v>6.1265010000000002E-2</v>
-      </c>
-      <c r="AC69" s="4">
-        <v>7.1069010000000002E-2</v>
-      </c>
-      <c r="AD69" s="4">
-        <v>1.1564789000000001E-2</v>
-      </c>
-      <c r="AE69" s="4">
-        <v>1.6788041E-2</v>
-      </c>
-      <c r="AF69" s="4">
-        <v>6.2346983000000002E-2</v>
-      </c>
-      <c r="AG69" s="4">
-        <v>7.3024950000000005E-2</v>
       </c>
       <c r="AH69" s="4">
         <v>3.12</v>
@@ -9234,17 +8612,8 @@
       <c r="AL69" s="4">
         <v>0.78023609999999999</v>
       </c>
-      <c r="AM69" s="4">
-        <v>1.1600261000000001</v>
-      </c>
-      <c r="AN69" s="4">
-        <v>1.4516511999999999</v>
-      </c>
-      <c r="AO69" s="4">
-        <v>1.1712667000000001</v>
-      </c>
     </row>
-    <row r="70" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -9321,28 +8690,28 @@
         <v>0.11677</v>
       </c>
       <c r="Z70" s="4">
+        <v>2.9159230000000001E-2</v>
+      </c>
+      <c r="AA70" s="4">
+        <v>2.4553760000000001E-2</v>
+      </c>
+      <c r="AB70" s="4">
+        <v>9.6329329999999998E-3</v>
+      </c>
+      <c r="AC70" s="4">
+        <v>1.4358808000000001E-2</v>
+      </c>
+      <c r="AD70" s="4">
+        <v>3.0709184E-2</v>
+      </c>
+      <c r="AE70" s="4">
+        <v>2.844402E-2</v>
+      </c>
+      <c r="AF70" s="4">
         <v>7.8345539999999998</v>
       </c>
-      <c r="AA70" s="4">
+      <c r="AG70" s="4">
         <v>22.661169999999998</v>
-      </c>
-      <c r="AB70" s="4">
-        <v>2.9159230000000001E-2</v>
-      </c>
-      <c r="AC70" s="4">
-        <v>2.4553760000000001E-2</v>
-      </c>
-      <c r="AD70" s="4">
-        <v>9.6329329999999998E-3</v>
-      </c>
-      <c r="AE70" s="4">
-        <v>1.4358808000000001E-2</v>
-      </c>
-      <c r="AF70" s="4">
-        <v>3.0709184E-2</v>
-      </c>
-      <c r="AG70" s="4">
-        <v>2.844402E-2</v>
       </c>
       <c r="AH70" s="4">
         <v>3.13</v>
@@ -9359,17 +8728,8 @@
       <c r="AL70" s="4">
         <v>0.70347850000000001</v>
       </c>
-      <c r="AM70" s="4">
-        <v>0.84205790000000003</v>
-      </c>
-      <c r="AN70" s="4">
-        <v>1.4905957000000001</v>
-      </c>
-      <c r="AO70" s="4">
-        <v>0.92623829999999996</v>
-      </c>
     </row>
-    <row r="71" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -9446,28 +8806,28 @@
         <v>0.13320000000000001</v>
       </c>
       <c r="Z71" s="4">
+        <v>2.9012570000000001E-2</v>
+      </c>
+      <c r="AA71" s="4">
+        <v>4.5615639999999999E-2</v>
+      </c>
+      <c r="AB71" s="4">
+        <v>7.2511379999999999E-3</v>
+      </c>
+      <c r="AC71" s="4">
+        <v>1.5261087E-2</v>
+      </c>
+      <c r="AD71" s="4">
+        <v>2.9904988E-2</v>
+      </c>
+      <c r="AE71" s="4">
+        <v>4.8100810000000001E-2</v>
+      </c>
+      <c r="AF71" s="4">
         <v>8.4123719999999995</v>
       </c>
-      <c r="AA71" s="4">
+      <c r="AG71" s="4">
         <v>24.31101</v>
-      </c>
-      <c r="AB71" s="4">
-        <v>2.9012570000000001E-2</v>
-      </c>
-      <c r="AC71" s="4">
-        <v>4.5615639999999999E-2</v>
-      </c>
-      <c r="AD71" s="4">
-        <v>7.2511379999999999E-3</v>
-      </c>
-      <c r="AE71" s="4">
-        <v>1.5261087E-2</v>
-      </c>
-      <c r="AF71" s="4">
-        <v>2.9904988E-2</v>
-      </c>
-      <c r="AG71" s="4">
-        <v>4.8100810000000001E-2</v>
       </c>
       <c r="AH71" s="4">
         <v>2.2799999999999998</v>
@@ -9484,17 +8844,8 @@
       <c r="AL71" s="4">
         <v>0.76497499999999996</v>
       </c>
-      <c r="AM71" s="4">
-        <v>1.5722716000000001</v>
-      </c>
-      <c r="AN71" s="4">
-        <v>2.1046472000000001</v>
-      </c>
-      <c r="AO71" s="4">
-        <v>1.6084543</v>
-      </c>
     </row>
-    <row r="72" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -9571,28 +8922,28 @@
         <v>0.13014999999999999</v>
       </c>
       <c r="Z72" s="4">
+        <v>4.9467740000000003E-2</v>
+      </c>
+      <c r="AA72" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="AB72" s="4">
+        <v>1.1040882E-2</v>
+      </c>
+      <c r="AC72" s="4">
+        <v>1.9864491000000001E-2</v>
+      </c>
+      <c r="AD72" s="4">
+        <v>5.0684896E-2</v>
+      </c>
+      <c r="AE72" s="4">
+        <v>8.2429349999999998E-2</v>
+      </c>
+      <c r="AF72" s="4">
         <v>8.5669419999999992</v>
       </c>
-      <c r="AA72" s="4">
+      <c r="AG72" s="4">
         <v>21.469899999999999</v>
-      </c>
-      <c r="AB72" s="4">
-        <v>4.9467740000000003E-2</v>
-      </c>
-      <c r="AC72" s="4">
-        <v>0.08</v>
-      </c>
-      <c r="AD72" s="4">
-        <v>1.1040882E-2</v>
-      </c>
-      <c r="AE72" s="4">
-        <v>1.9864491000000001E-2</v>
-      </c>
-      <c r="AF72" s="4">
-        <v>5.0684896E-2</v>
-      </c>
-      <c r="AG72" s="4">
-        <v>8.2429349999999998E-2</v>
       </c>
       <c r="AH72" s="4">
         <v>3.61</v>
@@ -9609,17 +8960,8 @@
       <c r="AL72" s="4">
         <v>0.71160509999999999</v>
       </c>
-      <c r="AM72" s="4">
-        <v>1.6172154999999999</v>
-      </c>
-      <c r="AN72" s="4">
-        <v>1.7991760999999999</v>
-      </c>
-      <c r="AO72" s="4">
-        <v>1.6263099999999999</v>
-      </c>
     </row>
-    <row r="73" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -9696,28 +9038,28 @@
         <v>0.11334</v>
       </c>
       <c r="Z73" s="4">
+        <v>3.3801900000000003E-2</v>
+      </c>
+      <c r="AA73" s="4">
+        <v>3.055865E-2</v>
+      </c>
+      <c r="AB73" s="4">
+        <v>1.2292724E-2</v>
+      </c>
+      <c r="AC73" s="4">
+        <v>1.56124E-2</v>
+      </c>
+      <c r="AD73" s="4">
+        <v>3.5967757000000003E-2</v>
+      </c>
+      <c r="AE73" s="4">
+        <v>3.4315859999999997E-2</v>
+      </c>
+      <c r="AF73" s="4">
         <v>9.0795139999999996</v>
       </c>
-      <c r="AA73" s="4">
+      <c r="AG73" s="4">
         <v>27.05396</v>
-      </c>
-      <c r="AB73" s="4">
-        <v>3.3801900000000003E-2</v>
-      </c>
-      <c r="AC73" s="4">
-        <v>3.055865E-2</v>
-      </c>
-      <c r="AD73" s="4">
-        <v>1.2292724E-2</v>
-      </c>
-      <c r="AE73" s="4">
-        <v>1.56124E-2</v>
-      </c>
-      <c r="AF73" s="4">
-        <v>3.5967757000000003E-2</v>
-      </c>
-      <c r="AG73" s="4">
-        <v>3.4315859999999997E-2</v>
       </c>
       <c r="AH73" s="4">
         <v>3.23</v>
@@ -9734,17 +9076,8 @@
       <c r="AL73" s="4">
         <v>0.68449780000000005</v>
       </c>
-      <c r="AM73" s="4">
-        <v>0.9040513</v>
-      </c>
-      <c r="AN73" s="4">
-        <v>1.2700521</v>
-      </c>
-      <c r="AO73" s="4">
-        <v>0.95407280000000005</v>
-      </c>
     </row>
-    <row r="74" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -9821,28 +9154,28 @@
         <v>0.11237</v>
       </c>
       <c r="Z74" s="4">
+        <v>3.4455680000000002E-2</v>
+      </c>
+      <c r="AA74" s="4">
+        <v>7.9419770000000001E-2</v>
+      </c>
+      <c r="AB74" s="4">
+        <v>1.2583393999999999E-2</v>
+      </c>
+      <c r="AC74" s="4">
+        <v>2.0017942E-2</v>
+      </c>
+      <c r="AD74" s="4">
+        <v>3.6681545000000003E-2</v>
+      </c>
+      <c r="AE74" s="4">
+        <v>8.1903710000000005E-2</v>
+      </c>
+      <c r="AF74" s="4">
         <v>10.304952</v>
       </c>
-      <c r="AA74" s="4">
+      <c r="AG74" s="4">
         <v>19.68844</v>
-      </c>
-      <c r="AB74" s="4">
-        <v>3.4455680000000002E-2</v>
-      </c>
-      <c r="AC74" s="4">
-        <v>7.9419770000000001E-2</v>
-      </c>
-      <c r="AD74" s="4">
-        <v>1.2583393999999999E-2</v>
-      </c>
-      <c r="AE74" s="4">
-        <v>2.0017942E-2</v>
-      </c>
-      <c r="AF74" s="4">
-        <v>3.6681545000000003E-2</v>
-      </c>
-      <c r="AG74" s="4">
-        <v>8.1903710000000005E-2</v>
       </c>
       <c r="AH74" s="4">
         <v>4.26</v>
@@ -9859,17 +9192,8 @@
       <c r="AL74" s="4">
         <v>0.78294750000000002</v>
       </c>
-      <c r="AM74" s="4">
-        <v>2.3049833999999998</v>
-      </c>
-      <c r="AN74" s="4">
-        <v>1.5908222000000001</v>
-      </c>
-      <c r="AO74" s="4">
-        <v>2.2328315999999999</v>
-      </c>
     </row>
-    <row r="75" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -9946,28 +9270,28 @@
         <v>8.8349999999999998E-2</v>
       </c>
       <c r="Z75" s="4">
+        <v>3.9904210000000002E-2</v>
+      </c>
+      <c r="AA75" s="4">
+        <v>5.9696640000000002E-2</v>
+      </c>
+      <c r="AB75" s="4">
+        <v>1.5804164999999998E-2</v>
+      </c>
+      <c r="AC75" s="4">
+        <v>1.7444113000000001E-2</v>
+      </c>
+      <c r="AD75" s="4">
+        <v>4.2919899999999997E-2</v>
+      </c>
+      <c r="AE75" s="4">
+        <v>6.2193129999999999E-2</v>
+      </c>
+      <c r="AF75" s="4">
         <v>14.277310999999999</v>
       </c>
-      <c r="AA75" s="4">
+      <c r="AG75" s="4">
         <v>21.856909999999999</v>
-      </c>
-      <c r="AB75" s="4">
-        <v>3.9904210000000002E-2</v>
-      </c>
-      <c r="AC75" s="4">
-        <v>5.9696640000000002E-2</v>
-      </c>
-      <c r="AD75" s="4">
-        <v>1.5804164999999998E-2</v>
-      </c>
-      <c r="AE75" s="4">
-        <v>1.7444113000000001E-2</v>
-      </c>
-      <c r="AF75" s="4">
-        <v>4.2919899999999997E-2</v>
-      </c>
-      <c r="AG75" s="4">
-        <v>6.2193129999999999E-2</v>
       </c>
       <c r="AH75" s="4">
         <v>10.41</v>
@@ -9984,17 +9308,8 @@
       <c r="AL75" s="4">
         <v>0.77316229999999997</v>
       </c>
-      <c r="AM75" s="4">
-        <v>1.4959985</v>
-      </c>
-      <c r="AN75" s="4">
-        <v>1.1037669000000001</v>
-      </c>
-      <c r="AO75" s="4">
-        <v>1.4490513</v>
-      </c>
     </row>
-    <row r="76" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -10071,28 +9386,28 @@
         <v>0.12678</v>
       </c>
       <c r="Z76" s="4">
+        <v>3.4963510000000003E-2</v>
+      </c>
+      <c r="AA76" s="4">
+        <v>2.8731940000000001E-2</v>
+      </c>
+      <c r="AB76" s="4">
+        <v>1.8619592000000001E-2</v>
+      </c>
+      <c r="AC76" s="4">
+        <v>1.5779985999999999E-2</v>
+      </c>
+      <c r="AD76" s="4">
+        <v>3.9612323999999997E-2</v>
+      </c>
+      <c r="AE76" s="4">
+        <v>3.278006E-2</v>
+      </c>
+      <c r="AF76" s="4">
         <v>10.571814</v>
       </c>
-      <c r="AA76" s="4">
+      <c r="AG76" s="4">
         <v>24.28847</v>
-      </c>
-      <c r="AB76" s="4">
-        <v>3.4963510000000003E-2</v>
-      </c>
-      <c r="AC76" s="4">
-        <v>2.8731940000000001E-2</v>
-      </c>
-      <c r="AD76" s="4">
-        <v>1.8619592000000001E-2</v>
-      </c>
-      <c r="AE76" s="4">
-        <v>1.5779985999999999E-2</v>
-      </c>
-      <c r="AF76" s="4">
-        <v>3.9612323999999997E-2</v>
-      </c>
-      <c r="AG76" s="4">
-        <v>3.278006E-2</v>
       </c>
       <c r="AH76" s="4">
         <v>4.91</v>
@@ -10109,17 +9424,8 @@
       <c r="AL76" s="4">
         <v>0.76986770000000004</v>
       </c>
-      <c r="AM76" s="4">
-        <v>0.82176919999999998</v>
-      </c>
-      <c r="AN76" s="4">
-        <v>0.84749359999999996</v>
-      </c>
-      <c r="AO76" s="4">
-        <v>0.82752170000000003</v>
-      </c>
     </row>
-    <row r="77" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -10196,28 +9502,28 @@
         <v>0.12623999999999999</v>
       </c>
       <c r="Z77" s="4">
+        <v>3.4937940000000001E-2</v>
+      </c>
+      <c r="AA77" s="4">
+        <v>5.0350039999999999E-2</v>
+      </c>
+      <c r="AB77" s="4">
+        <v>9.9004939999999993E-3</v>
+      </c>
+      <c r="AC77" s="4">
+        <v>2.1159632000000001E-2</v>
+      </c>
+      <c r="AD77" s="4">
+        <v>3.6313626000000002E-2</v>
+      </c>
+      <c r="AE77" s="4">
+        <v>5.4615530000000002E-2</v>
+      </c>
+      <c r="AF77" s="4">
         <v>10.411922000000001</v>
       </c>
-      <c r="AA77" s="4">
+      <c r="AG77" s="4">
         <v>25.34479</v>
-      </c>
-      <c r="AB77" s="4">
-        <v>3.4937940000000001E-2</v>
-      </c>
-      <c r="AC77" s="4">
-        <v>5.0350039999999999E-2</v>
-      </c>
-      <c r="AD77" s="4">
-        <v>9.9004939999999993E-3</v>
-      </c>
-      <c r="AE77" s="4">
-        <v>2.1159632000000001E-2</v>
-      </c>
-      <c r="AF77" s="4">
-        <v>3.6313626000000002E-2</v>
-      </c>
-      <c r="AG77" s="4">
-        <v>5.4615530000000002E-2</v>
       </c>
       <c r="AH77" s="4">
         <v>3.79</v>
@@ -10234,17 +9540,8 @@
       <c r="AL77" s="4">
         <v>0.78487899999999999</v>
       </c>
-      <c r="AM77" s="4">
-        <v>1.4411278000000001</v>
-      </c>
-      <c r="AN77" s="4">
-        <v>2.1372298000000001</v>
-      </c>
-      <c r="AO77" s="4">
-        <v>1.5039956000000001</v>
-      </c>
     </row>
-    <row r="78" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -10321,28 +9618,28 @@
         <v>0.13272999999999999</v>
       </c>
       <c r="Z78" s="4">
+        <v>6.0957560000000001E-2</v>
+      </c>
+      <c r="AA78" s="4">
+        <v>6.7043909999999998E-2</v>
+      </c>
+      <c r="AB78" s="4">
+        <v>1.3656322E-2</v>
+      </c>
+      <c r="AC78" s="4">
+        <v>1.2027024000000001E-2</v>
+      </c>
+      <c r="AD78" s="4">
+        <v>6.2468548999999998E-2</v>
+      </c>
+      <c r="AE78" s="4">
+        <v>6.8114140000000004E-2</v>
+      </c>
+      <c r="AF78" s="4">
         <v>11.012456</v>
       </c>
-      <c r="AA78" s="4">
+      <c r="AG78" s="4">
         <v>26.631049999999998</v>
-      </c>
-      <c r="AB78" s="4">
-        <v>6.0957560000000001E-2</v>
-      </c>
-      <c r="AC78" s="4">
-        <v>6.7043909999999998E-2</v>
-      </c>
-      <c r="AD78" s="4">
-        <v>1.3656322E-2</v>
-      </c>
-      <c r="AE78" s="4">
-        <v>1.2027024000000001E-2</v>
-      </c>
-      <c r="AF78" s="4">
-        <v>6.2468548999999998E-2</v>
-      </c>
-      <c r="AG78" s="4">
-        <v>6.8114140000000004E-2</v>
       </c>
       <c r="AH78" s="4">
         <v>2.98</v>
@@ -10359,17 +9656,8 @@
       <c r="AL78" s="4">
         <v>0.70615879999999998</v>
       </c>
-      <c r="AM78" s="4">
-        <v>1.0998456999999999</v>
-      </c>
-      <c r="AN78" s="4">
-        <v>0.88069280000000005</v>
-      </c>
-      <c r="AO78" s="4">
-        <v>1.0903749</v>
-      </c>
     </row>
-    <row r="79" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -10446,28 +9734,28 @@
         <v>0.11799999999999999</v>
       </c>
       <c r="Z79" s="4">
+        <v>3.4851430000000003E-2</v>
+      </c>
+      <c r="AA79" s="4">
+        <v>2.544799E-2</v>
+      </c>
+      <c r="AB79" s="4">
+        <v>1.1259758E-2</v>
+      </c>
+      <c r="AC79" s="4">
+        <v>2.1074842E-2</v>
+      </c>
+      <c r="AD79" s="4">
+        <v>3.6625191000000001E-2</v>
+      </c>
+      <c r="AE79" s="4">
+        <v>3.3041630000000002E-2</v>
+      </c>
+      <c r="AF79" s="4">
         <v>9.4682910000000007</v>
       </c>
-      <c r="AA79" s="4">
+      <c r="AG79" s="4">
         <v>24.392610000000001</v>
-      </c>
-      <c r="AB79" s="4">
-        <v>3.4851430000000003E-2</v>
-      </c>
-      <c r="AC79" s="4">
-        <v>2.544799E-2</v>
-      </c>
-      <c r="AD79" s="4">
-        <v>1.1259758E-2</v>
-      </c>
-      <c r="AE79" s="4">
-        <v>2.1074842E-2</v>
-      </c>
-      <c r="AF79" s="4">
-        <v>3.6625191000000001E-2</v>
-      </c>
-      <c r="AG79" s="4">
-        <v>3.3041630000000002E-2</v>
       </c>
       <c r="AH79" s="4">
         <v>3.54</v>
@@ -10484,17 +9772,8 @@
       <c r="AL79" s="4">
         <v>0.65718169999999998</v>
       </c>
-      <c r="AM79" s="4">
-        <v>0.73018490000000003</v>
-      </c>
-      <c r="AN79" s="4">
-        <v>1.8716957999999999</v>
-      </c>
-      <c r="AO79" s="4">
-        <v>0.90215579999999995</v>
-      </c>
     </row>
-    <row r="80" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -10571,28 +9850,28 @@
         <v>0.1240542</v>
       </c>
       <c r="Z80" s="4">
+        <v>2.1128910000000001E-2</v>
+      </c>
+      <c r="AA80" s="4">
+        <v>2.6130110000000002E-2</v>
+      </c>
+      <c r="AB80" s="4">
+        <v>7.2939229999999999E-3</v>
+      </c>
+      <c r="AC80" s="4">
+        <v>1.2405965E-2</v>
+      </c>
+      <c r="AD80" s="4">
+        <v>2.2352450999999999E-2</v>
+      </c>
+      <c r="AE80" s="4">
+        <v>2.8925610000000001E-2</v>
+      </c>
+      <c r="AF80" s="4">
         <v>5.8445320000000001</v>
       </c>
-      <c r="AA80" s="4">
+      <c r="AG80" s="4">
         <v>14.571059999999999</v>
-      </c>
-      <c r="AB80" s="4">
-        <v>2.1128910000000001E-2</v>
-      </c>
-      <c r="AC80" s="4">
-        <v>2.6130110000000002E-2</v>
-      </c>
-      <c r="AD80" s="4">
-        <v>7.2939229999999999E-3</v>
-      </c>
-      <c r="AE80" s="4">
-        <v>1.2405965E-2</v>
-      </c>
-      <c r="AF80" s="4">
-        <v>2.2352450999999999E-2</v>
-      </c>
-      <c r="AG80" s="4">
-        <v>2.8925610000000001E-2</v>
       </c>
       <c r="AH80" s="4">
         <v>3.630207</v>
@@ -10609,17 +9888,8 @@
       <c r="AL80" s="4">
         <v>0.82156689999999999</v>
       </c>
-      <c r="AM80" s="4">
-        <v>1.2366995999999999</v>
-      </c>
-      <c r="AN80" s="4">
-        <v>1.7008631000000001</v>
-      </c>
-      <c r="AO80" s="4">
-        <v>1.2940687</v>
-      </c>
     </row>
-    <row r="81" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -10696,28 +9966,28 @@
         <v>0.1441046</v>
       </c>
       <c r="Z81" s="4">
+        <v>3.4333019999999999E-2</v>
+      </c>
+      <c r="AA81" s="4">
+        <v>3.3687809999999999E-2</v>
+      </c>
+      <c r="AB81" s="4">
+        <v>7.7280049999999996E-3</v>
+      </c>
+      <c r="AC81" s="4">
+        <v>1.7045589E-2</v>
+      </c>
+      <c r="AD81" s="4">
+        <v>3.5192023000000003E-2</v>
+      </c>
+      <c r="AE81" s="4">
+        <v>3.7754740000000002E-2</v>
+      </c>
+      <c r="AF81" s="4">
         <v>7.4863939999999998</v>
       </c>
-      <c r="AA81" s="4">
+      <c r="AG81" s="4">
         <v>15.133929999999999</v>
-      </c>
-      <c r="AB81" s="4">
-        <v>3.4333019999999999E-2</v>
-      </c>
-      <c r="AC81" s="4">
-        <v>3.3687809999999999E-2</v>
-      </c>
-      <c r="AD81" s="4">
-        <v>7.7280049999999996E-3</v>
-      </c>
-      <c r="AE81" s="4">
-        <v>1.7045589E-2</v>
-      </c>
-      <c r="AF81" s="4">
-        <v>3.5192023000000003E-2</v>
-      </c>
-      <c r="AG81" s="4">
-        <v>3.7754740000000002E-2</v>
       </c>
       <c r="AH81" s="4">
         <v>3.5538270000000001</v>
@@ -10734,17 +10004,8 @@
       <c r="AL81" s="4">
         <v>0.78273570000000003</v>
       </c>
-      <c r="AM81" s="4">
-        <v>0.98120719999999995</v>
-      </c>
-      <c r="AN81" s="4">
-        <v>2.2056906000000001</v>
-      </c>
-      <c r="AO81" s="4">
-        <v>1.072821</v>
-      </c>
     </row>
-    <row r="82" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -10821,28 +10082,28 @@
         <v>0.1518475</v>
       </c>
       <c r="Z82" s="4">
+        <v>3.6133129999999999E-2</v>
+      </c>
+      <c r="AA82" s="4">
+        <v>5.9908450000000002E-2</v>
+      </c>
+      <c r="AB82" s="4">
+        <v>1.2043267E-2</v>
+      </c>
+      <c r="AC82" s="4">
+        <v>1.7999771000000001E-2</v>
+      </c>
+      <c r="AD82" s="4">
+        <v>3.8087309E-2</v>
+      </c>
+      <c r="AE82" s="4">
+        <v>6.2554090000000007E-2</v>
+      </c>
+      <c r="AF82" s="4">
         <v>8.7410099999999993</v>
       </c>
-      <c r="AA82" s="4">
+      <c r="AG82" s="4">
         <v>16.125979999999998</v>
-      </c>
-      <c r="AB82" s="4">
-        <v>3.6133129999999999E-2</v>
-      </c>
-      <c r="AC82" s="4">
-        <v>5.9908450000000002E-2</v>
-      </c>
-      <c r="AD82" s="4">
-        <v>1.2043267E-2</v>
-      </c>
-      <c r="AE82" s="4">
-        <v>1.7999771000000001E-2</v>
-      </c>
-      <c r="AF82" s="4">
-        <v>3.8087309E-2</v>
-      </c>
-      <c r="AG82" s="4">
-        <v>6.2554090000000007E-2</v>
       </c>
       <c r="AH82" s="4">
         <v>4.1225269999999998</v>
@@ -10859,17 +10120,8 @@
       <c r="AL82" s="4">
         <v>0.86369680000000004</v>
       </c>
-      <c r="AM82" s="4">
-        <v>1.6579925</v>
-      </c>
-      <c r="AN82" s="4">
-        <v>1.4945919999999999</v>
-      </c>
-      <c r="AO82" s="4">
-        <v>1.6423867999999999</v>
-      </c>
     </row>
-    <row r="83" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -10946,28 +10198,28 @@
         <v>0.1621165</v>
       </c>
       <c r="Z83" s="4">
+        <v>3.1583350000000003E-2</v>
+      </c>
+      <c r="AA83" s="4">
+        <v>3.0383110000000001E-2</v>
+      </c>
+      <c r="AB83" s="4">
+        <v>2.0938961999999998E-2</v>
+      </c>
+      <c r="AC83" s="4">
+        <v>2.9491122000000002E-2</v>
+      </c>
+      <c r="AD83" s="4">
+        <v>3.7893909000000003E-2</v>
+      </c>
+      <c r="AE83" s="4">
+        <v>4.2342169999999998E-2</v>
+      </c>
+      <c r="AF83" s="4">
         <v>7.3900490000000003</v>
       </c>
-      <c r="AA83" s="4">
+      <c r="AG83" s="4">
         <v>13.368359999999999</v>
-      </c>
-      <c r="AB83" s="4">
-        <v>3.1583350000000003E-2</v>
-      </c>
-      <c r="AC83" s="4">
-        <v>3.0383110000000001E-2</v>
-      </c>
-      <c r="AD83" s="4">
-        <v>2.0938961999999998E-2</v>
-      </c>
-      <c r="AE83" s="4">
-        <v>2.9491122000000002E-2</v>
-      </c>
-      <c r="AF83" s="4">
-        <v>3.7893909000000003E-2</v>
-      </c>
-      <c r="AG83" s="4">
-        <v>4.2342169999999998E-2</v>
       </c>
       <c r="AH83" s="4">
         <v>5.7743289999999998</v>
@@ -10984,17 +10236,8 @@
       <c r="AL83" s="4">
         <v>0.82769250000000005</v>
       </c>
-      <c r="AM83" s="4">
-        <v>0.96199749999999995</v>
-      </c>
-      <c r="AN83" s="4">
-        <v>1.4084329</v>
-      </c>
-      <c r="AO83" s="4">
-        <v>1.1173872</v>
-      </c>
     </row>
-    <row r="84" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -11071,28 +10314,28 @@
         <v>0.18124170000000001</v>
       </c>
       <c r="Z84" s="4">
+        <v>4.452221E-2</v>
+      </c>
+      <c r="AA84" s="4">
+        <v>3.7674760000000002E-2</v>
+      </c>
+      <c r="AB84" s="4">
+        <v>1.1604903999999999E-2</v>
+      </c>
+      <c r="AC84" s="4">
+        <v>2.1142393999999998E-2</v>
+      </c>
+      <c r="AD84" s="4">
+        <v>4.6009793E-2</v>
+      </c>
+      <c r="AE84" s="4">
+        <v>4.3201719999999999E-2</v>
+      </c>
+      <c r="AF84" s="4">
         <v>6.8178840000000003</v>
       </c>
-      <c r="AA84" s="4">
+      <c r="AG84" s="4">
         <v>12.219049999999999</v>
-      </c>
-      <c r="AB84" s="4">
-        <v>4.452221E-2</v>
-      </c>
-      <c r="AC84" s="4">
-        <v>3.7674760000000002E-2</v>
-      </c>
-      <c r="AD84" s="4">
-        <v>1.1604903999999999E-2</v>
-      </c>
-      <c r="AE84" s="4">
-        <v>2.1142393999999998E-2</v>
-      </c>
-      <c r="AF84" s="4">
-        <v>4.6009793E-2</v>
-      </c>
-      <c r="AG84" s="4">
-        <v>4.3201719999999999E-2</v>
       </c>
       <c r="AH84" s="4">
         <v>7.5117979999999998</v>
@@ -11109,17 +10352,8 @@
       <c r="AL84" s="4">
         <v>0.86213740000000005</v>
       </c>
-      <c r="AM84" s="4">
-        <v>0.84620150000000005</v>
-      </c>
-      <c r="AN84" s="4">
-        <v>1.82185</v>
-      </c>
-      <c r="AO84" s="4">
-        <v>0.93896789999999997</v>
-      </c>
     </row>
-    <row r="85" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -11196,28 +10430,28 @@
         <v>0.1715489</v>
       </c>
       <c r="Z85" s="4">
+        <v>3.2550780000000001E-2</v>
+      </c>
+      <c r="AA85" s="4">
+        <v>5.5245280000000001E-2</v>
+      </c>
+      <c r="AB85" s="4">
+        <v>7.2208630000000001E-3</v>
+      </c>
+      <c r="AC85" s="4">
+        <v>2.2558109E-2</v>
+      </c>
+      <c r="AD85" s="4">
+        <v>3.3342075999999998E-2</v>
+      </c>
+      <c r="AE85" s="4">
+        <v>5.967335E-2</v>
+      </c>
+      <c r="AF85" s="4">
         <v>4.8416680000000003</v>
       </c>
-      <c r="AA85" s="4">
+      <c r="AG85" s="4">
         <v>12.70696</v>
-      </c>
-      <c r="AB85" s="4">
-        <v>3.2550780000000001E-2</v>
-      </c>
-      <c r="AC85" s="4">
-        <v>5.5245280000000001E-2</v>
-      </c>
-      <c r="AD85" s="4">
-        <v>7.2208630000000001E-3</v>
-      </c>
-      <c r="AE85" s="4">
-        <v>2.2558109E-2</v>
-      </c>
-      <c r="AF85" s="4">
-        <v>3.3342075999999998E-2</v>
-      </c>
-      <c r="AG85" s="4">
-        <v>5.967335E-2</v>
       </c>
       <c r="AH85" s="4">
         <v>2.411931</v>
@@ -11234,17 +10468,8 @@
       <c r="AL85" s="4">
         <v>0.89077949999999995</v>
       </c>
-      <c r="AM85" s="4">
-        <v>1.697203</v>
-      </c>
-      <c r="AN85" s="4">
-        <v>3.1240182999999999</v>
-      </c>
-      <c r="AO85" s="4">
-        <v>1.7897312000000001</v>
-      </c>
     </row>
-    <row r="86" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
     </row>
   </sheetData>

--- a/data/DATA_means.xlsx
+++ b/data/DATA_means.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameslofty/Documents/GitHub/saltation_microplastic/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB34131-56DD-034D-915B-38D29B95D166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED51515F-CFCD-874E-B746-E5CA35C9200B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19280" xr2:uid="{E5557858-9316-1449-BD86-093EF3B67E76}"/>
+    <workbookView xWindow="-220" yWindow="-18360" windowWidth="33020" windowHeight="16280" xr2:uid="{E5557858-9316-1449-BD86-093EF3B67E76}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="59">
   <si>
     <t>PA</t>
   </si>
@@ -201,6 +201,18 @@
   </si>
   <si>
     <t>Up/u* std (-)</t>
+  </si>
+  <si>
+    <t>Lp1 (-)</t>
+  </si>
+  <si>
+    <t>Lp2 (-)</t>
+  </si>
+  <si>
+    <t>Lp1_std (-)</t>
+  </si>
+  <si>
+    <t>Lp2_std (-)</t>
   </si>
 </sst>
 </file>
@@ -583,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E62E3E9-428E-A345-ABEC-CA5046B24682}">
-  <dimension ref="A1:AL86"/>
+  <dimension ref="A1:AP86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="AJ14" sqref="AJ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -611,7 +623,7 @@
     <col min="34" max="38" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>18</v>
@@ -724,8 +736,20 @@
       <c r="AL1" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="AM1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -840,8 +864,20 @@
       <c r="AL2" s="4">
         <v>0.77096849999999995</v>
       </c>
+      <c r="AM2" s="2">
+        <v>3.2585090000000001</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>1.0389037999999999</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>4.6963010000000001</v>
+      </c>
+      <c r="AP2" s="2">
+        <v>1.5897806000000001</v>
+      </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -956,8 +992,20 @@
       <c r="AL3" s="4">
         <v>0.772787</v>
       </c>
+      <c r="AM3" s="2">
+        <v>3.5162239999999998</v>
+      </c>
+      <c r="AN3" s="2">
+        <v>1.2892619999999999</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>5.2616880000000004</v>
+      </c>
+      <c r="AP3" s="2">
+        <v>2.1808041999999999</v>
+      </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1072,8 +1120,20 @@
       <c r="AL4" s="4">
         <v>0.78333560000000002</v>
       </c>
+      <c r="AM4" s="2">
+        <v>4.5757260000000004</v>
+      </c>
+      <c r="AN4" s="2">
+        <v>1.6671959000000001</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>6.2803849999999999</v>
+      </c>
+      <c r="AP4" s="2">
+        <v>2.2550754999999998</v>
+      </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1188,8 +1248,20 @@
       <c r="AL5" s="4">
         <v>0.78731910000000005</v>
       </c>
+      <c r="AM5" s="2">
+        <v>5.6686649999999998</v>
+      </c>
+      <c r="AN5" s="2">
+        <v>2.4649711999999999</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>9.3272119999999994</v>
+      </c>
+      <c r="AP5" s="2">
+        <v>3.8804417999999998</v>
+      </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1304,8 +1376,20 @@
       <c r="AL6" s="4">
         <v>0.81894270000000002</v>
       </c>
+      <c r="AM6" s="2">
+        <v>5.7583589999999996</v>
+      </c>
+      <c r="AN6" s="2">
+        <v>2.4360466000000001</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>8.1018349999999995</v>
+      </c>
+      <c r="AP6" s="2">
+        <v>3.4842349000000001</v>
+      </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1420,8 +1504,20 @@
       <c r="AL7" s="4">
         <v>0.80649800000000005</v>
       </c>
+      <c r="AM7" s="2">
+        <v>5.5979570000000001</v>
+      </c>
+      <c r="AN7" s="2">
+        <v>2.1301294999999998</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>8.3929209999999994</v>
+      </c>
+      <c r="AP7" s="2">
+        <v>3.2190319000000001</v>
+      </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1536,8 +1632,20 @@
       <c r="AL8" s="4">
         <v>0.7639357</v>
       </c>
+      <c r="AM8" s="2">
+        <v>1.615883</v>
+      </c>
+      <c r="AN8" s="2">
+        <v>0.63840529999999995</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>2.2992720000000002</v>
+      </c>
+      <c r="AP8" s="2">
+        <v>0.7832964</v>
+      </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1652,8 +1760,20 @@
       <c r="AL9" s="4">
         <v>0.77425650000000001</v>
       </c>
+      <c r="AM9" s="2">
+        <v>2.0932210000000002</v>
+      </c>
+      <c r="AN9" s="2">
+        <v>0.86658659999999998</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>2.9069639999999999</v>
+      </c>
+      <c r="AP9" s="2">
+        <v>1.0318794</v>
+      </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1768,8 +1888,20 @@
       <c r="AL10" s="4">
         <v>0.80544649999999995</v>
       </c>
+      <c r="AM10" s="2">
+        <v>2.4998710000000002</v>
+      </c>
+      <c r="AN10" s="2">
+        <v>0.72136489999999998</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>3.5961400000000001</v>
+      </c>
+      <c r="AP10" s="2">
+        <v>1.1791399</v>
+      </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1884,8 +2016,20 @@
       <c r="AL11" s="4">
         <v>0.79449199999999998</v>
       </c>
+      <c r="AM11" s="2">
+        <v>2.6723140000000001</v>
+      </c>
+      <c r="AN11" s="2">
+        <v>0.92382949999999997</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>3.719646</v>
+      </c>
+      <c r="AP11" s="2">
+        <v>1.3799121999999999</v>
+      </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2000,8 +2144,20 @@
       <c r="AL12" s="4">
         <v>0.77775380000000005</v>
       </c>
+      <c r="AM12" s="2">
+        <v>3.298127</v>
+      </c>
+      <c r="AN12" s="2">
+        <v>1.1790666999999999</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>4.7432270000000001</v>
+      </c>
+      <c r="AP12" s="2">
+        <v>1.7547937</v>
+      </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2116,8 +2272,20 @@
       <c r="AL13" s="4">
         <v>0.78138300000000005</v>
       </c>
+      <c r="AM13" s="2">
+        <v>3.3919899999999998</v>
+      </c>
+      <c r="AN13" s="2">
+        <v>1.3750769</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>4.8007520000000001</v>
+      </c>
+      <c r="AP13" s="2">
+        <v>1.9524846</v>
+      </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2232,8 +2400,20 @@
       <c r="AL14" s="4">
         <v>0.76187000000000005</v>
       </c>
+      <c r="AM14" s="2">
+        <v>1.380549</v>
+      </c>
+      <c r="AN14" s="2">
+        <v>0.51966860000000004</v>
+      </c>
+      <c r="AO14" s="2">
+        <v>1.9820439999999999</v>
+      </c>
+      <c r="AP14" s="2">
+        <v>0.69464239999999999</v>
+      </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2348,8 +2528,20 @@
       <c r="AL15" s="4">
         <v>0.77221550000000005</v>
       </c>
+      <c r="AM15" s="2">
+        <v>1.7168410000000001</v>
+      </c>
+      <c r="AN15" s="2">
+        <v>0.68591230000000003</v>
+      </c>
+      <c r="AO15" s="2">
+        <v>2.4727399999999999</v>
+      </c>
+      <c r="AP15" s="2">
+        <v>0.86666909999999997</v>
+      </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2464,8 +2656,20 @@
       <c r="AL16" s="4">
         <v>0.77033600000000002</v>
       </c>
+      <c r="AM16" s="2">
+        <v>2.2454689999999999</v>
+      </c>
+      <c r="AN16" s="2">
+        <v>0.94153419999999999</v>
+      </c>
+      <c r="AO16" s="2">
+        <v>3.3616429999999999</v>
+      </c>
+      <c r="AP16" s="2">
+        <v>1.3526688</v>
+      </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2580,8 +2784,20 @@
       <c r="AL17" s="4">
         <v>0.79892660000000004</v>
       </c>
+      <c r="AM17" s="2">
+        <v>2.2909410000000001</v>
+      </c>
+      <c r="AN17" s="2">
+        <v>0.84496669999999996</v>
+      </c>
+      <c r="AO17" s="2">
+        <v>3.2261060000000001</v>
+      </c>
+      <c r="AP17" s="2">
+        <v>1.2185345999999999</v>
+      </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2696,8 +2912,20 @@
       <c r="AL18" s="4">
         <v>0.77983559999999996</v>
       </c>
+      <c r="AM18" s="2">
+        <v>3.0990920000000002</v>
+      </c>
+      <c r="AN18" s="2">
+        <v>0.98836520000000005</v>
+      </c>
+      <c r="AO18" s="2">
+        <v>4.7167320000000004</v>
+      </c>
+      <c r="AP18" s="2">
+        <v>2.0112697000000002</v>
+      </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2812,8 +3040,20 @@
       <c r="AL19" s="4">
         <v>0.80431779999999997</v>
       </c>
+      <c r="AM19" s="2">
+        <v>2.850533</v>
+      </c>
+      <c r="AN19" s="2">
+        <v>0.91036229999999996</v>
+      </c>
+      <c r="AO19" s="2">
+        <v>4.0475570000000003</v>
+      </c>
+      <c r="AP19" s="2">
+        <v>1.3998554000000001</v>
+      </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2928,8 +3168,20 @@
       <c r="AL20" s="4">
         <v>0.73201910000000003</v>
       </c>
+      <c r="AM20" s="2">
+        <v>4.3964879999999997</v>
+      </c>
+      <c r="AN20" s="2">
+        <v>1.5681415999999999</v>
+      </c>
+      <c r="AO20" s="2">
+        <v>6.6711720000000003</v>
+      </c>
+      <c r="AP20" s="2">
+        <v>2.3903373999999999</v>
+      </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3044,8 +3296,20 @@
       <c r="AL21" s="4">
         <v>0.74548570000000003</v>
       </c>
+      <c r="AM21" s="2">
+        <v>6.3452070000000003</v>
+      </c>
+      <c r="AN21" s="2">
+        <v>3.2045864000000002</v>
+      </c>
+      <c r="AO21" s="2">
+        <v>9.2688849999999992</v>
+      </c>
+      <c r="AP21" s="2">
+        <v>4.4307112000000002</v>
+      </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3160,8 +3424,20 @@
       <c r="AL22" s="4">
         <v>0.77437849999999997</v>
       </c>
+      <c r="AM22" s="2">
+        <v>7.4076899999999997</v>
+      </c>
+      <c r="AN22" s="2">
+        <v>4.4769538000000004</v>
+      </c>
+      <c r="AO22" s="2">
+        <v>10.954936</v>
+      </c>
+      <c r="AP22" s="2">
+        <v>4.8334991</v>
+      </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3276,8 +3552,20 @@
       <c r="AL23" s="4">
         <v>0.76074730000000002</v>
       </c>
+      <c r="AM23" s="2">
+        <v>8.0074629999999996</v>
+      </c>
+      <c r="AN23" s="2">
+        <v>4.8920569</v>
+      </c>
+      <c r="AO23" s="2">
+        <v>12.095499</v>
+      </c>
+      <c r="AP23" s="2">
+        <v>4.6775393999999997</v>
+      </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3392,8 +3680,20 @@
       <c r="AL24" s="4">
         <v>0.81296520000000005</v>
       </c>
+      <c r="AM24" s="2">
+        <v>8.439228</v>
+      </c>
+      <c r="AN24" s="2">
+        <v>3.3721561000000002</v>
+      </c>
+      <c r="AO24" s="2">
+        <v>13.099853</v>
+      </c>
+      <c r="AP24" s="2">
+        <v>5.4812744999999996</v>
+      </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3508,8 +3808,20 @@
       <c r="AL25" s="4">
         <v>0.77887830000000002</v>
       </c>
+      <c r="AM25" s="2">
+        <v>8.5960230000000006</v>
+      </c>
+      <c r="AN25" s="2">
+        <v>2.7383171000000002</v>
+      </c>
+      <c r="AO25" s="2">
+        <v>13.381537</v>
+      </c>
+      <c r="AP25" s="2">
+        <v>4.2688227000000003</v>
+      </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3624,8 +3936,20 @@
       <c r="AL26" s="4">
         <v>0.69008700000000001</v>
       </c>
+      <c r="AM26" s="2">
+        <v>2.9716939999999998</v>
+      </c>
+      <c r="AN26" s="2">
+        <v>0.93102759999999996</v>
+      </c>
+      <c r="AO26" s="2">
+        <v>4.6105780000000003</v>
+      </c>
+      <c r="AP26" s="2">
+        <v>1.4963591000000001</v>
+      </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3740,8 +4064,20 @@
       <c r="AL27" s="4">
         <v>0.69950420000000002</v>
       </c>
+      <c r="AM27" s="2">
+        <v>3.4570159999999999</v>
+      </c>
+      <c r="AN27" s="2">
+        <v>1.8539333</v>
+      </c>
+      <c r="AO27" s="2">
+        <v>4.9610709999999996</v>
+      </c>
+      <c r="AP27" s="2">
+        <v>1.5088037000000001</v>
+      </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3856,8 +4192,20 @@
       <c r="AL28" s="4">
         <v>0.73608510000000005</v>
       </c>
+      <c r="AM28" s="2">
+        <v>4.5817699999999997</v>
+      </c>
+      <c r="AN28" s="2">
+        <v>1.7685435</v>
+      </c>
+      <c r="AO28" s="2">
+        <v>7.6293230000000003</v>
+      </c>
+      <c r="AP28" s="2">
+        <v>3.3994366</v>
+      </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3972,8 +4320,20 @@
       <c r="AL29" s="4">
         <v>0.62485120000000005</v>
       </c>
+      <c r="AM29" s="2">
+        <v>5.1986140000000001</v>
+      </c>
+      <c r="AN29" s="2">
+        <v>2.1239938</v>
+      </c>
+      <c r="AO29" s="2">
+        <v>7.8388260000000001</v>
+      </c>
+      <c r="AP29" s="2">
+        <v>2.5281468999999999</v>
+      </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4088,8 +4448,20 @@
       <c r="AL30" s="4">
         <v>0.72192279999999998</v>
       </c>
+      <c r="AM30" s="2">
+        <v>4.79115</v>
+      </c>
+      <c r="AN30" s="2">
+        <v>1.6743648</v>
+      </c>
+      <c r="AO30" s="2">
+        <v>7.4411420000000001</v>
+      </c>
+      <c r="AP30" s="2">
+        <v>3.3209387000000001</v>
+      </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -4204,8 +4576,20 @@
       <c r="AL31" s="4">
         <v>0.71895160000000002</v>
       </c>
+      <c r="AM31" s="2">
+        <v>4.4018480000000002</v>
+      </c>
+      <c r="AN31" s="2">
+        <v>1.6552880000000001</v>
+      </c>
+      <c r="AO31" s="2">
+        <v>6.9589189999999999</v>
+      </c>
+      <c r="AP31" s="2">
+        <v>2.6159528000000001</v>
+      </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -4320,8 +4704,20 @@
       <c r="AL32" s="4">
         <v>0.71500229999999998</v>
       </c>
+      <c r="AM32" s="2">
+        <v>2.6286309999999999</v>
+      </c>
+      <c r="AN32" s="2">
+        <v>1.0222818</v>
+      </c>
+      <c r="AO32" s="2">
+        <v>4.123678</v>
+      </c>
+      <c r="AP32" s="2">
+        <v>1.3747128</v>
+      </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -4436,8 +4832,20 @@
       <c r="AL33" s="4">
         <v>0.72227600000000003</v>
       </c>
+      <c r="AM33" s="2">
+        <v>2.4498250000000001</v>
+      </c>
+      <c r="AN33" s="2">
+        <v>0.73792049999999998</v>
+      </c>
+      <c r="AO33" s="2">
+        <v>4.254867</v>
+      </c>
+      <c r="AP33" s="2">
+        <v>1.1379458</v>
+      </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -4552,8 +4960,20 @@
       <c r="AL34" s="4">
         <v>0.73587080000000005</v>
       </c>
+      <c r="AM34" s="2">
+        <v>3.2487219999999999</v>
+      </c>
+      <c r="AN34" s="2">
+        <v>1.3548477999999999</v>
+      </c>
+      <c r="AO34" s="2">
+        <v>5.4185850000000002</v>
+      </c>
+      <c r="AP34" s="2">
+        <v>2.166633</v>
+      </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -4668,8 +5088,20 @@
       <c r="AL35" s="4">
         <v>0.71292979999999995</v>
       </c>
+      <c r="AM35" s="2">
+        <v>3.8217289999999999</v>
+      </c>
+      <c r="AN35" s="2">
+        <v>1.4916794</v>
+      </c>
+      <c r="AO35" s="2">
+        <v>5.9796110000000002</v>
+      </c>
+      <c r="AP35" s="2">
+        <v>2.3841193000000001</v>
+      </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -4784,8 +5216,20 @@
       <c r="AL36" s="4">
         <v>0.72264490000000003</v>
       </c>
+      <c r="AM36" s="2">
+        <v>4.4722730000000004</v>
+      </c>
+      <c r="AN36" s="2">
+        <v>1.5274608000000001</v>
+      </c>
+      <c r="AO36" s="2">
+        <v>6.920852</v>
+      </c>
+      <c r="AP36" s="2">
+        <v>2.0293190000000001</v>
+      </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -4900,8 +5344,20 @@
       <c r="AL37" s="4">
         <v>0.74049659999999995</v>
       </c>
+      <c r="AM37" s="2">
+        <v>4.277145</v>
+      </c>
+      <c r="AN37" s="2">
+        <v>1.5051388000000001</v>
+      </c>
+      <c r="AO37" s="2">
+        <v>6.4370609999999999</v>
+      </c>
+      <c r="AP37" s="2">
+        <v>2.0135448999999999</v>
+      </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -5016,8 +5472,20 @@
       <c r="AL38" s="4">
         <v>0.82346710000000001</v>
       </c>
+      <c r="AM38" s="2">
+        <v>6.3510390000000001</v>
+      </c>
+      <c r="AN38" s="2">
+        <v>2.3782614</v>
+      </c>
+      <c r="AO38" s="2">
+        <v>9.9439229999999998</v>
+      </c>
+      <c r="AP38" s="2">
+        <v>3.9568802999999999</v>
+      </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -5132,8 +5600,20 @@
       <c r="AL39" s="4">
         <v>0.85485230000000001</v>
       </c>
+      <c r="AM39" s="2">
+        <v>7.4094389999999999</v>
+      </c>
+      <c r="AN39" s="2">
+        <v>3.1447661</v>
+      </c>
+      <c r="AO39" s="2">
+        <v>12.345625999999999</v>
+      </c>
+      <c r="AP39" s="2">
+        <v>5.7289884000000004</v>
+      </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -5248,8 +5728,20 @@
       <c r="AL40" s="4">
         <v>0.86213169999999995</v>
       </c>
+      <c r="AM40" s="2">
+        <v>8.1460059999999999</v>
+      </c>
+      <c r="AN40" s="2">
+        <v>4.2857002</v>
+      </c>
+      <c r="AO40" s="2">
+        <v>17.433928000000002</v>
+      </c>
+      <c r="AP40" s="2">
+        <v>6.1121276</v>
+      </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -5364,8 +5856,20 @@
       <c r="AL41" s="4">
         <v>0.90409450000000002</v>
       </c>
+      <c r="AM41" s="2">
+        <v>9.7186719999999998</v>
+      </c>
+      <c r="AN41" s="2">
+        <v>5.9099702000000001</v>
+      </c>
+      <c r="AO41" s="2">
+        <v>15.926805999999999</v>
+      </c>
+      <c r="AP41" s="2">
+        <v>8.4739249000000001</v>
+      </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -5480,8 +5984,20 @@
       <c r="AL42" s="4">
         <v>0.87602159999999996</v>
       </c>
+      <c r="AM42" s="2">
+        <v>10.76679</v>
+      </c>
+      <c r="AN42" s="2">
+        <v>6.2142381000000002</v>
+      </c>
+      <c r="AO42" s="2">
+        <v>16.614737999999999</v>
+      </c>
+      <c r="AP42" s="2">
+        <v>7.7020752999999997</v>
+      </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -5596,8 +6112,20 @@
       <c r="AL43" s="4">
         <v>0.84561120000000001</v>
       </c>
+      <c r="AM43" s="2">
+        <v>7.2814920000000001</v>
+      </c>
+      <c r="AN43" s="2">
+        <v>3.5893717999999999</v>
+      </c>
+      <c r="AO43" s="2">
+        <v>14.292597000000001</v>
+      </c>
+      <c r="AP43" s="2">
+        <v>9.6677590000000002</v>
+      </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -5712,8 +6240,20 @@
       <c r="AL44" s="4">
         <v>0.76415379999999999</v>
       </c>
+      <c r="AM44" s="2">
+        <v>2.9815149999999999</v>
+      </c>
+      <c r="AN44" s="2">
+        <v>1.1885158</v>
+      </c>
+      <c r="AO44" s="2">
+        <v>4.6842069999999998</v>
+      </c>
+      <c r="AP44" s="2">
+        <v>1.8107256</v>
+      </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -5828,8 +6368,20 @@
       <c r="AL45" s="4">
         <v>0.71048789999999995</v>
       </c>
+      <c r="AM45" s="2">
+        <v>4.8996279999999999</v>
+      </c>
+      <c r="AN45" s="2">
+        <v>1.5173236999999999</v>
+      </c>
+      <c r="AO45" s="2">
+        <v>8.0848820000000003</v>
+      </c>
+      <c r="AP45" s="2">
+        <v>3.3585436</v>
+      </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -5944,8 +6496,20 @@
       <c r="AL46" s="4">
         <v>0.72373449999999995</v>
       </c>
+      <c r="AM46" s="2">
+        <v>6.1539780000000004</v>
+      </c>
+      <c r="AN46" s="2">
+        <v>2.3258630999999999</v>
+      </c>
+      <c r="AO46" s="2">
+        <v>9.7191949999999991</v>
+      </c>
+      <c r="AP46" s="2">
+        <v>3.5796739</v>
+      </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -6060,8 +6624,20 @@
       <c r="AL47" s="4">
         <v>0.73280509999999999</v>
       </c>
+      <c r="AM47" s="2">
+        <v>5.840992</v>
+      </c>
+      <c r="AN47" s="2">
+        <v>2.3773499999999999</v>
+      </c>
+      <c r="AO47" s="2">
+        <v>8.7236010000000004</v>
+      </c>
+      <c r="AP47" s="2">
+        <v>3.5459149000000001</v>
+      </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -6176,8 +6752,20 @@
       <c r="AL48" s="4">
         <v>0.77522530000000001</v>
       </c>
+      <c r="AM48" s="2">
+        <v>4.998189</v>
+      </c>
+      <c r="AN48" s="2">
+        <v>2.9589506000000001</v>
+      </c>
+      <c r="AO48" s="2">
+        <v>9.1455979999999997</v>
+      </c>
+      <c r="AP48" s="2">
+        <v>5.0452463999999999</v>
+      </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -6292,8 +6880,20 @@
       <c r="AL49" s="4">
         <v>0.74085509999999999</v>
       </c>
+      <c r="AM49" s="2">
+        <v>4.9032410000000004</v>
+      </c>
+      <c r="AN49" s="2">
+        <v>2.4055903000000001</v>
+      </c>
+      <c r="AO49" s="2">
+        <v>7.8561399999999999</v>
+      </c>
+      <c r="AP49" s="2">
+        <v>3.7368701</v>
+      </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -6408,8 +7008,20 @@
       <c r="AL50" s="4">
         <v>0.64714950000000004</v>
       </c>
+      <c r="AM50" s="2">
+        <v>1.7566809999999999</v>
+      </c>
+      <c r="AN50" s="2">
+        <v>0.50370729999999997</v>
+      </c>
+      <c r="AO50" s="2">
+        <v>2.505395</v>
+      </c>
+      <c r="AP50" s="2">
+        <v>0.70829900000000001</v>
+      </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -6524,8 +7136,20 @@
       <c r="AL51" s="4">
         <v>0.66036879999999998</v>
       </c>
+      <c r="AM51" s="2">
+        <v>2.6187399999999998</v>
+      </c>
+      <c r="AN51" s="2">
+        <v>0.98583449999999995</v>
+      </c>
+      <c r="AO51" s="2">
+        <v>4.268535</v>
+      </c>
+      <c r="AP51" s="2">
+        <v>1.1143337</v>
+      </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -6640,8 +7264,20 @@
       <c r="AL52" s="4">
         <v>0.69221460000000001</v>
       </c>
+      <c r="AM52" s="2">
+        <v>2.9651860000000001</v>
+      </c>
+      <c r="AN52" s="2">
+        <v>1.3489081999999999</v>
+      </c>
+      <c r="AO52" s="2">
+        <v>4.5554550000000003</v>
+      </c>
+      <c r="AP52" s="2">
+        <v>1.6990091</v>
+      </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -6756,8 +7392,20 @@
       <c r="AL53" s="4">
         <v>0.71999659999999999</v>
       </c>
+      <c r="AM53" s="2">
+        <v>3.5106890000000002</v>
+      </c>
+      <c r="AN53" s="2">
+        <v>1.3004442000000001</v>
+      </c>
+      <c r="AO53" s="2">
+        <v>5.3137169999999996</v>
+      </c>
+      <c r="AP53" s="2">
+        <v>1.8862283</v>
+      </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -6872,8 +7520,20 @@
       <c r="AL54" s="4">
         <v>0.73423850000000002</v>
       </c>
+      <c r="AM54" s="2">
+        <v>3.652962</v>
+      </c>
+      <c r="AN54" s="2">
+        <v>1.6346335999999999</v>
+      </c>
+      <c r="AO54" s="2">
+        <v>5.7666909999999998</v>
+      </c>
+      <c r="AP54" s="2">
+        <v>2.6311675999999999</v>
+      </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -6988,8 +7648,20 @@
       <c r="AL55" s="4">
         <v>0.68933370000000005</v>
       </c>
+      <c r="AM55" s="2">
+        <v>3.4352879999999999</v>
+      </c>
+      <c r="AN55" s="2">
+        <v>1.393205</v>
+      </c>
+      <c r="AO55" s="2">
+        <v>5.5569459999999999</v>
+      </c>
+      <c r="AP55" s="2">
+        <v>1.9407455</v>
+      </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -7104,8 +7776,20 @@
       <c r="AL56" s="4">
         <v>0.75603290000000001</v>
       </c>
+      <c r="AM56" s="2">
+        <v>1.601944</v>
+      </c>
+      <c r="AN56" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AO56" s="2">
+        <v>2.0000849999999999</v>
+      </c>
+      <c r="AP56" s="2">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -7220,8 +7904,20 @@
       <c r="AL57" s="4">
         <v>0.7027388</v>
       </c>
+      <c r="AM57" s="2">
+        <v>1.9761580000000001</v>
+      </c>
+      <c r="AN57" s="2">
+        <v>0.63037240000000005</v>
+      </c>
+      <c r="AO57" s="2">
+        <v>3.3757809999999999</v>
+      </c>
+      <c r="AP57" s="2">
+        <v>0.8660407</v>
+      </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -7336,8 +8032,20 @@
       <c r="AL58" s="4">
         <v>0.74211000000000005</v>
       </c>
+      <c r="AM58" s="2">
+        <v>2.3349609999999998</v>
+      </c>
+      <c r="AN58" s="2">
+        <v>0.85663990000000001</v>
+      </c>
+      <c r="AO58" s="2">
+        <v>3.4432749999999999</v>
+      </c>
+      <c r="AP58" s="2">
+        <v>1.1935003</v>
+      </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -7452,8 +8160,20 @@
       <c r="AL59" s="4">
         <v>0.70828219999999997</v>
       </c>
+      <c r="AM59" s="2">
+        <v>2.6198359999999998</v>
+      </c>
+      <c r="AN59" s="2">
+        <v>0.91838240000000004</v>
+      </c>
+      <c r="AO59" s="2">
+        <v>4.2605870000000001</v>
+      </c>
+      <c r="AP59" s="2">
+        <v>1.3472622999999999</v>
+      </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -7568,8 +8288,20 @@
       <c r="AL60" s="4">
         <v>0.66271060000000004</v>
       </c>
+      <c r="AM60" s="2">
+        <v>2.9962010000000001</v>
+      </c>
+      <c r="AN60" s="2">
+        <v>1.4052986999999999</v>
+      </c>
+      <c r="AO60" s="2">
+        <v>5.0449979999999996</v>
+      </c>
+      <c r="AP60" s="2">
+        <v>2.3962036000000002</v>
+      </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -7684,8 +8416,20 @@
       <c r="AL61" s="4">
         <v>0.71074499999999996</v>
       </c>
+      <c r="AM61" s="2">
+        <v>2.800284</v>
+      </c>
+      <c r="AN61" s="2">
+        <v>1.3075007999999999</v>
+      </c>
+      <c r="AO61" s="2">
+        <v>4.4130459999999996</v>
+      </c>
+      <c r="AP61" s="2">
+        <v>1.9971972</v>
+      </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -7800,8 +8544,20 @@
       <c r="AL62" s="4">
         <v>0.76638399999999995</v>
       </c>
+      <c r="AM62" s="2">
+        <v>5.7654839999999998</v>
+      </c>
+      <c r="AN62" s="2">
+        <v>2.5911742000000002</v>
+      </c>
+      <c r="AO62" s="2">
+        <v>8.1350130000000007</v>
+      </c>
+      <c r="AP62" s="2">
+        <v>2.5379445999999999</v>
+      </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -7916,8 +8672,20 @@
       <c r="AL63" s="4">
         <v>0.69591559999999997</v>
       </c>
+      <c r="AM63" s="2">
+        <v>6.7783199999999999</v>
+      </c>
+      <c r="AN63" s="2">
+        <v>3.0925471999999998</v>
+      </c>
+      <c r="AO63" s="2">
+        <v>9.8297980000000003</v>
+      </c>
+      <c r="AP63" s="2">
+        <v>3.9772378000000002</v>
+      </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -8032,8 +8800,20 @@
       <c r="AL64" s="4">
         <v>0.79033549999999997</v>
       </c>
+      <c r="AM64" s="2">
+        <v>8.787941</v>
+      </c>
+      <c r="AN64" s="2">
+        <v>4.0324532</v>
+      </c>
+      <c r="AO64" s="2">
+        <v>10.790411000000001</v>
+      </c>
+      <c r="AP64" s="2">
+        <v>3.9926072000000001</v>
+      </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -8148,8 +8928,20 @@
       <c r="AL65" s="4">
         <v>0.79957290000000003</v>
       </c>
+      <c r="AM65" s="2">
+        <v>8.7531289999999995</v>
+      </c>
+      <c r="AN65" s="2">
+        <v>3.9018432000000001</v>
+      </c>
+      <c r="AO65" s="2">
+        <v>14.568123</v>
+      </c>
+      <c r="AP65" s="2">
+        <v>9.6873892999999995</v>
+      </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -8264,8 +9056,20 @@
       <c r="AL66" s="4">
         <v>0.74381949999999997</v>
       </c>
+      <c r="AM66" s="2">
+        <v>9.7502239999999993</v>
+      </c>
+      <c r="AN66" s="2">
+        <v>6.1758613999999996</v>
+      </c>
+      <c r="AO66" s="2">
+        <v>15.375387999999999</v>
+      </c>
+      <c r="AP66" s="2">
+        <v>6.5108481999999999</v>
+      </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -8380,8 +9184,20 @@
       <c r="AL67" s="4">
         <v>0.79940999999999995</v>
       </c>
+      <c r="AM67" s="2">
+        <v>9.3430549999999997</v>
+      </c>
+      <c r="AN67" s="2">
+        <v>5.5589212000000003</v>
+      </c>
+      <c r="AO67" s="2">
+        <v>13.680173999999999</v>
+      </c>
+      <c r="AP67" s="2">
+        <v>13.9574277</v>
+      </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -8496,8 +9312,20 @@
       <c r="AL68" s="4">
         <v>0.81517269999999997</v>
       </c>
+      <c r="AM68" s="2">
+        <v>4.0645290000000003</v>
+      </c>
+      <c r="AN68" s="2">
+        <v>1.2161645999999999</v>
+      </c>
+      <c r="AO68" s="2">
+        <v>6.4536740000000004</v>
+      </c>
+      <c r="AP68" s="2">
+        <v>1.7771840000000001</v>
+      </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -8612,8 +9440,20 @@
       <c r="AL69" s="4">
         <v>0.78023609999999999</v>
       </c>
+      <c r="AM69" s="2">
+        <v>3.6461229999999998</v>
+      </c>
+      <c r="AN69" s="2">
+        <v>2.2858185999999998</v>
+      </c>
+      <c r="AO69" s="2">
+        <v>5.5754770000000002</v>
+      </c>
+      <c r="AP69" s="2">
+        <v>1.7097732000000001</v>
+      </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -8728,8 +9568,20 @@
       <c r="AL70" s="4">
         <v>0.70347850000000001</v>
       </c>
+      <c r="AM70" s="2">
+        <v>4.7367090000000003</v>
+      </c>
+      <c r="AN70" s="2">
+        <v>1.7754173</v>
+      </c>
+      <c r="AO70" s="2">
+        <v>7.6328310000000004</v>
+      </c>
+      <c r="AP70" s="2">
+        <v>2.9418324</v>
+      </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -8844,8 +9696,20 @@
       <c r="AL71" s="4">
         <v>0.76497499999999996</v>
       </c>
+      <c r="AM71" s="2">
+        <v>5.3764760000000003</v>
+      </c>
+      <c r="AN71" s="2">
+        <v>2.0736781</v>
+      </c>
+      <c r="AO71" s="2">
+        <v>8.2272320000000008</v>
+      </c>
+      <c r="AP71" s="2">
+        <v>3.0158504000000002</v>
+      </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -8960,8 +9824,20 @@
       <c r="AL72" s="4">
         <v>0.71160509999999999</v>
       </c>
+      <c r="AM72" s="2">
+        <v>6.2039249999999999</v>
+      </c>
+      <c r="AN72" s="2">
+        <v>2.6973072</v>
+      </c>
+      <c r="AO72" s="2">
+        <v>9.5343940000000007</v>
+      </c>
+      <c r="AP72" s="2">
+        <v>4.2822110999999996</v>
+      </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -9076,8 +9952,20 @@
       <c r="AL73" s="4">
         <v>0.68449780000000005</v>
       </c>
+      <c r="AM73" s="2">
+        <v>4.860271</v>
+      </c>
+      <c r="AN73" s="2">
+        <v>2.4782974000000002</v>
+      </c>
+      <c r="AO73" s="2">
+        <v>8.0659849999999995</v>
+      </c>
+      <c r="AP73" s="2">
+        <v>4.6411332999999999</v>
+      </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -9192,8 +10080,20 @@
       <c r="AL74" s="4">
         <v>0.78294750000000002</v>
       </c>
+      <c r="AM74" s="2">
+        <v>3.1304690000000002</v>
+      </c>
+      <c r="AN74" s="2">
+        <v>1.3900404</v>
+      </c>
+      <c r="AO74" s="2">
+        <v>4.4696049999999996</v>
+      </c>
+      <c r="AP74" s="2">
+        <v>1.0977201999999999</v>
+      </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -9308,8 +10208,20 @@
       <c r="AL75" s="4">
         <v>0.77316229999999997</v>
       </c>
+      <c r="AM75" s="2">
+        <v>2.7270430000000001</v>
+      </c>
+      <c r="AN75" s="2">
+        <v>0.3496456</v>
+      </c>
+      <c r="AO75" s="2">
+        <v>4.4601829999999998</v>
+      </c>
+      <c r="AP75" s="2">
+        <v>0.82681570000000004</v>
+      </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -9424,8 +10336,20 @@
       <c r="AL76" s="4">
         <v>0.76986770000000004</v>
       </c>
+      <c r="AM76" s="2">
+        <v>4.3894080000000004</v>
+      </c>
+      <c r="AN76" s="2">
+        <v>1.7634403000000001</v>
+      </c>
+      <c r="AO76" s="2">
+        <v>6.4359460000000004</v>
+      </c>
+      <c r="AP76" s="2">
+        <v>2.2059049000000002</v>
+      </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -9540,8 +10464,20 @@
       <c r="AL77" s="4">
         <v>0.78487899999999999</v>
       </c>
+      <c r="AM77" s="2">
+        <v>4.4179240000000002</v>
+      </c>
+      <c r="AN77" s="2">
+        <v>2.8462938000000002</v>
+      </c>
+      <c r="AO77" s="2">
+        <v>6.5285580000000003</v>
+      </c>
+      <c r="AP77" s="2">
+        <v>2.0167622000000001</v>
+      </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -9656,8 +10592,20 @@
       <c r="AL78" s="4">
         <v>0.70615879999999998</v>
       </c>
+      <c r="AM78" s="2">
+        <v>5.8534899999999999</v>
+      </c>
+      <c r="AN78" s="2">
+        <v>5.2554948000000001</v>
+      </c>
+      <c r="AO78" s="2">
+        <v>7.7931660000000003</v>
+      </c>
+      <c r="AP78" s="2">
+        <v>2.6564534000000002</v>
+      </c>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -9772,8 +10720,20 @@
       <c r="AL79" s="4">
         <v>0.65718169999999998</v>
       </c>
+      <c r="AM79" s="2">
+        <v>4.3919259999999998</v>
+      </c>
+      <c r="AN79" s="2">
+        <v>2.0507445999999998</v>
+      </c>
+      <c r="AO79" s="2">
+        <v>6.8707830000000003</v>
+      </c>
+      <c r="AP79" s="2">
+        <v>3.1350061</v>
+      </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -9888,8 +10848,20 @@
       <c r="AL80" s="4">
         <v>0.82156689999999999</v>
       </c>
+      <c r="AM80" s="2">
+        <v>5.3023400000000001</v>
+      </c>
+      <c r="AN80" s="2">
+        <v>2.9260790000000001</v>
+      </c>
+      <c r="AO80" s="2">
+        <v>9.7872299999999992</v>
+      </c>
+      <c r="AP80" s="2">
+        <v>4.6034737999999997</v>
+      </c>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -10004,8 +10976,20 @@
       <c r="AL81" s="4">
         <v>0.78273570000000003</v>
       </c>
+      <c r="AM81" s="2">
+        <v>6.8773879999999998</v>
+      </c>
+      <c r="AN81" s="2">
+        <v>3.7229215999999998</v>
+      </c>
+      <c r="AO81" s="2">
+        <v>10.620908</v>
+      </c>
+      <c r="AP81" s="2">
+        <v>3.9819133</v>
+      </c>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -10120,8 +11104,20 @@
       <c r="AL82" s="4">
         <v>0.86369680000000004</v>
       </c>
+      <c r="AM82" s="2">
+        <v>7.6207979999999997</v>
+      </c>
+      <c r="AN82" s="2">
+        <v>3.7615696999999999</v>
+      </c>
+      <c r="AO82" s="2">
+        <v>14.181094999999999</v>
+      </c>
+      <c r="AP82" s="2">
+        <v>6.0908832000000004</v>
+      </c>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -10236,8 +11232,20 @@
       <c r="AL83" s="4">
         <v>0.82769250000000005</v>
       </c>
+      <c r="AM83" s="2">
+        <v>7.202979</v>
+      </c>
+      <c r="AN83" s="2">
+        <v>4.0147596999999999</v>
+      </c>
+      <c r="AO83" s="2">
+        <v>13.672800000000001</v>
+      </c>
+      <c r="AP83" s="2">
+        <v>5.1499949999999997</v>
+      </c>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -10352,8 +11360,20 @@
       <c r="AL84" s="4">
         <v>0.86213740000000005</v>
       </c>
+      <c r="AM84" s="2">
+        <v>8.6056720000000002</v>
+      </c>
+      <c r="AN84" s="2">
+        <v>4.1084205000000003</v>
+      </c>
+      <c r="AO84" s="2">
+        <v>14.921784000000001</v>
+      </c>
+      <c r="AP84" s="2">
+        <v>5.9742280000000001</v>
+      </c>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -10468,8 +11488,20 @@
       <c r="AL85" s="4">
         <v>0.89077949999999995</v>
       </c>
+      <c r="AM85" s="2">
+        <v>11.258915999999999</v>
+      </c>
+      <c r="AN85" s="2">
+        <v>4.6822369999999998</v>
+      </c>
+      <c r="AO85" s="2">
+        <v>18.040579999999999</v>
+      </c>
+      <c r="AP85" s="2">
+        <v>11.269866800000001</v>
+      </c>
     </row>
-    <row r="86" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
     </row>
   </sheetData>

--- a/data/DATA_means.xlsx
+++ b/data/DATA_means.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameslofty/Documents/GitHub/saltation_microplastic/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED51515F-CFCD-874E-B746-E5CA35C9200B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79524E9-362F-E44D-BA02-AC930E1ED41C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-220" yWindow="-18360" windowWidth="33020" windowHeight="16280" xr2:uid="{E5557858-9316-1449-BD86-093EF3B67E76}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="58">
   <si>
     <t>PA</t>
   </si>
@@ -189,9 +189,6 @@
   </si>
   <si>
     <t>W_std (m/s)</t>
-  </si>
-  <si>
-    <t>Hp_Lp_std (-)</t>
   </si>
   <si>
     <t>Lp/d std(-)</t>
@@ -595,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E62E3E9-428E-A345-ABEC-CA5046B24682}">
-  <dimension ref="A1:AP86"/>
+  <dimension ref="A1:AO86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="AJ14" sqref="AJ14"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="AC28" sqref="AC28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -608,22 +605,21 @@
     <col min="9" max="9" width="10.83203125" customWidth="1"/>
     <col min="13" max="14" width="12.1640625" customWidth="1"/>
     <col min="15" max="16" width="10.83203125" customWidth="1"/>
-    <col min="17" max="17" width="13.83203125" customWidth="1"/>
-    <col min="18" max="18" width="12.83203125" customWidth="1"/>
-    <col min="19" max="23" width="10.83203125" customWidth="1"/>
-    <col min="24" max="24" width="11.1640625" customWidth="1"/>
-    <col min="25" max="25" width="12.1640625" customWidth="1"/>
-    <col min="26" max="26" width="11.1640625" customWidth="1"/>
-    <col min="27" max="27" width="12.1640625" customWidth="1"/>
-    <col min="28" max="28" width="11.1640625" customWidth="1"/>
-    <col min="29" max="29" width="12.1640625" customWidth="1"/>
-    <col min="30" max="31" width="10.83203125" customWidth="1"/>
-    <col min="32" max="32" width="11.5" customWidth="1"/>
-    <col min="33" max="33" width="12.6640625" customWidth="1"/>
-    <col min="34" max="38" width="10.83203125" customWidth="1"/>
+    <col min="17" max="17" width="12.83203125" customWidth="1"/>
+    <col min="18" max="22" width="10.83203125" customWidth="1"/>
+    <col min="23" max="23" width="11.1640625" customWidth="1"/>
+    <col min="24" max="24" width="12.1640625" customWidth="1"/>
+    <col min="25" max="25" width="11.1640625" customWidth="1"/>
+    <col min="26" max="26" width="12.1640625" customWidth="1"/>
+    <col min="27" max="27" width="11.1640625" customWidth="1"/>
+    <col min="28" max="28" width="12.1640625" customWidth="1"/>
+    <col min="29" max="30" width="10.83203125" customWidth="1"/>
+    <col min="31" max="31" width="11.5" customWidth="1"/>
+    <col min="32" max="32" width="12.6640625" customWidth="1"/>
+    <col min="33" max="37" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>18</v>
@@ -656,100 +652,97 @@
         <v>44</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>46</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="AM1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AO1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>58</v>
-      </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -799,85 +792,82 @@
         <v>0.76378199999999996</v>
       </c>
       <c r="Q2" s="4">
-        <v>9.7068100000000004E-2</v>
+        <v>66.301820000000006</v>
       </c>
       <c r="R2" s="4">
-        <v>66.301820000000006</v>
+        <v>15.548616000000001</v>
       </c>
       <c r="S2" s="4">
-        <v>15.548616000000001</v>
+        <v>0.13281999999999999</v>
       </c>
       <c r="T2" s="4">
-        <v>0.13281999999999999</v>
+        <v>9.8790000000000003E-2</v>
       </c>
       <c r="U2" s="4">
-        <v>9.8790000000000003E-2</v>
+        <v>1.865E-2</v>
       </c>
       <c r="V2" s="4">
-        <v>1.865E-2</v>
+        <v>3.0530000000000002E-2</v>
       </c>
       <c r="W2" s="4">
-        <v>3.0530000000000002E-2</v>
+        <v>0.13411999999999999</v>
       </c>
       <c r="X2" s="4">
-        <v>0.13411999999999999</v>
+        <v>0.10340000000000001</v>
       </c>
       <c r="Y2" s="4">
-        <v>0.10340000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="Z2" s="4">
-        <v>0.02</v>
+        <v>1.6811690000000001E-2</v>
       </c>
       <c r="AA2" s="4">
-        <v>1.6811690000000001E-2</v>
+        <v>4.0261070000000001E-3</v>
       </c>
       <c r="AB2" s="4">
-        <v>4.0261070000000001E-3</v>
+        <v>7.0908999999999998E-3</v>
       </c>
       <c r="AC2" s="4">
-        <v>7.0908999999999998E-3</v>
+        <v>1.7899607000000001E-2</v>
       </c>
       <c r="AD2" s="4">
-        <v>1.7899607000000001E-2</v>
+        <v>1.824593E-2</v>
       </c>
       <c r="AE2" s="4">
-        <v>1.824593E-2</v>
+        <v>7.869478</v>
       </c>
       <c r="AF2" s="4">
-        <v>7.869478</v>
+        <v>19.253</v>
       </c>
       <c r="AG2" s="4">
-        <v>19.253</v>
+        <v>4.88</v>
       </c>
       <c r="AH2" s="4">
-        <v>4.88</v>
+        <v>15.64</v>
       </c>
       <c r="AI2" s="4">
-        <v>15.64</v>
+        <v>1.6372340000000001</v>
       </c>
       <c r="AJ2" s="4">
-        <v>1.6372340000000001</v>
+        <v>0.74381900000000001</v>
       </c>
       <c r="AK2" s="4">
-        <v>0.74381900000000001</v>
-      </c>
-      <c r="AL2" s="4">
         <v>0.77096849999999995</v>
       </c>
+      <c r="AL2" s="2">
+        <v>3.2585090000000001</v>
+      </c>
       <c r="AM2" s="2">
-        <v>3.2585090000000001</v>
+        <v>1.0389037999999999</v>
       </c>
       <c r="AN2" s="2">
-        <v>1.0389037999999999</v>
+        <v>4.6963010000000001</v>
       </c>
       <c r="AO2" s="2">
-        <v>4.6963010000000001</v>
-      </c>
-      <c r="AP2" s="2">
         <v>1.5897806000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -927,85 +917,82 @@
         <v>0.92218809999999996</v>
       </c>
       <c r="Q3" s="4">
-        <v>0.10497239999999999</v>
+        <v>78.068969999999993</v>
       </c>
       <c r="R3" s="4">
-        <v>78.068969999999993</v>
+        <v>13.7563</v>
       </c>
       <c r="S3" s="4">
-        <v>13.7563</v>
+        <v>0.15073</v>
       </c>
       <c r="T3" s="4">
-        <v>0.15073</v>
+        <v>0.11179</v>
       </c>
       <c r="U3" s="4">
-        <v>0.11179</v>
+        <v>1.9519999999999999E-2</v>
       </c>
       <c r="V3" s="4">
-        <v>1.9519999999999999E-2</v>
+        <v>3.6060000000000002E-2</v>
       </c>
       <c r="W3" s="4">
-        <v>3.6060000000000002E-2</v>
+        <v>0.15198999999999999</v>
       </c>
       <c r="X3" s="4">
-        <v>0.15198999999999999</v>
+        <v>0.11745999999999999</v>
       </c>
       <c r="Y3" s="4">
-        <v>0.11745999999999999</v>
+        <v>0.02</v>
       </c>
       <c r="Z3" s="4">
-        <v>0.02</v>
+        <v>1.711064E-2</v>
       </c>
       <c r="AA3" s="4">
-        <v>1.711064E-2</v>
+        <v>5.4796460000000003E-3</v>
       </c>
       <c r="AB3" s="4">
-        <v>5.4796460000000003E-3</v>
+        <v>1.0196492999999999E-2</v>
       </c>
       <c r="AC3" s="4">
-        <v>1.0196492999999999E-2</v>
+        <v>2.161923E-2</v>
       </c>
       <c r="AD3" s="4">
-        <v>2.161923E-2</v>
+        <v>1.9918390000000001E-2</v>
       </c>
       <c r="AE3" s="4">
-        <v>1.9918390000000001E-2</v>
+        <v>7.3230630000000003</v>
       </c>
       <c r="AF3" s="4">
-        <v>7.3230630000000003</v>
+        <v>19.659569999999999</v>
       </c>
       <c r="AG3" s="4">
-        <v>19.659569999999999</v>
+        <v>4.67</v>
       </c>
       <c r="AH3" s="4">
-        <v>4.67</v>
+        <v>15.32</v>
       </c>
       <c r="AI3" s="4">
-        <v>15.32</v>
+        <v>1.847291</v>
       </c>
       <c r="AJ3" s="4">
-        <v>1.847291</v>
+        <v>0.74160099999999995</v>
       </c>
       <c r="AK3" s="4">
-        <v>0.74160099999999995</v>
-      </c>
-      <c r="AL3" s="4">
         <v>0.772787</v>
       </c>
+      <c r="AL3" s="2">
+        <v>3.5162239999999998</v>
+      </c>
       <c r="AM3" s="2">
-        <v>3.5162239999999998</v>
+        <v>1.2892619999999999</v>
       </c>
       <c r="AN3" s="2">
-        <v>1.2892619999999999</v>
+        <v>5.2616880000000004</v>
       </c>
       <c r="AO3" s="2">
-        <v>5.2616880000000004</v>
-      </c>
-      <c r="AP3" s="2">
         <v>2.1808041999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1055,85 +1042,82 @@
         <v>0.72466419999999998</v>
       </c>
       <c r="Q4" s="4">
-        <v>0.1116283</v>
+        <v>87.389009999999999</v>
       </c>
       <c r="R4" s="4">
-        <v>87.389009999999999</v>
+        <v>9.5847010000000008</v>
       </c>
       <c r="S4" s="4">
-        <v>9.5847010000000008</v>
+        <v>0.16699</v>
       </c>
       <c r="T4" s="4">
-        <v>0.16699</v>
+        <v>0.12751999999999999</v>
       </c>
       <c r="U4" s="4">
-        <v>0.12751999999999999</v>
+        <v>2.3040000000000001E-2</v>
       </c>
       <c r="V4" s="4">
-        <v>2.3040000000000001E-2</v>
+        <v>3.4299999999999997E-2</v>
       </c>
       <c r="W4" s="4">
-        <v>3.4299999999999997E-2</v>
+        <v>0.16857</v>
       </c>
       <c r="X4" s="4">
-        <v>0.16857</v>
+        <v>0.13205</v>
       </c>
       <c r="Y4" s="4">
-        <v>0.13205</v>
+        <v>0.02</v>
       </c>
       <c r="Z4" s="4">
-        <v>0.02</v>
+        <v>2.3190410000000002E-2</v>
       </c>
       <c r="AA4" s="4">
-        <v>2.3190410000000002E-2</v>
+        <v>4.8737399999999997E-3</v>
       </c>
       <c r="AB4" s="4">
-        <v>4.8737399999999997E-3</v>
+        <v>1.1062562999999999E-2</v>
       </c>
       <c r="AC4" s="4">
-        <v>1.1062562999999999E-2</v>
+        <v>2.1982483000000001E-2</v>
       </c>
       <c r="AD4" s="4">
-        <v>2.1982483000000001E-2</v>
+        <v>2.5693879999999999E-2</v>
       </c>
       <c r="AE4" s="4">
-        <v>2.5693879999999999E-2</v>
+        <v>7.6713849999999999</v>
       </c>
       <c r="AF4" s="4">
-        <v>7.6713849999999999</v>
+        <v>16.387889999999999</v>
       </c>
       <c r="AG4" s="4">
-        <v>16.387889999999999</v>
+        <v>4.74</v>
       </c>
       <c r="AH4" s="4">
-        <v>4.74</v>
+        <v>14.03</v>
       </c>
       <c r="AI4" s="4">
-        <v>14.03</v>
+        <v>1.4884200000000001</v>
       </c>
       <c r="AJ4" s="4">
-        <v>1.4884200000000001</v>
+        <v>0.76362169999999996</v>
       </c>
       <c r="AK4" s="4">
-        <v>0.76362169999999996</v>
-      </c>
-      <c r="AL4" s="4">
         <v>0.78333560000000002</v>
       </c>
+      <c r="AL4" s="2">
+        <v>4.5757260000000004</v>
+      </c>
       <c r="AM4" s="2">
-        <v>4.5757260000000004</v>
+        <v>1.6671959000000001</v>
       </c>
       <c r="AN4" s="2">
-        <v>1.6671959000000001</v>
+        <v>6.2803849999999999</v>
       </c>
       <c r="AO4" s="2">
-        <v>6.2803849999999999</v>
-      </c>
-      <c r="AP4" s="2">
         <v>2.2550754999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1183,85 +1167,82 @@
         <v>0.84931449999999997</v>
       </c>
       <c r="Q5" s="4">
-        <v>8.2198499999999994E-2</v>
+        <v>91.461770000000001</v>
       </c>
       <c r="R5" s="4">
-        <v>91.461770000000001</v>
+        <v>8.2553210000000004</v>
       </c>
       <c r="S5" s="4">
-        <v>8.2553210000000004</v>
+        <v>0.19899</v>
       </c>
       <c r="T5" s="4">
-        <v>0.19899</v>
+        <v>0.15443999999999999</v>
       </c>
       <c r="U5" s="4">
-        <v>0.15443999999999999</v>
+        <v>2.9270000000000001E-2</v>
       </c>
       <c r="V5" s="4">
-        <v>2.9270000000000001E-2</v>
+        <v>3.499E-2</v>
       </c>
       <c r="W5" s="4">
-        <v>3.499E-2</v>
+        <v>0.20113</v>
       </c>
       <c r="X5" s="4">
-        <v>0.20113</v>
+        <v>0.15836</v>
       </c>
       <c r="Y5" s="4">
-        <v>0.15836</v>
+        <v>0.02</v>
       </c>
       <c r="Z5" s="4">
-        <v>0.02</v>
+        <v>2.0071269999999999E-2</v>
       </c>
       <c r="AA5" s="4">
-        <v>2.0071269999999999E-2</v>
+        <v>9.3873519999999998E-3</v>
       </c>
       <c r="AB5" s="4">
-        <v>9.3873519999999998E-3</v>
+        <v>1.1507333E-2</v>
       </c>
       <c r="AC5" s="4">
-        <v>1.1507333E-2</v>
+        <v>2.4030872000000002E-2</v>
       </c>
       <c r="AD5" s="4">
-        <v>2.4030872000000002E-2</v>
+        <v>2.3136E-2</v>
       </c>
       <c r="AE5" s="4">
-        <v>2.3136E-2</v>
+        <v>7.6800889999999997</v>
       </c>
       <c r="AF5" s="4">
-        <v>7.6800889999999997</v>
+        <v>14.07343</v>
       </c>
       <c r="AG5" s="4">
-        <v>14.07343</v>
+        <v>3.4</v>
       </c>
       <c r="AH5" s="4">
-        <v>3.4</v>
+        <v>10.52</v>
       </c>
       <c r="AI5" s="4">
-        <v>10.52</v>
+        <v>1.1955739999999999</v>
       </c>
       <c r="AJ5" s="4">
-        <v>1.1955739999999999</v>
+        <v>0.77611839999999999</v>
       </c>
       <c r="AK5" s="4">
-        <v>0.77611839999999999</v>
-      </c>
-      <c r="AL5" s="4">
         <v>0.78731910000000005</v>
       </c>
+      <c r="AL5" s="2">
+        <v>5.6686649999999998</v>
+      </c>
       <c r="AM5" s="2">
-        <v>5.6686649999999998</v>
+        <v>2.4649711999999999</v>
       </c>
       <c r="AN5" s="2">
-        <v>2.4649711999999999</v>
+        <v>9.3272119999999994</v>
       </c>
       <c r="AO5" s="2">
-        <v>9.3272119999999994</v>
-      </c>
-      <c r="AP5" s="2">
         <v>3.8804417999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1311,85 +1292,82 @@
         <v>1.1009727</v>
       </c>
       <c r="Q6" s="4">
-        <v>7.8608700000000004E-2</v>
+        <v>78.981189999999998</v>
       </c>
       <c r="R6" s="4">
-        <v>78.981189999999998</v>
+        <v>29.241060000000001</v>
       </c>
       <c r="S6" s="4">
-        <v>29.241060000000001</v>
+        <v>0.18426000000000001</v>
       </c>
       <c r="T6" s="4">
-        <v>0.18426000000000001</v>
+        <v>0.14643999999999999</v>
       </c>
       <c r="U6" s="4">
-        <v>0.14643999999999999</v>
+        <v>2.5139999999999999E-2</v>
       </c>
       <c r="V6" s="4">
-        <v>2.5139999999999999E-2</v>
+        <v>4.181E-2</v>
       </c>
       <c r="W6" s="4">
-        <v>4.181E-2</v>
+        <v>0.18597</v>
       </c>
       <c r="X6" s="4">
-        <v>0.18597</v>
+        <v>0.15229999999999999</v>
       </c>
       <c r="Y6" s="4">
-        <v>0.15229999999999999</v>
+        <v>0.03</v>
       </c>
       <c r="Z6" s="4">
-        <v>0.03</v>
+        <v>2.7196379999999999E-2</v>
       </c>
       <c r="AA6" s="4">
-        <v>2.7196379999999999E-2</v>
+        <v>8.1980649999999992E-3</v>
       </c>
       <c r="AB6" s="4">
-        <v>8.1980649999999992E-3</v>
+        <v>1.3129778E-2</v>
       </c>
       <c r="AC6" s="4">
-        <v>1.3129778E-2</v>
+        <v>3.5102662999999999E-2</v>
       </c>
       <c r="AD6" s="4">
-        <v>3.5102662999999999E-2</v>
+        <v>3.0199899999999998E-2</v>
       </c>
       <c r="AE6" s="4">
-        <v>3.0199899999999998E-2</v>
+        <v>7.1196190000000001</v>
       </c>
       <c r="AF6" s="4">
-        <v>7.1196190000000001</v>
+        <v>15.49422</v>
       </c>
       <c r="AG6" s="4">
-        <v>15.49422</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="AH6" s="4">
-        <v>4.0599999999999996</v>
+        <v>9.82</v>
       </c>
       <c r="AI6" s="4">
-        <v>9.82</v>
+        <v>1.6629860000000001</v>
       </c>
       <c r="AJ6" s="4">
-        <v>1.6629860000000001</v>
+        <v>0.79476979999999997</v>
       </c>
       <c r="AK6" s="4">
-        <v>0.79476979999999997</v>
-      </c>
-      <c r="AL6" s="4">
         <v>0.81894270000000002</v>
       </c>
+      <c r="AL6" s="2">
+        <v>5.7583589999999996</v>
+      </c>
       <c r="AM6" s="2">
-        <v>5.7583589999999996</v>
+        <v>2.4360466000000001</v>
       </c>
       <c r="AN6" s="2">
-        <v>2.4360466000000001</v>
+        <v>8.1018349999999995</v>
       </c>
       <c r="AO6" s="2">
-        <v>8.1018349999999995</v>
-      </c>
-      <c r="AP6" s="2">
         <v>3.4842349000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1439,85 +1417,82 @@
         <v>1.3094842</v>
       </c>
       <c r="Q7" s="4">
-        <v>6.9908499999999998E-2</v>
+        <v>86.130359999999996</v>
       </c>
       <c r="R7" s="4">
-        <v>86.130359999999996</v>
+        <v>10.024768999999999</v>
       </c>
       <c r="S7" s="4">
-        <v>10.024768999999999</v>
+        <v>0.19689999999999999</v>
       </c>
       <c r="T7" s="4">
-        <v>0.19689999999999999</v>
+        <v>0.15404999999999999</v>
       </c>
       <c r="U7" s="4">
-        <v>0.15404999999999999</v>
+        <v>2.4250000000000001E-2</v>
       </c>
       <c r="V7" s="4">
-        <v>2.4250000000000001E-2</v>
+        <v>4.3229999999999998E-2</v>
       </c>
       <c r="W7" s="4">
-        <v>4.3229999999999998E-2</v>
+        <v>0.19839000000000001</v>
       </c>
       <c r="X7" s="4">
-        <v>0.19839000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="Y7" s="4">
-        <v>0.16</v>
+        <v>0.04</v>
       </c>
       <c r="Z7" s="4">
-        <v>0.04</v>
+        <v>3.4215469999999998E-2</v>
       </c>
       <c r="AA7" s="4">
-        <v>3.4215469999999998E-2</v>
+        <v>7.6537580000000001E-3</v>
       </c>
       <c r="AB7" s="4">
-        <v>7.6537580000000001E-3</v>
+        <v>1.7909643999999999E-2</v>
       </c>
       <c r="AC7" s="4">
-        <v>1.7909643999999999E-2</v>
+        <v>3.8899257E-2</v>
       </c>
       <c r="AD7" s="4">
-        <v>3.8899257E-2</v>
+        <v>3.8619340000000002E-2</v>
       </c>
       <c r="AE7" s="4">
-        <v>3.8619340000000002E-2</v>
+        <v>6.8648860000000003</v>
       </c>
       <c r="AF7" s="4">
-        <v>6.8648860000000003</v>
+        <v>15.760820000000001</v>
       </c>
       <c r="AG7" s="4">
-        <v>15.760820000000001</v>
+        <v>4.12</v>
       </c>
       <c r="AH7" s="4">
-        <v>4.12</v>
+        <v>12.4</v>
       </c>
       <c r="AI7" s="4">
-        <v>12.4</v>
+        <v>1.782346</v>
       </c>
       <c r="AJ7" s="4">
-        <v>1.782346</v>
+        <v>0.78237699999999999</v>
       </c>
       <c r="AK7" s="4">
-        <v>0.78237699999999999</v>
-      </c>
-      <c r="AL7" s="4">
         <v>0.80649800000000005</v>
       </c>
+      <c r="AL7" s="2">
+        <v>5.5979570000000001</v>
+      </c>
       <c r="AM7" s="2">
-        <v>5.5979570000000001</v>
+        <v>2.1301294999999998</v>
       </c>
       <c r="AN7" s="2">
-        <v>2.1301294999999998</v>
+        <v>8.3929209999999994</v>
       </c>
       <c r="AO7" s="2">
-        <v>8.3929209999999994</v>
-      </c>
-      <c r="AP7" s="2">
         <v>3.2190319000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1567,85 +1542,82 @@
         <v>0.51561170000000001</v>
       </c>
       <c r="Q8" s="4">
-        <v>0.1057781</v>
+        <v>48.854089999999999</v>
       </c>
       <c r="R8" s="4">
-        <v>48.854089999999999</v>
+        <v>15.24084</v>
       </c>
       <c r="S8" s="4">
-        <v>15.24084</v>
+        <v>0.11723</v>
       </c>
       <c r="T8" s="4">
-        <v>0.11723</v>
+        <v>8.4540000000000004E-2</v>
       </c>
       <c r="U8" s="4">
-        <v>8.4540000000000004E-2</v>
+        <v>2.5329999999999998E-2</v>
       </c>
       <c r="V8" s="4">
-        <v>2.5329999999999998E-2</v>
+        <v>3.5319999999999997E-2</v>
       </c>
       <c r="W8" s="4">
-        <v>3.5319999999999997E-2</v>
+        <v>0.11994</v>
       </c>
       <c r="X8" s="4">
-        <v>0.11994</v>
+        <v>9.1619999999999993E-2</v>
       </c>
       <c r="Y8" s="4">
-        <v>9.1619999999999993E-2</v>
+        <v>0.01</v>
       </c>
       <c r="Z8" s="4">
-        <v>0.01</v>
+        <v>1.270194E-2</v>
       </c>
       <c r="AA8" s="4">
-        <v>1.270194E-2</v>
+        <v>4.729474E-3</v>
       </c>
       <c r="AB8" s="4">
-        <v>4.729474E-3</v>
+        <v>8.6738979999999993E-3</v>
       </c>
       <c r="AC8" s="4">
-        <v>8.6738979999999993E-3</v>
+        <v>9.9590809999999998E-3</v>
       </c>
       <c r="AD8" s="4">
-        <v>9.9590809999999998E-3</v>
+        <v>1.538102E-2</v>
       </c>
       <c r="AE8" s="4">
-        <v>1.538102E-2</v>
+        <v>11.529317000000001</v>
       </c>
       <c r="AF8" s="4">
-        <v>11.529317000000001</v>
+        <v>25.409420000000001</v>
       </c>
       <c r="AG8" s="4">
-        <v>25.409420000000001</v>
+        <v>8.3699999999999992</v>
       </c>
       <c r="AH8" s="4">
-        <v>8.3699999999999992</v>
+        <v>19.07</v>
       </c>
       <c r="AI8" s="4">
-        <v>19.07</v>
+        <v>1.394185</v>
       </c>
       <c r="AJ8" s="4">
-        <v>1.394185</v>
+        <v>0.7211767</v>
       </c>
       <c r="AK8" s="4">
-        <v>0.7211767</v>
-      </c>
-      <c r="AL8" s="4">
         <v>0.7639357</v>
       </c>
+      <c r="AL8" s="2">
+        <v>1.615883</v>
+      </c>
       <c r="AM8" s="2">
-        <v>1.615883</v>
+        <v>0.63840529999999995</v>
       </c>
       <c r="AN8" s="2">
-        <v>0.63840529999999995</v>
+        <v>2.2992720000000002</v>
       </c>
       <c r="AO8" s="2">
-        <v>2.2992720000000002</v>
-      </c>
-      <c r="AP8" s="2">
         <v>0.7832964</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1695,85 +1667,82 @@
         <v>0.54191140000000004</v>
       </c>
       <c r="Q9" s="4">
-        <v>0.10114919999999999</v>
+        <v>51.618729999999999</v>
       </c>
       <c r="R9" s="4">
-        <v>51.618729999999999</v>
+        <v>15.24084</v>
       </c>
       <c r="S9" s="4">
-        <v>15.24084</v>
+        <v>0.13627</v>
       </c>
       <c r="T9" s="4">
-        <v>0.13627</v>
+        <v>9.9890000000000007E-2</v>
       </c>
       <c r="U9" s="4">
-        <v>9.9890000000000007E-2</v>
+        <v>2.5899999999999999E-2</v>
       </c>
       <c r="V9" s="4">
-        <v>2.5899999999999999E-2</v>
+        <v>3.9449999999999999E-2</v>
       </c>
       <c r="W9" s="4">
-        <v>3.9449999999999999E-2</v>
+        <v>0.13871</v>
       </c>
       <c r="X9" s="4">
-        <v>0.13871</v>
+        <v>0.1074</v>
       </c>
       <c r="Y9" s="4">
-        <v>0.1074</v>
+        <v>0.01</v>
       </c>
       <c r="Z9" s="4">
-        <v>0.01</v>
+        <v>1.6880300000000001E-2</v>
       </c>
       <c r="AA9" s="4">
-        <v>1.6880300000000001E-2</v>
+        <v>5.8389039999999998E-3</v>
       </c>
       <c r="AB9" s="4">
-        <v>5.8389039999999998E-3</v>
+        <v>9.7904700000000008E-3</v>
       </c>
       <c r="AC9" s="4">
-        <v>9.7904700000000008E-3</v>
+        <v>1.4009338E-2</v>
       </c>
       <c r="AD9" s="4">
-        <v>1.4009338E-2</v>
+        <v>1.951404E-2</v>
       </c>
       <c r="AE9" s="4">
-        <v>1.951404E-2</v>
+        <v>10.401702</v>
       </c>
       <c r="AF9" s="4">
-        <v>10.401702</v>
+        <v>23.938780000000001</v>
       </c>
       <c r="AG9" s="4">
-        <v>23.938780000000001</v>
+        <v>6.51</v>
       </c>
       <c r="AH9" s="4">
-        <v>6.51</v>
+        <v>18.95</v>
       </c>
       <c r="AI9" s="4">
-        <v>18.95</v>
+        <v>1.523166</v>
       </c>
       <c r="AJ9" s="4">
-        <v>1.523166</v>
+        <v>0.73302409999999996</v>
       </c>
       <c r="AK9" s="4">
-        <v>0.73302409999999996</v>
-      </c>
-      <c r="AL9" s="4">
         <v>0.77425650000000001</v>
       </c>
+      <c r="AL9" s="2">
+        <v>2.0932210000000002</v>
+      </c>
       <c r="AM9" s="2">
-        <v>2.0932210000000002</v>
+        <v>0.86658659999999998</v>
       </c>
       <c r="AN9" s="2">
-        <v>0.86658659999999998</v>
+        <v>2.9069639999999999</v>
       </c>
       <c r="AO9" s="2">
-        <v>2.9069639999999999</v>
-      </c>
-      <c r="AP9" s="2">
         <v>1.0318794</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1823,85 +1792,82 @@
         <v>0.65217139999999996</v>
       </c>
       <c r="Q10" s="4">
-        <v>0.1016007</v>
+        <v>59.331890000000001</v>
       </c>
       <c r="R10" s="4">
-        <v>59.331890000000001</v>
+        <v>13</v>
       </c>
       <c r="S10" s="4">
-        <v>13</v>
+        <v>0.15285000000000001</v>
       </c>
       <c r="T10" s="4">
-        <v>0.15285000000000001</v>
+        <v>0.11784</v>
       </c>
       <c r="U10" s="4">
-        <v>0.11784</v>
+        <v>2.7550000000000002E-2</v>
       </c>
       <c r="V10" s="4">
-        <v>2.7550000000000002E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="W10" s="4">
-        <v>4.2000000000000003E-2</v>
+        <v>0.15532000000000001</v>
       </c>
       <c r="X10" s="4">
-        <v>0.15532000000000001</v>
+        <v>0.12509999999999999</v>
       </c>
       <c r="Y10" s="4">
-        <v>0.12509999999999999</v>
+        <v>0.02</v>
       </c>
       <c r="Z10" s="4">
-        <v>0.02</v>
+        <v>1.510822E-2</v>
       </c>
       <c r="AA10" s="4">
-        <v>1.510822E-2</v>
+        <v>5.5824769999999998E-3</v>
       </c>
       <c r="AB10" s="4">
-        <v>5.5824769999999998E-3</v>
+        <v>9.8506010000000005E-3</v>
       </c>
       <c r="AC10" s="4">
-        <v>9.8506010000000005E-3</v>
+        <v>1.9918689E-2</v>
       </c>
       <c r="AD10" s="4">
-        <v>1.9918689E-2</v>
+        <v>1.8035869999999999E-2</v>
       </c>
       <c r="AE10" s="4">
-        <v>1.8035869999999999E-2</v>
+        <v>9.7702670000000005</v>
       </c>
       <c r="AF10" s="4">
-        <v>9.7702670000000005</v>
+        <v>20.399979999999999</v>
       </c>
       <c r="AG10" s="4">
-        <v>20.399979999999999</v>
+        <v>6.5</v>
       </c>
       <c r="AH10" s="4">
-        <v>6.5</v>
+        <v>14.36</v>
       </c>
       <c r="AI10" s="4">
-        <v>14.36</v>
+        <v>1.5248010000000001</v>
       </c>
       <c r="AJ10" s="4">
-        <v>1.5248010000000001</v>
+        <v>0.77091089999999995</v>
       </c>
       <c r="AK10" s="4">
-        <v>0.77091089999999995</v>
-      </c>
-      <c r="AL10" s="4">
         <v>0.80544649999999995</v>
       </c>
+      <c r="AL10" s="2">
+        <v>2.4998710000000002</v>
+      </c>
       <c r="AM10" s="2">
-        <v>2.4998710000000002</v>
+        <v>0.72136489999999998</v>
       </c>
       <c r="AN10" s="2">
-        <v>0.72136489999999998</v>
+        <v>3.5961400000000001</v>
       </c>
       <c r="AO10" s="2">
-        <v>3.5961400000000001</v>
-      </c>
-      <c r="AP10" s="2">
         <v>1.1791399</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1951,85 +1917,82 @@
         <v>0.76779109999999995</v>
       </c>
       <c r="Q11" s="4">
-        <v>0.1090214</v>
+        <v>69.739469999999997</v>
       </c>
       <c r="R11" s="4">
-        <v>69.739469999999997</v>
+        <v>10.537535999999999</v>
       </c>
       <c r="S11" s="4">
-        <v>10.537535999999999</v>
+        <v>0.16300999999999999</v>
       </c>
       <c r="T11" s="4">
-        <v>0.16300999999999999</v>
+        <v>0.124</v>
       </c>
       <c r="U11" s="4">
-        <v>0.124</v>
+        <v>3.0710000000000001E-2</v>
       </c>
       <c r="V11" s="4">
-        <v>3.0710000000000001E-2</v>
+        <v>4.462E-2</v>
       </c>
       <c r="W11" s="4">
-        <v>4.462E-2</v>
+        <v>0.16586999999999999</v>
       </c>
       <c r="X11" s="4">
-        <v>0.16586999999999999</v>
+        <v>0.13178999999999999</v>
       </c>
       <c r="Y11" s="4">
-        <v>0.13178999999999999</v>
+        <v>0.03</v>
       </c>
       <c r="Z11" s="4">
-        <v>0.03</v>
+        <v>2.4948350000000001E-2</v>
       </c>
       <c r="AA11" s="4">
-        <v>2.4948350000000001E-2</v>
+        <v>8.0448429999999994E-3</v>
       </c>
       <c r="AB11" s="4">
-        <v>8.0448429999999994E-3</v>
+        <v>9.3534780000000001E-3</v>
       </c>
       <c r="AC11" s="4">
-        <v>9.3534780000000001E-3</v>
+        <v>2.7427690000000001E-2</v>
       </c>
       <c r="AD11" s="4">
-        <v>2.7427690000000001E-2</v>
+        <v>2.6644089999999999E-2</v>
       </c>
       <c r="AE11" s="4">
-        <v>2.6644089999999999E-2</v>
+        <v>10.055505999999999</v>
       </c>
       <c r="AF11" s="4">
-        <v>10.055505999999999</v>
+        <v>21.316210000000002</v>
       </c>
       <c r="AG11" s="4">
-        <v>21.316210000000002</v>
+        <v>6.37</v>
       </c>
       <c r="AH11" s="4">
-        <v>6.37</v>
+        <v>14.18</v>
       </c>
       <c r="AI11" s="4">
-        <v>14.18</v>
+        <v>1.452898</v>
       </c>
       <c r="AJ11" s="4">
-        <v>1.452898</v>
+        <v>0.76072620000000002</v>
       </c>
       <c r="AK11" s="4">
-        <v>0.76072620000000002</v>
-      </c>
-      <c r="AL11" s="4">
         <v>0.79449199999999998</v>
       </c>
+      <c r="AL11" s="2">
+        <v>2.6723140000000001</v>
+      </c>
       <c r="AM11" s="2">
-        <v>2.6723140000000001</v>
+        <v>0.92382949999999997</v>
       </c>
       <c r="AN11" s="2">
-        <v>0.92382949999999997</v>
+        <v>3.719646</v>
       </c>
       <c r="AO11" s="2">
-        <v>3.719646</v>
-      </c>
-      <c r="AP11" s="2">
         <v>1.3799121999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2079,85 +2042,82 @@
         <v>0.76104099999999997</v>
       </c>
       <c r="Q12" s="4">
-        <v>0.1099159</v>
+        <v>79.964640000000003</v>
       </c>
       <c r="R12" s="4">
-        <v>79.964640000000003</v>
+        <v>12.233269999999999</v>
       </c>
       <c r="S12" s="4">
-        <v>12.233269999999999</v>
+        <v>0.19086</v>
       </c>
       <c r="T12" s="4">
-        <v>0.19086</v>
+        <v>0.14247000000000001</v>
       </c>
       <c r="U12" s="4">
-        <v>0.14247000000000001</v>
+        <v>3.9070000000000001E-2</v>
       </c>
       <c r="V12" s="4">
-        <v>3.9070000000000001E-2</v>
+        <v>5.1589999999999997E-2</v>
       </c>
       <c r="W12" s="4">
-        <v>5.1589999999999997E-2</v>
+        <v>0.19481999999999999</v>
       </c>
       <c r="X12" s="4">
-        <v>0.19481999999999999</v>
+        <v>0.15151999999999999</v>
       </c>
       <c r="Y12" s="4">
-        <v>0.15151999999999999</v>
+        <v>0.02</v>
       </c>
       <c r="Z12" s="4">
-        <v>0.02</v>
+        <v>1.442746E-2</v>
       </c>
       <c r="AA12" s="4">
-        <v>1.442746E-2</v>
+        <v>8.5902500000000007E-3</v>
       </c>
       <c r="AB12" s="4">
-        <v>8.5902500000000007E-3</v>
+        <v>1.4517534E-2</v>
       </c>
       <c r="AC12" s="4">
-        <v>1.4517534E-2</v>
+        <v>2.3297111999999998E-2</v>
       </c>
       <c r="AD12" s="4">
-        <v>2.3297111999999998E-2</v>
+        <v>2.0467300000000001E-2</v>
       </c>
       <c r="AE12" s="4">
-        <v>2.0467300000000001E-2</v>
+        <v>10.883044999999999</v>
       </c>
       <c r="AF12" s="4">
-        <v>10.883044999999999</v>
+        <v>20.893910000000002</v>
       </c>
       <c r="AG12" s="4">
-        <v>20.893910000000002</v>
+        <v>6.27</v>
       </c>
       <c r="AH12" s="4">
-        <v>6.27</v>
+        <v>14.88</v>
       </c>
       <c r="AI12" s="4">
-        <v>14.88</v>
+        <v>1.3204739999999999</v>
       </c>
       <c r="AJ12" s="4">
-        <v>1.3204739999999999</v>
+        <v>0.7464461</v>
       </c>
       <c r="AK12" s="4">
-        <v>0.7464461</v>
-      </c>
-      <c r="AL12" s="4">
         <v>0.77775380000000005</v>
       </c>
+      <c r="AL12" s="2">
+        <v>3.298127</v>
+      </c>
       <c r="AM12" s="2">
-        <v>3.298127</v>
+        <v>1.1790666999999999</v>
       </c>
       <c r="AN12" s="2">
-        <v>1.1790666999999999</v>
+        <v>4.7432270000000001</v>
       </c>
       <c r="AO12" s="2">
-        <v>4.7432270000000001</v>
-      </c>
-      <c r="AP12" s="2">
         <v>1.7547937</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2207,85 +2167,82 @@
         <v>0.92208199999999996</v>
       </c>
       <c r="Q13" s="4">
-        <v>0.1043953</v>
+        <v>78.661379999999994</v>
       </c>
       <c r="R13" s="4">
-        <v>78.661379999999994</v>
+        <v>15.548616000000001</v>
       </c>
       <c r="S13" s="4">
-        <v>15.548616000000001</v>
+        <v>0.19672000000000001</v>
       </c>
       <c r="T13" s="4">
-        <v>0.19672000000000001</v>
+        <v>0.14798</v>
       </c>
       <c r="U13" s="4">
-        <v>0.14798</v>
+        <v>3.635E-2</v>
       </c>
       <c r="V13" s="4">
-        <v>3.635E-2</v>
+        <v>5.0369999999999998E-2</v>
       </c>
       <c r="W13" s="4">
-        <v>5.0369999999999998E-2</v>
+        <v>0.20005000000000001</v>
       </c>
       <c r="X13" s="4">
-        <v>0.20005000000000001</v>
+        <v>0.15631</v>
       </c>
       <c r="Y13" s="4">
-        <v>0.15631</v>
+        <v>0.03</v>
       </c>
       <c r="Z13" s="4">
-        <v>0.03</v>
+        <v>2.2133400000000001E-2</v>
       </c>
       <c r="AA13" s="4">
-        <v>2.2133400000000001E-2</v>
+        <v>9.3028529999999998E-3</v>
       </c>
       <c r="AB13" s="4">
-        <v>9.3028529999999998E-3</v>
+        <v>1.4849087E-2</v>
       </c>
       <c r="AC13" s="4">
-        <v>1.4849087E-2</v>
+        <v>2.8076157000000001E-2</v>
       </c>
       <c r="AD13" s="4">
-        <v>2.8076157000000001E-2</v>
+        <v>2.6653E-2</v>
       </c>
       <c r="AE13" s="4">
-        <v>2.6653E-2</v>
+        <v>10.05926</v>
       </c>
       <c r="AF13" s="4">
-        <v>10.05926</v>
+        <v>19.044419999999999</v>
       </c>
       <c r="AG13" s="4">
-        <v>19.044419999999999</v>
+        <v>5.96</v>
       </c>
       <c r="AH13" s="4">
-        <v>5.96</v>
+        <v>15.54</v>
       </c>
       <c r="AI13" s="4">
-        <v>15.54</v>
+        <v>1.385572</v>
       </c>
       <c r="AJ13" s="4">
-        <v>1.385572</v>
+        <v>0.75223249999999997</v>
       </c>
       <c r="AK13" s="4">
-        <v>0.75223249999999997</v>
-      </c>
-      <c r="AL13" s="4">
         <v>0.78138300000000005</v>
       </c>
+      <c r="AL13" s="2">
+        <v>3.3919899999999998</v>
+      </c>
       <c r="AM13" s="2">
-        <v>3.3919899999999998</v>
+        <v>1.3750769</v>
       </c>
       <c r="AN13" s="2">
-        <v>1.3750769</v>
+        <v>4.8007520000000001</v>
       </c>
       <c r="AO13" s="2">
-        <v>4.8007520000000001</v>
-      </c>
-      <c r="AP13" s="2">
         <v>1.9524846</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2335,85 +2292,82 @@
         <v>0.53596180000000004</v>
       </c>
       <c r="Q14" s="4">
-        <v>0.1383481</v>
+        <v>32.699869999999997</v>
       </c>
       <c r="R14" s="4">
-        <v>32.699869999999997</v>
+        <v>13.7563</v>
       </c>
       <c r="S14" s="4">
-        <v>13.7563</v>
+        <v>0.11838</v>
       </c>
       <c r="T14" s="4">
-        <v>0.11838</v>
+        <v>8.7220000000000006E-2</v>
       </c>
       <c r="U14" s="4">
-        <v>8.7220000000000006E-2</v>
+        <v>2.7609999999999999E-2</v>
       </c>
       <c r="V14" s="4">
-        <v>2.7609999999999999E-2</v>
+        <v>3.1150000000000001E-2</v>
       </c>
       <c r="W14" s="4">
-        <v>3.1150000000000001E-2</v>
+        <v>0.12156</v>
       </c>
       <c r="X14" s="4">
-        <v>0.12156</v>
+        <v>9.2609999999999998E-2</v>
       </c>
       <c r="Y14" s="4">
-        <v>9.2609999999999998E-2</v>
+        <v>0.01</v>
       </c>
       <c r="Z14" s="4">
-        <v>0.01</v>
+        <v>1.197583E-2</v>
       </c>
       <c r="AA14" s="4">
-        <v>1.197583E-2</v>
+        <v>6.4516499999999997E-3</v>
       </c>
       <c r="AB14" s="4">
-        <v>6.4516499999999997E-3</v>
+        <v>6.2595109999999997E-3</v>
       </c>
       <c r="AC14" s="4">
-        <v>6.2595109999999997E-3</v>
+        <v>1.2849497E-2</v>
       </c>
       <c r="AD14" s="4">
-        <v>1.2849497E-2</v>
+        <v>1.3513030000000001E-2</v>
       </c>
       <c r="AE14" s="4">
-        <v>1.3513030000000001E-2</v>
+        <v>12.966476</v>
       </c>
       <c r="AF14" s="4">
-        <v>12.966476</v>
+        <v>22.342780000000001</v>
       </c>
       <c r="AG14" s="4">
-        <v>22.342780000000001</v>
+        <v>7.13</v>
       </c>
       <c r="AH14" s="4">
-        <v>7.13</v>
+        <v>18.05</v>
       </c>
       <c r="AI14" s="4">
-        <v>18.05</v>
+        <v>1.127891</v>
       </c>
       <c r="AJ14" s="4">
-        <v>1.127891</v>
+        <v>0.73675729999999995</v>
       </c>
       <c r="AK14" s="4">
-        <v>0.73675729999999995</v>
-      </c>
-      <c r="AL14" s="4">
         <v>0.76187000000000005</v>
       </c>
+      <c r="AL14" s="2">
+        <v>1.380549</v>
+      </c>
       <c r="AM14" s="2">
-        <v>1.380549</v>
+        <v>0.51966860000000004</v>
       </c>
       <c r="AN14" s="2">
-        <v>0.51966860000000004</v>
+        <v>1.9820439999999999</v>
       </c>
       <c r="AO14" s="2">
-        <v>1.9820439999999999</v>
-      </c>
-      <c r="AP14" s="2">
         <v>0.69464239999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2463,85 +2417,82 @@
         <v>0.66328419999999999</v>
       </c>
       <c r="Q15" s="4">
-        <v>0.1026282</v>
+        <v>44.235219999999998</v>
       </c>
       <c r="R15" s="4">
-        <v>44.235219999999998</v>
+        <v>9.5847010000000008</v>
       </c>
       <c r="S15" s="4">
-        <v>9.5847010000000008</v>
+        <v>0.13386000000000001</v>
       </c>
       <c r="T15" s="4">
-        <v>0.13386000000000001</v>
+        <v>9.9099999999999994E-2</v>
       </c>
       <c r="U15" s="4">
-        <v>9.9099999999999994E-2</v>
+        <v>2.726E-2</v>
       </c>
       <c r="V15" s="4">
-        <v>2.726E-2</v>
+        <v>3.6139999999999999E-2</v>
       </c>
       <c r="W15" s="4">
-        <v>3.6139999999999999E-2</v>
+        <v>0.13661000000000001</v>
       </c>
       <c r="X15" s="4">
-        <v>0.13661000000000001</v>
+        <v>0.10549</v>
       </c>
       <c r="Y15" s="4">
-        <v>0.10549</v>
+        <v>0.02</v>
       </c>
       <c r="Z15" s="4">
-        <v>0.02</v>
+        <v>1.7105860000000001E-2</v>
       </c>
       <c r="AA15" s="4">
-        <v>1.7105860000000001E-2</v>
+        <v>6.2397390000000002E-3</v>
       </c>
       <c r="AB15" s="4">
-        <v>6.2397390000000002E-3</v>
+        <v>7.0116429999999997E-3</v>
       </c>
       <c r="AC15" s="4">
-        <v>7.0116429999999997E-3</v>
+        <v>2.0428571999999999E-2</v>
       </c>
       <c r="AD15" s="4">
-        <v>2.0428571999999999E-2</v>
+        <v>1.8487119999999999E-2</v>
       </c>
       <c r="AE15" s="4">
-        <v>1.8487119999999999E-2</v>
+        <v>11.217104000000001</v>
       </c>
       <c r="AF15" s="4">
-        <v>11.217104000000001</v>
+        <v>22.905550000000002</v>
       </c>
       <c r="AG15" s="4">
-        <v>22.905550000000002</v>
+        <v>7.05</v>
       </c>
       <c r="AH15" s="4">
-        <v>7.05</v>
+        <v>17.39</v>
       </c>
       <c r="AI15" s="4">
-        <v>17.39</v>
+        <v>1.325717</v>
       </c>
       <c r="AJ15" s="4">
-        <v>1.325717</v>
+        <v>0.74036930000000001</v>
       </c>
       <c r="AK15" s="4">
-        <v>0.74036930000000001</v>
-      </c>
-      <c r="AL15" s="4">
         <v>0.77221550000000005</v>
       </c>
+      <c r="AL15" s="2">
+        <v>1.7168410000000001</v>
+      </c>
       <c r="AM15" s="2">
-        <v>1.7168410000000001</v>
+        <v>0.68591230000000003</v>
       </c>
       <c r="AN15" s="2">
-        <v>0.68591230000000003</v>
+        <v>2.4727399999999999</v>
       </c>
       <c r="AO15" s="2">
-        <v>2.4727399999999999</v>
-      </c>
-      <c r="AP15" s="2">
         <v>0.86666909999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2591,85 +2542,82 @@
         <v>0.89489700000000005</v>
       </c>
       <c r="Q16" s="4">
-        <v>0.10928010000000001</v>
+        <v>55.837299999999999</v>
       </c>
       <c r="R16" s="4">
-        <v>55.837299999999999</v>
+        <v>8.2553210000000004</v>
       </c>
       <c r="S16" s="4">
-        <v>8.2553210000000004</v>
+        <v>0.16027</v>
       </c>
       <c r="T16" s="4">
-        <v>0.16027</v>
+        <v>0.11772000000000001</v>
       </c>
       <c r="U16" s="4">
-        <v>0.11772000000000001</v>
+        <v>3.2140000000000002E-2</v>
       </c>
       <c r="V16" s="4">
-        <v>3.2140000000000002E-2</v>
+        <v>4.4690000000000001E-2</v>
       </c>
       <c r="W16" s="4">
-        <v>4.4690000000000001E-2</v>
+        <v>0.16345999999999999</v>
       </c>
       <c r="X16" s="4">
-        <v>0.16345999999999999</v>
+        <v>0.12592</v>
       </c>
       <c r="Y16" s="4">
-        <v>0.12592</v>
+        <v>0.02</v>
       </c>
       <c r="Z16" s="4">
-        <v>0.02</v>
+        <v>1.9455719999999999E-2</v>
       </c>
       <c r="AA16" s="4">
-        <v>1.9455719999999999E-2</v>
+        <v>8.0705199999999994E-3</v>
       </c>
       <c r="AB16" s="4">
-        <v>8.0705199999999994E-3</v>
+        <v>1.3410122999999999E-2</v>
       </c>
       <c r="AC16" s="4">
-        <v>1.3410122999999999E-2</v>
+        <v>2.363059E-2</v>
       </c>
       <c r="AD16" s="4">
-        <v>2.363059E-2</v>
+        <v>2.3629569999999999E-2</v>
       </c>
       <c r="AE16" s="4">
-        <v>2.3629569999999999E-2</v>
+        <v>10.97415</v>
       </c>
       <c r="AF16" s="4">
-        <v>10.97415</v>
+        <v>21.94753</v>
       </c>
       <c r="AG16" s="4">
-        <v>21.94753</v>
+        <v>5.99</v>
       </c>
       <c r="AH16" s="4">
-        <v>5.99</v>
+        <v>16.54</v>
       </c>
       <c r="AI16" s="4">
-        <v>16.54</v>
+        <v>1.3905320000000001</v>
       </c>
       <c r="AJ16" s="4">
-        <v>1.3905320000000001</v>
+        <v>0.73453179999999996</v>
       </c>
       <c r="AK16" s="4">
-        <v>0.73453179999999996</v>
-      </c>
-      <c r="AL16" s="4">
         <v>0.77033600000000002</v>
       </c>
+      <c r="AL16" s="2">
+        <v>2.2454689999999999</v>
+      </c>
       <c r="AM16" s="2">
-        <v>2.2454689999999999</v>
+        <v>0.94153419999999999</v>
       </c>
       <c r="AN16" s="2">
-        <v>0.94153419999999999</v>
+        <v>3.3616429999999999</v>
       </c>
       <c r="AO16" s="2">
-        <v>3.3616429999999999</v>
-      </c>
-      <c r="AP16" s="2">
         <v>1.3526688</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2719,85 +2667,82 @@
         <v>0.85615300000000005</v>
       </c>
       <c r="Q17" s="4">
-        <v>8.5215799999999994E-2</v>
+        <v>64.22757</v>
       </c>
       <c r="R17" s="4">
-        <v>64.22757</v>
+        <v>29.241060000000001</v>
       </c>
       <c r="S17" s="4">
-        <v>29.241060000000001</v>
+        <v>0.17638000000000001</v>
       </c>
       <c r="T17" s="4">
-        <v>0.17638000000000001</v>
+        <v>0.13575999999999999</v>
       </c>
       <c r="U17" s="4">
-        <v>0.13575999999999999</v>
+        <v>3.4759999999999999E-2</v>
       </c>
       <c r="V17" s="4">
-        <v>3.4759999999999999E-2</v>
+        <v>4.6859999999999999E-2</v>
       </c>
       <c r="W17" s="4">
-        <v>4.6859999999999999E-2</v>
+        <v>0.17977000000000001</v>
       </c>
       <c r="X17" s="4">
-        <v>0.17977000000000001</v>
+        <v>0.14362</v>
       </c>
       <c r="Y17" s="4">
-        <v>0.14362</v>
+        <v>0.03</v>
       </c>
       <c r="Z17" s="4">
-        <v>0.03</v>
+        <v>2.4039129999999999E-2</v>
       </c>
       <c r="AA17" s="4">
-        <v>2.4039129999999999E-2</v>
+        <v>7.2156149999999999E-3</v>
       </c>
       <c r="AB17" s="4">
-        <v>7.2156149999999999E-3</v>
+        <v>1.1876579E-2</v>
       </c>
       <c r="AC17" s="4">
-        <v>1.1876579E-2</v>
+        <v>2.7268011000000002E-2</v>
       </c>
       <c r="AD17" s="4">
-        <v>2.7268011000000002E-2</v>
+        <v>2.6812929999999999E-2</v>
       </c>
       <c r="AE17" s="4">
-        <v>2.6812929999999999E-2</v>
+        <v>10.804721000000001</v>
       </c>
       <c r="AF17" s="4">
-        <v>10.804721000000001</v>
+        <v>20.453510000000001</v>
       </c>
       <c r="AG17" s="4">
-        <v>20.453510000000001</v>
+        <v>6.1</v>
       </c>
       <c r="AH17" s="4">
-        <v>6.1</v>
+        <v>14.37</v>
       </c>
       <c r="AI17" s="4">
-        <v>14.37</v>
+        <v>1.3481080000000001</v>
       </c>
       <c r="AJ17" s="4">
-        <v>1.3481080000000001</v>
+        <v>0.76972949999999996</v>
       </c>
       <c r="AK17" s="4">
-        <v>0.76972949999999996</v>
-      </c>
-      <c r="AL17" s="4">
         <v>0.79892660000000004</v>
       </c>
+      <c r="AL17" s="2">
+        <v>2.2909410000000001</v>
+      </c>
       <c r="AM17" s="2">
-        <v>2.2909410000000001</v>
+        <v>0.84496669999999996</v>
       </c>
       <c r="AN17" s="2">
-        <v>0.84496669999999996</v>
+        <v>3.2261060000000001</v>
       </c>
       <c r="AO17" s="2">
-        <v>3.2261060000000001</v>
-      </c>
-      <c r="AP17" s="2">
         <v>1.2185345999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2847,85 +2792,82 @@
         <v>1.0709948</v>
       </c>
       <c r="Q18" s="4">
-        <v>0.100356</v>
+        <v>74.624189999999999</v>
       </c>
       <c r="R18" s="4">
-        <v>74.624189999999999</v>
+        <v>10.024768999999999</v>
       </c>
       <c r="S18" s="4">
-        <v>10.024768999999999</v>
+        <v>0.19669</v>
       </c>
       <c r="T18" s="4">
-        <v>0.19669</v>
+        <v>0.14657999999999999</v>
       </c>
       <c r="U18" s="4">
-        <v>0.14657999999999999</v>
+        <v>3.6920000000000001E-2</v>
       </c>
       <c r="V18" s="4">
-        <v>3.6920000000000001E-2</v>
+        <v>5.3580000000000003E-2</v>
       </c>
       <c r="W18" s="4">
-        <v>5.3580000000000003E-2</v>
+        <v>0.20013</v>
       </c>
       <c r="X18" s="4">
-        <v>0.20013</v>
+        <v>0.15606999999999999</v>
       </c>
       <c r="Y18" s="4">
-        <v>0.15606999999999999</v>
+        <v>0.03</v>
       </c>
       <c r="Z18" s="4">
-        <v>0.03</v>
+        <v>2.119739E-2</v>
       </c>
       <c r="AA18" s="4">
-        <v>2.119739E-2</v>
+        <v>7.9246300000000002E-3</v>
       </c>
       <c r="AB18" s="4">
-        <v>7.9246300000000002E-3</v>
+        <v>1.0025387E-2</v>
       </c>
       <c r="AC18" s="4">
-        <v>1.0025387E-2</v>
+        <v>2.9821295000000001E-2</v>
       </c>
       <c r="AD18" s="4">
-        <v>2.9821295000000001E-2</v>
+        <v>2.3448610000000002E-2</v>
       </c>
       <c r="AE18" s="4">
-        <v>2.3448610000000002E-2</v>
+        <v>10.257403</v>
       </c>
       <c r="AF18" s="4">
-        <v>10.257403</v>
+        <v>21.426480000000002</v>
       </c>
       <c r="AG18" s="4">
-        <v>21.426480000000002</v>
+        <v>6.07</v>
       </c>
       <c r="AH18" s="4">
-        <v>6.07</v>
+        <v>15.46</v>
       </c>
       <c r="AI18" s="4">
-        <v>15.46</v>
+        <v>1.4513149999999999</v>
       </c>
       <c r="AJ18" s="4">
-        <v>1.4513149999999999</v>
+        <v>0.74523059999999997</v>
       </c>
       <c r="AK18" s="4">
-        <v>0.74523059999999997</v>
-      </c>
-      <c r="AL18" s="4">
         <v>0.77983559999999996</v>
       </c>
+      <c r="AL18" s="2">
+        <v>3.0990920000000002</v>
+      </c>
       <c r="AM18" s="2">
-        <v>3.0990920000000002</v>
+        <v>0.98836520000000005</v>
       </c>
       <c r="AN18" s="2">
-        <v>0.98836520000000005</v>
+        <v>4.7167320000000004</v>
       </c>
       <c r="AO18" s="2">
-        <v>4.7167320000000004</v>
-      </c>
-      <c r="AP18" s="2">
         <v>2.0112697000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2975,85 +2917,82 @@
         <v>1.1922664000000001</v>
       </c>
       <c r="Q19" s="4">
-        <v>8.2925299999999993E-2</v>
+        <v>70.267690000000002</v>
       </c>
       <c r="R19" s="4">
-        <v>70.267690000000002</v>
+        <v>15.24084</v>
       </c>
       <c r="S19" s="4">
-        <v>15.24084</v>
+        <v>0.19627</v>
       </c>
       <c r="T19" s="4">
-        <v>0.19627</v>
+        <v>0.15124000000000001</v>
       </c>
       <c r="U19" s="4">
-        <v>0.15124000000000001</v>
+        <v>3.703E-2</v>
       </c>
       <c r="V19" s="4">
-        <v>3.703E-2</v>
+        <v>5.4149999999999997E-2</v>
       </c>
       <c r="W19" s="4">
-        <v>5.4149999999999997E-2</v>
+        <v>0.19972999999999999</v>
       </c>
       <c r="X19" s="4">
-        <v>0.19972999999999999</v>
+        <v>0.16064999999999999</v>
       </c>
       <c r="Y19" s="4">
-        <v>0.16064999999999999</v>
+        <v>0.03</v>
       </c>
       <c r="Z19" s="4">
-        <v>0.03</v>
+        <v>2.7410130000000001E-2</v>
       </c>
       <c r="AA19" s="4">
-        <v>2.7410130000000001E-2</v>
+        <v>8.2217720000000005E-3</v>
       </c>
       <c r="AB19" s="4">
-        <v>8.2217720000000005E-3</v>
+        <v>1.0596157E-2</v>
       </c>
       <c r="AC19" s="4">
-        <v>1.0596157E-2</v>
+        <v>3.4379192000000003E-2</v>
       </c>
       <c r="AD19" s="4">
-        <v>3.4379192000000003E-2</v>
+        <v>2.9386969999999998E-2</v>
       </c>
       <c r="AE19" s="4">
-        <v>2.9386969999999998E-2</v>
+        <v>10.291520999999999</v>
       </c>
       <c r="AF19" s="4">
-        <v>10.291520999999999</v>
+        <v>21.329170000000001</v>
       </c>
       <c r="AG19" s="4">
-        <v>21.329170000000001</v>
+        <v>5.92</v>
       </c>
       <c r="AH19" s="4">
-        <v>5.92</v>
+        <v>15.2</v>
       </c>
       <c r="AI19" s="4">
-        <v>15.2</v>
+        <v>1.46252</v>
       </c>
       <c r="AJ19" s="4">
-        <v>1.46252</v>
+        <v>0.7705978</v>
       </c>
       <c r="AK19" s="4">
-        <v>0.7705978</v>
-      </c>
-      <c r="AL19" s="4">
         <v>0.80431779999999997</v>
       </c>
+      <c r="AL19" s="2">
+        <v>2.850533</v>
+      </c>
       <c r="AM19" s="2">
-        <v>2.850533</v>
+        <v>0.91036229999999996</v>
       </c>
       <c r="AN19" s="2">
-        <v>0.91036229999999996</v>
+        <v>4.0475570000000003</v>
       </c>
       <c r="AO19" s="2">
-        <v>4.0475570000000003</v>
-      </c>
-      <c r="AP19" s="2">
         <v>1.3998554000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3103,85 +3042,82 @@
         <v>0.58566430000000003</v>
       </c>
       <c r="Q20" s="4">
-        <v>7.1386699999999997E-2</v>
+        <v>53.345399999999998</v>
       </c>
       <c r="R20" s="4">
-        <v>53.345399999999998</v>
+        <v>15.24084</v>
       </c>
       <c r="S20" s="4">
-        <v>15.24084</v>
+        <v>0.11688</v>
       </c>
       <c r="T20" s="4">
-        <v>0.11688</v>
+        <v>8.3809999999999996E-2</v>
       </c>
       <c r="U20" s="4">
-        <v>8.3809999999999996E-2</v>
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="V20" s="4">
-        <v>1.4500000000000001E-2</v>
+        <v>2.0209999999999999E-2</v>
       </c>
       <c r="W20" s="4">
-        <v>2.0209999999999999E-2</v>
+        <v>0.11778</v>
       </c>
       <c r="X20" s="4">
-        <v>0.11778</v>
+        <v>8.6220000000000005E-2</v>
       </c>
       <c r="Y20" s="4">
-        <v>8.6220000000000005E-2</v>
+        <v>0.01</v>
       </c>
       <c r="Z20" s="4">
-        <v>0.01</v>
+        <v>1.2470500000000001E-2</v>
       </c>
       <c r="AA20" s="4">
-        <v>1.2470500000000001E-2</v>
+        <v>3.9753549999999999E-3</v>
       </c>
       <c r="AB20" s="4">
-        <v>3.9753549999999999E-3</v>
+        <v>5.2436339999999996E-3</v>
       </c>
       <c r="AC20" s="4">
-        <v>5.2436339999999996E-3</v>
+        <v>1.4842516E-2</v>
       </c>
       <c r="AD20" s="4">
-        <v>1.4842516E-2</v>
+        <v>1.352809E-2</v>
       </c>
       <c r="AE20" s="4">
-        <v>1.352809E-2</v>
+        <v>7.2722340000000001</v>
       </c>
       <c r="AF20" s="4">
-        <v>7.2722340000000001</v>
+        <v>15.41765</v>
       </c>
       <c r="AG20" s="4">
-        <v>15.41765</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="AH20" s="4">
-        <v>4.8600000000000003</v>
+        <v>11.66</v>
       </c>
       <c r="AI20" s="4">
-        <v>11.66</v>
+        <v>1.3934869999999999</v>
       </c>
       <c r="AJ20" s="4">
-        <v>1.3934869999999999</v>
+        <v>0.71708660000000002</v>
       </c>
       <c r="AK20" s="4">
-        <v>0.71708660000000002</v>
-      </c>
-      <c r="AL20" s="4">
         <v>0.73201910000000003</v>
       </c>
+      <c r="AL20" s="2">
+        <v>4.3964879999999997</v>
+      </c>
       <c r="AM20" s="2">
-        <v>4.3964879999999997</v>
+        <v>1.5681415999999999</v>
       </c>
       <c r="AN20" s="2">
-        <v>1.5681415999999999</v>
+        <v>6.6711720000000003</v>
       </c>
       <c r="AO20" s="2">
-        <v>6.6711720000000003</v>
-      </c>
-      <c r="AP20" s="2">
         <v>2.3903373999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3231,85 +3167,82 @@
         <v>0.64460280000000003</v>
       </c>
       <c r="Q21" s="4">
-        <v>0.11475340000000001</v>
+        <v>57.915570000000002</v>
       </c>
       <c r="R21" s="4">
-        <v>57.915570000000002</v>
+        <v>13</v>
       </c>
       <c r="S21" s="4">
-        <v>13</v>
+        <v>0.14022999999999999</v>
       </c>
       <c r="T21" s="4">
-        <v>0.14022999999999999</v>
+        <v>0.10162</v>
       </c>
       <c r="U21" s="4">
-        <v>0.10162</v>
+        <v>1.555E-2</v>
       </c>
       <c r="V21" s="4">
-        <v>1.555E-2</v>
+        <v>2.7150000000000001E-2</v>
       </c>
       <c r="W21" s="4">
-        <v>2.7150000000000001E-2</v>
+        <v>0.14108999999999999</v>
       </c>
       <c r="X21" s="4">
-        <v>0.14108999999999999</v>
+        <v>0.10518</v>
       </c>
       <c r="Y21" s="4">
-        <v>0.10518</v>
+        <v>0.02</v>
       </c>
       <c r="Z21" s="4">
-        <v>0.02</v>
+        <v>1.4132230000000001E-2</v>
       </c>
       <c r="AA21" s="4">
-        <v>1.4132230000000001E-2</v>
+        <v>3.899801E-3</v>
       </c>
       <c r="AB21" s="4">
-        <v>3.899801E-3</v>
+        <v>6.5729320000000001E-3</v>
       </c>
       <c r="AC21" s="4">
-        <v>6.5729320000000001E-3</v>
+        <v>1.8519773E-2</v>
       </c>
       <c r="AD21" s="4">
-        <v>1.8519773E-2</v>
+        <v>1.5585999999999999E-2</v>
       </c>
       <c r="AE21" s="4">
-        <v>1.5585999999999999E-2</v>
+        <v>6.1657529999999996</v>
       </c>
       <c r="AF21" s="4">
-        <v>6.1657529999999996</v>
+        <v>16.298310000000001</v>
       </c>
       <c r="AG21" s="4">
-        <v>16.298310000000001</v>
+        <v>3.69</v>
       </c>
       <c r="AH21" s="4">
-        <v>3.69</v>
+        <v>12.83</v>
       </c>
       <c r="AI21" s="4">
-        <v>12.83</v>
+        <v>1.745824</v>
       </c>
       <c r="AJ21" s="4">
-        <v>1.745824</v>
+        <v>0.7246416</v>
       </c>
       <c r="AK21" s="4">
-        <v>0.7246416</v>
-      </c>
-      <c r="AL21" s="4">
         <v>0.74548570000000003</v>
       </c>
+      <c r="AL21" s="2">
+        <v>6.3452070000000003</v>
+      </c>
       <c r="AM21" s="2">
-        <v>6.3452070000000003</v>
+        <v>3.2045864000000002</v>
       </c>
       <c r="AN21" s="2">
-        <v>3.2045864000000002</v>
+        <v>9.2688849999999992</v>
       </c>
       <c r="AO21" s="2">
-        <v>9.2688849999999992</v>
-      </c>
-      <c r="AP21" s="2">
         <v>4.4307112000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3359,85 +3292,82 @@
         <v>1.1492150999999999</v>
       </c>
       <c r="Q22" s="4">
-        <v>4.9648299999999999E-2</v>
+        <v>58.482669999999999</v>
       </c>
       <c r="R22" s="4">
-        <v>58.482669999999999</v>
+        <v>10.537535999999999</v>
       </c>
       <c r="S22" s="4">
-        <v>10.537535999999999</v>
+        <v>0.16328000000000001</v>
       </c>
       <c r="T22" s="4">
-        <v>0.16328000000000001</v>
+        <v>0.12429999999999999</v>
       </c>
       <c r="U22" s="4">
-        <v>0.12429999999999999</v>
+        <v>1.7250000000000001E-2</v>
       </c>
       <c r="V22" s="4">
-        <v>1.7250000000000001E-2</v>
+        <v>2.674E-2</v>
       </c>
       <c r="W22" s="4">
-        <v>2.674E-2</v>
+        <v>0.16419</v>
       </c>
       <c r="X22" s="4">
-        <v>0.16419</v>
+        <v>0.12714</v>
       </c>
       <c r="Y22" s="4">
-        <v>0.12714</v>
+        <v>0.03</v>
       </c>
       <c r="Z22" s="4">
-        <v>0.03</v>
+        <v>2.2890440000000001E-2</v>
       </c>
       <c r="AA22" s="4">
-        <v>2.2890440000000001E-2</v>
+        <v>4.5516699999999998E-3</v>
       </c>
       <c r="AB22" s="4">
-        <v>4.5516699999999998E-3</v>
+        <v>9.4606180000000005E-3</v>
       </c>
       <c r="AC22" s="4">
-        <v>9.4606180000000005E-3</v>
+        <v>2.7634556000000001E-2</v>
       </c>
       <c r="AD22" s="4">
-        <v>2.7634556000000001E-2</v>
+        <v>2.4768430000000001E-2</v>
       </c>
       <c r="AE22" s="4">
-        <v>2.4768430000000001E-2</v>
+        <v>6.1912039999999999</v>
       </c>
       <c r="AF22" s="4">
-        <v>6.1912039999999999</v>
+        <v>14.4854</v>
       </c>
       <c r="AG22" s="4">
-        <v>14.4854</v>
+        <v>4.07</v>
       </c>
       <c r="AH22" s="4">
-        <v>4.07</v>
+        <v>12.47</v>
       </c>
       <c r="AI22" s="4">
-        <v>12.47</v>
+        <v>1.5498289999999999</v>
       </c>
       <c r="AJ22" s="4">
-        <v>1.5498289999999999</v>
+        <v>0.76127480000000003</v>
       </c>
       <c r="AK22" s="4">
-        <v>0.76127480000000003</v>
-      </c>
-      <c r="AL22" s="4">
         <v>0.77437849999999997</v>
       </c>
+      <c r="AL22" s="2">
+        <v>7.4076899999999997</v>
+      </c>
       <c r="AM22" s="2">
-        <v>7.4076899999999997</v>
+        <v>4.4769538000000004</v>
       </c>
       <c r="AN22" s="2">
-        <v>4.4769538000000004</v>
+        <v>10.954936</v>
       </c>
       <c r="AO22" s="2">
-        <v>10.954936</v>
-      </c>
-      <c r="AP22" s="2">
         <v>4.8334991</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3487,85 +3417,82 @@
         <v>0.82199339999999999</v>
       </c>
       <c r="Q23" s="4">
-        <v>5.8465999999999997E-2</v>
+        <v>78.013339999999999</v>
       </c>
       <c r="R23" s="4">
-        <v>78.013339999999999</v>
+        <v>12.233269999999999</v>
       </c>
       <c r="S23" s="4">
-        <v>12.233269999999999</v>
+        <v>0.17111000000000001</v>
       </c>
       <c r="T23" s="4">
-        <v>0.17111000000000001</v>
+        <v>0.12589</v>
       </c>
       <c r="U23" s="4">
-        <v>0.12589</v>
+        <v>1.5650000000000001E-2</v>
       </c>
       <c r="V23" s="4">
-        <v>1.5650000000000001E-2</v>
+        <v>3.5159999999999997E-2</v>
       </c>
       <c r="W23" s="4">
-        <v>3.5159999999999997E-2</v>
+        <v>0.17182</v>
       </c>
       <c r="X23" s="4">
-        <v>0.17182</v>
+        <v>0.13070999999999999</v>
       </c>
       <c r="Y23" s="4">
-        <v>0.13070999999999999</v>
+        <v>0.03</v>
       </c>
       <c r="Z23" s="4">
-        <v>0.03</v>
+        <v>2.7654560000000002E-2</v>
       </c>
       <c r="AA23" s="4">
-        <v>2.7654560000000002E-2</v>
+        <v>5.9382180000000003E-3</v>
       </c>
       <c r="AB23" s="4">
-        <v>5.9382180000000003E-3</v>
+        <v>1.282409E-2</v>
       </c>
       <c r="AC23" s="4">
-        <v>1.282409E-2</v>
+        <v>2.6862625000000001E-2</v>
       </c>
       <c r="AD23" s="4">
-        <v>2.6862625000000001E-2</v>
+        <v>3.048331E-2</v>
       </c>
       <c r="AE23" s="4">
-        <v>3.048331E-2</v>
+        <v>4.9204249999999998</v>
       </c>
       <c r="AF23" s="4">
-        <v>4.9204249999999998</v>
+        <v>17.057639999999999</v>
       </c>
       <c r="AG23" s="4">
-        <v>17.057639999999999</v>
+        <v>3.2</v>
       </c>
       <c r="AH23" s="4">
-        <v>3.2</v>
+        <v>12.42</v>
       </c>
       <c r="AI23" s="4">
-        <v>12.42</v>
+        <v>2.2467069999999998</v>
       </c>
       <c r="AJ23" s="4">
-        <v>2.2467069999999998</v>
+        <v>0.73576949999999997</v>
       </c>
       <c r="AK23" s="4">
-        <v>0.73576949999999997</v>
-      </c>
-      <c r="AL23" s="4">
         <v>0.76074730000000002</v>
       </c>
+      <c r="AL23" s="2">
+        <v>8.0074629999999996</v>
+      </c>
       <c r="AM23" s="2">
-        <v>8.0074629999999996</v>
+        <v>4.8920569</v>
       </c>
       <c r="AN23" s="2">
-        <v>4.8920569</v>
+        <v>12.095499</v>
       </c>
       <c r="AO23" s="2">
-        <v>12.095499</v>
-      </c>
-      <c r="AP23" s="2">
         <v>4.6775393999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3615,85 +3542,82 @@
         <v>0.92024379999999995</v>
       </c>
       <c r="Q24" s="4">
-        <v>7.1166999999999994E-2</v>
+        <v>70.867419999999996</v>
       </c>
       <c r="R24" s="4">
-        <v>70.867419999999996</v>
+        <v>12.819542</v>
       </c>
       <c r="S24" s="4">
-        <v>12.819542</v>
+        <v>0.19447999999999999</v>
       </c>
       <c r="T24" s="4">
-        <v>0.19447999999999999</v>
+        <v>0.15604999999999999</v>
       </c>
       <c r="U24" s="4">
-        <v>0.15604999999999999</v>
+        <v>1.8169999999999999E-2</v>
       </c>
       <c r="V24" s="4">
-        <v>1.8169999999999999E-2</v>
+        <v>2.9350000000000001E-2</v>
       </c>
       <c r="W24" s="4">
-        <v>2.9350000000000001E-2</v>
+        <v>0.19531999999999999</v>
       </c>
       <c r="X24" s="4">
-        <v>0.19531999999999999</v>
+        <v>0.15878999999999999</v>
       </c>
       <c r="Y24" s="4">
-        <v>0.15878999999999999</v>
+        <v>0.03</v>
       </c>
       <c r="Z24" s="4">
-        <v>0.03</v>
+        <v>3.0112090000000001E-2</v>
       </c>
       <c r="AA24" s="4">
-        <v>3.0112090000000001E-2</v>
+        <v>5.7670109999999998E-3</v>
       </c>
       <c r="AB24" s="4">
-        <v>5.7670109999999998E-3</v>
+        <v>9.3796939999999992E-3</v>
       </c>
       <c r="AC24" s="4">
-        <v>9.3796939999999992E-3</v>
+        <v>3.0171499000000001E-2</v>
       </c>
       <c r="AD24" s="4">
-        <v>3.0171499000000001E-2</v>
+        <v>3.1539129999999999E-2</v>
       </c>
       <c r="AE24" s="4">
-        <v>3.1539129999999999E-2</v>
+        <v>5.2559480000000001</v>
       </c>
       <c r="AF24" s="4">
-        <v>5.2559480000000001</v>
+        <v>12.68942</v>
       </c>
       <c r="AG24" s="4">
-        <v>12.68942</v>
+        <v>3.29</v>
       </c>
       <c r="AH24" s="4">
-        <v>3.29</v>
+        <v>12.91</v>
       </c>
       <c r="AI24" s="4">
-        <v>12.91</v>
+        <v>1.6149819999999999</v>
       </c>
       <c r="AJ24" s="4">
-        <v>1.6149819999999999</v>
+        <v>0.80243799999999998</v>
       </c>
       <c r="AK24" s="4">
-        <v>0.80243799999999998</v>
-      </c>
-      <c r="AL24" s="4">
         <v>0.81296520000000005</v>
       </c>
+      <c r="AL24" s="2">
+        <v>8.439228</v>
+      </c>
       <c r="AM24" s="2">
-        <v>8.439228</v>
+        <v>3.3721561000000002</v>
       </c>
       <c r="AN24" s="2">
-        <v>3.3721561000000002</v>
+        <v>13.099853</v>
       </c>
       <c r="AO24" s="2">
-        <v>13.099853</v>
-      </c>
-      <c r="AP24" s="2">
         <v>5.4812744999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3743,85 +3667,82 @@
         <v>1.2113612</v>
       </c>
       <c r="Q25" s="4">
-        <v>9.0876999999999999E-2</v>
+        <v>63.067210000000003</v>
       </c>
       <c r="R25" s="4">
-        <v>63.067210000000003</v>
+        <v>15.39978</v>
       </c>
       <c r="S25" s="4">
-        <v>15.39978</v>
+        <v>0.21023</v>
       </c>
       <c r="T25" s="4">
-        <v>0.21023</v>
+        <v>0.16059000000000001</v>
       </c>
       <c r="U25" s="4">
-        <v>0.16059000000000001</v>
+        <v>2.172E-2</v>
       </c>
       <c r="V25" s="4">
-        <v>2.172E-2</v>
+        <v>3.619E-2</v>
       </c>
       <c r="W25" s="4">
-        <v>3.619E-2</v>
+        <v>0.21135000000000001</v>
       </c>
       <c r="X25" s="4">
-        <v>0.21135000000000001</v>
+        <v>0.16461000000000001</v>
       </c>
       <c r="Y25" s="4">
-        <v>0.16461000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="Z25" s="4">
-        <v>0.04</v>
+        <v>3.4078020000000001E-2</v>
       </c>
       <c r="AA25" s="4">
-        <v>3.4078020000000001E-2</v>
+        <v>7.6218140000000002E-3</v>
       </c>
       <c r="AB25" s="4">
-        <v>7.6218140000000002E-3</v>
+        <v>3.2368918000000003E-2</v>
       </c>
       <c r="AC25" s="4">
-        <v>3.2368918000000003E-2</v>
+        <v>3.9816899000000003E-2</v>
       </c>
       <c r="AD25" s="4">
-        <v>3.9816899000000003E-2</v>
+        <v>4.700062E-2</v>
       </c>
       <c r="AE25" s="4">
-        <v>4.700062E-2</v>
+        <v>5.9653020000000003</v>
       </c>
       <c r="AF25" s="4">
-        <v>5.9653020000000003</v>
+        <v>13.72348</v>
       </c>
       <c r="AG25" s="4">
-        <v>13.72348</v>
+        <v>3.98</v>
       </c>
       <c r="AH25" s="4">
-        <v>3.98</v>
+        <v>11.44</v>
       </c>
       <c r="AI25" s="4">
-        <v>11.44</v>
+        <v>1.666134</v>
       </c>
       <c r="AJ25" s="4">
-        <v>1.666134</v>
+        <v>0.76386889999999996</v>
       </c>
       <c r="AK25" s="4">
-        <v>0.76386889999999996</v>
-      </c>
-      <c r="AL25" s="4">
         <v>0.77887830000000002</v>
       </c>
+      <c r="AL25" s="2">
+        <v>8.5960230000000006</v>
+      </c>
       <c r="AM25" s="2">
-        <v>8.5960230000000006</v>
+        <v>2.7383171000000002</v>
       </c>
       <c r="AN25" s="2">
-        <v>2.7383171000000002</v>
+        <v>13.381537</v>
       </c>
       <c r="AO25" s="2">
-        <v>13.381537</v>
-      </c>
-      <c r="AP25" s="2">
         <v>4.2688227000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3871,85 +3792,82 @@
         <v>0.65669889999999997</v>
       </c>
       <c r="Q26" s="4">
-        <v>0.1077618</v>
+        <v>26.996500000000001</v>
       </c>
       <c r="R26" s="4">
-        <v>26.996500000000001</v>
+        <v>18.948899999999998</v>
       </c>
       <c r="S26" s="4">
-        <v>18.948899999999998</v>
+        <v>0.12343</v>
       </c>
       <c r="T26" s="4">
-        <v>0.12343</v>
+        <v>8.2849999999999993E-2</v>
       </c>
       <c r="U26" s="4">
-        <v>8.2849999999999993E-2</v>
+        <v>2.0899999999999998E-2</v>
       </c>
       <c r="V26" s="4">
-        <v>2.0899999999999998E-2</v>
+        <v>2.4490000000000001E-2</v>
       </c>
       <c r="W26" s="4">
-        <v>2.4490000000000001E-2</v>
+        <v>0.12519</v>
       </c>
       <c r="X26" s="4">
-        <v>0.12519</v>
+        <v>8.6389999999999995E-2</v>
       </c>
       <c r="Y26" s="4">
-        <v>8.6389999999999995E-2</v>
+        <v>0.02</v>
       </c>
       <c r="Z26" s="4">
-        <v>0.02</v>
+        <v>1.6477579999999999E-2</v>
       </c>
       <c r="AA26" s="4">
-        <v>1.6477579999999999E-2</v>
+        <v>9.3661990000000004E-3</v>
       </c>
       <c r="AB26" s="4">
-        <v>9.3661990000000004E-3</v>
+        <v>9.7912620000000002E-3</v>
       </c>
       <c r="AC26" s="4">
-        <v>9.7912620000000002E-3</v>
+        <v>2.5339381000000001E-2</v>
       </c>
       <c r="AD26" s="4">
-        <v>2.5339381000000001E-2</v>
+        <v>1.9167150000000001E-2</v>
       </c>
       <c r="AE26" s="4">
-        <v>1.9167150000000001E-2</v>
+        <v>8.6532990000000005</v>
       </c>
       <c r="AF26" s="4">
-        <v>8.6532990000000005</v>
+        <v>18.501580000000001</v>
       </c>
       <c r="AG26" s="4">
-        <v>18.501580000000001</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="AH26" s="4">
-        <v>5.1100000000000003</v>
+        <v>14.61</v>
       </c>
       <c r="AI26" s="4">
-        <v>14.61</v>
+        <v>1.171486</v>
       </c>
       <c r="AJ26" s="4">
-        <v>1.171486</v>
+        <v>0.67120610000000003</v>
       </c>
       <c r="AK26" s="4">
-        <v>0.67120610000000003</v>
-      </c>
-      <c r="AL26" s="4">
         <v>0.69008700000000001</v>
       </c>
+      <c r="AL26" s="2">
+        <v>2.9716939999999998</v>
+      </c>
       <c r="AM26" s="2">
-        <v>2.9716939999999998</v>
+        <v>0.93102759999999996</v>
       </c>
       <c r="AN26" s="2">
-        <v>0.93102759999999996</v>
+        <v>4.6105780000000003</v>
       </c>
       <c r="AO26" s="2">
-        <v>4.6105780000000003</v>
-      </c>
-      <c r="AP26" s="2">
         <v>1.4963591000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3999,85 +3917,82 @@
         <v>0.72126749999999995</v>
       </c>
       <c r="Q27" s="4">
-        <v>9.2652399999999996E-2</v>
+        <v>33.866909999999997</v>
       </c>
       <c r="R27" s="4">
-        <v>33.866909999999997</v>
+        <v>14.379009999999999</v>
       </c>
       <c r="S27" s="4">
-        <v>14.379009999999999</v>
+        <v>0.13289000000000001</v>
       </c>
       <c r="T27" s="4">
-        <v>0.13289000000000001</v>
+        <v>8.9840000000000003E-2</v>
       </c>
       <c r="U27" s="4">
-        <v>8.9840000000000003E-2</v>
+        <v>1.8970000000000001E-2</v>
       </c>
       <c r="V27" s="4">
-        <v>1.8970000000000001E-2</v>
+        <v>2.7300000000000001E-2</v>
       </c>
       <c r="W27" s="4">
-        <v>2.7300000000000001E-2</v>
+        <v>0.13422999999999999</v>
       </c>
       <c r="X27" s="4">
-        <v>0.13422999999999999</v>
+        <v>9.3899999999999997E-2</v>
       </c>
       <c r="Y27" s="4">
-        <v>9.3899999999999997E-2</v>
+        <v>0.02</v>
       </c>
       <c r="Z27" s="4">
-        <v>0.02</v>
+        <v>1.7777279999999999E-2</v>
       </c>
       <c r="AA27" s="4">
-        <v>1.7777279999999999E-2</v>
+        <v>5.6693259999999997E-3</v>
       </c>
       <c r="AB27" s="4">
-        <v>5.6693259999999997E-3</v>
+        <v>5.966369E-3</v>
       </c>
       <c r="AC27" s="4">
-        <v>5.966369E-3</v>
+        <v>1.9030403000000001E-2</v>
       </c>
       <c r="AD27" s="4">
-        <v>1.9030403000000001E-2</v>
+        <v>1.8751779999999999E-2</v>
       </c>
       <c r="AE27" s="4">
-        <v>1.8751779999999999E-2</v>
+        <v>7.954002</v>
       </c>
       <c r="AF27" s="4">
-        <v>7.954002</v>
+        <v>20.739599999999999</v>
       </c>
       <c r="AG27" s="4">
-        <v>20.739599999999999</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="AH27" s="4">
-        <v>4.8499999999999996</v>
+        <v>17.350000000000001</v>
       </c>
       <c r="AI27" s="4">
-        <v>17.350000000000001</v>
+        <v>1.4387190000000001</v>
       </c>
       <c r="AJ27" s="4">
-        <v>1.4387190000000001</v>
+        <v>0.67607550000000005</v>
       </c>
       <c r="AK27" s="4">
-        <v>0.67607550000000005</v>
-      </c>
-      <c r="AL27" s="4">
         <v>0.69950420000000002</v>
       </c>
+      <c r="AL27" s="2">
+        <v>3.4570159999999999</v>
+      </c>
       <c r="AM27" s="2">
-        <v>3.4570159999999999</v>
+        <v>1.8539333</v>
       </c>
       <c r="AN27" s="2">
-        <v>1.8539333</v>
+        <v>4.9610709999999996</v>
       </c>
       <c r="AO27" s="2">
-        <v>4.9610709999999996</v>
-      </c>
-      <c r="AP27" s="2">
         <v>1.5088037000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4127,85 +4042,82 @@
         <v>1.1793047999999999</v>
       </c>
       <c r="Q28" s="4">
-        <v>7.8447699999999995E-2</v>
+        <v>52.869860000000003</v>
       </c>
       <c r="R28" s="4">
-        <v>52.869860000000003</v>
+        <v>14.07762</v>
       </c>
       <c r="S28" s="4">
-        <v>14.07762</v>
+        <v>0.16503999999999999</v>
       </c>
       <c r="T28" s="4">
-        <v>0.16503999999999999</v>
+        <v>0.1177</v>
       </c>
       <c r="U28" s="4">
-        <v>0.1177</v>
+        <v>2.3769999999999999E-2</v>
       </c>
       <c r="V28" s="4">
-        <v>2.3769999999999999E-2</v>
+        <v>3.4790000000000001E-2</v>
       </c>
       <c r="W28" s="4">
-        <v>3.4790000000000001E-2</v>
+        <v>0.16674</v>
       </c>
       <c r="X28" s="4">
-        <v>0.16674</v>
+        <v>0.12274</v>
       </c>
       <c r="Y28" s="4">
-        <v>0.12274</v>
+        <v>0.03</v>
       </c>
       <c r="Z28" s="4">
-        <v>0.03</v>
+        <v>2.7804220000000001E-2</v>
       </c>
       <c r="AA28" s="4">
-        <v>2.7804220000000001E-2</v>
+        <v>5.2933809999999998E-3</v>
       </c>
       <c r="AB28" s="4">
-        <v>5.2933809999999998E-3</v>
+        <v>1.1496596E-2</v>
       </c>
       <c r="AC28" s="4">
-        <v>1.1496596E-2</v>
+        <v>3.2484076000000001E-2</v>
       </c>
       <c r="AD28" s="4">
-        <v>3.2484076000000001E-2</v>
+        <v>3.0087309999999999E-2</v>
       </c>
       <c r="AE28" s="4">
-        <v>3.0087309999999999E-2</v>
+        <v>7.9739529999999998</v>
       </c>
       <c r="AF28" s="4">
-        <v>7.9739529999999998</v>
+        <v>17.722619999999999</v>
       </c>
       <c r="AG28" s="4">
-        <v>17.722619999999999</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="AH28" s="4">
-        <v>5.1100000000000003</v>
+        <v>15.09</v>
       </c>
       <c r="AI28" s="4">
-        <v>15.09</v>
+        <v>1.463562</v>
       </c>
       <c r="AJ28" s="4">
-        <v>1.463562</v>
+        <v>0.71317410000000003</v>
       </c>
       <c r="AK28" s="4">
-        <v>0.71317410000000003</v>
-      </c>
-      <c r="AL28" s="4">
         <v>0.73608510000000005</v>
       </c>
+      <c r="AL28" s="2">
+        <v>4.5817699999999997</v>
+      </c>
       <c r="AM28" s="2">
-        <v>4.5817699999999997</v>
+        <v>1.7685435</v>
       </c>
       <c r="AN28" s="2">
-        <v>1.7685435</v>
+        <v>7.6293230000000003</v>
       </c>
       <c r="AO28" s="2">
-        <v>7.6293230000000003</v>
-      </c>
-      <c r="AP28" s="2">
         <v>3.3994366</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4255,85 +4167,82 @@
         <v>0.73662309999999998</v>
       </c>
       <c r="Q29" s="4">
-        <v>8.54327E-2</v>
+        <v>71.400530000000003</v>
       </c>
       <c r="R29" s="4">
-        <v>71.400530000000003</v>
+        <v>12.278549</v>
       </c>
       <c r="S29" s="4">
-        <v>12.278549</v>
+        <v>0.18976999999999999</v>
       </c>
       <c r="T29" s="4">
-        <v>0.18976999999999999</v>
+        <v>0.11304</v>
       </c>
       <c r="U29" s="4">
-        <v>0.11304</v>
+        <v>2.7029999999999998E-2</v>
       </c>
       <c r="V29" s="4">
-        <v>2.7029999999999998E-2</v>
+        <v>3.959E-2</v>
       </c>
       <c r="W29" s="4">
-        <v>3.959E-2</v>
+        <v>0.19167999999999999</v>
       </c>
       <c r="X29" s="4">
-        <v>0.19167999999999999</v>
+        <v>0.11977</v>
       </c>
       <c r="Y29" s="4">
-        <v>0.11977</v>
+        <v>0.05</v>
       </c>
       <c r="Z29" s="4">
-        <v>0.05</v>
+        <v>4.1833679999999998E-2</v>
       </c>
       <c r="AA29" s="4">
-        <v>4.1833679999999998E-2</v>
+        <v>8.8707569999999999E-3</v>
       </c>
       <c r="AB29" s="4">
-        <v>8.8707569999999999E-3</v>
+        <v>9.5289980000000003E-3</v>
       </c>
       <c r="AC29" s="4">
-        <v>9.5289980000000003E-3</v>
+        <v>5.2888253000000003E-2</v>
       </c>
       <c r="AD29" s="4">
-        <v>5.2888253000000003E-2</v>
+        <v>4.2905220000000001E-2</v>
       </c>
       <c r="AE29" s="4">
-        <v>4.2905220000000001E-2</v>
+        <v>8.4727110000000003</v>
       </c>
       <c r="AF29" s="4">
-        <v>8.4727110000000003</v>
+        <v>19.872260000000001</v>
       </c>
       <c r="AG29" s="4">
-        <v>19.872260000000001</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AH29" s="4">
-        <v>4.5999999999999996</v>
+        <v>17.48</v>
       </c>
       <c r="AI29" s="4">
-        <v>17.48</v>
+        <v>1.4648589999999999</v>
       </c>
       <c r="AJ29" s="4">
-        <v>1.4648589999999999</v>
+        <v>0.59567510000000001</v>
       </c>
       <c r="AK29" s="4">
-        <v>0.59567510000000001</v>
-      </c>
-      <c r="AL29" s="4">
         <v>0.62485120000000005</v>
       </c>
+      <c r="AL29" s="2">
+        <v>5.1986140000000001</v>
+      </c>
       <c r="AM29" s="2">
-        <v>5.1986140000000001</v>
+        <v>2.1239938</v>
       </c>
       <c r="AN29" s="2">
-        <v>2.1239938</v>
+        <v>7.8388260000000001</v>
       </c>
       <c r="AO29" s="2">
-        <v>7.8388260000000001</v>
-      </c>
-      <c r="AP29" s="2">
         <v>2.5281468999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4383,85 +4292,82 @@
         <v>1.0539532</v>
       </c>
       <c r="Q30" s="4">
-        <v>6.0570499999999999E-2</v>
+        <v>59.158380000000001</v>
       </c>
       <c r="R30" s="4">
-        <v>59.158380000000001</v>
+        <v>13.611822999999999</v>
       </c>
       <c r="S30" s="4">
-        <v>13.611822999999999</v>
+        <v>0.18384</v>
       </c>
       <c r="T30" s="4">
-        <v>0.18384</v>
+        <v>0.12684999999999999</v>
       </c>
       <c r="U30" s="4">
-        <v>0.12684999999999999</v>
+        <v>2.9850000000000002E-2</v>
       </c>
       <c r="V30" s="4">
-        <v>2.9850000000000002E-2</v>
+        <v>4.4580000000000002E-2</v>
       </c>
       <c r="W30" s="4">
-        <v>4.4580000000000002E-2</v>
+        <v>0.18625</v>
       </c>
       <c r="X30" s="4">
-        <v>0.18625</v>
+        <v>0.13446</v>
       </c>
       <c r="Y30" s="4">
-        <v>0.13446</v>
+        <v>0.03</v>
       </c>
       <c r="Z30" s="4">
-        <v>0.03</v>
+        <v>2.8603130000000001E-2</v>
       </c>
       <c r="AA30" s="4">
-        <v>2.8603130000000001E-2</v>
+        <v>6.7052149999999996E-3</v>
       </c>
       <c r="AB30" s="4">
-        <v>6.7052149999999996E-3</v>
+        <v>1.2253732999999999E-2</v>
       </c>
       <c r="AC30" s="4">
-        <v>1.2253732999999999E-2</v>
+        <v>2.8350543999999998E-2</v>
       </c>
       <c r="AD30" s="4">
-        <v>2.8350543999999998E-2</v>
+        <v>3.1117410000000002E-2</v>
       </c>
       <c r="AE30" s="4">
-        <v>3.1117410000000002E-2</v>
+        <v>8.836957</v>
       </c>
       <c r="AF30" s="4">
-        <v>8.836957</v>
+        <v>21.935960000000001</v>
       </c>
       <c r="AG30" s="4">
-        <v>21.935960000000001</v>
+        <v>5</v>
       </c>
       <c r="AH30" s="4">
-        <v>5</v>
+        <v>16.989999999999998</v>
       </c>
       <c r="AI30" s="4">
-        <v>16.989999999999998</v>
+        <v>1.493314</v>
       </c>
       <c r="AJ30" s="4">
-        <v>1.493314</v>
+        <v>0.69001290000000004</v>
       </c>
       <c r="AK30" s="4">
-        <v>0.69001290000000004</v>
-      </c>
-      <c r="AL30" s="4">
         <v>0.72192279999999998</v>
       </c>
+      <c r="AL30" s="2">
+        <v>4.79115</v>
+      </c>
       <c r="AM30" s="2">
-        <v>4.79115</v>
+        <v>1.6743648</v>
       </c>
       <c r="AN30" s="2">
-        <v>1.6743648</v>
+        <v>7.4411420000000001</v>
       </c>
       <c r="AO30" s="2">
-        <v>7.4411420000000001</v>
-      </c>
-      <c r="AP30" s="2">
         <v>3.3209387000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -4511,85 +4417,82 @@
         <v>0.80111339999999998</v>
       </c>
       <c r="Q31" s="4">
-        <v>9.0770600000000007E-2</v>
+        <v>61.14029</v>
       </c>
       <c r="R31" s="4">
-        <v>61.14029</v>
+        <v>10.477477</v>
       </c>
       <c r="S31" s="4">
-        <v>10.477477</v>
+        <v>0.15373999999999999</v>
       </c>
       <c r="T31" s="4">
-        <v>0.15373999999999999</v>
+        <v>0.10491</v>
       </c>
       <c r="U31" s="4">
-        <v>0.10491</v>
+        <v>2.3109999999999999E-2</v>
       </c>
       <c r="V31" s="4">
-        <v>2.3109999999999999E-2</v>
+        <v>3.8559999999999997E-2</v>
       </c>
       <c r="W31" s="4">
-        <v>3.8559999999999997E-2</v>
+        <v>0.15547</v>
       </c>
       <c r="X31" s="4">
-        <v>0.15547</v>
+        <v>0.11178</v>
       </c>
       <c r="Y31" s="4">
-        <v>0.11178</v>
+        <v>0.03</v>
       </c>
       <c r="Z31" s="4">
-        <v>0.03</v>
+        <v>1.723595E-2</v>
       </c>
       <c r="AA31" s="4">
-        <v>1.723595E-2</v>
+        <v>4.1356919999999998E-3</v>
       </c>
       <c r="AB31" s="4">
-        <v>4.1356919999999998E-3</v>
+        <v>9.9534399999999992E-3</v>
       </c>
       <c r="AC31" s="4">
-        <v>9.9534399999999992E-3</v>
+        <v>2.5715501000000002E-2</v>
       </c>
       <c r="AD31" s="4">
-        <v>2.5715501000000002E-2</v>
+        <v>1.9903489999999999E-2</v>
       </c>
       <c r="AE31" s="4">
-        <v>1.9903489999999999E-2</v>
+        <v>8.3942680000000003</v>
       </c>
       <c r="AF31" s="4">
-        <v>8.3942680000000003</v>
+        <v>21.206720000000001</v>
       </c>
       <c r="AG31" s="4">
-        <v>21.206720000000001</v>
+        <v>4.59</v>
       </c>
       <c r="AH31" s="4">
-        <v>4.59</v>
+        <v>14.47</v>
       </c>
       <c r="AI31" s="4">
-        <v>14.47</v>
+        <v>1.6682870000000001</v>
       </c>
       <c r="AJ31" s="4">
-        <v>1.6682870000000001</v>
+        <v>0.68240400000000001</v>
       </c>
       <c r="AK31" s="4">
-        <v>0.68240400000000001</v>
-      </c>
-      <c r="AL31" s="4">
         <v>0.71895160000000002</v>
       </c>
+      <c r="AL31" s="2">
+        <v>4.4018480000000002</v>
+      </c>
       <c r="AM31" s="2">
-        <v>4.4018480000000002</v>
+        <v>1.6552880000000001</v>
       </c>
       <c r="AN31" s="2">
-        <v>1.6552880000000001</v>
+        <v>6.9589189999999999</v>
       </c>
       <c r="AO31" s="2">
-        <v>6.9589189999999999</v>
-      </c>
-      <c r="AP31" s="2">
         <v>2.6159528000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -4639,85 +4542,82 @@
         <v>0.48579420000000001</v>
       </c>
       <c r="Q32" s="4">
-        <v>0.1169869</v>
+        <v>17.355740000000001</v>
       </c>
       <c r="R32" s="4">
-        <v>17.355740000000001</v>
+        <v>16.58221</v>
       </c>
       <c r="S32" s="4">
-        <v>16.58221</v>
+        <v>0.11068</v>
       </c>
       <c r="T32" s="4">
-        <v>0.11068</v>
+        <v>7.4620000000000006E-2</v>
       </c>
       <c r="U32" s="4">
-        <v>7.4620000000000006E-2</v>
+        <v>1.864E-2</v>
       </c>
       <c r="V32" s="4">
-        <v>1.864E-2</v>
+        <v>2.954E-2</v>
       </c>
       <c r="W32" s="4">
-        <v>2.954E-2</v>
+        <v>0.11224000000000001</v>
       </c>
       <c r="X32" s="4">
-        <v>0.11224000000000001</v>
+        <v>8.0250000000000002E-2</v>
       </c>
       <c r="Y32" s="4">
-        <v>8.0250000000000002E-2</v>
+        <v>0.01</v>
       </c>
       <c r="Z32" s="4">
-        <v>0.01</v>
+        <v>1.4974070000000001E-2</v>
       </c>
       <c r="AA32" s="4">
-        <v>1.4974070000000001E-2</v>
+        <v>4.0379889999999996E-3</v>
       </c>
       <c r="AB32" s="4">
-        <v>4.0379889999999996E-3</v>
+        <v>6.1482159999999998E-3</v>
       </c>
       <c r="AC32" s="4">
-        <v>6.1482159999999998E-3</v>
+        <v>1.2008690000000001E-2</v>
       </c>
       <c r="AD32" s="4">
-        <v>1.2008690000000001E-2</v>
+        <v>1.6187130000000001E-2</v>
       </c>
       <c r="AE32" s="4">
-        <v>1.6187130000000001E-2</v>
+        <v>9.8140859999999996</v>
       </c>
       <c r="AF32" s="4">
-        <v>9.8140859999999996</v>
+        <v>25.313890000000001</v>
       </c>
       <c r="AG32" s="4">
-        <v>25.313890000000001</v>
+        <v>6.57</v>
       </c>
       <c r="AH32" s="4">
-        <v>6.57</v>
+        <v>19.39</v>
       </c>
       <c r="AI32" s="4">
-        <v>19.39</v>
+        <v>1.5843499999999999</v>
       </c>
       <c r="AJ32" s="4">
-        <v>1.5843499999999999</v>
+        <v>0.67418089999999997</v>
       </c>
       <c r="AK32" s="4">
-        <v>0.67418089999999997</v>
-      </c>
-      <c r="AL32" s="4">
         <v>0.71500229999999998</v>
       </c>
+      <c r="AL32" s="2">
+        <v>2.6286309999999999</v>
+      </c>
       <c r="AM32" s="2">
-        <v>2.6286309999999999</v>
+        <v>1.0222818</v>
       </c>
       <c r="AN32" s="2">
-        <v>1.0222818</v>
+        <v>4.123678</v>
       </c>
       <c r="AO32" s="2">
-        <v>4.123678</v>
-      </c>
-      <c r="AP32" s="2">
         <v>1.3747128</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -4767,85 +4667,82 @@
         <v>0.64881120000000003</v>
       </c>
       <c r="Q33" s="4">
-        <v>9.6600900000000003E-2</v>
+        <v>23.324995999999999</v>
       </c>
       <c r="R33" s="4">
-        <v>23.324995999999999</v>
+        <v>20.547955999999999</v>
       </c>
       <c r="S33" s="4">
-        <v>20.547955999999999</v>
+        <v>0.12356</v>
       </c>
       <c r="T33" s="4">
-        <v>0.12356</v>
+        <v>8.4110000000000004E-2</v>
       </c>
       <c r="U33" s="4">
-        <v>8.4110000000000004E-2</v>
+        <v>2.2800000000000001E-2</v>
       </c>
       <c r="V33" s="4">
-        <v>2.2800000000000001E-2</v>
+        <v>3.4070000000000003E-2</v>
       </c>
       <c r="W33" s="4">
-        <v>3.4070000000000003E-2</v>
+        <v>0.12564</v>
       </c>
       <c r="X33" s="4">
-        <v>0.12564</v>
+        <v>9.0749999999999997E-2</v>
       </c>
       <c r="Y33" s="4">
-        <v>9.0749999999999997E-2</v>
+        <v>0.02</v>
       </c>
       <c r="Z33" s="4">
-        <v>0.02</v>
+        <v>1.8043750000000001E-2</v>
       </c>
       <c r="AA33" s="4">
-        <v>1.8043750000000001E-2</v>
+        <v>4.3527380000000001E-3</v>
       </c>
       <c r="AB33" s="4">
-        <v>4.3527380000000001E-3</v>
+        <v>9.4807539999999992E-3</v>
       </c>
       <c r="AC33" s="4">
-        <v>9.4807539999999992E-3</v>
+        <v>1.6274696000000002E-2</v>
       </c>
       <c r="AD33" s="4">
-        <v>1.6274696000000002E-2</v>
+        <v>2.0382879999999999E-2</v>
       </c>
       <c r="AE33" s="4">
-        <v>2.0382879999999999E-2</v>
+        <v>10.004263999999999</v>
       </c>
       <c r="AF33" s="4">
-        <v>10.004263999999999</v>
+        <v>22.35398</v>
       </c>
       <c r="AG33" s="4">
-        <v>22.35398</v>
+        <v>6.64</v>
       </c>
       <c r="AH33" s="4">
-        <v>6.64</v>
+        <v>17.47</v>
       </c>
       <c r="AI33" s="4">
-        <v>17.47</v>
+        <v>1.4944630000000001</v>
       </c>
       <c r="AJ33" s="4">
-        <v>1.4944630000000001</v>
+        <v>0.68073649999999997</v>
       </c>
       <c r="AK33" s="4">
-        <v>0.68073649999999997</v>
-      </c>
-      <c r="AL33" s="4">
         <v>0.72227600000000003</v>
       </c>
+      <c r="AL33" s="2">
+        <v>2.4498250000000001</v>
+      </c>
       <c r="AM33" s="2">
-        <v>2.4498250000000001</v>
+        <v>0.73792049999999998</v>
       </c>
       <c r="AN33" s="2">
-        <v>0.73792049999999998</v>
+        <v>4.254867</v>
       </c>
       <c r="AO33" s="2">
-        <v>4.254867</v>
-      </c>
-      <c r="AP33" s="2">
         <v>1.1379458</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -4895,85 +4792,82 @@
         <v>0.84778469999999995</v>
       </c>
       <c r="Q34" s="4">
-        <v>6.6463700000000001E-2</v>
+        <v>38.887509999999999</v>
       </c>
       <c r="R34" s="4">
-        <v>38.887509999999999</v>
+        <v>15.030187</v>
       </c>
       <c r="S34" s="4">
-        <v>15.030187</v>
+        <v>0.15125</v>
       </c>
       <c r="T34" s="4">
-        <v>0.15125</v>
+        <v>0.10723000000000001</v>
       </c>
       <c r="U34" s="4">
-        <v>0.10723000000000001</v>
+        <v>2.6759999999999999E-2</v>
       </c>
       <c r="V34" s="4">
-        <v>2.6759999999999999E-2</v>
+        <v>3.5729999999999998E-2</v>
       </c>
       <c r="W34" s="4">
-        <v>3.5729999999999998E-2</v>
+        <v>0.15359999999999999</v>
       </c>
       <c r="X34" s="4">
-        <v>0.15359999999999999</v>
+        <v>0.11303000000000001</v>
       </c>
       <c r="Y34" s="4">
-        <v>0.11303000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="Z34" s="4">
-        <v>0.02</v>
+        <v>2.1920289999999999E-2</v>
       </c>
       <c r="AA34" s="4">
-        <v>2.1920289999999999E-2</v>
+        <v>6.431796E-3</v>
       </c>
       <c r="AB34" s="4">
-        <v>6.431796E-3</v>
+        <v>6.3285989999999999E-3</v>
       </c>
       <c r="AC34" s="4">
-        <v>6.3285989999999999E-3</v>
+        <v>2.4878666000000001E-2</v>
       </c>
       <c r="AD34" s="4">
-        <v>2.4878666000000001E-2</v>
+        <v>2.2815579999999999E-2</v>
       </c>
       <c r="AE34" s="4">
-        <v>2.2815579999999999E-2</v>
+        <v>9.4715939999999996</v>
       </c>
       <c r="AF34" s="4">
-        <v>9.4715939999999996</v>
+        <v>20.47542</v>
       </c>
       <c r="AG34" s="4">
-        <v>20.47542</v>
+        <v>5.44</v>
       </c>
       <c r="AH34" s="4">
-        <v>5.44</v>
+        <v>15.32</v>
       </c>
       <c r="AI34" s="4">
-        <v>15.32</v>
+        <v>1.3348819999999999</v>
       </c>
       <c r="AJ34" s="4">
-        <v>1.3348819999999999</v>
+        <v>0.70898939999999999</v>
       </c>
       <c r="AK34" s="4">
-        <v>0.70898939999999999</v>
-      </c>
-      <c r="AL34" s="4">
         <v>0.73587080000000005</v>
       </c>
+      <c r="AL34" s="2">
+        <v>3.2487219999999999</v>
+      </c>
       <c r="AM34" s="2">
-        <v>3.2487219999999999</v>
+        <v>1.3548477999999999</v>
       </c>
       <c r="AN34" s="2">
-        <v>1.3548477999999999</v>
+        <v>5.4185850000000002</v>
       </c>
       <c r="AO34" s="2">
-        <v>5.4185850000000002</v>
-      </c>
-      <c r="AP34" s="2">
         <v>2.166633</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5023,85 +4917,82 @@
         <v>0.88054509999999997</v>
       </c>
       <c r="Q35" s="4">
-        <v>7.8012799999999993E-2</v>
+        <v>54.286180000000002</v>
       </c>
       <c r="R35" s="4">
-        <v>54.286180000000002</v>
+        <v>22.077773000000001</v>
       </c>
       <c r="S35" s="4">
-        <v>22.077773000000001</v>
+        <v>0.16730999999999999</v>
       </c>
       <c r="T35" s="4">
-        <v>0.16730999999999999</v>
+        <v>0.11271</v>
       </c>
       <c r="U35" s="4">
-        <v>0.11271</v>
+        <v>2.6800000000000001E-2</v>
       </c>
       <c r="V35" s="4">
-        <v>2.6800000000000001E-2</v>
+        <v>4.3470000000000002E-2</v>
       </c>
       <c r="W35" s="4">
-        <v>4.3470000000000002E-2</v>
+        <v>0.16944000000000001</v>
       </c>
       <c r="X35" s="4">
-        <v>0.16944000000000001</v>
+        <v>0.1208</v>
       </c>
       <c r="Y35" s="4">
-        <v>0.1208</v>
+        <v>0.03</v>
       </c>
       <c r="Z35" s="4">
-        <v>0.03</v>
+        <v>2.1109280000000001E-2</v>
       </c>
       <c r="AA35" s="4">
-        <v>2.1109280000000001E-2</v>
+        <v>8.3929509999999992E-3</v>
       </c>
       <c r="AB35" s="4">
-        <v>8.3929509999999992E-3</v>
+        <v>1.2750055999999999E-2</v>
       </c>
       <c r="AC35" s="4">
-        <v>1.2750055999999999E-2</v>
+        <v>2.8885259999999999E-2</v>
       </c>
       <c r="AD35" s="4">
-        <v>2.8885259999999999E-2</v>
+        <v>2.4661019999999999E-2</v>
       </c>
       <c r="AE35" s="4">
-        <v>2.4661019999999999E-2</v>
+        <v>9.2031449999999992</v>
       </c>
       <c r="AF35" s="4">
-        <v>9.2031449999999992</v>
+        <v>21.327120000000001</v>
       </c>
       <c r="AG35" s="4">
-        <v>21.327120000000001</v>
+        <v>5.31</v>
       </c>
       <c r="AH35" s="4">
-        <v>5.31</v>
+        <v>15.49</v>
       </c>
       <c r="AI35" s="4">
-        <v>15.49</v>
+        <v>1.6222840000000001</v>
       </c>
       <c r="AJ35" s="4">
-        <v>1.6222840000000001</v>
+        <v>0.67364610000000003</v>
       </c>
       <c r="AK35" s="4">
-        <v>0.67364610000000003</v>
-      </c>
-      <c r="AL35" s="4">
         <v>0.71292979999999995</v>
       </c>
+      <c r="AL35" s="2">
+        <v>3.8217289999999999</v>
+      </c>
       <c r="AM35" s="2">
-        <v>3.8217289999999999</v>
+        <v>1.4916794</v>
       </c>
       <c r="AN35" s="2">
-        <v>1.4916794</v>
+        <v>5.9796110000000002</v>
       </c>
       <c r="AO35" s="2">
-        <v>5.9796110000000002</v>
-      </c>
-      <c r="AP35" s="2">
         <v>2.3841193000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5151,85 +5042,82 @@
         <v>1.0691835000000001</v>
       </c>
       <c r="Q36" s="4">
-        <v>7.1878499999999998E-2</v>
+        <v>46.889560000000003</v>
       </c>
       <c r="R36" s="4">
-        <v>46.889560000000003</v>
+        <v>18.507456000000001</v>
       </c>
       <c r="S36" s="4">
-        <v>18.507456000000001</v>
+        <v>0.17348</v>
       </c>
       <c r="T36" s="4">
-        <v>0.17348</v>
+        <v>0.11996</v>
       </c>
       <c r="U36" s="4">
-        <v>0.11996</v>
+        <v>2.64E-2</v>
       </c>
       <c r="V36" s="4">
-        <v>2.64E-2</v>
+        <v>4.1110000000000001E-2</v>
       </c>
       <c r="W36" s="4">
-        <v>4.1110000000000001E-2</v>
+        <v>0.17548</v>
       </c>
       <c r="X36" s="4">
-        <v>0.17548</v>
+        <v>0.12681000000000001</v>
       </c>
       <c r="Y36" s="4">
-        <v>0.12681000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="Z36" s="4">
-        <v>0.03</v>
+        <v>2.4521910000000001E-2</v>
       </c>
       <c r="AA36" s="4">
-        <v>2.4521910000000001E-2</v>
+        <v>6.1249140000000004E-3</v>
       </c>
       <c r="AB36" s="4">
-        <v>6.1249140000000004E-3</v>
+        <v>9.0435529999999993E-3</v>
       </c>
       <c r="AC36" s="4">
-        <v>9.0435529999999993E-3</v>
+        <v>3.3118076000000003E-2</v>
       </c>
       <c r="AD36" s="4">
-        <v>3.3118076000000003E-2</v>
+        <v>2.6136369999999999E-2</v>
       </c>
       <c r="AE36" s="4">
-        <v>2.6136369999999999E-2</v>
+        <v>8.3047160000000009</v>
       </c>
       <c r="AF36" s="4">
-        <v>8.3047160000000009</v>
+        <v>21.226769999999998</v>
       </c>
       <c r="AG36" s="4">
-        <v>21.226769999999998</v>
+        <v>4.46</v>
       </c>
       <c r="AH36" s="4">
-        <v>4.46</v>
+        <v>16.3</v>
       </c>
       <c r="AI36" s="4">
-        <v>16.3</v>
+        <v>1.5572820000000001</v>
       </c>
       <c r="AJ36" s="4">
-        <v>1.5572820000000001</v>
+        <v>0.69149070000000001</v>
       </c>
       <c r="AK36" s="4">
-        <v>0.69149070000000001</v>
-      </c>
-      <c r="AL36" s="4">
         <v>0.72264490000000003</v>
       </c>
+      <c r="AL36" s="2">
+        <v>4.4722730000000004</v>
+      </c>
       <c r="AM36" s="2">
-        <v>4.4722730000000004</v>
+        <v>1.5274608000000001</v>
       </c>
       <c r="AN36" s="2">
-        <v>1.5274608000000001</v>
+        <v>6.920852</v>
       </c>
       <c r="AO36" s="2">
-        <v>6.920852</v>
-      </c>
-      <c r="AP36" s="2">
         <v>2.0293190000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -5279,85 +5167,82 @@
         <v>0.83226160000000005</v>
       </c>
       <c r="Q37" s="4">
-        <v>7.3132600000000006E-2</v>
+        <v>51.061929999999997</v>
       </c>
       <c r="R37" s="4">
-        <v>51.061929999999997</v>
+        <v>5.1267969999999998</v>
       </c>
       <c r="S37" s="4">
-        <v>5.1267969999999998</v>
+        <v>0.19147</v>
       </c>
       <c r="T37" s="4">
-        <v>0.19147</v>
+        <v>0.13453999999999999</v>
       </c>
       <c r="U37" s="4">
-        <v>0.13453999999999999</v>
+        <v>3.1099999999999999E-2</v>
       </c>
       <c r="V37" s="4">
-        <v>3.1099999999999999E-2</v>
+        <v>5.033E-2</v>
       </c>
       <c r="W37" s="4">
-        <v>5.033E-2</v>
+        <v>0.19398000000000001</v>
       </c>
       <c r="X37" s="4">
-        <v>0.19398000000000001</v>
+        <v>0.14363999999999999</v>
       </c>
       <c r="Y37" s="4">
-        <v>0.14363999999999999</v>
+        <v>0.02</v>
       </c>
       <c r="Z37" s="4">
-        <v>0.02</v>
+        <v>2.310336E-2</v>
       </c>
       <c r="AA37" s="4">
-        <v>2.310336E-2</v>
+        <v>7.3769350000000003E-3</v>
       </c>
       <c r="AB37" s="4">
-        <v>7.3769350000000003E-3</v>
+        <v>6.7586199999999999E-3</v>
       </c>
       <c r="AC37" s="4">
-        <v>6.7586199999999999E-3</v>
+        <v>2.5674349999999999E-2</v>
       </c>
       <c r="AD37" s="4">
-        <v>2.5674349999999999E-2</v>
+        <v>2.407165E-2</v>
       </c>
       <c r="AE37" s="4">
-        <v>2.407165E-2</v>
+        <v>8.9002180000000006</v>
       </c>
       <c r="AF37" s="4">
-        <v>8.9002180000000006</v>
+        <v>22.957239999999999</v>
       </c>
       <c r="AG37" s="4">
-        <v>22.957239999999999</v>
+        <v>5.05</v>
       </c>
       <c r="AH37" s="4">
-        <v>5.05</v>
+        <v>17.5</v>
       </c>
       <c r="AI37" s="4">
-        <v>17.5</v>
+        <v>1.6183749999999999</v>
       </c>
       <c r="AJ37" s="4">
-        <v>1.6183749999999999</v>
+        <v>0.70265040000000001</v>
       </c>
       <c r="AK37" s="4">
-        <v>0.70265040000000001</v>
-      </c>
-      <c r="AL37" s="4">
         <v>0.74049659999999995</v>
       </c>
+      <c r="AL37" s="2">
+        <v>4.277145</v>
+      </c>
       <c r="AM37" s="2">
-        <v>4.277145</v>
+        <v>1.5051388000000001</v>
       </c>
       <c r="AN37" s="2">
-        <v>1.5051388000000001</v>
+        <v>6.4370609999999999</v>
       </c>
       <c r="AO37" s="2">
-        <v>6.4370609999999999</v>
-      </c>
-      <c r="AP37" s="2">
         <v>2.0135448999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -5407,85 +5292,82 @@
         <v>0.86446829999999997</v>
       </c>
       <c r="Q38" s="4">
-        <v>9.2850299999999997E-2</v>
+        <v>74.537959999999998</v>
       </c>
       <c r="R38" s="4">
-        <v>74.537959999999998</v>
+        <v>9.7538780000000003</v>
       </c>
       <c r="S38" s="4">
-        <v>9.7538780000000003</v>
+        <v>0.17588999999999999</v>
       </c>
       <c r="T38" s="4">
-        <v>0.17588999999999999</v>
+        <v>0.14121</v>
       </c>
       <c r="U38" s="4">
-        <v>0.14121</v>
+        <v>2.1729999999999999E-2</v>
       </c>
       <c r="V38" s="4">
-        <v>2.1729999999999999E-2</v>
+        <v>3.6830000000000002E-2</v>
       </c>
       <c r="W38" s="4">
-        <v>3.6830000000000002E-2</v>
+        <v>0.17721999999999999</v>
       </c>
       <c r="X38" s="4">
-        <v>0.17721999999999999</v>
+        <v>0.14593999999999999</v>
       </c>
       <c r="Y38" s="4">
-        <v>0.14593999999999999</v>
+        <v>1.8340929999999998E-2</v>
       </c>
       <c r="Z38" s="4">
-        <v>1.8340929999999998E-2</v>
+        <v>2.657528E-2</v>
       </c>
       <c r="AA38" s="4">
-        <v>2.657528E-2</v>
+        <v>7.6300819999999998E-3</v>
       </c>
       <c r="AB38" s="4">
-        <v>7.6300819999999998E-3</v>
+        <v>2.1301446000000002E-2</v>
       </c>
       <c r="AC38" s="4">
-        <v>2.1301446000000002E-2</v>
+        <v>1.9864736000000001E-2</v>
       </c>
       <c r="AD38" s="4">
-        <v>1.9864736000000001E-2</v>
+        <v>3.4058730000000002E-2</v>
       </c>
       <c r="AE38" s="4">
-        <v>3.4058730000000002E-2</v>
+        <v>6.9835659999999997</v>
       </c>
       <c r="AF38" s="4">
-        <v>6.9835659999999997</v>
+        <v>17.555859999999999</v>
       </c>
       <c r="AG38" s="4">
-        <v>17.555859999999999</v>
+        <v>2.2432590000000001</v>
       </c>
       <c r="AH38" s="4">
-        <v>2.2432590000000001</v>
+        <v>12.444815</v>
       </c>
       <c r="AI38" s="4">
-        <v>12.444815</v>
+        <v>1.6948639999999999</v>
       </c>
       <c r="AJ38" s="4">
-        <v>1.6948639999999999</v>
+        <v>0.80287310000000001</v>
       </c>
       <c r="AK38" s="4">
-        <v>0.80287310000000001</v>
-      </c>
-      <c r="AL38" s="4">
         <v>0.82346710000000001</v>
       </c>
+      <c r="AL38" s="2">
+        <v>6.3510390000000001</v>
+      </c>
       <c r="AM38" s="2">
-        <v>6.3510390000000001</v>
+        <v>2.3782614</v>
       </c>
       <c r="AN38" s="2">
-        <v>2.3782614</v>
+        <v>9.9439229999999998</v>
       </c>
       <c r="AO38" s="2">
-        <v>9.9439229999999998</v>
-      </c>
-      <c r="AP38" s="2">
         <v>3.9568802999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -5535,85 +5417,82 @@
         <v>1.1368707</v>
       </c>
       <c r="Q39" s="4">
-        <v>7.9688099999999998E-2</v>
+        <v>78.102540000000005</v>
       </c>
       <c r="R39" s="4">
-        <v>78.102540000000005</v>
+        <v>22.176269999999999</v>
       </c>
       <c r="S39" s="4">
-        <v>22.176269999999999</v>
+        <v>0.19716</v>
       </c>
       <c r="T39" s="4">
-        <v>0.19716</v>
+        <v>0.16370000000000001</v>
       </c>
       <c r="U39" s="4">
-        <v>0.16370000000000001</v>
+        <v>2.9360000000000001E-2</v>
       </c>
       <c r="V39" s="4">
-        <v>2.9360000000000001E-2</v>
+        <v>4.7320000000000001E-2</v>
       </c>
       <c r="W39" s="4">
-        <v>4.7320000000000001E-2</v>
+        <v>0.19933999999999999</v>
       </c>
       <c r="X39" s="4">
-        <v>0.19933999999999999</v>
+        <v>0.1704</v>
       </c>
       <c r="Y39" s="4">
-        <v>0.1704</v>
+        <v>3.0728780000000001E-2</v>
       </c>
       <c r="Z39" s="4">
-        <v>3.0728780000000001E-2</v>
+        <v>5.3974029999999999E-2</v>
       </c>
       <c r="AA39" s="4">
-        <v>5.3974029999999999E-2</v>
+        <v>1.1973242E-2</v>
       </c>
       <c r="AB39" s="4">
-        <v>1.1973242E-2</v>
+        <v>2.26833E-2</v>
       </c>
       <c r="AC39" s="4">
-        <v>2.26833E-2</v>
+        <v>3.2979033999999997E-2</v>
       </c>
       <c r="AD39" s="4">
-        <v>3.2979033999999997E-2</v>
+        <v>5.8546809999999998E-2</v>
       </c>
       <c r="AE39" s="4">
-        <v>5.8546809999999998E-2</v>
+        <v>8.0913079999999997</v>
       </c>
       <c r="AF39" s="4">
-        <v>8.0913079999999997</v>
+        <v>18.008199999999999</v>
       </c>
       <c r="AG39" s="4">
-        <v>18.008199999999999</v>
+        <v>3.1656170000000001</v>
       </c>
       <c r="AH39" s="4">
-        <v>3.1656170000000001</v>
+        <v>8.409198</v>
       </c>
       <c r="AI39" s="4">
-        <v>8.409198</v>
+        <v>1.6121220000000001</v>
       </c>
       <c r="AJ39" s="4">
-        <v>1.6121220000000001</v>
+        <v>0.83027649999999997</v>
       </c>
       <c r="AK39" s="4">
-        <v>0.83027649999999997</v>
-      </c>
-      <c r="AL39" s="4">
         <v>0.85485230000000001</v>
       </c>
+      <c r="AL39" s="2">
+        <v>7.4094389999999999</v>
+      </c>
       <c r="AM39" s="2">
-        <v>7.4094389999999999</v>
+        <v>3.1447661</v>
       </c>
       <c r="AN39" s="2">
-        <v>3.1447661</v>
+        <v>12.345625999999999</v>
       </c>
       <c r="AO39" s="2">
-        <v>12.345625999999999</v>
-      </c>
-      <c r="AP39" s="2">
         <v>5.7289884000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -5663,85 +5542,82 @@
         <v>1.1634987999999999</v>
       </c>
       <c r="Q40" s="4">
-        <v>0.1131679</v>
+        <v>85.0214</v>
       </c>
       <c r="R40" s="4">
-        <v>85.0214</v>
+        <v>13.57606</v>
       </c>
       <c r="S40" s="4">
-        <v>13.57606</v>
+        <v>0.23238</v>
       </c>
       <c r="T40" s="4">
-        <v>0.23238</v>
+        <v>0.19735</v>
       </c>
       <c r="U40" s="4">
-        <v>0.19735</v>
+        <v>2.3199999999999998E-2</v>
       </c>
       <c r="V40" s="4">
-        <v>2.3199999999999998E-2</v>
+        <v>3.9879999999999999E-2</v>
       </c>
       <c r="W40" s="4">
-        <v>3.9879999999999999E-2</v>
+        <v>0.23354</v>
       </c>
       <c r="X40" s="4">
-        <v>0.23354</v>
+        <v>0.20133999999999999</v>
       </c>
       <c r="Y40" s="4">
-        <v>0.20133999999999999</v>
+        <v>3.4756670000000003E-2</v>
       </c>
       <c r="Z40" s="4">
-        <v>3.4756670000000003E-2</v>
+        <v>5.3655910000000001E-2</v>
       </c>
       <c r="AA40" s="4">
-        <v>5.3655910000000001E-2</v>
+        <v>1.6554724999999999E-2</v>
       </c>
       <c r="AB40" s="4">
-        <v>1.6554724999999999E-2</v>
+        <v>2.7696931000000001E-2</v>
       </c>
       <c r="AC40" s="4">
-        <v>2.7696931000000001E-2</v>
+        <v>3.8497854999999997E-2</v>
       </c>
       <c r="AD40" s="4">
-        <v>3.8497854999999997E-2</v>
+        <v>6.0382749999999999E-2</v>
       </c>
       <c r="AE40" s="4">
-        <v>6.0382749999999999E-2</v>
+        <v>5.9271719999999997</v>
       </c>
       <c r="AF40" s="4">
-        <v>5.9271719999999997</v>
+        <v>13.503170000000001</v>
       </c>
       <c r="AG40" s="4">
-        <v>13.503170000000001</v>
+        <v>4.16005</v>
       </c>
       <c r="AH40" s="4">
-        <v>4.16005</v>
+        <v>9.8643180000000008</v>
       </c>
       <c r="AI40" s="4">
-        <v>9.8643180000000008</v>
+        <v>1.719128</v>
       </c>
       <c r="AJ40" s="4">
-        <v>1.719128</v>
+        <v>0.84924999999999995</v>
       </c>
       <c r="AK40" s="4">
-        <v>0.84924999999999995</v>
-      </c>
-      <c r="AL40" s="4">
         <v>0.86213169999999995</v>
       </c>
+      <c r="AL40" s="2">
+        <v>8.1460059999999999</v>
+      </c>
       <c r="AM40" s="2">
-        <v>8.1460059999999999</v>
+        <v>4.2857002</v>
       </c>
       <c r="AN40" s="2">
-        <v>4.2857002</v>
+        <v>17.433928000000002</v>
       </c>
       <c r="AO40" s="2">
-        <v>17.433928000000002</v>
-      </c>
-      <c r="AP40" s="2">
         <v>6.1121276</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -5791,85 +5667,82 @@
         <v>1.3586094</v>
       </c>
       <c r="Q41" s="4">
-        <v>6.8039299999999997E-2</v>
+        <v>86.384900000000002</v>
       </c>
       <c r="R41" s="4">
-        <v>86.384900000000002</v>
+        <v>19.37501</v>
       </c>
       <c r="S41" s="4">
-        <v>19.37501</v>
+        <v>0.23137959999999999</v>
       </c>
       <c r="T41" s="4">
-        <v>0.23137959999999999</v>
+        <v>0.20555000000000001</v>
       </c>
       <c r="U41" s="4">
-        <v>0.20555000000000001</v>
+        <v>2.2270399999999999E-2</v>
       </c>
       <c r="V41" s="4">
-        <v>2.2270399999999999E-2</v>
+        <v>4.3756629999999998E-2</v>
       </c>
       <c r="W41" s="4">
-        <v>4.3756629999999998E-2</v>
+        <v>0.23244999999999999</v>
       </c>
       <c r="X41" s="4">
-        <v>0.23244999999999999</v>
+        <v>0.21016000000000001</v>
       </c>
       <c r="Y41" s="4">
-        <v>0.21016000000000001</v>
+        <v>6.0535510000000001E-2</v>
       </c>
       <c r="Z41" s="4">
-        <v>6.0535510000000001E-2</v>
+        <v>6.9857970000000005E-2</v>
       </c>
       <c r="AA41" s="4">
-        <v>6.9857970000000005E-2</v>
+        <v>1.3018803000000001E-2</v>
       </c>
       <c r="AB41" s="4">
-        <v>1.3018803000000001E-2</v>
+        <v>2.5731512000000002E-2</v>
       </c>
       <c r="AC41" s="4">
-        <v>2.5731512000000002E-2</v>
+        <v>6.1919597999999999E-2</v>
       </c>
       <c r="AD41" s="4">
-        <v>6.1919597999999999E-2</v>
+        <v>7.444626E-2</v>
       </c>
       <c r="AE41" s="4">
-        <v>7.444626E-2</v>
+        <v>5.5133140000000003</v>
       </c>
       <c r="AF41" s="4">
-        <v>5.5133140000000003</v>
+        <v>14.93028</v>
       </c>
       <c r="AG41" s="4">
-        <v>14.93028</v>
+        <v>3.123332</v>
       </c>
       <c r="AH41" s="4">
-        <v>3.123332</v>
+        <v>10.737418</v>
       </c>
       <c r="AI41" s="4">
-        <v>10.737418</v>
+        <v>1.9647889999999999</v>
       </c>
       <c r="AJ41" s="4">
-        <v>1.9647889999999999</v>
+        <v>0.88836700000000002</v>
       </c>
       <c r="AK41" s="4">
-        <v>0.88836700000000002</v>
-      </c>
-      <c r="AL41" s="4">
         <v>0.90409450000000002</v>
       </c>
+      <c r="AL41" s="2">
+        <v>9.7186719999999998</v>
+      </c>
       <c r="AM41" s="2">
-        <v>9.7186719999999998</v>
+        <v>5.9099702000000001</v>
       </c>
       <c r="AN41" s="2">
-        <v>5.9099702000000001</v>
+        <v>15.926805999999999</v>
       </c>
       <c r="AO41" s="2">
-        <v>15.926805999999999</v>
-      </c>
-      <c r="AP41" s="2">
         <v>8.4739249000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -5919,85 +5792,82 @@
         <v>1.1800617</v>
       </c>
       <c r="Q42" s="4">
-        <v>6.9564699999999993E-2</v>
+        <v>89.779529999999994</v>
       </c>
       <c r="R42" s="4">
-        <v>89.779529999999994</v>
+        <v>15.08277</v>
       </c>
       <c r="S42" s="4">
-        <v>15.08277</v>
+        <v>0.25399559999999999</v>
       </c>
       <c r="T42" s="4">
-        <v>0.25399559999999999</v>
+        <v>0.21977749999999999</v>
       </c>
       <c r="U42" s="4">
-        <v>0.21977749999999999</v>
+        <v>2.768611E-2</v>
       </c>
       <c r="V42" s="4">
-        <v>2.768611E-2</v>
+        <v>4.2366130000000002E-2</v>
       </c>
       <c r="W42" s="4">
-        <v>4.2366130000000002E-2</v>
+        <v>0.2555</v>
       </c>
       <c r="X42" s="4">
-        <v>0.2555</v>
+        <v>0.22381999999999999</v>
       </c>
       <c r="Y42" s="4">
-        <v>0.22381999999999999</v>
+        <v>5.4464940000000003E-2</v>
       </c>
       <c r="Z42" s="4">
-        <v>5.4464940000000003E-2</v>
+        <v>5.1833749999999998E-2</v>
       </c>
       <c r="AA42" s="4">
-        <v>5.1833749999999998E-2</v>
+        <v>1.2966079E-2</v>
       </c>
       <c r="AB42" s="4">
-        <v>1.2966079E-2</v>
+        <v>2.6561566000000002E-2</v>
       </c>
       <c r="AC42" s="4">
-        <v>2.6561566000000002E-2</v>
+        <v>5.5987044999999999E-2</v>
       </c>
       <c r="AD42" s="4">
-        <v>5.5987044999999999E-2</v>
+        <v>5.8243059999999999E-2</v>
       </c>
       <c r="AE42" s="4">
-        <v>5.8243059999999999E-2</v>
+        <v>6.3365070000000001</v>
       </c>
       <c r="AF42" s="4">
-        <v>6.3365070000000001</v>
+        <v>12.800140000000001</v>
       </c>
       <c r="AG42" s="4">
-        <v>12.800140000000001</v>
+        <v>2.650506</v>
       </c>
       <c r="AH42" s="4">
-        <v>2.650506</v>
+        <v>9.3731939999999998</v>
       </c>
       <c r="AI42" s="4">
-        <v>9.3731939999999998</v>
+        <v>1.5302309999999999</v>
       </c>
       <c r="AJ42" s="4">
-        <v>1.5302309999999999</v>
+        <v>0.86528039999999995</v>
       </c>
       <c r="AK42" s="4">
-        <v>0.86528039999999995</v>
-      </c>
-      <c r="AL42" s="4">
         <v>0.87602159999999996</v>
       </c>
+      <c r="AL42" s="2">
+        <v>10.76679</v>
+      </c>
       <c r="AM42" s="2">
-        <v>10.76679</v>
+        <v>6.2142381000000002</v>
       </c>
       <c r="AN42" s="2">
-        <v>6.2142381000000002</v>
+        <v>16.614737999999999</v>
       </c>
       <c r="AO42" s="2">
-        <v>16.614737999999999</v>
-      </c>
-      <c r="AP42" s="2">
         <v>7.7020752999999997</v>
       </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -6047,85 +5917,82 @@
         <v>1.1437942999999999</v>
       </c>
       <c r="Q43" s="4">
-        <v>6.5423599999999998E-2</v>
+        <v>88.728719999999996</v>
       </c>
       <c r="R43" s="4">
-        <v>88.728719999999996</v>
+        <v>4.2153200000000002</v>
       </c>
       <c r="S43" s="4">
-        <v>4.2153200000000002</v>
+        <v>0.2397261</v>
       </c>
       <c r="T43" s="4">
-        <v>0.2397261</v>
+        <v>0.1981077</v>
       </c>
       <c r="U43" s="4">
-        <v>0.1981077</v>
+        <v>2.3468099999999999E-2</v>
       </c>
       <c r="V43" s="4">
-        <v>2.3468099999999999E-2</v>
+        <v>4.733445E-2</v>
       </c>
       <c r="W43" s="4">
-        <v>4.733445E-2</v>
+        <v>0.24087</v>
       </c>
       <c r="X43" s="4">
-        <v>0.24087</v>
+        <v>0.20368</v>
       </c>
       <c r="Y43" s="4">
-        <v>0.20368</v>
+        <v>3.6159429999999999E-2</v>
       </c>
       <c r="Z43" s="4">
-        <v>3.6159429999999999E-2</v>
+        <v>5.632235E-2</v>
       </c>
       <c r="AA43" s="4">
-        <v>5.632235E-2</v>
+        <v>1.3188282000000001E-2</v>
       </c>
       <c r="AB43" s="4">
-        <v>1.3188282000000001E-2</v>
+        <v>2.0071619999999998E-2</v>
       </c>
       <c r="AC43" s="4">
-        <v>2.0071619999999998E-2</v>
+        <v>3.8489420000000003E-2</v>
       </c>
       <c r="AD43" s="4">
-        <v>3.8489420000000003E-2</v>
+        <v>5.9791940000000002E-2</v>
       </c>
       <c r="AE43" s="4">
-        <v>5.9791940000000002E-2</v>
+        <v>5.6835779999999998</v>
       </c>
       <c r="AF43" s="4">
-        <v>5.6835779999999998</v>
+        <v>15.620950000000001</v>
       </c>
       <c r="AG43" s="4">
-        <v>15.620950000000001</v>
+        <v>3.2151200000000002</v>
       </c>
       <c r="AH43" s="4">
-        <v>3.2151200000000002</v>
+        <v>7.5064320000000002</v>
       </c>
       <c r="AI43" s="4">
-        <v>7.5064320000000002</v>
+        <v>2.0169700000000002</v>
       </c>
       <c r="AJ43" s="4">
-        <v>2.0169700000000002</v>
+        <v>0.82639200000000002</v>
       </c>
       <c r="AK43" s="4">
-        <v>0.82639200000000002</v>
-      </c>
-      <c r="AL43" s="4">
         <v>0.84561120000000001</v>
       </c>
+      <c r="AL43" s="2">
+        <v>7.2814920000000001</v>
+      </c>
       <c r="AM43" s="2">
-        <v>7.2814920000000001</v>
+        <v>3.5893717999999999</v>
       </c>
       <c r="AN43" s="2">
-        <v>3.5893717999999999</v>
+        <v>14.292597000000001</v>
       </c>
       <c r="AO43" s="2">
-        <v>14.292597000000001</v>
-      </c>
-      <c r="AP43" s="2">
         <v>9.6677590000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -6175,85 +6042,82 @@
         <v>0.83907670000000001</v>
       </c>
       <c r="Q44" s="4">
-        <v>5.1339599999999999E-2</v>
+        <v>43.751579999999997</v>
       </c>
       <c r="R44" s="4">
-        <v>43.751579999999997</v>
+        <v>6.2387670000000002</v>
       </c>
       <c r="S44" s="4">
-        <v>6.2387670000000002</v>
+        <v>0.11373</v>
       </c>
       <c r="T44" s="4">
-        <v>0.11373</v>
+        <v>8.2729999999999998E-2</v>
       </c>
       <c r="U44" s="4">
-        <v>8.2729999999999998E-2</v>
+        <v>1.9599999999999999E-2</v>
       </c>
       <c r="V44" s="4">
-        <v>1.9599999999999999E-2</v>
+        <v>3.0550000000000001E-2</v>
       </c>
       <c r="W44" s="4">
-        <v>3.0550000000000001E-2</v>
+        <v>0.11541</v>
       </c>
       <c r="X44" s="4">
-        <v>0.11541</v>
+        <v>8.8190000000000004E-2</v>
       </c>
       <c r="Y44" s="4">
-        <v>8.8190000000000004E-2</v>
+        <v>1.9781300000000002E-2</v>
       </c>
       <c r="Z44" s="4">
-        <v>1.9781300000000002E-2</v>
+        <v>2.262977E-2</v>
       </c>
       <c r="AA44" s="4">
-        <v>2.262977E-2</v>
+        <v>7.8223619999999994E-3</v>
       </c>
       <c r="AB44" s="4">
-        <v>7.8223619999999994E-3</v>
+        <v>1.6236435E-2</v>
       </c>
       <c r="AC44" s="4">
-        <v>1.6236435E-2</v>
+        <v>2.1271795999999999E-2</v>
       </c>
       <c r="AD44" s="4">
-        <v>2.1271795999999999E-2</v>
+        <v>2.7851899999999999E-2</v>
       </c>
       <c r="AE44" s="4">
-        <v>2.7851899999999999E-2</v>
+        <v>10.272145</v>
       </c>
       <c r="AF44" s="4">
-        <v>10.272145</v>
+        <v>24.816189999999999</v>
       </c>
       <c r="AG44" s="4">
-        <v>24.816189999999999</v>
+        <v>5.28</v>
       </c>
       <c r="AH44" s="4">
-        <v>5.28</v>
+        <v>13.02</v>
       </c>
       <c r="AI44" s="4">
-        <v>13.02</v>
+        <v>1.558908</v>
       </c>
       <c r="AJ44" s="4">
-        <v>1.558908</v>
+        <v>0.72739279999999995</v>
       </c>
       <c r="AK44" s="4">
-        <v>0.72739279999999995</v>
-      </c>
-      <c r="AL44" s="4">
         <v>0.76415379999999999</v>
       </c>
+      <c r="AL44" s="2">
+        <v>2.9815149999999999</v>
+      </c>
       <c r="AM44" s="2">
-        <v>2.9815149999999999</v>
+        <v>1.1885158</v>
       </c>
       <c r="AN44" s="2">
-        <v>1.1885158</v>
+        <v>4.6842069999999998</v>
       </c>
       <c r="AO44" s="2">
-        <v>4.6842069999999998</v>
-      </c>
-      <c r="AP44" s="2">
         <v>1.8107256</v>
       </c>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -6303,85 +6167,82 @@
         <v>0.9964035</v>
       </c>
       <c r="Q45" s="4">
-        <v>5.3484400000000001E-2</v>
+        <v>58.628570000000003</v>
       </c>
       <c r="R45" s="4">
-        <v>58.628570000000003</v>
+        <v>14.33989</v>
       </c>
       <c r="S45" s="4">
-        <v>14.33989</v>
+        <v>0.14665</v>
       </c>
       <c r="T45" s="4">
-        <v>0.14665</v>
+        <v>0.10067</v>
       </c>
       <c r="U45" s="4">
-        <v>0.10067</v>
+        <v>2.554E-2</v>
       </c>
       <c r="V45" s="4">
-        <v>2.554E-2</v>
+        <v>3.243E-2</v>
       </c>
       <c r="W45" s="4">
-        <v>3.243E-2</v>
+        <v>0.14885999999999999</v>
       </c>
       <c r="X45" s="4">
-        <v>0.14885999999999999</v>
+        <v>0.10576000000000001</v>
       </c>
       <c r="Y45" s="4">
-        <v>0.10576000000000001</v>
+        <v>2.5316020000000002E-2</v>
       </c>
       <c r="Z45" s="4">
-        <v>2.5316020000000002E-2</v>
+        <v>2.1519380000000001E-2</v>
       </c>
       <c r="AA45" s="4">
-        <v>2.1519380000000001E-2</v>
+        <v>7.5716070000000002E-3</v>
       </c>
       <c r="AB45" s="4">
-        <v>7.5716070000000002E-3</v>
+        <v>1.4325546E-2</v>
       </c>
       <c r="AC45" s="4">
-        <v>1.4325546E-2</v>
+        <v>2.6424045E-2</v>
       </c>
       <c r="AD45" s="4">
-        <v>2.6424045E-2</v>
+        <v>2.5851599999999999E-2</v>
       </c>
       <c r="AE45" s="4">
-        <v>2.5851599999999999E-2</v>
+        <v>9.4452499999999997</v>
       </c>
       <c r="AF45" s="4">
-        <v>9.4452499999999997</v>
+        <v>22.350110000000001</v>
       </c>
       <c r="AG45" s="4">
-        <v>22.350110000000001</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="AH45" s="4">
-        <v>2.5299999999999998</v>
+        <v>8.27</v>
       </c>
       <c r="AI45" s="4">
-        <v>8.27</v>
+        <v>1.269752</v>
       </c>
       <c r="AJ45" s="4">
-        <v>1.269752</v>
+        <v>0.68643710000000002</v>
       </c>
       <c r="AK45" s="4">
-        <v>0.68643710000000002</v>
-      </c>
-      <c r="AL45" s="4">
         <v>0.71048789999999995</v>
       </c>
+      <c r="AL45" s="2">
+        <v>4.8996279999999999</v>
+      </c>
       <c r="AM45" s="2">
-        <v>4.8996279999999999</v>
+        <v>1.5173236999999999</v>
       </c>
       <c r="AN45" s="2">
-        <v>1.5173236999999999</v>
+        <v>8.0848820000000003</v>
       </c>
       <c r="AO45" s="2">
-        <v>8.0848820000000003</v>
-      </c>
-      <c r="AP45" s="2">
         <v>3.3585436</v>
       </c>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -6431,85 +6292,82 @@
         <v>1.2867598</v>
       </c>
       <c r="Q46" s="4">
-        <v>6.1236699999999998E-2</v>
+        <v>75.558109999999999</v>
       </c>
       <c r="R46" s="4">
-        <v>75.558109999999999</v>
+        <v>18.945920000000001</v>
       </c>
       <c r="S46" s="4">
-        <v>18.945920000000001</v>
+        <v>0.18193000000000001</v>
       </c>
       <c r="T46" s="4">
-        <v>0.18193000000000001</v>
+        <v>0.12770000000000001</v>
       </c>
       <c r="U46" s="4">
-        <v>0.12770000000000001</v>
+        <v>3.1469999999999998E-2</v>
       </c>
       <c r="V46" s="4">
-        <v>3.1469999999999998E-2</v>
+        <v>3.9370000000000002E-2</v>
       </c>
       <c r="W46" s="4">
-        <v>3.9370000000000002E-2</v>
+        <v>0.18464</v>
       </c>
       <c r="X46" s="4">
-        <v>0.18464</v>
+        <v>0.13363</v>
       </c>
       <c r="Y46" s="4">
-        <v>0.13363</v>
+        <v>3.6259989999999999E-2</v>
       </c>
       <c r="Z46" s="4">
-        <v>3.6259989999999999E-2</v>
+        <v>3.5234660000000001E-2</v>
       </c>
       <c r="AA46" s="4">
-        <v>3.5234660000000001E-2</v>
+        <v>9.2927219999999998E-3</v>
       </c>
       <c r="AB46" s="4">
-        <v>9.2927219999999998E-3</v>
+        <v>1.4228494E-2</v>
       </c>
       <c r="AC46" s="4">
-        <v>1.4228494E-2</v>
+        <v>3.7431827000000001E-2</v>
       </c>
       <c r="AD46" s="4">
-        <v>3.7431827000000001E-2</v>
+        <v>3.7999100000000001E-2</v>
       </c>
       <c r="AE46" s="4">
-        <v>3.7999100000000001E-2</v>
+        <v>9.774286</v>
       </c>
       <c r="AF46" s="4">
-        <v>9.774286</v>
+        <v>20.7456</v>
       </c>
       <c r="AG46" s="4">
-        <v>20.7456</v>
+        <v>2.54</v>
       </c>
       <c r="AH46" s="4">
-        <v>2.54</v>
+        <v>10.27</v>
       </c>
       <c r="AI46" s="4">
-        <v>10.27</v>
+        <v>1.250745</v>
       </c>
       <c r="AJ46" s="4">
-        <v>1.250745</v>
+        <v>0.70188819999999996</v>
       </c>
       <c r="AK46" s="4">
-        <v>0.70188819999999996</v>
-      </c>
-      <c r="AL46" s="4">
         <v>0.72373449999999995</v>
       </c>
+      <c r="AL46" s="2">
+        <v>6.1539780000000004</v>
+      </c>
       <c r="AM46" s="2">
-        <v>6.1539780000000004</v>
+        <v>2.3258630999999999</v>
       </c>
       <c r="AN46" s="2">
-        <v>2.3258630999999999</v>
+        <v>9.7191949999999991</v>
       </c>
       <c r="AO46" s="2">
-        <v>9.7191949999999991</v>
-      </c>
-      <c r="AP46" s="2">
         <v>3.5796739</v>
       </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -6559,85 +6417,82 @@
         <v>0.78683639999999999</v>
       </c>
       <c r="Q47" s="4">
-        <v>9.6593700000000005E-2</v>
+        <v>80.947090000000003</v>
       </c>
       <c r="R47" s="4">
-        <v>80.947090000000003</v>
+        <v>19.58099</v>
       </c>
       <c r="S47" s="4">
-        <v>19.58099</v>
+        <v>0.18389</v>
       </c>
       <c r="T47" s="4">
-        <v>0.18389</v>
+        <v>0.13084000000000001</v>
       </c>
       <c r="U47" s="4">
-        <v>0.13084000000000001</v>
+        <v>3.771E-2</v>
       </c>
       <c r="V47" s="4">
-        <v>3.771E-2</v>
+        <v>4.2479999999999997E-2</v>
       </c>
       <c r="W47" s="4">
-        <v>4.2479999999999997E-2</v>
+        <v>0.18772</v>
       </c>
       <c r="X47" s="4">
-        <v>0.18772</v>
+        <v>0.13755999999999999</v>
       </c>
       <c r="Y47" s="4">
-        <v>0.13755999999999999</v>
+        <v>2.5022809999999999E-2</v>
       </c>
       <c r="Z47" s="4">
-        <v>2.5022809999999999E-2</v>
+        <v>3.286497E-2</v>
       </c>
       <c r="AA47" s="4">
-        <v>3.286497E-2</v>
+        <v>1.8183392999999999E-2</v>
       </c>
       <c r="AB47" s="4">
-        <v>1.8183392999999999E-2</v>
+        <v>1.1985743E-2</v>
       </c>
       <c r="AC47" s="4">
-        <v>1.1985743E-2</v>
+        <v>3.0931808000000002E-2</v>
       </c>
       <c r="AD47" s="4">
-        <v>3.0931808000000002E-2</v>
+        <v>3.4982340000000001E-2</v>
       </c>
       <c r="AE47" s="4">
-        <v>3.4982340000000001E-2</v>
+        <v>11.082618</v>
       </c>
       <c r="AF47" s="4">
-        <v>11.082618</v>
+        <v>20.60277</v>
       </c>
       <c r="AG47" s="4">
-        <v>20.60277</v>
+        <v>4.49</v>
       </c>
       <c r="AH47" s="4">
-        <v>4.49</v>
+        <v>7.95</v>
       </c>
       <c r="AI47" s="4">
-        <v>7.95</v>
+        <v>1.1265369999999999</v>
       </c>
       <c r="AJ47" s="4">
-        <v>1.1265369999999999</v>
+        <v>0.71149589999999996</v>
       </c>
       <c r="AK47" s="4">
-        <v>0.71149589999999996</v>
-      </c>
-      <c r="AL47" s="4">
         <v>0.73280509999999999</v>
       </c>
+      <c r="AL47" s="2">
+        <v>5.840992</v>
+      </c>
       <c r="AM47" s="2">
-        <v>5.840992</v>
+        <v>2.3773499999999999</v>
       </c>
       <c r="AN47" s="2">
-        <v>2.3773499999999999</v>
+        <v>8.7236010000000004</v>
       </c>
       <c r="AO47" s="2">
-        <v>8.7236010000000004</v>
-      </c>
-      <c r="AP47" s="2">
         <v>3.5459149000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -6687,85 +6542,82 @@
         <v>1.3556585000000001</v>
       </c>
       <c r="Q48" s="4">
-        <v>6.7149700000000007E-2</v>
+        <v>70.657489999999996</v>
       </c>
       <c r="R48" s="4">
-        <v>70.657489999999996</v>
+        <v>14.59441</v>
       </c>
       <c r="S48" s="4">
-        <v>14.59441</v>
+        <v>0.20707</v>
       </c>
       <c r="T48" s="4">
-        <v>0.20707</v>
+        <v>0.15540000000000001</v>
       </c>
       <c r="U48" s="4">
-        <v>0.15540000000000001</v>
+        <v>3.2660000000000002E-2</v>
       </c>
       <c r="V48" s="4">
-        <v>3.2660000000000002E-2</v>
+        <v>4.7550000000000002E-2</v>
       </c>
       <c r="W48" s="4">
-        <v>4.7550000000000002E-2</v>
+        <v>0.20963000000000001</v>
       </c>
       <c r="X48" s="4">
-        <v>0.20963000000000001</v>
+        <v>0.16250999999999999</v>
       </c>
       <c r="Y48" s="4">
-        <v>0.16250999999999999</v>
+        <v>4.6875470000000002E-2</v>
       </c>
       <c r="Z48" s="4">
-        <v>4.6875470000000002E-2</v>
+        <v>5.3251989999999999E-2</v>
       </c>
       <c r="AA48" s="4">
-        <v>5.3251989999999999E-2</v>
+        <v>1.3861676E-2</v>
       </c>
       <c r="AB48" s="4">
-        <v>1.3861676E-2</v>
+        <v>1.9772466999999998E-2</v>
       </c>
       <c r="AC48" s="4">
-        <v>1.9772466999999998E-2</v>
+        <v>4.8882065000000002E-2</v>
       </c>
       <c r="AD48" s="4">
-        <v>4.8882065000000002E-2</v>
+        <v>5.6804269999999997E-2</v>
       </c>
       <c r="AE48" s="4">
-        <v>5.6804269999999997E-2</v>
+        <v>8.951219</v>
       </c>
       <c r="AF48" s="4">
-        <v>8.951219</v>
+        <v>20.158899999999999</v>
       </c>
       <c r="AG48" s="4">
-        <v>20.158899999999999</v>
+        <v>3.5</v>
       </c>
       <c r="AH48" s="4">
-        <v>3.5</v>
+        <v>12.18</v>
       </c>
       <c r="AI48" s="4">
-        <v>12.18</v>
+        <v>1.455783</v>
       </c>
       <c r="AJ48" s="4">
-        <v>1.455783</v>
+        <v>0.750467</v>
       </c>
       <c r="AK48" s="4">
-        <v>0.750467</v>
-      </c>
-      <c r="AL48" s="4">
         <v>0.77522530000000001</v>
       </c>
+      <c r="AL48" s="2">
+        <v>4.998189</v>
+      </c>
       <c r="AM48" s="2">
-        <v>4.998189</v>
+        <v>2.9589506000000001</v>
       </c>
       <c r="AN48" s="2">
-        <v>2.9589506000000001</v>
+        <v>9.1455979999999997</v>
       </c>
       <c r="AO48" s="2">
-        <v>9.1455979999999997</v>
-      </c>
-      <c r="AP48" s="2">
         <v>5.0452463999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -6815,85 +6667,82 @@
         <v>1.1739915999999999</v>
       </c>
       <c r="Q49" s="4">
-        <v>6.4583399999999999E-2</v>
+        <v>68.907070000000004</v>
       </c>
       <c r="R49" s="4">
-        <v>68.907070000000004</v>
+        <v>26.251878999999999</v>
       </c>
       <c r="S49" s="4">
-        <v>26.251878999999999</v>
+        <v>0.16938</v>
       </c>
       <c r="T49" s="4">
-        <v>0.16938</v>
+        <v>0.12012</v>
       </c>
       <c r="U49" s="4">
-        <v>0.12012</v>
+        <v>2.7720000000000002E-2</v>
       </c>
       <c r="V49" s="4">
-        <v>2.7720000000000002E-2</v>
+        <v>4.1709999999999997E-2</v>
       </c>
       <c r="W49" s="4">
-        <v>4.1709999999999997E-2</v>
+        <v>0.17163</v>
       </c>
       <c r="X49" s="4">
-        <v>0.17163</v>
+        <v>0.12715000000000001</v>
       </c>
       <c r="Y49" s="4">
-        <v>0.12715000000000001</v>
+        <v>2.8516529999999998E-2</v>
       </c>
       <c r="Z49" s="4">
-        <v>2.8516529999999998E-2</v>
+        <v>3.1079200000000001E-2</v>
       </c>
       <c r="AA49" s="4">
-        <v>3.1079200000000001E-2</v>
+        <v>9.6403919999999994E-3</v>
       </c>
       <c r="AB49" s="4">
-        <v>9.6403919999999994E-3</v>
+        <v>1.9253039999999999E-2</v>
       </c>
       <c r="AC49" s="4">
-        <v>1.9253039999999999E-2</v>
+        <v>3.0101986000000001E-2</v>
       </c>
       <c r="AD49" s="4">
-        <v>3.0101986000000001E-2</v>
+        <v>3.655949E-2</v>
       </c>
       <c r="AE49" s="4">
-        <v>3.655949E-2</v>
+        <v>9.6258459999999992</v>
       </c>
       <c r="AF49" s="4">
-        <v>9.6258459999999992</v>
+        <v>22.39226</v>
       </c>
       <c r="AG49" s="4">
-        <v>22.39226</v>
+        <v>4.21</v>
       </c>
       <c r="AH49" s="4">
-        <v>4.21</v>
+        <v>10.31</v>
       </c>
       <c r="AI49" s="4">
-        <v>10.31</v>
+        <v>1.5045919999999999</v>
       </c>
       <c r="AJ49" s="4">
-        <v>1.5045919999999999</v>
+        <v>0.70916920000000006</v>
       </c>
       <c r="AK49" s="4">
-        <v>0.70916920000000006</v>
-      </c>
-      <c r="AL49" s="4">
         <v>0.74085509999999999</v>
       </c>
+      <c r="AL49" s="2">
+        <v>4.9032410000000004</v>
+      </c>
       <c r="AM49" s="2">
-        <v>4.9032410000000004</v>
+        <v>2.4055903000000001</v>
       </c>
       <c r="AN49" s="2">
-        <v>2.4055903000000001</v>
+        <v>7.8561399999999999</v>
       </c>
       <c r="AO49" s="2">
-        <v>7.8561399999999999</v>
-      </c>
-      <c r="AP49" s="2">
         <v>3.7368701</v>
       </c>
     </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -6943,85 +6792,82 @@
         <v>0.94144349999999999</v>
       </c>
       <c r="Q50" s="4">
-        <v>6.6743200000000003E-2</v>
+        <v>10.471095</v>
       </c>
       <c r="R50" s="4">
-        <v>10.471095</v>
+        <v>15.267167000000001</v>
       </c>
       <c r="S50" s="4">
-        <v>15.267167000000001</v>
+        <v>0.12662000000000001</v>
       </c>
       <c r="T50" s="4">
-        <v>0.12662000000000001</v>
+        <v>7.6770000000000005E-2</v>
       </c>
       <c r="U50" s="4">
-        <v>7.6770000000000005E-2</v>
+        <v>2.7320000000000001E-2</v>
       </c>
       <c r="V50" s="4">
-        <v>2.7320000000000001E-2</v>
+        <v>3.3669999999999999E-2</v>
       </c>
       <c r="W50" s="4">
-        <v>3.3669999999999999E-2</v>
+        <v>0.12953999999999999</v>
       </c>
       <c r="X50" s="4">
-        <v>0.12953999999999999</v>
+        <v>8.3830000000000002E-2</v>
       </c>
       <c r="Y50" s="4">
-        <v>8.3830000000000002E-2</v>
+        <v>2.9636269999999999E-2</v>
       </c>
       <c r="Z50" s="4">
-        <v>2.9636269999999999E-2</v>
+        <v>2.2057509999999999E-2</v>
       </c>
       <c r="AA50" s="4">
-        <v>2.2057509999999999E-2</v>
+        <v>9.8491210000000006E-3</v>
       </c>
       <c r="AB50" s="4">
-        <v>9.8491210000000006E-3</v>
+        <v>1.1689290999999999E-2</v>
       </c>
       <c r="AC50" s="4">
-        <v>1.1689290999999999E-2</v>
+        <v>3.1230014E-2</v>
       </c>
       <c r="AD50" s="4">
-        <v>3.1230014E-2</v>
+        <v>2.496344E-2</v>
       </c>
       <c r="AE50" s="4">
-        <v>2.496344E-2</v>
+        <v>11.263486</v>
       </c>
       <c r="AF50" s="4">
-        <v>11.263486</v>
+        <v>23.01707</v>
       </c>
       <c r="AG50" s="4">
-        <v>23.01707</v>
+        <v>2.99</v>
       </c>
       <c r="AH50" s="4">
-        <v>2.99</v>
+        <v>7.17</v>
       </c>
       <c r="AI50" s="4">
-        <v>7.17</v>
+        <v>1.2324390000000001</v>
       </c>
       <c r="AJ50" s="4">
-        <v>1.2324390000000001</v>
+        <v>0.60629650000000002</v>
       </c>
       <c r="AK50" s="4">
-        <v>0.60629650000000002</v>
-      </c>
-      <c r="AL50" s="4">
         <v>0.64714950000000004</v>
       </c>
+      <c r="AL50" s="2">
+        <v>1.7566809999999999</v>
+      </c>
       <c r="AM50" s="2">
-        <v>1.7566809999999999</v>
+        <v>0.50370729999999997</v>
       </c>
       <c r="AN50" s="2">
-        <v>0.50370729999999997</v>
+        <v>2.505395</v>
       </c>
       <c r="AO50" s="2">
-        <v>2.505395</v>
-      </c>
-      <c r="AP50" s="2">
         <v>0.70829900000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -7071,85 +6917,82 @@
         <v>0.84207900000000002</v>
       </c>
       <c r="Q51" s="4">
-        <v>8.5636199999999996E-2</v>
+        <v>25.606829000000001</v>
       </c>
       <c r="R51" s="4">
-        <v>25.606829000000001</v>
+        <v>22.518792000000001</v>
       </c>
       <c r="S51" s="4">
-        <v>22.518792000000001</v>
+        <v>0.14646000000000001</v>
       </c>
       <c r="T51" s="4">
-        <v>0.14646000000000001</v>
+        <v>9.128E-2</v>
       </c>
       <c r="U51" s="4">
-        <v>9.128E-2</v>
+        <v>3.1530000000000002E-2</v>
       </c>
       <c r="V51" s="4">
-        <v>3.1530000000000002E-2</v>
+        <v>3.8159999999999999E-2</v>
       </c>
       <c r="W51" s="4">
-        <v>3.8159999999999999E-2</v>
+        <v>0.14981</v>
       </c>
       <c r="X51" s="4">
-        <v>0.14981</v>
+        <v>9.8930000000000004E-2</v>
       </c>
       <c r="Y51" s="4">
-        <v>9.8930000000000004E-2</v>
+        <v>2.739165E-2</v>
       </c>
       <c r="Z51" s="4">
-        <v>2.739165E-2</v>
+        <v>1.7423069999999999E-2</v>
       </c>
       <c r="AA51" s="4">
-        <v>1.7423069999999999E-2</v>
+        <v>1.2377851E-2</v>
       </c>
       <c r="AB51" s="4">
-        <v>1.2377851E-2</v>
+        <v>9.5906719999999997E-3</v>
       </c>
       <c r="AC51" s="4">
-        <v>9.5906719999999997E-3</v>
+        <v>3.0058508000000001E-2</v>
       </c>
       <c r="AD51" s="4">
-        <v>3.0058508000000001E-2</v>
+        <v>1.9888300000000001E-2</v>
       </c>
       <c r="AE51" s="4">
-        <v>1.9888300000000001E-2</v>
+        <v>11.268193999999999</v>
       </c>
       <c r="AF51" s="4">
-        <v>11.268193999999999</v>
+        <v>24.353719999999999</v>
       </c>
       <c r="AG51" s="4">
-        <v>24.353719999999999</v>
+        <v>2.93</v>
       </c>
       <c r="AH51" s="4">
-        <v>2.93</v>
+        <v>5.97</v>
       </c>
       <c r="AI51" s="4">
-        <v>5.97</v>
+        <v>1.2102919999999999</v>
       </c>
       <c r="AJ51" s="4">
-        <v>1.2102919999999999</v>
+        <v>0.62323099999999998</v>
       </c>
       <c r="AK51" s="4">
-        <v>0.62323099999999998</v>
-      </c>
-      <c r="AL51" s="4">
         <v>0.66036879999999998</v>
       </c>
+      <c r="AL51" s="2">
+        <v>2.6187399999999998</v>
+      </c>
       <c r="AM51" s="2">
-        <v>2.6187399999999998</v>
+        <v>0.98583449999999995</v>
       </c>
       <c r="AN51" s="2">
-        <v>0.98583449999999995</v>
+        <v>4.268535</v>
       </c>
       <c r="AO51" s="2">
-        <v>4.268535</v>
-      </c>
-      <c r="AP51" s="2">
         <v>1.1143337</v>
       </c>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -7199,85 +7042,82 @@
         <v>0.75379779999999996</v>
       </c>
       <c r="Q52" s="4">
-        <v>9.4410800000000003E-2</v>
+        <v>57.989829999999998</v>
       </c>
       <c r="R52" s="4">
-        <v>57.989829999999998</v>
+        <v>20.415931</v>
       </c>
       <c r="S52" s="4">
-        <v>20.415931</v>
+        <v>0.17077000000000001</v>
       </c>
       <c r="T52" s="4">
-        <v>0.17077000000000001</v>
+        <v>0.10886999999999999</v>
       </c>
       <c r="U52" s="4">
-        <v>0.10886999999999999</v>
+        <v>3.4779999999999998E-2</v>
       </c>
       <c r="V52" s="4">
-        <v>3.4779999999999998E-2</v>
+        <v>5.1959999999999999E-2</v>
       </c>
       <c r="W52" s="4">
-        <v>5.1959999999999999E-2</v>
+        <v>0.17427000000000001</v>
       </c>
       <c r="X52" s="4">
-        <v>0.17427000000000001</v>
+        <v>0.12063</v>
       </c>
       <c r="Y52" s="4">
-        <v>0.12063</v>
+        <v>1.832868E-2</v>
       </c>
       <c r="Z52" s="4">
-        <v>1.832868E-2</v>
+        <v>2.385207E-2</v>
       </c>
       <c r="AA52" s="4">
-        <v>2.385207E-2</v>
+        <v>8.1823139999999996E-3</v>
       </c>
       <c r="AB52" s="4">
-        <v>8.1823139999999996E-3</v>
+        <v>1.8326307E-2</v>
       </c>
       <c r="AC52" s="4">
-        <v>1.8326307E-2</v>
+        <v>2.0072141000000002E-2</v>
       </c>
       <c r="AD52" s="4">
-        <v>2.0072141000000002E-2</v>
+        <v>3.0079470000000001E-2</v>
       </c>
       <c r="AE52" s="4">
-        <v>3.0079470000000001E-2</v>
+        <v>11.283925</v>
       </c>
       <c r="AF52" s="4">
-        <v>11.283925</v>
+        <v>27.140440000000002</v>
       </c>
       <c r="AG52" s="4">
-        <v>27.140440000000002</v>
+        <v>2.66</v>
       </c>
       <c r="AH52" s="4">
-        <v>2.66</v>
+        <v>8.59</v>
       </c>
       <c r="AI52" s="4">
-        <v>8.59</v>
+        <v>1.4938720000000001</v>
       </c>
       <c r="AJ52" s="4">
-        <v>1.4938720000000001</v>
+        <v>0.6375326</v>
       </c>
       <c r="AK52" s="4">
-        <v>0.6375326</v>
-      </c>
-      <c r="AL52" s="4">
         <v>0.69221460000000001</v>
       </c>
+      <c r="AL52" s="2">
+        <v>2.9651860000000001</v>
+      </c>
       <c r="AM52" s="2">
-        <v>2.9651860000000001</v>
+        <v>1.3489081999999999</v>
       </c>
       <c r="AN52" s="2">
-        <v>1.3489081999999999</v>
+        <v>4.5554550000000003</v>
       </c>
       <c r="AO52" s="2">
-        <v>4.5554550000000003</v>
-      </c>
-      <c r="AP52" s="2">
         <v>1.6990091</v>
       </c>
     </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -7327,85 +7167,82 @@
         <v>0.74109990000000003</v>
       </c>
       <c r="Q53" s="4">
-        <v>7.7835399999999999E-2</v>
+        <v>51.211860000000001</v>
       </c>
       <c r="R53" s="4">
-        <v>51.211860000000001</v>
+        <v>26.180841000000001</v>
       </c>
       <c r="S53" s="4">
-        <v>26.180841000000001</v>
+        <v>0.17657</v>
       </c>
       <c r="T53" s="4">
-        <v>0.17657</v>
+        <v>0.12132999999999999</v>
       </c>
       <c r="U53" s="4">
-        <v>0.12132999999999999</v>
+        <v>3.099E-2</v>
       </c>
       <c r="V53" s="4">
-        <v>3.099E-2</v>
+        <v>4.4010000000000001E-2</v>
       </c>
       <c r="W53" s="4">
-        <v>4.4010000000000001E-2</v>
+        <v>0.17927000000000001</v>
       </c>
       <c r="X53" s="4">
-        <v>0.17927000000000001</v>
+        <v>0.12906999999999999</v>
       </c>
       <c r="Y53" s="4">
-        <v>0.12906999999999999</v>
+        <v>2.4349639999999999E-2</v>
       </c>
       <c r="Z53" s="4">
-        <v>2.4349639999999999E-2</v>
+        <v>2.0252329999999999E-2</v>
       </c>
       <c r="AA53" s="4">
-        <v>2.0252329999999999E-2</v>
+        <v>1.2689907E-2</v>
       </c>
       <c r="AB53" s="4">
-        <v>1.2689907E-2</v>
+        <v>1.5954478000000001E-2</v>
       </c>
       <c r="AC53" s="4">
-        <v>1.5954478000000001E-2</v>
+        <v>2.7457946E-2</v>
       </c>
       <c r="AD53" s="4">
-        <v>2.7457946E-2</v>
+        <v>2.578182E-2</v>
       </c>
       <c r="AE53" s="4">
-        <v>2.578182E-2</v>
+        <v>9.5987349999999996</v>
       </c>
       <c r="AF53" s="4">
-        <v>9.5987349999999996</v>
+        <v>22.330380000000002</v>
       </c>
       <c r="AG53" s="4">
-        <v>22.330380000000002</v>
+        <v>3.61</v>
       </c>
       <c r="AH53" s="4">
-        <v>3.61</v>
+        <v>6.83</v>
       </c>
       <c r="AI53" s="4">
-        <v>6.83</v>
+        <v>1.4204509999999999</v>
       </c>
       <c r="AJ53" s="4">
-        <v>1.4204509999999999</v>
+        <v>0.68718449999999998</v>
       </c>
       <c r="AK53" s="4">
-        <v>0.68718449999999998</v>
-      </c>
-      <c r="AL53" s="4">
         <v>0.71999659999999999</v>
       </c>
+      <c r="AL53" s="2">
+        <v>3.5106890000000002</v>
+      </c>
       <c r="AM53" s="2">
-        <v>3.5106890000000002</v>
+        <v>1.3004442000000001</v>
       </c>
       <c r="AN53" s="2">
-        <v>1.3004442000000001</v>
+        <v>5.3137169999999996</v>
       </c>
       <c r="AO53" s="2">
-        <v>5.3137169999999996</v>
-      </c>
-      <c r="AP53" s="2">
         <v>1.8862283</v>
       </c>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -7455,85 +7292,82 @@
         <v>1.2786461</v>
       </c>
       <c r="Q54" s="4">
-        <v>6.9572200000000001E-2</v>
+        <v>54.228830000000002</v>
       </c>
       <c r="R54" s="4">
-        <v>54.228830000000002</v>
+        <v>16.888489</v>
       </c>
       <c r="S54" s="4">
-        <v>16.888489</v>
+        <v>0.19908000000000001</v>
       </c>
       <c r="T54" s="4">
-        <v>0.19908000000000001</v>
+        <v>0.13744999999999999</v>
       </c>
       <c r="U54" s="4">
-        <v>0.13744999999999999</v>
+        <v>3.6830000000000002E-2</v>
       </c>
       <c r="V54" s="4">
-        <v>3.6830000000000002E-2</v>
+        <v>5.6619999999999997E-2</v>
       </c>
       <c r="W54" s="4">
-        <v>5.6619999999999997E-2</v>
+        <v>0.20246</v>
       </c>
       <c r="X54" s="4">
-        <v>0.20246</v>
+        <v>0.14865</v>
       </c>
       <c r="Y54" s="4">
-        <v>0.14865</v>
+        <v>4.6252439999999999E-2</v>
       </c>
       <c r="Z54" s="4">
-        <v>4.6252439999999999E-2</v>
+        <v>4.7259660000000002E-2</v>
       </c>
       <c r="AA54" s="4">
-        <v>4.7259660000000002E-2</v>
+        <v>1.600913E-2</v>
       </c>
       <c r="AB54" s="4">
-        <v>1.600913E-2</v>
+        <v>2.6067923E-2</v>
       </c>
       <c r="AC54" s="4">
-        <v>2.6067923E-2</v>
+        <v>4.8944666999999997E-2</v>
       </c>
       <c r="AD54" s="4">
-        <v>4.8944666999999997E-2</v>
+        <v>5.3972329999999999E-2</v>
       </c>
       <c r="AE54" s="4">
-        <v>5.3972329999999999E-2</v>
+        <v>10.566857000000001</v>
       </c>
       <c r="AF54" s="4">
-        <v>10.566857000000001</v>
+        <v>24.19331</v>
       </c>
       <c r="AG54" s="4">
-        <v>24.19331</v>
+        <v>4.74</v>
       </c>
       <c r="AH54" s="4">
-        <v>4.74</v>
+        <v>11.47</v>
       </c>
       <c r="AI54" s="4">
-        <v>11.47</v>
+        <v>1.537148</v>
       </c>
       <c r="AJ54" s="4">
-        <v>1.537148</v>
+        <v>0.69041680000000005</v>
       </c>
       <c r="AK54" s="4">
-        <v>0.69041680000000005</v>
-      </c>
-      <c r="AL54" s="4">
         <v>0.73423850000000002</v>
       </c>
+      <c r="AL54" s="2">
+        <v>3.652962</v>
+      </c>
       <c r="AM54" s="2">
-        <v>3.652962</v>
+        <v>1.6346335999999999</v>
       </c>
       <c r="AN54" s="2">
-        <v>1.6346335999999999</v>
+        <v>5.7666909999999998</v>
       </c>
       <c r="AO54" s="2">
-        <v>5.7666909999999998</v>
-      </c>
-      <c r="AP54" s="2">
         <v>2.6311675999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -7583,85 +7417,82 @@
         <v>0.91273709999999997</v>
       </c>
       <c r="Q55" s="4">
-        <v>6.7176100000000002E-2</v>
+        <v>59.958449999999999</v>
       </c>
       <c r="R55" s="4">
-        <v>59.958449999999999</v>
+        <v>20.203253</v>
       </c>
       <c r="S55" s="4">
-        <v>20.203253</v>
+        <v>0.18559</v>
       </c>
       <c r="T55" s="4">
-        <v>0.18559</v>
+        <v>0.12206</v>
       </c>
       <c r="U55" s="4">
-        <v>0.12206</v>
+        <v>3.5929999999999997E-2</v>
       </c>
       <c r="V55" s="4">
-        <v>3.5929999999999997E-2</v>
+        <v>4.5620000000000001E-2</v>
       </c>
       <c r="W55" s="4">
-        <v>4.5620000000000001E-2</v>
+        <v>0.18904000000000001</v>
       </c>
       <c r="X55" s="4">
-        <v>0.18904000000000001</v>
+        <v>0.13031000000000001</v>
       </c>
       <c r="Y55" s="4">
-        <v>0.13031000000000001</v>
+        <v>3.3073430000000001E-2</v>
       </c>
       <c r="Z55" s="4">
-        <v>3.3073430000000001E-2</v>
+        <v>2.2496519999999999E-2</v>
       </c>
       <c r="AA55" s="4">
-        <v>2.2496519999999999E-2</v>
+        <v>8.4513580000000008E-3</v>
       </c>
       <c r="AB55" s="4">
-        <v>8.4513580000000008E-3</v>
+        <v>1.7138661999999999E-2</v>
       </c>
       <c r="AC55" s="4">
-        <v>1.7138661999999999E-2</v>
+        <v>3.4136154000000002E-2</v>
       </c>
       <c r="AD55" s="4">
-        <v>3.4136154000000002E-2</v>
+        <v>2.8281210000000001E-2</v>
       </c>
       <c r="AE55" s="4">
-        <v>2.8281210000000001E-2</v>
+        <v>10.741879000000001</v>
       </c>
       <c r="AF55" s="4">
-        <v>10.741879000000001</v>
+        <v>23.22805</v>
       </c>
       <c r="AG55" s="4">
-        <v>23.22805</v>
+        <v>2.69</v>
       </c>
       <c r="AH55" s="4">
-        <v>2.69</v>
+        <v>8.68</v>
       </c>
       <c r="AI55" s="4">
-        <v>8.68</v>
+        <v>1.2696670000000001</v>
       </c>
       <c r="AJ55" s="4">
-        <v>1.2696670000000001</v>
+        <v>0.65769739999999999</v>
       </c>
       <c r="AK55" s="4">
-        <v>0.65769739999999999</v>
-      </c>
-      <c r="AL55" s="4">
         <v>0.68933370000000005</v>
       </c>
+      <c r="AL55" s="2">
+        <v>3.4352879999999999</v>
+      </c>
       <c r="AM55" s="2">
-        <v>3.4352879999999999</v>
+        <v>1.393205</v>
       </c>
       <c r="AN55" s="2">
-        <v>1.393205</v>
+        <v>5.5569459999999999</v>
       </c>
       <c r="AO55" s="2">
-        <v>5.5569459999999999</v>
-      </c>
-      <c r="AP55" s="2">
         <v>1.9407455</v>
       </c>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -7711,85 +7542,82 @@
         <v>1.1566160000000001</v>
       </c>
       <c r="Q56" s="4">
-        <v>9.5949400000000004E-2</v>
+        <v>5.5722719999999999</v>
       </c>
       <c r="R56" s="4">
-        <v>5.5722719999999999</v>
+        <v>19.584250000000001</v>
       </c>
       <c r="S56" s="4">
-        <v>19.584250000000001</v>
+        <v>0.11781999999999999</v>
       </c>
       <c r="T56" s="4">
-        <v>0.11781999999999999</v>
+        <v>8.3169999999999994E-2</v>
       </c>
       <c r="U56" s="4">
-        <v>8.3169999999999994E-2</v>
+        <v>3.1710000000000002E-2</v>
       </c>
       <c r="V56" s="4">
-        <v>3.1710000000000002E-2</v>
+        <v>3.9899999999999998E-2</v>
       </c>
       <c r="W56" s="4">
-        <v>3.9899999999999998E-2</v>
+        <v>0.12200999999999999</v>
       </c>
       <c r="X56" s="4">
-        <v>0.12200999999999999</v>
+        <v>9.2249999999999999E-2</v>
       </c>
       <c r="Y56" s="4">
-        <v>9.2249999999999999E-2</v>
+        <v>2.5898419999999998E-2</v>
       </c>
       <c r="Z56" s="4">
-        <v>2.5898419999999998E-2</v>
+        <v>3.9067379999999999E-2</v>
       </c>
       <c r="AA56" s="4">
-        <v>3.9067379999999999E-2</v>
+        <v>1.6583127999999999E-2</v>
       </c>
       <c r="AB56" s="4">
-        <v>1.6583127999999999E-2</v>
+        <v>1.4558198E-2</v>
       </c>
       <c r="AC56" s="4">
-        <v>1.4558198E-2</v>
+        <v>3.0752696E-2</v>
       </c>
       <c r="AD56" s="4">
-        <v>3.0752696E-2</v>
+        <v>4.1691739999999998E-2</v>
       </c>
       <c r="AE56" s="4">
-        <v>4.1691739999999998E-2</v>
+        <v>15.536154</v>
       </c>
       <c r="AF56" s="4">
-        <v>15.536154</v>
+        <v>27.159050000000001</v>
       </c>
       <c r="AG56" s="4">
-        <v>27.159050000000001</v>
+        <v>6.89</v>
       </c>
       <c r="AH56" s="4">
-        <v>6.89</v>
+        <v>9.6</v>
       </c>
       <c r="AI56" s="4">
-        <v>9.6</v>
+        <v>1.258146</v>
       </c>
       <c r="AJ56" s="4">
-        <v>1.258146</v>
+        <v>0.70592259999999996</v>
       </c>
       <c r="AK56" s="4">
-        <v>0.70592259999999996</v>
-      </c>
-      <c r="AL56" s="4">
         <v>0.75603290000000001</v>
       </c>
+      <c r="AL56" s="2">
+        <v>1.601944</v>
+      </c>
       <c r="AM56" s="2">
-        <v>1.601944</v>
+        <v>0.2</v>
       </c>
       <c r="AN56" s="2">
+        <v>2.0000849999999999</v>
+      </c>
+      <c r="AO56" s="2">
         <v>0.2</v>
       </c>
-      <c r="AO56" s="2">
-        <v>2.0000849999999999</v>
-      </c>
-      <c r="AP56" s="2">
-        <v>0.2</v>
-      </c>
     </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -7839,85 +7667,82 @@
         <v>1.0838572</v>
       </c>
       <c r="Q57" s="4">
-        <v>9.1497499999999996E-2</v>
+        <v>15.57831</v>
       </c>
       <c r="R57" s="4">
-        <v>15.57831</v>
+        <v>18.626657999999999</v>
       </c>
       <c r="S57" s="4">
-        <v>18.626657999999999</v>
+        <v>0.13880000000000001</v>
       </c>
       <c r="T57" s="4">
-        <v>0.13880000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="U57" s="4">
-        <v>0.09</v>
+        <v>2.8330000000000001E-2</v>
       </c>
       <c r="V57" s="4">
-        <v>2.8330000000000001E-2</v>
+        <v>4.2560000000000001E-2</v>
       </c>
       <c r="W57" s="4">
-        <v>4.2560000000000001E-2</v>
+        <v>0.14166999999999999</v>
       </c>
       <c r="X57" s="4">
-        <v>0.14166999999999999</v>
+        <v>9.9559999999999996E-2</v>
       </c>
       <c r="Y57" s="4">
-        <v>9.9559999999999996E-2</v>
+        <v>1.7186110000000001E-2</v>
       </c>
       <c r="Z57" s="4">
-        <v>1.7186110000000001E-2</v>
+        <v>2.0206439999999999E-2</v>
       </c>
       <c r="AA57" s="4">
-        <v>2.0206439999999999E-2</v>
+        <v>1.1850451999999999E-2</v>
       </c>
       <c r="AB57" s="4">
-        <v>1.1850451999999999E-2</v>
+        <v>1.4219864E-2</v>
       </c>
       <c r="AC57" s="4">
-        <v>1.4219864E-2</v>
+        <v>2.0875715E-2</v>
       </c>
       <c r="AD57" s="4">
-        <v>2.0875715E-2</v>
+        <v>2.4708399999999998E-2</v>
       </c>
       <c r="AE57" s="4">
-        <v>2.4708399999999998E-2</v>
+        <v>11.685028000000001</v>
       </c>
       <c r="AF57" s="4">
-        <v>11.685028000000001</v>
+        <v>28.078769999999999</v>
       </c>
       <c r="AG57" s="4">
-        <v>28.078769999999999</v>
+        <v>3.82</v>
       </c>
       <c r="AH57" s="4">
-        <v>3.82</v>
+        <v>11.42</v>
       </c>
       <c r="AI57" s="4">
-        <v>11.42</v>
+        <v>1.502157</v>
       </c>
       <c r="AJ57" s="4">
-        <v>1.502157</v>
+        <v>0.64837599999999995</v>
       </c>
       <c r="AK57" s="4">
-        <v>0.64837599999999995</v>
-      </c>
-      <c r="AL57" s="4">
         <v>0.7027388</v>
       </c>
+      <c r="AL57" s="2">
+        <v>1.9761580000000001</v>
+      </c>
       <c r="AM57" s="2">
-        <v>1.9761580000000001</v>
+        <v>0.63037240000000005</v>
       </c>
       <c r="AN57" s="2">
-        <v>0.63037240000000005</v>
+        <v>3.3757809999999999</v>
       </c>
       <c r="AO57" s="2">
-        <v>3.3757809999999999</v>
-      </c>
-      <c r="AP57" s="2">
         <v>0.8660407</v>
       </c>
     </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -7967,85 +7792,82 @@
         <v>0.96603439999999996</v>
       </c>
       <c r="Q58" s="4">
-        <v>7.7028299999999994E-2</v>
+        <v>38.492750000000001</v>
       </c>
       <c r="R58" s="4">
-        <v>38.492750000000001</v>
+        <v>20.485766999999999</v>
       </c>
       <c r="S58" s="4">
-        <v>20.485766999999999</v>
+        <v>0.15792999999999999</v>
       </c>
       <c r="T58" s="4">
-        <v>0.15792999999999999</v>
+        <v>0.11114</v>
       </c>
       <c r="U58" s="4">
-        <v>0.11114</v>
+        <v>3.5040000000000002E-2</v>
       </c>
       <c r="V58" s="4">
-        <v>3.5040000000000002E-2</v>
+        <v>4.5400000000000003E-2</v>
       </c>
       <c r="W58" s="4">
-        <v>4.5400000000000003E-2</v>
+        <v>0.16177</v>
       </c>
       <c r="X58" s="4">
-        <v>0.16177</v>
+        <v>0.12005</v>
       </c>
       <c r="Y58" s="4">
-        <v>0.12005</v>
+        <v>2.544308E-2</v>
       </c>
       <c r="Z58" s="4">
-        <v>2.544308E-2</v>
+        <v>2.304117E-2</v>
       </c>
       <c r="AA58" s="4">
-        <v>2.304117E-2</v>
+        <v>8.2878670000000008E-3</v>
       </c>
       <c r="AB58" s="4">
-        <v>8.2878670000000008E-3</v>
+        <v>1.1680158E-2</v>
       </c>
       <c r="AC58" s="4">
-        <v>1.1680158E-2</v>
+        <v>2.675891E-2</v>
       </c>
       <c r="AD58" s="4">
-        <v>2.675891E-2</v>
+        <v>2.5832569999999999E-2</v>
       </c>
       <c r="AE58" s="4">
-        <v>2.5832569999999999E-2</v>
+        <v>12.718762</v>
       </c>
       <c r="AF58" s="4">
-        <v>12.718762</v>
+        <v>24.86035</v>
       </c>
       <c r="AG58" s="4">
-        <v>24.86035</v>
+        <v>3.41</v>
       </c>
       <c r="AH58" s="4">
-        <v>3.41</v>
+        <v>6.97</v>
       </c>
       <c r="AI58" s="4">
-        <v>6.97</v>
+        <v>1.2956460000000001</v>
       </c>
       <c r="AJ58" s="4">
-        <v>1.2956460000000001</v>
+        <v>0.70370960000000005</v>
       </c>
       <c r="AK58" s="4">
-        <v>0.70370960000000005</v>
-      </c>
-      <c r="AL58" s="4">
         <v>0.74211000000000005</v>
       </c>
+      <c r="AL58" s="2">
+        <v>2.3349609999999998</v>
+      </c>
       <c r="AM58" s="2">
-        <v>2.3349609999999998</v>
+        <v>0.85663990000000001</v>
       </c>
       <c r="AN58" s="2">
-        <v>0.85663990000000001</v>
+        <v>3.4432749999999999</v>
       </c>
       <c r="AO58" s="2">
-        <v>3.4432749999999999</v>
-      </c>
-      <c r="AP58" s="2">
         <v>1.1935003</v>
       </c>
     </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -8095,85 +7917,82 @@
         <v>0.73542660000000004</v>
       </c>
       <c r="Q59" s="4">
-        <v>9.7860500000000003E-2</v>
+        <v>51.143129999999999</v>
       </c>
       <c r="R59" s="4">
-        <v>51.143129999999999</v>
+        <v>14.493677</v>
       </c>
       <c r="S59" s="4">
-        <v>14.493677</v>
+        <v>0.19374</v>
       </c>
       <c r="T59" s="4">
-        <v>0.19374</v>
+        <v>0.12920000000000001</v>
       </c>
       <c r="U59" s="4">
-        <v>0.12920000000000001</v>
+        <v>4.3270000000000003E-2</v>
       </c>
       <c r="V59" s="4">
-        <v>4.3270000000000003E-2</v>
+        <v>5.5469999999999998E-2</v>
       </c>
       <c r="W59" s="4">
-        <v>5.5469999999999998E-2</v>
+        <v>0.19850999999999999</v>
       </c>
       <c r="X59" s="4">
-        <v>0.19850999999999999</v>
+        <v>0.1406</v>
       </c>
       <c r="Y59" s="4">
-        <v>0.1406</v>
+        <v>2.9528519999999999E-2</v>
       </c>
       <c r="Z59" s="4">
-        <v>2.9528519999999999E-2</v>
+        <v>2.7050230000000001E-2</v>
       </c>
       <c r="AA59" s="4">
-        <v>2.7050230000000001E-2</v>
+        <v>1.3423335E-2</v>
       </c>
       <c r="AB59" s="4">
-        <v>1.3423335E-2</v>
+        <v>1.3009671E-2</v>
       </c>
       <c r="AC59" s="4">
-        <v>1.3009671E-2</v>
+        <v>3.2436389000000003E-2</v>
       </c>
       <c r="AD59" s="4">
-        <v>3.2436389000000003E-2</v>
+        <v>3.0016109999999999E-2</v>
       </c>
       <c r="AE59" s="4">
-        <v>3.0016109999999999E-2</v>
+        <v>12.362155</v>
       </c>
       <c r="AF59" s="4">
-        <v>12.362155</v>
+        <v>25.813790000000001</v>
       </c>
       <c r="AG59" s="4">
-        <v>25.813790000000001</v>
+        <v>2.69</v>
       </c>
       <c r="AH59" s="4">
-        <v>2.69</v>
+        <v>6.78</v>
       </c>
       <c r="AI59" s="4">
-        <v>6.78</v>
+        <v>1.2818579999999999</v>
       </c>
       <c r="AJ59" s="4">
-        <v>1.2818579999999999</v>
+        <v>0.66687289999999999</v>
       </c>
       <c r="AK59" s="4">
-        <v>0.66687289999999999</v>
-      </c>
-      <c r="AL59" s="4">
         <v>0.70828219999999997</v>
       </c>
+      <c r="AL59" s="2">
+        <v>2.6198359999999998</v>
+      </c>
       <c r="AM59" s="2">
-        <v>2.6198359999999998</v>
+        <v>0.91838240000000004</v>
       </c>
       <c r="AN59" s="2">
-        <v>0.91838240000000004</v>
+        <v>4.2605870000000001</v>
       </c>
       <c r="AO59" s="2">
-        <v>4.2605870000000001</v>
-      </c>
-      <c r="AP59" s="2">
         <v>1.3472622999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -8223,85 +8042,82 @@
         <v>1.3419383</v>
       </c>
       <c r="Q60" s="4">
-        <v>9.6831299999999995E-2</v>
+        <v>50.954259999999998</v>
       </c>
       <c r="R60" s="4">
-        <v>50.954259999999998</v>
+        <v>26.874842000000001</v>
       </c>
       <c r="S60" s="4">
-        <v>26.874842000000001</v>
+        <v>0.19089999999999999</v>
       </c>
       <c r="T60" s="4">
-        <v>0.19089999999999999</v>
+        <v>0.11408</v>
       </c>
       <c r="U60" s="4">
-        <v>0.11408</v>
+        <v>4.6829999999999997E-2</v>
       </c>
       <c r="V60" s="4">
-        <v>4.6829999999999997E-2</v>
+        <v>6.2890000000000001E-2</v>
       </c>
       <c r="W60" s="4">
-        <v>6.2890000000000001E-2</v>
+        <v>0.19656000000000001</v>
       </c>
       <c r="X60" s="4">
-        <v>0.19656000000000001</v>
+        <v>0.13025999999999999</v>
       </c>
       <c r="Y60" s="4">
-        <v>0.13025999999999999</v>
+        <v>3.8105170000000001E-2</v>
       </c>
       <c r="Z60" s="4">
-        <v>3.8105170000000001E-2</v>
+        <v>2.9444270000000002E-2</v>
       </c>
       <c r="AA60" s="4">
-        <v>2.9444270000000002E-2</v>
+        <v>1.0515633E-2</v>
       </c>
       <c r="AB60" s="4">
-        <v>1.0515633E-2</v>
+        <v>1.9522662E-2</v>
       </c>
       <c r="AC60" s="4">
-        <v>1.9522662E-2</v>
+        <v>3.9529516000000001E-2</v>
       </c>
       <c r="AD60" s="4">
-        <v>3.9529516000000001E-2</v>
+        <v>3.5328449999999997E-2</v>
       </c>
       <c r="AE60" s="4">
-        <v>3.5328449999999997E-2</v>
+        <v>13.467497</v>
       </c>
       <c r="AF60" s="4">
-        <v>13.467497</v>
+        <v>30.366540000000001</v>
       </c>
       <c r="AG60" s="4">
-        <v>30.366540000000001</v>
+        <v>2.17</v>
       </c>
       <c r="AH60" s="4">
-        <v>2.17</v>
+        <v>7.33</v>
       </c>
       <c r="AI60" s="4">
-        <v>7.33</v>
+        <v>1.342848</v>
       </c>
       <c r="AJ60" s="4">
-        <v>1.342848</v>
+        <v>0.59756640000000005</v>
       </c>
       <c r="AK60" s="4">
-        <v>0.59756640000000005</v>
-      </c>
-      <c r="AL60" s="4">
         <v>0.66271060000000004</v>
       </c>
+      <c r="AL60" s="2">
+        <v>2.9962010000000001</v>
+      </c>
       <c r="AM60" s="2">
-        <v>2.9962010000000001</v>
+        <v>1.4052986999999999</v>
       </c>
       <c r="AN60" s="2">
-        <v>1.4052986999999999</v>
+        <v>5.0449979999999996</v>
       </c>
       <c r="AO60" s="2">
-        <v>5.0449979999999996</v>
-      </c>
-      <c r="AP60" s="2">
         <v>2.3962036000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -8351,85 +8167,82 @@
         <v>1.0891521</v>
       </c>
       <c r="Q61" s="4">
-        <v>9.46964E-2</v>
+        <v>48.409320000000001</v>
       </c>
       <c r="R61" s="4">
-        <v>48.409320000000001</v>
+        <v>12.104778</v>
       </c>
       <c r="S61" s="4">
-        <v>12.104778</v>
+        <v>0.18473000000000001</v>
       </c>
       <c r="T61" s="4">
-        <v>0.18473000000000001</v>
+        <v>0.11706999999999999</v>
       </c>
       <c r="U61" s="4">
-        <v>0.11706999999999999</v>
+        <v>3.7280000000000001E-2</v>
       </c>
       <c r="V61" s="4">
-        <v>3.7280000000000001E-2</v>
+        <v>6.5079999999999999E-2</v>
       </c>
       <c r="W61" s="4">
-        <v>6.5079999999999999E-2</v>
+        <v>0.18845999999999999</v>
       </c>
       <c r="X61" s="4">
-        <v>0.18845999999999999</v>
+        <v>0.13394</v>
       </c>
       <c r="Y61" s="4">
-        <v>0.13394</v>
+        <v>2.8854640000000001E-2</v>
       </c>
       <c r="Z61" s="4">
-        <v>2.8854640000000001E-2</v>
+        <v>3.0510780000000001E-2</v>
       </c>
       <c r="AA61" s="4">
-        <v>3.0510780000000001E-2</v>
+        <v>1.1111855E-2</v>
       </c>
       <c r="AB61" s="4">
-        <v>1.1111855E-2</v>
+        <v>1.4593556000000001E-2</v>
       </c>
       <c r="AC61" s="4">
-        <v>1.4593556000000001E-2</v>
+        <v>3.0920281000000001E-2</v>
       </c>
       <c r="AD61" s="4">
-        <v>3.0920281000000001E-2</v>
+        <v>3.3821289999999997E-2</v>
       </c>
       <c r="AE61" s="4">
-        <v>3.3821289999999997E-2</v>
+        <v>10.875127000000001</v>
       </c>
       <c r="AF61" s="4">
-        <v>10.875127000000001</v>
+        <v>32.606340000000003</v>
       </c>
       <c r="AG61" s="4">
-        <v>32.606340000000003</v>
+        <v>2.62</v>
       </c>
       <c r="AH61" s="4">
-        <v>2.62</v>
+        <v>9.34</v>
       </c>
       <c r="AI61" s="4">
-        <v>9.34</v>
+        <v>1.745843</v>
       </c>
       <c r="AJ61" s="4">
-        <v>1.745843</v>
+        <v>0.63374220000000003</v>
       </c>
       <c r="AK61" s="4">
-        <v>0.63374220000000003</v>
-      </c>
-      <c r="AL61" s="4">
         <v>0.71074499999999996</v>
       </c>
+      <c r="AL61" s="2">
+        <v>2.800284</v>
+      </c>
       <c r="AM61" s="2">
-        <v>2.800284</v>
+        <v>1.3075007999999999</v>
       </c>
       <c r="AN61" s="2">
-        <v>1.3075007999999999</v>
+        <v>4.4130459999999996</v>
       </c>
       <c r="AO61" s="2">
-        <v>4.4130459999999996</v>
-      </c>
-      <c r="AP61" s="2">
         <v>1.9971972</v>
       </c>
     </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -8479,85 +8292,82 @@
         <v>1.0242088</v>
       </c>
       <c r="Q62" s="4">
-        <v>5.4808500000000003E-2</v>
+        <v>23.64162</v>
       </c>
       <c r="R62" s="4">
-        <v>23.64162</v>
+        <v>16.619759999999999</v>
       </c>
       <c r="S62" s="4">
-        <v>16.619759999999999</v>
+        <v>0.1123</v>
       </c>
       <c r="T62" s="4">
-        <v>0.1123</v>
+        <v>8.1729999999999997E-2</v>
       </c>
       <c r="U62" s="4">
-        <v>8.1729999999999997E-2</v>
+        <v>1.9689999999999999E-2</v>
       </c>
       <c r="V62" s="4">
-        <v>1.9689999999999999E-2</v>
+        <v>3.092E-2</v>
       </c>
       <c r="W62" s="4">
-        <v>3.092E-2</v>
+        <v>0.11402</v>
       </c>
       <c r="X62" s="4">
-        <v>0.11402</v>
+        <v>8.7379999999999999E-2</v>
       </c>
       <c r="Y62" s="4">
-        <v>8.7379999999999999E-2</v>
+        <v>3.0374399999999999E-2</v>
       </c>
       <c r="Z62" s="4">
-        <v>3.0374399999999999E-2</v>
+        <v>2.8763839999999999E-2</v>
       </c>
       <c r="AA62" s="4">
-        <v>2.8763839999999999E-2</v>
+        <v>1.1225318E-2</v>
       </c>
       <c r="AB62" s="4">
-        <v>1.1225318E-2</v>
+        <v>1.6154090999999999E-2</v>
       </c>
       <c r="AC62" s="4">
-        <v>1.6154090999999999E-2</v>
+        <v>3.2382275000000002E-2</v>
       </c>
       <c r="AD62" s="4">
-        <v>3.2382275000000002E-2</v>
+        <v>3.2989589999999999E-2</v>
       </c>
       <c r="AE62" s="4">
-        <v>3.2989589999999999E-2</v>
+        <v>10.537159000000001</v>
       </c>
       <c r="AF62" s="4">
-        <v>10.537159000000001</v>
+        <v>21.290959999999998</v>
       </c>
       <c r="AG62" s="4">
-        <v>21.290959999999998</v>
+        <v>6.2</v>
       </c>
       <c r="AH62" s="4">
-        <v>6.2</v>
+        <v>12.12</v>
       </c>
       <c r="AI62" s="4">
-        <v>12.12</v>
+        <v>1.5699590000000001</v>
       </c>
       <c r="AJ62" s="4">
-        <v>1.5699590000000001</v>
+        <v>0.72773920000000003</v>
       </c>
       <c r="AK62" s="4">
-        <v>0.72773920000000003</v>
-      </c>
-      <c r="AL62" s="4">
         <v>0.76638399999999995</v>
       </c>
+      <c r="AL62" s="2">
+        <v>5.7654839999999998</v>
+      </c>
       <c r="AM62" s="2">
-        <v>5.7654839999999998</v>
+        <v>2.5911742000000002</v>
       </c>
       <c r="AN62" s="2">
-        <v>2.5911742000000002</v>
+        <v>8.1350130000000007</v>
       </c>
       <c r="AO62" s="2">
-        <v>8.1350130000000007</v>
-      </c>
-      <c r="AP62" s="2">
         <v>2.5379445999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -8607,85 +8417,82 @@
         <v>1.0924191999999999</v>
       </c>
       <c r="Q63" s="4">
-        <v>3.7796499999999997E-2</v>
+        <v>44.105809999999998</v>
       </c>
       <c r="R63" s="4">
-        <v>44.105809999999998</v>
+        <v>25.87</v>
       </c>
       <c r="S63" s="4">
-        <v>25.87</v>
+        <v>0.12734000000000001</v>
       </c>
       <c r="T63" s="4">
-        <v>0.12734000000000001</v>
+        <v>8.5269999999999999E-2</v>
       </c>
       <c r="U63" s="4">
-        <v>8.5269999999999999E-2</v>
+        <v>2.0910000000000002E-2</v>
       </c>
       <c r="V63" s="4">
-        <v>2.0910000000000002E-2</v>
+        <v>2.818E-2</v>
       </c>
       <c r="W63" s="4">
-        <v>2.818E-2</v>
+        <v>0.12905</v>
       </c>
       <c r="X63" s="4">
-        <v>0.12905</v>
+        <v>8.9810000000000001E-2</v>
       </c>
       <c r="Y63" s="4">
-        <v>8.9810000000000001E-2</v>
+        <v>3.3316289999999998E-2</v>
       </c>
       <c r="Z63" s="4">
-        <v>3.3316289999999998E-2</v>
+        <v>3.7223840000000001E-2</v>
       </c>
       <c r="AA63" s="4">
-        <v>3.7223840000000001E-2</v>
+        <v>9.6353719999999997E-3</v>
       </c>
       <c r="AB63" s="4">
-        <v>9.6353719999999997E-3</v>
+        <v>1.4417792E-2</v>
       </c>
       <c r="AC63" s="4">
-        <v>1.4417792E-2</v>
+        <v>3.4681629999999998E-2</v>
       </c>
       <c r="AD63" s="4">
-        <v>3.4681629999999998E-2</v>
+        <v>3.9918500000000003E-2</v>
       </c>
       <c r="AE63" s="4">
-        <v>3.9918500000000003E-2</v>
+        <v>9.2645569999999999</v>
       </c>
       <c r="AF63" s="4">
-        <v>9.2645569999999999</v>
+        <v>21.761679999999998</v>
       </c>
       <c r="AG63" s="4">
-        <v>21.761679999999998</v>
+        <v>3.58</v>
       </c>
       <c r="AH63" s="4">
-        <v>3.58</v>
+        <v>11.01</v>
       </c>
       <c r="AI63" s="4">
-        <v>11.01</v>
+        <v>1.3479589999999999</v>
       </c>
       <c r="AJ63" s="4">
-        <v>1.3479589999999999</v>
+        <v>0.66961470000000001</v>
       </c>
       <c r="AK63" s="4">
-        <v>0.66961470000000001</v>
-      </c>
-      <c r="AL63" s="4">
         <v>0.69591559999999997</v>
       </c>
+      <c r="AL63" s="2">
+        <v>6.7783199999999999</v>
+      </c>
       <c r="AM63" s="2">
-        <v>6.7783199999999999</v>
+        <v>3.0925471999999998</v>
       </c>
       <c r="AN63" s="2">
-        <v>3.0925471999999998</v>
+        <v>9.8297980000000003</v>
       </c>
       <c r="AO63" s="2">
-        <v>9.8297980000000003</v>
-      </c>
-      <c r="AP63" s="2">
         <v>3.9772378000000002</v>
       </c>
     </row>
-    <row r="64" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -8735,85 +8542,82 @@
         <v>0.73664410000000002</v>
       </c>
       <c r="Q64" s="4">
-        <v>6.1339299999999999E-2</v>
+        <v>38.794879999999999</v>
       </c>
       <c r="R64" s="4">
-        <v>38.794879999999999</v>
+        <v>20.962</v>
       </c>
       <c r="S64" s="4">
-        <v>20.962</v>
+        <v>0.17047000000000001</v>
       </c>
       <c r="T64" s="4">
-        <v>0.17047000000000001</v>
+        <v>0.13045000000000001</v>
       </c>
       <c r="U64" s="4">
-        <v>0.13045000000000001</v>
+        <v>2.2550000000000001E-2</v>
       </c>
       <c r="V64" s="4">
-        <v>2.2550000000000001E-2</v>
+        <v>3.8109999999999998E-2</v>
       </c>
       <c r="W64" s="4">
-        <v>3.8109999999999998E-2</v>
+        <v>0.17194999999999999</v>
       </c>
       <c r="X64" s="4">
-        <v>0.17194999999999999</v>
+        <v>0.13589999999999999</v>
       </c>
       <c r="Y64" s="4">
-        <v>0.13589999999999999</v>
+        <v>4.682762E-2</v>
       </c>
       <c r="Z64" s="4">
-        <v>4.682762E-2</v>
+        <v>4.1674490000000002E-2</v>
       </c>
       <c r="AA64" s="4">
-        <v>4.1674490000000002E-2</v>
+        <v>1.257671E-2</v>
       </c>
       <c r="AB64" s="4">
-        <v>1.257671E-2</v>
+        <v>1.5517233E-2</v>
       </c>
       <c r="AC64" s="4">
-        <v>1.5517233E-2</v>
+        <v>4.8487106000000002E-2</v>
       </c>
       <c r="AD64" s="4">
-        <v>4.8487106000000002E-2</v>
+        <v>4.4469630000000003E-2</v>
       </c>
       <c r="AE64" s="4">
-        <v>4.4469630000000003E-2</v>
+        <v>7.3894070000000003</v>
       </c>
       <c r="AF64" s="4">
-        <v>7.3894070000000003</v>
+        <v>21.36055</v>
       </c>
       <c r="AG64" s="4">
-        <v>21.36055</v>
+        <v>2.63</v>
       </c>
       <c r="AH64" s="4">
-        <v>2.63</v>
+        <v>8.06</v>
       </c>
       <c r="AI64" s="4">
-        <v>8.06</v>
+        <v>1.690032</v>
       </c>
       <c r="AJ64" s="4">
-        <v>1.690032</v>
+        <v>0.76523669999999999</v>
       </c>
       <c r="AK64" s="4">
-        <v>0.76523669999999999</v>
-      </c>
-      <c r="AL64" s="4">
         <v>0.79033549999999997</v>
       </c>
+      <c r="AL64" s="2">
+        <v>8.787941</v>
+      </c>
       <c r="AM64" s="2">
-        <v>8.787941</v>
+        <v>4.0324532</v>
       </c>
       <c r="AN64" s="2">
-        <v>4.0324532</v>
+        <v>10.790411000000001</v>
       </c>
       <c r="AO64" s="2">
-        <v>10.790411000000001</v>
-      </c>
-      <c r="AP64" s="2">
         <v>3.9926072000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -8863,85 +8667,82 @@
         <v>1.3802000999999999</v>
       </c>
       <c r="Q65" s="4">
-        <v>9.6281699999999998E-2</v>
+        <v>52.844999999999999</v>
       </c>
       <c r="R65" s="4">
-        <v>52.844999999999999</v>
+        <v>20.300999999999998</v>
       </c>
       <c r="S65" s="4">
-        <v>20.300999999999998</v>
+        <v>0.21851999999999999</v>
       </c>
       <c r="T65" s="4">
-        <v>0.21851999999999999</v>
+        <v>0.17221</v>
       </c>
       <c r="U65" s="4">
-        <v>0.17221</v>
+        <v>2.6679999999999999E-2</v>
       </c>
       <c r="V65" s="4">
-        <v>2.6679999999999999E-2</v>
+        <v>3.6429999999999997E-2</v>
       </c>
       <c r="W65" s="4">
-        <v>3.6429999999999997E-2</v>
+        <v>0.22015000000000001</v>
       </c>
       <c r="X65" s="4">
-        <v>0.22015000000000001</v>
+        <v>0.17602000000000001</v>
       </c>
       <c r="Y65" s="4">
-        <v>0.17602000000000001</v>
+        <v>7.7465069999999997E-2</v>
       </c>
       <c r="Z65" s="4">
-        <v>7.7465069999999997E-2</v>
+        <v>5.8491700000000001E-2</v>
       </c>
       <c r="AA65" s="4">
-        <v>5.8491700000000001E-2</v>
+        <v>1.3587612000000001E-2</v>
       </c>
       <c r="AB65" s="4">
-        <v>1.3587612000000001E-2</v>
+        <v>2.3010367E-2</v>
       </c>
       <c r="AC65" s="4">
-        <v>2.3010367E-2</v>
+        <v>7.8647696000000003E-2</v>
       </c>
       <c r="AD65" s="4">
-        <v>7.8647696000000003E-2</v>
+        <v>6.2855040000000001E-2</v>
       </c>
       <c r="AE65" s="4">
-        <v>6.2855040000000001E-2</v>
+        <v>7.1391689999999999</v>
       </c>
       <c r="AF65" s="4">
-        <v>7.1391689999999999</v>
+        <v>15.445790000000001</v>
       </c>
       <c r="AG65" s="4">
-        <v>15.445790000000001</v>
+        <v>3.41</v>
       </c>
       <c r="AH65" s="4">
-        <v>3.41</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="AI65" s="4">
-        <v>9.8800000000000008</v>
+        <v>1.365551</v>
       </c>
       <c r="AJ65" s="4">
-        <v>1.365551</v>
+        <v>0.78806710000000002</v>
       </c>
       <c r="AK65" s="4">
-        <v>0.78806710000000002</v>
-      </c>
-      <c r="AL65" s="4">
         <v>0.79957290000000003</v>
       </c>
+      <c r="AL65" s="2">
+        <v>8.7531289999999995</v>
+      </c>
       <c r="AM65" s="2">
-        <v>8.7531289999999995</v>
+        <v>3.9018432000000001</v>
       </c>
       <c r="AN65" s="2">
-        <v>3.9018432000000001</v>
+        <v>14.568123</v>
       </c>
       <c r="AO65" s="2">
-        <v>14.568123</v>
-      </c>
-      <c r="AP65" s="2">
         <v>9.6873892999999995</v>
       </c>
     </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -8991,85 +8792,82 @@
         <v>1.4473163</v>
       </c>
       <c r="Q66" s="4">
-        <v>6.9416800000000001E-2</v>
+        <v>57.336790000000001</v>
       </c>
       <c r="R66" s="4">
-        <v>57.336790000000001</v>
+        <v>17.297000000000001</v>
       </c>
       <c r="S66" s="4">
-        <v>17.297000000000001</v>
+        <v>0.19833000000000001</v>
       </c>
       <c r="T66" s="4">
-        <v>0.19833000000000001</v>
+        <v>0.14365</v>
       </c>
       <c r="U66" s="4">
-        <v>0.14365</v>
+        <v>2.3390000000000001E-2</v>
       </c>
       <c r="V66" s="4">
-        <v>2.3390000000000001E-2</v>
+        <v>3.7819999999999999E-2</v>
       </c>
       <c r="W66" s="4">
-        <v>3.7819999999999999E-2</v>
+        <v>0.19969999999999999</v>
       </c>
       <c r="X66" s="4">
-        <v>0.19969999999999999</v>
+        <v>0.14854000000000001</v>
       </c>
       <c r="Y66" s="4">
-        <v>0.14854000000000001</v>
+        <v>4.4596940000000002E-2</v>
       </c>
       <c r="Z66" s="4">
-        <v>4.4596940000000002E-2</v>
+        <v>9.8477300000000004E-2</v>
       </c>
       <c r="AA66" s="4">
-        <v>9.8477300000000004E-2</v>
+        <v>1.5437737999999999E-2</v>
       </c>
       <c r="AB66" s="4">
-        <v>1.5437737999999999E-2</v>
+        <v>1.5835663999999999E-2</v>
       </c>
       <c r="AC66" s="4">
-        <v>1.5835663999999999E-2</v>
+        <v>4.7193339000000001E-2</v>
       </c>
       <c r="AD66" s="4">
-        <v>4.7193339000000001E-2</v>
+        <v>9.9742399999999995E-2</v>
       </c>
       <c r="AE66" s="4">
-        <v>9.9742399999999995E-2</v>
+        <v>6.8690360000000004</v>
       </c>
       <c r="AF66" s="4">
-        <v>6.8690360000000004</v>
+        <v>17.617899999999999</v>
       </c>
       <c r="AG66" s="4">
-        <v>17.617899999999999</v>
+        <v>3.73</v>
       </c>
       <c r="AH66" s="4">
-        <v>3.73</v>
+        <v>7.08</v>
       </c>
       <c r="AI66" s="4">
-        <v>7.08</v>
+        <v>1.6167100000000001</v>
       </c>
       <c r="AJ66" s="4">
-        <v>1.6167100000000001</v>
+        <v>0.72429169999999998</v>
       </c>
       <c r="AK66" s="4">
-        <v>0.72429169999999998</v>
-      </c>
-      <c r="AL66" s="4">
         <v>0.74381949999999997</v>
       </c>
+      <c r="AL66" s="2">
+        <v>9.7502239999999993</v>
+      </c>
       <c r="AM66" s="2">
-        <v>9.7502239999999993</v>
+        <v>6.1758613999999996</v>
       </c>
       <c r="AN66" s="2">
-        <v>6.1758613999999996</v>
+        <v>15.375387999999999</v>
       </c>
       <c r="AO66" s="2">
-        <v>15.375387999999999</v>
-      </c>
-      <c r="AP66" s="2">
         <v>6.5108481999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -9119,85 +8917,82 @@
         <v>0.98524040000000002</v>
       </c>
       <c r="Q67" s="4">
-        <v>8.0898800000000007E-2</v>
+        <v>44.767769999999999</v>
       </c>
       <c r="R67" s="4">
-        <v>44.767769999999999</v>
+        <v>7.39</v>
       </c>
       <c r="S67" s="4">
-        <v>7.39</v>
+        <v>0.19131999999999999</v>
       </c>
       <c r="T67" s="4">
-        <v>0.19131999999999999</v>
+        <v>0.14974000000000001</v>
       </c>
       <c r="U67" s="4">
-        <v>0.14974000000000001</v>
+        <v>2.5420000000000002E-2</v>
       </c>
       <c r="V67" s="4">
-        <v>2.5420000000000002E-2</v>
+        <v>3.7220000000000003E-2</v>
       </c>
       <c r="W67" s="4">
-        <v>3.7220000000000003E-2</v>
+        <v>0.19300999999999999</v>
       </c>
       <c r="X67" s="4">
-        <v>0.19300999999999999</v>
+        <v>0.15429000000000001</v>
       </c>
       <c r="Y67" s="4">
-        <v>0.15429000000000001</v>
+        <v>5.9322390000000003E-2</v>
       </c>
       <c r="Z67" s="4">
-        <v>5.9322390000000003E-2</v>
+        <v>5.073867E-2</v>
       </c>
       <c r="AA67" s="4">
-        <v>5.073867E-2</v>
+        <v>1.7517347999999999E-2</v>
       </c>
       <c r="AB67" s="4">
-        <v>1.7517347999999999E-2</v>
+        <v>2.9993333E-2</v>
       </c>
       <c r="AC67" s="4">
-        <v>2.9993333E-2</v>
+        <v>6.1854693000000002E-2</v>
       </c>
       <c r="AD67" s="4">
-        <v>6.1854693000000002E-2</v>
+        <v>5.894075E-2</v>
       </c>
       <c r="AE67" s="4">
-        <v>5.894075E-2</v>
+        <v>8.1699289999999998</v>
       </c>
       <c r="AF67" s="4">
-        <v>8.1699289999999998</v>
+        <v>16.830100000000002</v>
       </c>
       <c r="AG67" s="4">
-        <v>16.830100000000002</v>
+        <v>5.29</v>
       </c>
       <c r="AH67" s="4">
-        <v>5.29</v>
+        <v>10.38</v>
       </c>
       <c r="AI67" s="4">
-        <v>10.38</v>
+        <v>1.463978</v>
       </c>
       <c r="AJ67" s="4">
-        <v>1.463978</v>
+        <v>0.78262449999999995</v>
       </c>
       <c r="AK67" s="4">
-        <v>0.78262449999999995</v>
-      </c>
-      <c r="AL67" s="4">
         <v>0.79940999999999995</v>
       </c>
+      <c r="AL67" s="2">
+        <v>9.3430549999999997</v>
+      </c>
       <c r="AM67" s="2">
-        <v>9.3430549999999997</v>
+        <v>5.5589212000000003</v>
       </c>
       <c r="AN67" s="2">
-        <v>5.5589212000000003</v>
+        <v>13.680173999999999</v>
       </c>
       <c r="AO67" s="2">
-        <v>13.680173999999999</v>
-      </c>
-      <c r="AP67" s="2">
         <v>13.9574277</v>
       </c>
     </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -9247,85 +9042,82 @@
         <v>1.4539461</v>
       </c>
       <c r="Q68" s="4">
-        <v>5.2493900000000003E-2</v>
+        <v>8.574363</v>
       </c>
       <c r="R68" s="4">
-        <v>8.574363</v>
+        <v>12.7</v>
       </c>
       <c r="S68" s="4">
-        <v>12.7</v>
+        <v>0.12767000000000001</v>
       </c>
       <c r="T68" s="4">
-        <v>0.12767000000000001</v>
+        <v>9.8229999999999998E-2</v>
       </c>
       <c r="U68" s="4">
-        <v>9.8229999999999998E-2</v>
+        <v>2.4559999999999998E-2</v>
       </c>
       <c r="V68" s="4">
-        <v>2.4559999999999998E-2</v>
+        <v>3.977E-2</v>
       </c>
       <c r="W68" s="4">
-        <v>3.977E-2</v>
+        <v>0.13000999999999999</v>
       </c>
       <c r="X68" s="4">
-        <v>0.13000999999999999</v>
+        <v>0.10598</v>
       </c>
       <c r="Y68" s="4">
-        <v>0.10598</v>
+        <v>3.5471919999999997E-2</v>
       </c>
       <c r="Z68" s="4">
-        <v>3.5471919999999997E-2</v>
+        <v>5.3824749999999998E-2</v>
       </c>
       <c r="AA68" s="4">
-        <v>5.3824749999999998E-2</v>
+        <v>2.0690216000000001E-2</v>
       </c>
       <c r="AB68" s="4">
-        <v>2.0690216000000001E-2</v>
+        <v>2.0233307999999998E-2</v>
       </c>
       <c r="AC68" s="4">
-        <v>2.0233307999999998E-2</v>
+        <v>4.1065098000000001E-2</v>
       </c>
       <c r="AD68" s="4">
-        <v>4.1065098000000001E-2</v>
+        <v>5.75021E-2</v>
       </c>
       <c r="AE68" s="4">
-        <v>5.75021E-2</v>
+        <v>9.5296109999999992</v>
       </c>
       <c r="AF68" s="4">
-        <v>9.5296109999999992</v>
+        <v>25.49587</v>
       </c>
       <c r="AG68" s="4">
-        <v>25.49587</v>
+        <v>5.7</v>
       </c>
       <c r="AH68" s="4">
-        <v>5.7</v>
+        <v>20.64</v>
       </c>
       <c r="AI68" s="4">
-        <v>20.64</v>
+        <v>1.619388</v>
       </c>
       <c r="AJ68" s="4">
-        <v>1.619388</v>
+        <v>0.76944109999999999</v>
       </c>
       <c r="AK68" s="4">
-        <v>0.76944109999999999</v>
-      </c>
-      <c r="AL68" s="4">
         <v>0.81517269999999997</v>
       </c>
+      <c r="AL68" s="2">
+        <v>4.0645290000000003</v>
+      </c>
       <c r="AM68" s="2">
-        <v>4.0645290000000003</v>
+        <v>1.2161645999999999</v>
       </c>
       <c r="AN68" s="2">
-        <v>1.2161645999999999</v>
+        <v>6.4536740000000004</v>
       </c>
       <c r="AO68" s="2">
-        <v>6.4536740000000004</v>
-      </c>
-      <c r="AP68" s="2">
         <v>1.7771840000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -9375,85 +9167,82 @@
         <v>0.86369280000000004</v>
       </c>
       <c r="Q69" s="4">
-        <v>4.8777899999999999E-2</v>
+        <v>15.99883</v>
       </c>
       <c r="R69" s="4">
-        <v>15.99883</v>
+        <v>20.89</v>
       </c>
       <c r="S69" s="4">
-        <v>20.89</v>
+        <v>0.16339000000000001</v>
       </c>
       <c r="T69" s="4">
-        <v>0.16339000000000001</v>
+        <v>0.12512999999999999</v>
       </c>
       <c r="U69" s="4">
-        <v>0.12512999999999999</v>
+        <v>2.3040000000000001E-2</v>
       </c>
       <c r="V69" s="4">
-        <v>2.3040000000000001E-2</v>
+        <v>3.0290000000000001E-2</v>
       </c>
       <c r="W69" s="4">
-        <v>3.0290000000000001E-2</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="X69" s="4">
-        <v>0.16500000000000001</v>
+        <v>0.12873999999999999</v>
       </c>
       <c r="Y69" s="4">
-        <v>0.12873999999999999</v>
+        <v>6.1265010000000002E-2</v>
       </c>
       <c r="Z69" s="4">
-        <v>6.1265010000000002E-2</v>
+        <v>7.1069010000000002E-2</v>
       </c>
       <c r="AA69" s="4">
-        <v>7.1069010000000002E-2</v>
+        <v>1.1564789000000001E-2</v>
       </c>
       <c r="AB69" s="4">
-        <v>1.1564789000000001E-2</v>
+        <v>1.6788041E-2</v>
       </c>
       <c r="AC69" s="4">
-        <v>1.6788041E-2</v>
+        <v>6.2346983000000002E-2</v>
       </c>
       <c r="AD69" s="4">
-        <v>6.2346983000000002E-2</v>
+        <v>7.3024950000000005E-2</v>
       </c>
       <c r="AE69" s="4">
-        <v>7.3024950000000005E-2</v>
+        <v>7.9908219999999996</v>
       </c>
       <c r="AF69" s="4">
-        <v>7.9908219999999996</v>
+        <v>18.118960000000001</v>
       </c>
       <c r="AG69" s="4">
-        <v>18.118960000000001</v>
+        <v>3.12</v>
       </c>
       <c r="AH69" s="4">
-        <v>3.12</v>
+        <v>11.9</v>
       </c>
       <c r="AI69" s="4">
-        <v>11.9</v>
+        <v>1.3148249999999999</v>
       </c>
       <c r="AJ69" s="4">
-        <v>1.3148249999999999</v>
+        <v>0.76583659999999998</v>
       </c>
       <c r="AK69" s="4">
-        <v>0.76583659999999998</v>
-      </c>
-      <c r="AL69" s="4">
         <v>0.78023609999999999</v>
       </c>
+      <c r="AL69" s="2">
+        <v>3.6461229999999998</v>
+      </c>
       <c r="AM69" s="2">
-        <v>3.6461229999999998</v>
+        <v>2.2858185999999998</v>
       </c>
       <c r="AN69" s="2">
-        <v>2.2858185999999998</v>
+        <v>5.5754770000000002</v>
       </c>
       <c r="AO69" s="2">
-        <v>5.5754770000000002</v>
-      </c>
-      <c r="AP69" s="2">
         <v>1.7097732000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -9503,85 +9292,82 @@
         <v>0.87229279999999998</v>
       </c>
       <c r="Q70" s="4">
-        <v>4.77893E-2</v>
+        <v>21.437594000000001</v>
       </c>
       <c r="R70" s="4">
-        <v>21.437594000000001</v>
+        <v>14.46</v>
       </c>
       <c r="S70" s="4">
-        <v>14.46</v>
+        <v>0.16453000000000001</v>
       </c>
       <c r="T70" s="4">
-        <v>0.16453000000000001</v>
+        <v>0.11001</v>
       </c>
       <c r="U70" s="4">
-        <v>0.11001</v>
+        <v>2.1989999999999999E-2</v>
       </c>
       <c r="V70" s="4">
-        <v>2.1989999999999999E-2</v>
+        <v>3.916E-2</v>
       </c>
       <c r="W70" s="4">
-        <v>3.916E-2</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="X70" s="4">
-        <v>0.16600000000000001</v>
+        <v>0.11677</v>
       </c>
       <c r="Y70" s="4">
-        <v>0.11677</v>
+        <v>2.9159230000000001E-2</v>
       </c>
       <c r="Z70" s="4">
-        <v>2.9159230000000001E-2</v>
+        <v>2.4553760000000001E-2</v>
       </c>
       <c r="AA70" s="4">
-        <v>2.4553760000000001E-2</v>
+        <v>9.6329329999999998E-3</v>
       </c>
       <c r="AB70" s="4">
-        <v>9.6329329999999998E-3</v>
+        <v>1.4358808000000001E-2</v>
       </c>
       <c r="AC70" s="4">
-        <v>1.4358808000000001E-2</v>
+        <v>3.0709184E-2</v>
       </c>
       <c r="AD70" s="4">
-        <v>3.0709184E-2</v>
+        <v>2.844402E-2</v>
       </c>
       <c r="AE70" s="4">
-        <v>2.844402E-2</v>
+        <v>7.8345539999999998</v>
       </c>
       <c r="AF70" s="4">
-        <v>7.8345539999999998</v>
+        <v>22.661169999999998</v>
       </c>
       <c r="AG70" s="4">
-        <v>22.661169999999998</v>
+        <v>3.13</v>
       </c>
       <c r="AH70" s="4">
-        <v>3.13</v>
+        <v>8.73</v>
       </c>
       <c r="AI70" s="4">
-        <v>8.73</v>
+        <v>1.7805850000000001</v>
       </c>
       <c r="AJ70" s="4">
-        <v>1.7805850000000001</v>
+        <v>0.66863470000000003</v>
       </c>
       <c r="AK70" s="4">
-        <v>0.66863470000000003</v>
-      </c>
-      <c r="AL70" s="4">
         <v>0.70347850000000001</v>
       </c>
+      <c r="AL70" s="2">
+        <v>4.7367090000000003</v>
+      </c>
       <c r="AM70" s="2">
-        <v>4.7367090000000003</v>
+        <v>1.7754173</v>
       </c>
       <c r="AN70" s="2">
-        <v>1.7754173</v>
+        <v>7.6328310000000004</v>
       </c>
       <c r="AO70" s="2">
-        <v>7.6328310000000004</v>
-      </c>
-      <c r="AP70" s="2">
         <v>2.9418324</v>
       </c>
     </row>
-    <row r="71" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -9631,85 +9417,82 @@
         <v>0.80612309999999998</v>
       </c>
       <c r="Q71" s="4">
-        <v>8.8342799999999999E-2</v>
+        <v>36.502429999999997</v>
       </c>
       <c r="R71" s="4">
-        <v>36.502429999999997</v>
+        <v>20</v>
       </c>
       <c r="S71" s="4">
-        <v>20</v>
+        <v>0.17221</v>
       </c>
       <c r="T71" s="4">
-        <v>0.17221</v>
+        <v>0.12472999999999999</v>
       </c>
       <c r="U71" s="4">
-        <v>0.12472999999999999</v>
+        <v>2.5729999999999999E-2</v>
       </c>
       <c r="V71" s="4">
-        <v>2.5729999999999999E-2</v>
+        <v>4.675E-2</v>
       </c>
       <c r="W71" s="4">
-        <v>4.675E-2</v>
+        <v>0.17413000000000001</v>
       </c>
       <c r="X71" s="4">
-        <v>0.17413000000000001</v>
+        <v>0.13320000000000001</v>
       </c>
       <c r="Y71" s="4">
-        <v>0.13320000000000001</v>
+        <v>2.9012570000000001E-2</v>
       </c>
       <c r="Z71" s="4">
-        <v>2.9012570000000001E-2</v>
+        <v>4.5615639999999999E-2</v>
       </c>
       <c r="AA71" s="4">
-        <v>4.5615639999999999E-2</v>
+        <v>7.2511379999999999E-3</v>
       </c>
       <c r="AB71" s="4">
-        <v>7.2511379999999999E-3</v>
+        <v>1.5261087E-2</v>
       </c>
       <c r="AC71" s="4">
-        <v>1.5261087E-2</v>
+        <v>2.9904988E-2</v>
       </c>
       <c r="AD71" s="4">
-        <v>2.9904988E-2</v>
+        <v>4.8100810000000001E-2</v>
       </c>
       <c r="AE71" s="4">
-        <v>4.8100810000000001E-2</v>
+        <v>8.4123719999999995</v>
       </c>
       <c r="AF71" s="4">
-        <v>8.4123719999999995</v>
+        <v>24.31101</v>
       </c>
       <c r="AG71" s="4">
-        <v>24.31101</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="AH71" s="4">
-        <v>2.2799999999999998</v>
+        <v>8.6199999999999992</v>
       </c>
       <c r="AI71" s="4">
-        <v>8.6199999999999992</v>
+        <v>1.816961</v>
       </c>
       <c r="AJ71" s="4">
-        <v>1.816961</v>
+        <v>0.72425689999999998</v>
       </c>
       <c r="AK71" s="4">
-        <v>0.72425689999999998</v>
-      </c>
-      <c r="AL71" s="4">
         <v>0.76497499999999996</v>
       </c>
+      <c r="AL71" s="2">
+        <v>5.3764760000000003</v>
+      </c>
       <c r="AM71" s="2">
-        <v>5.3764760000000003</v>
+        <v>2.0736781</v>
       </c>
       <c r="AN71" s="2">
-        <v>2.0736781</v>
+        <v>8.2272320000000008</v>
       </c>
       <c r="AO71" s="2">
-        <v>8.2272320000000008</v>
-      </c>
-      <c r="AP71" s="2">
         <v>3.0158504000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -9759,85 +9542,82 @@
         <v>1.2967777</v>
       </c>
       <c r="Q72" s="4">
-        <v>6.4434900000000003E-2</v>
+        <v>47.03586</v>
       </c>
       <c r="R72" s="4">
-        <v>47.03586</v>
+        <v>23.1</v>
       </c>
       <c r="S72" s="4">
-        <v>23.1</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="T72" s="4">
-        <v>0.18099999999999999</v>
+        <v>0.12475</v>
       </c>
       <c r="U72" s="4">
-        <v>0.12475</v>
+        <v>2.631E-2</v>
       </c>
       <c r="V72" s="4">
-        <v>2.631E-2</v>
+        <v>3.712E-2</v>
       </c>
       <c r="W72" s="4">
-        <v>3.712E-2</v>
+        <v>0.18290000000000001</v>
       </c>
       <c r="X72" s="4">
-        <v>0.18290000000000001</v>
+        <v>0.13014999999999999</v>
       </c>
       <c r="Y72" s="4">
-        <v>0.13014999999999999</v>
+        <v>4.9467740000000003E-2</v>
       </c>
       <c r="Z72" s="4">
-        <v>4.9467740000000003E-2</v>
+        <v>0.08</v>
       </c>
       <c r="AA72" s="4">
-        <v>0.08</v>
+        <v>1.1040882E-2</v>
       </c>
       <c r="AB72" s="4">
-        <v>1.1040882E-2</v>
+        <v>1.9864491000000001E-2</v>
       </c>
       <c r="AC72" s="4">
-        <v>1.9864491000000001E-2</v>
+        <v>5.0684896E-2</v>
       </c>
       <c r="AD72" s="4">
-        <v>5.0684896E-2</v>
+        <v>8.2429349999999998E-2</v>
       </c>
       <c r="AE72" s="4">
-        <v>8.2429349999999998E-2</v>
+        <v>8.5669419999999992</v>
       </c>
       <c r="AF72" s="4">
-        <v>8.5669419999999992</v>
+        <v>21.469899999999999</v>
       </c>
       <c r="AG72" s="4">
-        <v>21.469899999999999</v>
+        <v>3.61</v>
       </c>
       <c r="AH72" s="4">
-        <v>3.61</v>
+        <v>12.83</v>
       </c>
       <c r="AI72" s="4">
-        <v>12.83</v>
+        <v>1.4108719999999999</v>
       </c>
       <c r="AJ72" s="4">
-        <v>1.4108719999999999</v>
+        <v>0.68921619999999995</v>
       </c>
       <c r="AK72" s="4">
-        <v>0.68921619999999995</v>
-      </c>
-      <c r="AL72" s="4">
         <v>0.71160509999999999</v>
       </c>
+      <c r="AL72" s="2">
+        <v>6.2039249999999999</v>
+      </c>
       <c r="AM72" s="2">
-        <v>6.2039249999999999</v>
+        <v>2.6973072</v>
       </c>
       <c r="AN72" s="2">
-        <v>2.6973072</v>
+        <v>9.5343940000000007</v>
       </c>
       <c r="AO72" s="2">
-        <v>9.5343940000000007</v>
-      </c>
-      <c r="AP72" s="2">
         <v>4.2822110999999996</v>
       </c>
     </row>
-    <row r="73" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -9887,85 +9667,82 @@
         <v>1.1894772</v>
       </c>
       <c r="Q73" s="4">
-        <v>5.5265500000000002E-2</v>
+        <v>34.396931000000002</v>
       </c>
       <c r="R73" s="4">
-        <v>34.396931000000002</v>
+        <v>12.05447</v>
       </c>
       <c r="S73" s="4">
-        <v>12.05447</v>
+        <v>0.16331999999999999</v>
       </c>
       <c r="T73" s="4">
-        <v>0.16331999999999999</v>
+        <v>0.10475</v>
       </c>
       <c r="U73" s="4">
-        <v>0.10475</v>
+        <v>2.7289999999999998E-2</v>
       </c>
       <c r="V73" s="4">
-        <v>2.7289999999999998E-2</v>
+        <v>4.3279999999999999E-2</v>
       </c>
       <c r="W73" s="4">
-        <v>4.3279999999999999E-2</v>
+        <v>0.16558999999999999</v>
       </c>
       <c r="X73" s="4">
-        <v>0.16558999999999999</v>
+        <v>0.11334</v>
       </c>
       <c r="Y73" s="4">
-        <v>0.11334</v>
+        <v>3.3801900000000003E-2</v>
       </c>
       <c r="Z73" s="4">
-        <v>3.3801900000000003E-2</v>
+        <v>3.055865E-2</v>
       </c>
       <c r="AA73" s="4">
-        <v>3.055865E-2</v>
+        <v>1.2292724E-2</v>
       </c>
       <c r="AB73" s="4">
-        <v>1.2292724E-2</v>
+        <v>1.56124E-2</v>
       </c>
       <c r="AC73" s="4">
-        <v>1.56124E-2</v>
+        <v>3.5967757000000003E-2</v>
       </c>
       <c r="AD73" s="4">
-        <v>3.5967757000000003E-2</v>
+        <v>3.4315859999999997E-2</v>
       </c>
       <c r="AE73" s="4">
-        <v>3.4315859999999997E-2</v>
+        <v>9.0795139999999996</v>
       </c>
       <c r="AF73" s="4">
-        <v>9.0795139999999996</v>
+        <v>27.05396</v>
       </c>
       <c r="AG73" s="4">
-        <v>27.05396</v>
+        <v>3.23</v>
       </c>
       <c r="AH73" s="4">
-        <v>3.23</v>
+        <v>12.54</v>
       </c>
       <c r="AI73" s="4">
-        <v>12.54</v>
+        <v>1.5859909999999999</v>
       </c>
       <c r="AJ73" s="4">
-        <v>1.5859909999999999</v>
+        <v>0.64139380000000001</v>
       </c>
       <c r="AK73" s="4">
-        <v>0.64139380000000001</v>
-      </c>
-      <c r="AL73" s="4">
         <v>0.68449780000000005</v>
       </c>
+      <c r="AL73" s="2">
+        <v>4.860271</v>
+      </c>
       <c r="AM73" s="2">
-        <v>4.860271</v>
+        <v>2.4782974000000002</v>
       </c>
       <c r="AN73" s="2">
-        <v>2.4782974000000002</v>
+        <v>8.0659849999999995</v>
       </c>
       <c r="AO73" s="2">
-        <v>8.0659849999999995</v>
-      </c>
-      <c r="AP73" s="2">
         <v>4.6411332999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -10015,85 +9792,82 @@
         <v>1.4980439000000001</v>
       </c>
       <c r="Q74" s="4">
-        <v>5.0885300000000001E-2</v>
+        <v>6.989706</v>
       </c>
       <c r="R74" s="4">
-        <v>6.989706</v>
+        <v>14.750591</v>
       </c>
       <c r="S74" s="4">
-        <v>14.750591</v>
+        <v>0.14119000000000001</v>
       </c>
       <c r="T74" s="4">
-        <v>0.14119000000000001</v>
+        <v>0.10725999999999999</v>
       </c>
       <c r="U74" s="4">
-        <v>0.10725999999999999</v>
+        <v>2.5749999999999999E-2</v>
       </c>
       <c r="V74" s="4">
-        <v>2.5749999999999999E-2</v>
+        <v>3.3500000000000002E-2</v>
       </c>
       <c r="W74" s="4">
-        <v>3.3500000000000002E-2</v>
+        <v>0.14352000000000001</v>
       </c>
       <c r="X74" s="4">
-        <v>0.14352000000000001</v>
+        <v>0.11237</v>
       </c>
       <c r="Y74" s="4">
-        <v>0.11237</v>
+        <v>3.4455680000000002E-2</v>
       </c>
       <c r="Z74" s="4">
-        <v>3.4455680000000002E-2</v>
+        <v>7.9419770000000001E-2</v>
       </c>
       <c r="AA74" s="4">
-        <v>7.9419770000000001E-2</v>
+        <v>1.2583393999999999E-2</v>
       </c>
       <c r="AB74" s="4">
-        <v>1.2583393999999999E-2</v>
+        <v>2.0017942E-2</v>
       </c>
       <c r="AC74" s="4">
-        <v>2.0017942E-2</v>
+        <v>3.6681545000000003E-2</v>
       </c>
       <c r="AD74" s="4">
-        <v>3.6681545000000003E-2</v>
+        <v>8.1903710000000005E-2</v>
       </c>
       <c r="AE74" s="4">
-        <v>8.1903710000000005E-2</v>
+        <v>10.304952</v>
       </c>
       <c r="AF74" s="4">
-        <v>10.304952</v>
+        <v>19.68844</v>
       </c>
       <c r="AG74" s="4">
-        <v>19.68844</v>
+        <v>4.26</v>
       </c>
       <c r="AH74" s="4">
-        <v>4.26</v>
+        <v>12.76</v>
       </c>
       <c r="AI74" s="4">
-        <v>12.76</v>
+        <v>1.30104</v>
       </c>
       <c r="AJ74" s="4">
-        <v>1.30104</v>
+        <v>0.75967229999999997</v>
       </c>
       <c r="AK74" s="4">
-        <v>0.75967229999999997</v>
-      </c>
-      <c r="AL74" s="4">
         <v>0.78294750000000002</v>
       </c>
+      <c r="AL74" s="2">
+        <v>3.1304690000000002</v>
+      </c>
       <c r="AM74" s="2">
-        <v>3.1304690000000002</v>
+        <v>1.3900404</v>
       </c>
       <c r="AN74" s="2">
-        <v>1.3900404</v>
+        <v>4.4696049999999996</v>
       </c>
       <c r="AO74" s="2">
-        <v>4.4696049999999996</v>
-      </c>
-      <c r="AP74" s="2">
         <v>1.0977201999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -10143,85 +9917,82 @@
         <v>0.88945870000000005</v>
       </c>
       <c r="Q75" s="4">
-        <v>0.1192631</v>
+        <v>7.5161990000000003</v>
       </c>
       <c r="R75" s="4">
-        <v>7.5161990000000003</v>
+        <v>21.942430000000002</v>
       </c>
       <c r="S75" s="4">
-        <v>21.942430000000002</v>
+        <v>0.11229</v>
       </c>
       <c r="T75" s="4">
-        <v>0.11229</v>
+        <v>8.3979999999999999E-2</v>
       </c>
       <c r="U75" s="4">
-        <v>8.3979999999999999E-2</v>
+        <v>2.1149999999999999E-2</v>
       </c>
       <c r="V75" s="4">
-        <v>2.1149999999999999E-2</v>
+        <v>2.7439999999999999E-2</v>
       </c>
       <c r="W75" s="4">
-        <v>2.7439999999999999E-2</v>
+        <v>0.11427</v>
       </c>
       <c r="X75" s="4">
-        <v>0.11427</v>
+        <v>8.8349999999999998E-2</v>
       </c>
       <c r="Y75" s="4">
-        <v>8.8349999999999998E-2</v>
+        <v>3.9904210000000002E-2</v>
       </c>
       <c r="Z75" s="4">
-        <v>3.9904210000000002E-2</v>
+        <v>5.9696640000000002E-2</v>
       </c>
       <c r="AA75" s="4">
-        <v>5.9696640000000002E-2</v>
+        <v>1.5804164999999998E-2</v>
       </c>
       <c r="AB75" s="4">
-        <v>1.5804164999999998E-2</v>
+        <v>1.7444113000000001E-2</v>
       </c>
       <c r="AC75" s="4">
-        <v>1.7444113000000001E-2</v>
+        <v>4.2919899999999997E-2</v>
       </c>
       <c r="AD75" s="4">
-        <v>4.2919899999999997E-2</v>
+        <v>6.2193129999999999E-2</v>
       </c>
       <c r="AE75" s="4">
-        <v>6.2193129999999999E-2</v>
+        <v>14.277310999999999</v>
       </c>
       <c r="AF75" s="4">
-        <v>14.277310999999999</v>
+        <v>21.856909999999999</v>
       </c>
       <c r="AG75" s="4">
-        <v>21.856909999999999</v>
+        <v>10.41</v>
       </c>
       <c r="AH75" s="4">
-        <v>10.41</v>
+        <v>13.88</v>
       </c>
       <c r="AI75" s="4">
-        <v>13.88</v>
+        <v>1.2972859999999999</v>
       </c>
       <c r="AJ75" s="4">
-        <v>1.2972859999999999</v>
+        <v>0.74784550000000005</v>
       </c>
       <c r="AK75" s="4">
-        <v>0.74784550000000005</v>
-      </c>
-      <c r="AL75" s="4">
         <v>0.77316229999999997</v>
       </c>
+      <c r="AL75" s="2">
+        <v>2.7270430000000001</v>
+      </c>
       <c r="AM75" s="2">
-        <v>2.7270430000000001</v>
+        <v>0.3496456</v>
       </c>
       <c r="AN75" s="2">
-        <v>0.3496456</v>
+        <v>4.4601829999999998</v>
       </c>
       <c r="AO75" s="2">
-        <v>4.4601829999999998</v>
-      </c>
-      <c r="AP75" s="2">
         <v>0.82681570000000004</v>
       </c>
     </row>
-    <row r="76" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -10271,85 +10042,82 @@
         <v>0.82863690000000001</v>
       </c>
       <c r="Q76" s="4">
-        <v>6.8441600000000005E-2</v>
+        <v>20.02336</v>
       </c>
       <c r="R76" s="4">
-        <v>20.02336</v>
+        <v>30.077911</v>
       </c>
       <c r="S76" s="4">
-        <v>30.077911</v>
+        <v>0.16156000000000001</v>
       </c>
       <c r="T76" s="4">
-        <v>0.16156000000000001</v>
+        <v>0.11891</v>
       </c>
       <c r="U76" s="4">
-        <v>0.11891</v>
+        <v>3.1890000000000002E-2</v>
       </c>
       <c r="V76" s="4">
-        <v>3.1890000000000002E-2</v>
+        <v>4.3970000000000002E-2</v>
       </c>
       <c r="W76" s="4">
-        <v>4.3970000000000002E-2</v>
+        <v>0.16467000000000001</v>
       </c>
       <c r="X76" s="4">
-        <v>0.16467000000000001</v>
+        <v>0.12678</v>
       </c>
       <c r="Y76" s="4">
-        <v>0.12678</v>
+        <v>3.4963510000000003E-2</v>
       </c>
       <c r="Z76" s="4">
-        <v>3.4963510000000003E-2</v>
+        <v>2.8731940000000001E-2</v>
       </c>
       <c r="AA76" s="4">
-        <v>2.8731940000000001E-2</v>
+        <v>1.8619592000000001E-2</v>
       </c>
       <c r="AB76" s="4">
-        <v>1.8619592000000001E-2</v>
+        <v>1.5779985999999999E-2</v>
       </c>
       <c r="AC76" s="4">
-        <v>1.5779985999999999E-2</v>
+        <v>3.9612323999999997E-2</v>
       </c>
       <c r="AD76" s="4">
-        <v>3.9612323999999997E-2</v>
+        <v>3.278006E-2</v>
       </c>
       <c r="AE76" s="4">
-        <v>3.278006E-2</v>
+        <v>10.571814</v>
       </c>
       <c r="AF76" s="4">
-        <v>10.571814</v>
+        <v>24.28847</v>
       </c>
       <c r="AG76" s="4">
-        <v>24.28847</v>
+        <v>4.91</v>
       </c>
       <c r="AH76" s="4">
-        <v>4.91</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="AI76" s="4">
-        <v>9.1999999999999993</v>
+        <v>1.3784449999999999</v>
       </c>
       <c r="AJ76" s="4">
-        <v>1.3784449999999999</v>
+        <v>0.73602849999999997</v>
       </c>
       <c r="AK76" s="4">
-        <v>0.73602849999999997</v>
-      </c>
-      <c r="AL76" s="4">
         <v>0.76986770000000004</v>
       </c>
+      <c r="AL76" s="2">
+        <v>4.3894080000000004</v>
+      </c>
       <c r="AM76" s="2">
-        <v>4.3894080000000004</v>
+        <v>1.7634403000000001</v>
       </c>
       <c r="AN76" s="2">
-        <v>1.7634403000000001</v>
+        <v>6.4359460000000004</v>
       </c>
       <c r="AO76" s="2">
-        <v>6.4359460000000004</v>
-      </c>
-      <c r="AP76" s="2">
         <v>2.2059049000000002</v>
       </c>
     </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -10399,85 +10167,82 @@
         <v>1.2397193</v>
       </c>
       <c r="Q77" s="4">
-        <v>4.7786000000000002E-2</v>
+        <v>28.354849999999999</v>
       </c>
       <c r="R77" s="4">
-        <v>28.354849999999999</v>
+        <v>18.309038999999999</v>
       </c>
       <c r="S77" s="4">
-        <v>18.309038999999999</v>
+        <v>0.15866</v>
       </c>
       <c r="T77" s="4">
-        <v>0.15866</v>
+        <v>0.11607000000000001</v>
       </c>
       <c r="U77" s="4">
-        <v>0.11607000000000001</v>
+        <v>2.639E-2</v>
       </c>
       <c r="V77" s="4">
-        <v>2.639E-2</v>
+        <v>4.965E-2</v>
       </c>
       <c r="W77" s="4">
-        <v>4.965E-2</v>
+        <v>0.16084000000000001</v>
       </c>
       <c r="X77" s="4">
-        <v>0.16084000000000001</v>
+        <v>0.12623999999999999</v>
       </c>
       <c r="Y77" s="4">
-        <v>0.12623999999999999</v>
+        <v>3.4937940000000001E-2</v>
       </c>
       <c r="Z77" s="4">
-        <v>3.4937940000000001E-2</v>
+        <v>5.0350039999999999E-2</v>
       </c>
       <c r="AA77" s="4">
-        <v>5.0350039999999999E-2</v>
+        <v>9.9004939999999993E-3</v>
       </c>
       <c r="AB77" s="4">
-        <v>9.9004939999999993E-3</v>
+        <v>2.1159632000000001E-2</v>
       </c>
       <c r="AC77" s="4">
-        <v>2.1159632000000001E-2</v>
+        <v>3.6313626000000002E-2</v>
       </c>
       <c r="AD77" s="4">
-        <v>3.6313626000000002E-2</v>
+        <v>5.4615530000000002E-2</v>
       </c>
       <c r="AE77" s="4">
-        <v>5.4615530000000002E-2</v>
+        <v>10.411922000000001</v>
       </c>
       <c r="AF77" s="4">
-        <v>10.411922000000001</v>
+        <v>25.34479</v>
       </c>
       <c r="AG77" s="4">
-        <v>25.34479</v>
+        <v>3.79</v>
       </c>
       <c r="AH77" s="4">
-        <v>3.79</v>
+        <v>10.98</v>
       </c>
       <c r="AI77" s="4">
-        <v>10.98</v>
+        <v>1.881273</v>
       </c>
       <c r="AJ77" s="4">
-        <v>1.881273</v>
+        <v>0.731549</v>
       </c>
       <c r="AK77" s="4">
-        <v>0.731549</v>
-      </c>
-      <c r="AL77" s="4">
         <v>0.78487899999999999</v>
       </c>
+      <c r="AL77" s="2">
+        <v>4.4179240000000002</v>
+      </c>
       <c r="AM77" s="2">
-        <v>4.4179240000000002</v>
+        <v>2.8462938000000002</v>
       </c>
       <c r="AN77" s="2">
-        <v>2.8462938000000002</v>
+        <v>6.5285580000000003</v>
       </c>
       <c r="AO77" s="2">
-        <v>6.5285580000000003</v>
-      </c>
-      <c r="AP77" s="2">
         <v>2.0167622000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -10527,85 +10292,82 @@
         <v>1.2356642</v>
       </c>
       <c r="Q78" s="4">
-        <v>6.6584000000000004E-2</v>
+        <v>37.726680000000002</v>
       </c>
       <c r="R78" s="4">
-        <v>37.726680000000002</v>
+        <v>28.59394</v>
       </c>
       <c r="S78" s="4">
-        <v>28.59394</v>
+        <v>0.18442</v>
       </c>
       <c r="T78" s="4">
-        <v>0.18442</v>
+        <v>0.12347</v>
       </c>
       <c r="U78" s="4">
-        <v>0.12347</v>
+        <v>3.6310000000000002E-2</v>
       </c>
       <c r="V78" s="4">
-        <v>3.6310000000000002E-2</v>
+        <v>4.8689999999999997E-2</v>
       </c>
       <c r="W78" s="4">
-        <v>4.8689999999999997E-2</v>
+        <v>0.18795999999999999</v>
       </c>
       <c r="X78" s="4">
-        <v>0.18795999999999999</v>
+        <v>0.13272999999999999</v>
       </c>
       <c r="Y78" s="4">
-        <v>0.13272999999999999</v>
+        <v>6.0957560000000001E-2</v>
       </c>
       <c r="Z78" s="4">
-        <v>6.0957560000000001E-2</v>
+        <v>6.7043909999999998E-2</v>
       </c>
       <c r="AA78" s="4">
-        <v>6.7043909999999998E-2</v>
+        <v>1.3656322E-2</v>
       </c>
       <c r="AB78" s="4">
-        <v>1.3656322E-2</v>
+        <v>1.2027024000000001E-2</v>
       </c>
       <c r="AC78" s="4">
-        <v>1.2027024000000001E-2</v>
+        <v>6.2468548999999998E-2</v>
       </c>
       <c r="AD78" s="4">
-        <v>6.2468548999999998E-2</v>
+        <v>6.8114140000000004E-2</v>
       </c>
       <c r="AE78" s="4">
-        <v>6.8114140000000004E-2</v>
+        <v>11.012456</v>
       </c>
       <c r="AF78" s="4">
-        <v>11.012456</v>
+        <v>26.631049999999998</v>
       </c>
       <c r="AG78" s="4">
-        <v>26.631049999999998</v>
+        <v>2.98</v>
       </c>
       <c r="AH78" s="4">
-        <v>2.98</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="AI78" s="4">
-        <v>9.3000000000000007</v>
+        <v>1.341008</v>
       </c>
       <c r="AJ78" s="4">
-        <v>1.341008</v>
+        <v>0.6695411</v>
       </c>
       <c r="AK78" s="4">
-        <v>0.6695411</v>
-      </c>
-      <c r="AL78" s="4">
         <v>0.70615879999999998</v>
       </c>
+      <c r="AL78" s="2">
+        <v>5.8534899999999999</v>
+      </c>
       <c r="AM78" s="2">
-        <v>5.8534899999999999</v>
+        <v>5.2554948000000001</v>
       </c>
       <c r="AN78" s="2">
-        <v>5.2554948000000001</v>
+        <v>7.7931660000000003</v>
       </c>
       <c r="AO78" s="2">
-        <v>7.7931660000000003</v>
-      </c>
-      <c r="AP78" s="2">
         <v>2.6564534000000002</v>
       </c>
     </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -10655,85 +10417,82 @@
         <v>0.96170909999999998</v>
       </c>
       <c r="Q79" s="4">
-        <v>9.3241599999999994E-2</v>
+        <v>35.200802000000003</v>
       </c>
       <c r="R79" s="4">
-        <v>35.200802000000003</v>
+        <v>7.0997310000000002</v>
       </c>
       <c r="S79" s="4">
-        <v>7.0997310000000002</v>
+        <v>0.17721000000000001</v>
       </c>
       <c r="T79" s="4">
-        <v>0.17721000000000001</v>
+        <v>0.10932</v>
       </c>
       <c r="U79" s="4">
-        <v>0.10932</v>
+        <v>2.8930000000000001E-2</v>
       </c>
       <c r="V79" s="4">
-        <v>2.8930000000000001E-2</v>
+        <v>4.4420000000000001E-2</v>
       </c>
       <c r="W79" s="4">
-        <v>4.4420000000000001E-2</v>
+        <v>0.17954999999999999</v>
       </c>
       <c r="X79" s="4">
-        <v>0.17954999999999999</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="Y79" s="4">
-        <v>0.11799999999999999</v>
+        <v>3.4851430000000003E-2</v>
       </c>
       <c r="Z79" s="4">
-        <v>3.4851430000000003E-2</v>
+        <v>2.544799E-2</v>
       </c>
       <c r="AA79" s="4">
-        <v>2.544799E-2</v>
+        <v>1.1259758E-2</v>
       </c>
       <c r="AB79" s="4">
-        <v>1.1259758E-2</v>
+        <v>2.1074842E-2</v>
       </c>
       <c r="AC79" s="4">
-        <v>2.1074842E-2</v>
+        <v>3.6625191000000001E-2</v>
       </c>
       <c r="AD79" s="4">
-        <v>3.6625191000000001E-2</v>
+        <v>3.3041630000000002E-2</v>
       </c>
       <c r="AE79" s="4">
-        <v>3.3041630000000002E-2</v>
+        <v>9.4682910000000007</v>
       </c>
       <c r="AF79" s="4">
-        <v>9.4682910000000007</v>
+        <v>24.392610000000001</v>
       </c>
       <c r="AG79" s="4">
-        <v>24.392610000000001</v>
+        <v>3.54</v>
       </c>
       <c r="AH79" s="4">
-        <v>3.54</v>
+        <v>12.15</v>
       </c>
       <c r="AI79" s="4">
-        <v>12.15</v>
+        <v>1.535595</v>
       </c>
       <c r="AJ79" s="4">
-        <v>1.535595</v>
+        <v>0.61689689999999997</v>
       </c>
       <c r="AK79" s="4">
-        <v>0.61689689999999997</v>
-      </c>
-      <c r="AL79" s="4">
         <v>0.65718169999999998</v>
       </c>
+      <c r="AL79" s="2">
+        <v>4.3919259999999998</v>
+      </c>
       <c r="AM79" s="2">
-        <v>4.3919259999999998</v>
+        <v>2.0507445999999998</v>
       </c>
       <c r="AN79" s="2">
-        <v>2.0507445999999998</v>
+        <v>6.8707830000000003</v>
       </c>
       <c r="AO79" s="2">
-        <v>6.8707830000000003</v>
-      </c>
-      <c r="AP79" s="2">
         <v>3.1350061</v>
       </c>
     </row>
-    <row r="80" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -10783,85 +10542,82 @@
         <v>0.8580411</v>
       </c>
       <c r="Q80" s="4">
-        <v>9.2436199999999996E-2</v>
+        <v>69.775530000000003</v>
       </c>
       <c r="R80" s="4">
-        <v>69.775530000000003</v>
+        <v>25.252731000000001</v>
       </c>
       <c r="S80" s="4">
-        <v>25.252731000000001</v>
+        <v>0.1502619</v>
       </c>
       <c r="T80" s="4">
-        <v>0.1502619</v>
+        <v>0.1210171</v>
       </c>
       <c r="U80" s="4">
-        <v>0.1210171</v>
+        <v>1.4880000000000001E-2</v>
       </c>
       <c r="V80" s="4">
-        <v>1.4880000000000001E-2</v>
+        <v>2.7279999999999999E-2</v>
       </c>
       <c r="W80" s="4">
-        <v>2.7279999999999999E-2</v>
+        <v>0.1509971</v>
       </c>
       <c r="X80" s="4">
-        <v>0.1509971</v>
+        <v>0.1240542</v>
       </c>
       <c r="Y80" s="4">
-        <v>0.1240542</v>
+        <v>2.1128910000000001E-2</v>
       </c>
       <c r="Z80" s="4">
-        <v>2.1128910000000001E-2</v>
+        <v>2.6130110000000002E-2</v>
       </c>
       <c r="AA80" s="4">
-        <v>2.6130110000000002E-2</v>
+        <v>7.2939229999999999E-3</v>
       </c>
       <c r="AB80" s="4">
-        <v>7.2939229999999999E-3</v>
+        <v>1.2405965E-2</v>
       </c>
       <c r="AC80" s="4">
-        <v>1.2405965E-2</v>
+        <v>2.2352450999999999E-2</v>
       </c>
       <c r="AD80" s="4">
-        <v>2.2352450999999999E-2</v>
+        <v>2.8925610000000001E-2</v>
       </c>
       <c r="AE80" s="4">
-        <v>2.8925610000000001E-2</v>
+        <v>5.8445320000000001</v>
       </c>
       <c r="AF80" s="4">
-        <v>5.8445320000000001</v>
+        <v>14.571059999999999</v>
       </c>
       <c r="AG80" s="4">
-        <v>14.571059999999999</v>
+        <v>3.630207</v>
       </c>
       <c r="AH80" s="4">
-        <v>3.630207</v>
+        <v>5.7614369999999999</v>
       </c>
       <c r="AI80" s="4">
-        <v>5.7614369999999999</v>
+        <v>1.833169</v>
       </c>
       <c r="AJ80" s="4">
-        <v>1.833169</v>
+        <v>0.80537460000000005</v>
       </c>
       <c r="AK80" s="4">
-        <v>0.80537460000000005</v>
-      </c>
-      <c r="AL80" s="4">
         <v>0.82156689999999999</v>
       </c>
+      <c r="AL80" s="2">
+        <v>5.3023400000000001</v>
+      </c>
       <c r="AM80" s="2">
-        <v>5.3023400000000001</v>
+        <v>2.9260790000000001</v>
       </c>
       <c r="AN80" s="2">
-        <v>2.9260790000000001</v>
+        <v>9.7872299999999992</v>
       </c>
       <c r="AO80" s="2">
-        <v>9.7872299999999992</v>
-      </c>
-      <c r="AP80" s="2">
         <v>4.6034737999999997</v>
       </c>
     </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -10911,85 +10667,82 @@
         <v>1.1476483</v>
       </c>
       <c r="Q81" s="4">
-        <v>6.0534200000000003E-2</v>
+        <v>77.694389999999999</v>
       </c>
       <c r="R81" s="4">
-        <v>77.694389999999999</v>
+        <v>13.975110000000001</v>
       </c>
       <c r="S81" s="4">
-        <v>13.975110000000001</v>
+        <v>0.18315500000000001</v>
       </c>
       <c r="T81" s="4">
-        <v>0.18315500000000001</v>
+        <v>0.13852800000000001</v>
       </c>
       <c r="U81" s="4">
-        <v>0.13852800000000001</v>
+        <v>1.8667E-2</v>
       </c>
       <c r="V81" s="4">
-        <v>1.8667E-2</v>
+        <v>3.9700689999999997E-2</v>
       </c>
       <c r="W81" s="4">
-        <v>3.9700689999999997E-2</v>
+        <v>0.18410380000000001</v>
       </c>
       <c r="X81" s="4">
-        <v>0.18410380000000001</v>
+        <v>0.1441046</v>
       </c>
       <c r="Y81" s="4">
-        <v>0.1441046</v>
+        <v>3.4333019999999999E-2</v>
       </c>
       <c r="Z81" s="4">
-        <v>3.4333019999999999E-2</v>
+        <v>3.3687809999999999E-2</v>
       </c>
       <c r="AA81" s="4">
-        <v>3.3687809999999999E-2</v>
+        <v>7.7280049999999996E-3</v>
       </c>
       <c r="AB81" s="4">
-        <v>7.7280049999999996E-3</v>
+        <v>1.7045589E-2</v>
       </c>
       <c r="AC81" s="4">
-        <v>1.7045589E-2</v>
+        <v>3.5192023000000003E-2</v>
       </c>
       <c r="AD81" s="4">
-        <v>3.5192023000000003E-2</v>
+        <v>3.7754740000000002E-2</v>
       </c>
       <c r="AE81" s="4">
-        <v>3.7754740000000002E-2</v>
+        <v>7.4863939999999998</v>
       </c>
       <c r="AF81" s="4">
-        <v>7.4863939999999998</v>
+        <v>15.133929999999999</v>
       </c>
       <c r="AG81" s="4">
-        <v>15.133929999999999</v>
+        <v>3.5538270000000001</v>
       </c>
       <c r="AH81" s="4">
-        <v>3.5538270000000001</v>
+        <v>9.8919139999999999</v>
       </c>
       <c r="AI81" s="4">
-        <v>9.8919139999999999</v>
+        <v>2.1267480000000001</v>
       </c>
       <c r="AJ81" s="4">
-        <v>2.1267480000000001</v>
+        <v>0.84323139999999996</v>
       </c>
       <c r="AK81" s="4">
-        <v>0.84323139999999996</v>
-      </c>
-      <c r="AL81" s="4">
         <v>0.78273570000000003</v>
       </c>
+      <c r="AL81" s="2">
+        <v>6.8773879999999998</v>
+      </c>
       <c r="AM81" s="2">
-        <v>6.8773879999999998</v>
+        <v>3.7229215999999998</v>
       </c>
       <c r="AN81" s="2">
-        <v>3.7229215999999998</v>
+        <v>10.620908</v>
       </c>
       <c r="AO81" s="2">
-        <v>10.620908</v>
-      </c>
-      <c r="AP81" s="2">
         <v>3.9819133</v>
       </c>
     </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -11039,85 +10792,82 @@
         <v>0.96456940000000002</v>
       </c>
       <c r="Q82" s="4">
-        <v>5.8435599999999997E-2</v>
+        <v>87.994529999999997</v>
       </c>
       <c r="R82" s="4">
-        <v>87.994529999999997</v>
+        <v>16.029530000000001</v>
       </c>
       <c r="S82" s="4">
-        <v>16.029530000000001</v>
+        <v>0.17395859999999999</v>
       </c>
       <c r="T82" s="4">
-        <v>0.17395859999999999</v>
+        <v>0.14442679999999999</v>
       </c>
       <c r="U82" s="4">
-        <v>0.14442679999999999</v>
+        <v>2.5454689999999999E-2</v>
       </c>
       <c r="V82" s="4">
-        <v>2.5454689999999999E-2</v>
+        <v>4.6888779999999998E-2</v>
       </c>
       <c r="W82" s="4">
-        <v>4.6888779999999998E-2</v>
+        <v>0.1758111</v>
       </c>
       <c r="X82" s="4">
-        <v>0.1758111</v>
+        <v>0.1518475</v>
       </c>
       <c r="Y82" s="4">
-        <v>0.1518475</v>
+        <v>3.6133129999999999E-2</v>
       </c>
       <c r="Z82" s="4">
-        <v>3.6133129999999999E-2</v>
+        <v>5.9908450000000002E-2</v>
       </c>
       <c r="AA82" s="4">
-        <v>5.9908450000000002E-2</v>
+        <v>1.2043267E-2</v>
       </c>
       <c r="AB82" s="4">
-        <v>1.2043267E-2</v>
+        <v>1.7999771000000001E-2</v>
       </c>
       <c r="AC82" s="4">
-        <v>1.7999771000000001E-2</v>
+        <v>3.8087309E-2</v>
       </c>
       <c r="AD82" s="4">
-        <v>3.8087309E-2</v>
+        <v>6.2554090000000007E-2</v>
       </c>
       <c r="AE82" s="4">
-        <v>6.2554090000000007E-2</v>
+        <v>8.7410099999999993</v>
       </c>
       <c r="AF82" s="4">
-        <v>8.7410099999999993</v>
+        <v>16.125979999999998</v>
       </c>
       <c r="AG82" s="4">
-        <v>16.125979999999998</v>
+        <v>4.1225269999999998</v>
       </c>
       <c r="AH82" s="4">
-        <v>4.1225269999999998</v>
+        <v>9.6537679999999995</v>
       </c>
       <c r="AI82" s="4">
-        <v>9.6537679999999995</v>
+        <v>1.842049</v>
       </c>
       <c r="AJ82" s="4">
-        <v>1.842049</v>
+        <v>0.83023659999999999</v>
       </c>
       <c r="AK82" s="4">
-        <v>0.83023659999999999</v>
-      </c>
-      <c r="AL82" s="4">
         <v>0.86369680000000004</v>
       </c>
+      <c r="AL82" s="2">
+        <v>7.6207979999999997</v>
+      </c>
       <c r="AM82" s="2">
-        <v>7.6207979999999997</v>
+        <v>3.7615696999999999</v>
       </c>
       <c r="AN82" s="2">
-        <v>3.7615696999999999</v>
+        <v>14.181094999999999</v>
       </c>
       <c r="AO82" s="2">
-        <v>14.181094999999999</v>
-      </c>
-      <c r="AP82" s="2">
         <v>6.0908832000000004</v>
       </c>
     </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -11167,85 +10917,82 @@
         <v>1.0809693</v>
       </c>
       <c r="Q83" s="4">
-        <v>0.11773790000000001</v>
+        <v>87.565780000000004</v>
       </c>
       <c r="R83" s="4">
-        <v>87.565780000000004</v>
+        <v>19.975729999999999</v>
       </c>
       <c r="S83" s="4">
-        <v>19.975729999999999</v>
+        <v>0.19422300000000001</v>
       </c>
       <c r="T83" s="4">
-        <v>0.19422300000000001</v>
+        <v>0.1578698</v>
       </c>
       <c r="U83" s="4">
-        <v>0.1578698</v>
+        <v>2.5313220000000001E-2</v>
       </c>
       <c r="V83" s="4">
-        <v>2.5313220000000001E-2</v>
+        <v>3.686304E-2</v>
       </c>
       <c r="W83" s="4">
-        <v>3.686304E-2</v>
+        <v>0.1958656</v>
       </c>
       <c r="X83" s="4">
-        <v>0.1958656</v>
+        <v>0.1621165</v>
       </c>
       <c r="Y83" s="4">
-        <v>0.1621165</v>
+        <v>3.1583350000000003E-2</v>
       </c>
       <c r="Z83" s="4">
-        <v>3.1583350000000003E-2</v>
+        <v>3.0383110000000001E-2</v>
       </c>
       <c r="AA83" s="4">
-        <v>3.0383110000000001E-2</v>
+        <v>2.0938961999999998E-2</v>
       </c>
       <c r="AB83" s="4">
-        <v>2.0938961999999998E-2</v>
+        <v>2.9491122000000002E-2</v>
       </c>
       <c r="AC83" s="4">
-        <v>2.9491122000000002E-2</v>
+        <v>3.7893909000000003E-2</v>
       </c>
       <c r="AD83" s="4">
-        <v>3.7893909000000003E-2</v>
+        <v>4.2342169999999998E-2</v>
       </c>
       <c r="AE83" s="4">
-        <v>4.2342169999999998E-2</v>
+        <v>7.3900490000000003</v>
       </c>
       <c r="AF83" s="4">
-        <v>7.3900490000000003</v>
+        <v>13.368359999999999</v>
       </c>
       <c r="AG83" s="4">
-        <v>13.368359999999999</v>
+        <v>5.7743289999999998</v>
       </c>
       <c r="AH83" s="4">
-        <v>5.7743289999999998</v>
+        <v>7.6787080000000003</v>
       </c>
       <c r="AI83" s="4">
-        <v>7.6787080000000003</v>
+        <v>1.4562759999999999</v>
       </c>
       <c r="AJ83" s="4">
-        <v>1.4562759999999999</v>
+        <v>0.81282750000000004</v>
       </c>
       <c r="AK83" s="4">
-        <v>0.81282750000000004</v>
-      </c>
-      <c r="AL83" s="4">
         <v>0.82769250000000005</v>
       </c>
+      <c r="AL83" s="2">
+        <v>7.202979</v>
+      </c>
       <c r="AM83" s="2">
-        <v>7.202979</v>
+        <v>4.0147596999999999</v>
       </c>
       <c r="AN83" s="2">
-        <v>4.0147596999999999</v>
+        <v>13.672800000000001</v>
       </c>
       <c r="AO83" s="2">
-        <v>13.672800000000001</v>
-      </c>
-      <c r="AP83" s="2">
         <v>5.1499949999999997</v>
       </c>
     </row>
-    <row r="84" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -11295,85 +11042,82 @@
         <v>1.1129203999999999</v>
       </c>
       <c r="Q84" s="4">
-        <v>0.10219259999999999</v>
+        <v>88.404480000000007</v>
       </c>
       <c r="R84" s="4">
-        <v>88.404480000000007</v>
+        <v>15.68892</v>
       </c>
       <c r="S84" s="4">
-        <v>15.68892</v>
+        <v>0.20955650000000001</v>
       </c>
       <c r="T84" s="4">
-        <v>0.20955650000000001</v>
+        <v>0.17881630000000001</v>
       </c>
       <c r="U84" s="4">
-        <v>0.17881630000000001</v>
+        <v>0.02</v>
       </c>
       <c r="V84" s="4">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="W84" s="4">
-        <v>0.03</v>
+        <v>0.21022370000000001</v>
       </c>
       <c r="X84" s="4">
-        <v>0.21022370000000001</v>
+        <v>0.18124170000000001</v>
       </c>
       <c r="Y84" s="4">
-        <v>0.18124170000000001</v>
+        <v>4.452221E-2</v>
       </c>
       <c r="Z84" s="4">
-        <v>4.452221E-2</v>
+        <v>3.7674760000000002E-2</v>
       </c>
       <c r="AA84" s="4">
-        <v>3.7674760000000002E-2</v>
+        <v>1.1604903999999999E-2</v>
       </c>
       <c r="AB84" s="4">
-        <v>1.1604903999999999E-2</v>
+        <v>2.1142393999999998E-2</v>
       </c>
       <c r="AC84" s="4">
-        <v>2.1142393999999998E-2</v>
+        <v>4.6009793E-2</v>
       </c>
       <c r="AD84" s="4">
-        <v>4.6009793E-2</v>
+        <v>4.3201719999999999E-2</v>
       </c>
       <c r="AE84" s="4">
-        <v>4.3201719999999999E-2</v>
+        <v>6.8178840000000003</v>
       </c>
       <c r="AF84" s="4">
-        <v>6.8178840000000003</v>
+        <v>12.219049999999999</v>
       </c>
       <c r="AG84" s="4">
-        <v>12.219049999999999</v>
+        <v>7.5117979999999998</v>
       </c>
       <c r="AH84" s="4">
-        <v>7.5117979999999998</v>
+        <v>10.060216</v>
       </c>
       <c r="AI84" s="4">
-        <v>10.060216</v>
+        <v>1.7657579999999999</v>
       </c>
       <c r="AJ84" s="4">
-        <v>1.7657579999999999</v>
+        <v>0.85330819999999996</v>
       </c>
       <c r="AK84" s="4">
-        <v>0.85330819999999996</v>
-      </c>
-      <c r="AL84" s="4">
         <v>0.86213740000000005</v>
       </c>
+      <c r="AL84" s="2">
+        <v>8.6056720000000002</v>
+      </c>
       <c r="AM84" s="2">
-        <v>8.6056720000000002</v>
+        <v>4.1084205000000003</v>
       </c>
       <c r="AN84" s="2">
-        <v>4.1084205000000003</v>
+        <v>14.921784000000001</v>
       </c>
       <c r="AO84" s="2">
-        <v>14.921784000000001</v>
-      </c>
-      <c r="AP84" s="2">
         <v>5.9742280000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -11423,85 +11167,82 @@
         <v>0.87734160000000005</v>
       </c>
       <c r="Q85" s="4">
-        <v>8.4352899999999995E-2</v>
+        <v>89</v>
       </c>
       <c r="R85" s="4">
-        <v>89</v>
+        <v>7.3387630000000001</v>
       </c>
       <c r="S85" s="4">
-        <v>7.3387630000000001</v>
+        <v>0.19199350000000001</v>
       </c>
       <c r="T85" s="4">
-        <v>0.19199350000000001</v>
+        <v>0.16828799999999999</v>
       </c>
       <c r="U85" s="4">
-        <v>0.16828799999999999</v>
+        <v>0.02</v>
       </c>
       <c r="V85" s="4">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="W85" s="4">
-        <v>0.03</v>
+        <v>0.1925829</v>
       </c>
       <c r="X85" s="4">
-        <v>0.1925829</v>
+        <v>0.1715489</v>
       </c>
       <c r="Y85" s="4">
-        <v>0.1715489</v>
+        <v>3.2550780000000001E-2</v>
       </c>
       <c r="Z85" s="4">
-        <v>3.2550780000000001E-2</v>
+        <v>5.5245280000000001E-2</v>
       </c>
       <c r="AA85" s="4">
-        <v>5.5245280000000001E-2</v>
+        <v>7.2208630000000001E-3</v>
       </c>
       <c r="AB85" s="4">
-        <v>7.2208630000000001E-3</v>
+        <v>2.2558109E-2</v>
       </c>
       <c r="AC85" s="4">
-        <v>2.2558109E-2</v>
+        <v>3.3342075999999998E-2</v>
       </c>
       <c r="AD85" s="4">
-        <v>3.3342075999999998E-2</v>
+        <v>5.967335E-2</v>
       </c>
       <c r="AE85" s="4">
-        <v>5.967335E-2</v>
+        <v>4.8416680000000003</v>
       </c>
       <c r="AF85" s="4">
-        <v>4.8416680000000003</v>
+        <v>12.70696</v>
       </c>
       <c r="AG85" s="4">
-        <v>12.70696</v>
+        <v>2.411931</v>
       </c>
       <c r="AH85" s="4">
-        <v>2.411931</v>
+        <v>10.211277000000001</v>
       </c>
       <c r="AI85" s="4">
-        <v>10.211277000000001</v>
+        <v>2.2111869999999998</v>
       </c>
       <c r="AJ85" s="4">
-        <v>2.2111869999999998</v>
+        <v>0.87652969999999997</v>
       </c>
       <c r="AK85" s="4">
-        <v>0.87652969999999997</v>
-      </c>
-      <c r="AL85" s="4">
         <v>0.89077949999999995</v>
       </c>
+      <c r="AL85" s="2">
+        <v>11.258915999999999</v>
+      </c>
       <c r="AM85" s="2">
-        <v>11.258915999999999</v>
+        <v>4.6822369999999998</v>
       </c>
       <c r="AN85" s="2">
-        <v>4.6822369999999998</v>
+        <v>18.040579999999999</v>
       </c>
       <c r="AO85" s="2">
-        <v>18.040579999999999</v>
-      </c>
-      <c r="AP85" s="2">
         <v>11.269866800000001</v>
       </c>
     </row>
-    <row r="86" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
     </row>
   </sheetData>
